--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koval_000\Documents\GitHub\HRS\data-phi-free\raw\renaming-rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cassandrabrown/Github/HRS/data-phi-free/raw/renaming-rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="loneliness" sheetId="1" r:id="rId1"/>
+    <sheet name="lifesatisfaction" sheetId="2" r:id="rId2"/>
+    <sheet name="socialnetwork" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">loneliness!$A$1:$D$42</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="207">
   <si>
     <t>year</t>
   </si>
@@ -195,6 +203,459 @@
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>lifesatisfaction_1</t>
+  </si>
+  <si>
+    <t>lifesatisfaction_2</t>
+  </si>
+  <si>
+    <t>jlb505c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jlb505b </t>
+  </si>
+  <si>
+    <t>jlb505a</t>
+  </si>
+  <si>
+    <t>lifesatisfaction_3</t>
+  </si>
+  <si>
+    <t>jlb505d</t>
+  </si>
+  <si>
+    <t>lifesatisfaction_4</t>
+  </si>
+  <si>
+    <t>lifesatisfaction_5</t>
+  </si>
+  <si>
+    <t>jlb505e</t>
+  </si>
+  <si>
+    <t>klb003a</t>
+  </si>
+  <si>
+    <t>klb003b</t>
+  </si>
+  <si>
+    <t>klb003c</t>
+  </si>
+  <si>
+    <t>klb003d</t>
+  </si>
+  <si>
+    <t>klb003e</t>
+  </si>
+  <si>
+    <t>mlb003a</t>
+  </si>
+  <si>
+    <t>llb003a</t>
+  </si>
+  <si>
+    <t>llb003b</t>
+  </si>
+  <si>
+    <t>llb003c</t>
+  </si>
+  <si>
+    <t>llb003d</t>
+  </si>
+  <si>
+    <t>llb003e</t>
+  </si>
+  <si>
+    <t>mlb003b</t>
+  </si>
+  <si>
+    <t>mlb003c</t>
+  </si>
+  <si>
+    <t>mlb003d</t>
+  </si>
+  <si>
+    <t>mlb003e</t>
+  </si>
+  <si>
+    <t>nlb003a</t>
+  </si>
+  <si>
+    <t>nlb003b</t>
+  </si>
+  <si>
+    <t>nlb003c</t>
+  </si>
+  <si>
+    <t>nlb003d</t>
+  </si>
+  <si>
+    <t>nlb003e</t>
+  </si>
+  <si>
+    <t>olb002a</t>
+  </si>
+  <si>
+    <t>olb002b</t>
+  </si>
+  <si>
+    <t>olb002c</t>
+  </si>
+  <si>
+    <t>olb002d</t>
+  </si>
+  <si>
+    <t>olb002e</t>
+  </si>
+  <si>
+    <t>snspouse</t>
+  </si>
+  <si>
+    <t>snchild</t>
+  </si>
+  <si>
+    <t>snfamily</t>
+  </si>
+  <si>
+    <t>snfriends</t>
+  </si>
+  <si>
+    <t>jlb507</t>
+  </si>
+  <si>
+    <t>jlb510</t>
+  </si>
+  <si>
+    <t>jlb514</t>
+  </si>
+  <si>
+    <t>jlb518</t>
+  </si>
+  <si>
+    <t>closespouse</t>
+  </si>
+  <si>
+    <t>closechild</t>
+  </si>
+  <si>
+    <t>closefam</t>
+  </si>
+  <si>
+    <t>closefri</t>
+  </si>
+  <si>
+    <t>mtchild</t>
+  </si>
+  <si>
+    <t>spkchild</t>
+  </si>
+  <si>
+    <t>wrtchild</t>
+  </si>
+  <si>
+    <t>mtfam</t>
+  </si>
+  <si>
+    <t>spkfam</t>
+  </si>
+  <si>
+    <t>wrtfam</t>
+  </si>
+  <si>
+    <t>mtfriend</t>
+  </si>
+  <si>
+    <t>spkfriend</t>
+  </si>
+  <si>
+    <t>wrtfriend</t>
+  </si>
+  <si>
+    <t>ssup1sp</t>
+  </si>
+  <si>
+    <t>ssup2sp</t>
+  </si>
+  <si>
+    <t>ssup3sp</t>
+  </si>
+  <si>
+    <t>ssup5sp</t>
+  </si>
+  <si>
+    <t>jlb509</t>
+  </si>
+  <si>
+    <t>jlb513</t>
+  </si>
+  <si>
+    <t>jlb517</t>
+  </si>
+  <si>
+    <t>jlb521</t>
+  </si>
+  <si>
+    <t>jlb512a</t>
+  </si>
+  <si>
+    <t>jlb512b</t>
+  </si>
+  <si>
+    <t>jlb512c</t>
+  </si>
+  <si>
+    <t>jlb516a</t>
+  </si>
+  <si>
+    <t>jlb516b</t>
+  </si>
+  <si>
+    <t>jlb516c</t>
+  </si>
+  <si>
+    <t>jlb520a</t>
+  </si>
+  <si>
+    <t>jlb520b</t>
+  </si>
+  <si>
+    <t>jlb520c</t>
+  </si>
+  <si>
+    <t>jlb508a</t>
+  </si>
+  <si>
+    <t>jlb508b</t>
+  </si>
+  <si>
+    <t>jlb508c</t>
+  </si>
+  <si>
+    <t>jlb508d</t>
+  </si>
+  <si>
+    <t>jlb508e</t>
+  </si>
+  <si>
+    <t>ssup6sp</t>
+  </si>
+  <si>
+    <t>ssup7sp</t>
+  </si>
+  <si>
+    <t>jlb508f</t>
+  </si>
+  <si>
+    <t>jlb511a</t>
+  </si>
+  <si>
+    <t>ssup1ch</t>
+  </si>
+  <si>
+    <t>jlb511b</t>
+  </si>
+  <si>
+    <t>ssup2ch</t>
+  </si>
+  <si>
+    <t>jlb511c</t>
+  </si>
+  <si>
+    <t>ssup3ch</t>
+  </si>
+  <si>
+    <t>jlb511d</t>
+  </si>
+  <si>
+    <t>ssup5ch</t>
+  </si>
+  <si>
+    <t>jlb511e</t>
+  </si>
+  <si>
+    <t>ssup6ch</t>
+  </si>
+  <si>
+    <t>jlb511f</t>
+  </si>
+  <si>
+    <t>ssup7ch</t>
+  </si>
+  <si>
+    <t>jlb515a</t>
+  </si>
+  <si>
+    <t>ssup1fam</t>
+  </si>
+  <si>
+    <t>jlb515b</t>
+  </si>
+  <si>
+    <t>ssup2fam</t>
+  </si>
+  <si>
+    <t>ssup3fam</t>
+  </si>
+  <si>
+    <t>jlb515c</t>
+  </si>
+  <si>
+    <t>jlb515d</t>
+  </si>
+  <si>
+    <t>ssup5fam</t>
+  </si>
+  <si>
+    <t>jlb515e</t>
+  </si>
+  <si>
+    <t>ssup6fam</t>
+  </si>
+  <si>
+    <t>jlb515f</t>
+  </si>
+  <si>
+    <t>ssup7fam</t>
+  </si>
+  <si>
+    <t>jlb519a</t>
+  </si>
+  <si>
+    <t>ssup1fr</t>
+  </si>
+  <si>
+    <t>jlb519b</t>
+  </si>
+  <si>
+    <t>ssup2fr</t>
+  </si>
+  <si>
+    <t>jlb519c</t>
+  </si>
+  <si>
+    <t>ssup3fr</t>
+  </si>
+  <si>
+    <t>jlb519d</t>
+  </si>
+  <si>
+    <t>ssup5fr</t>
+  </si>
+  <si>
+    <t>jlb519e</t>
+  </si>
+  <si>
+    <t>ssup6fr</t>
+  </si>
+  <si>
+    <t>ssup7fr</t>
+  </si>
+  <si>
+    <t>jlb519f</t>
+  </si>
+  <si>
+    <t>klb004</t>
+  </si>
+  <si>
+    <t>klb007</t>
+  </si>
+  <si>
+    <t>klb011</t>
+  </si>
+  <si>
+    <t>klb015</t>
+  </si>
+  <si>
+    <t>klb006</t>
+  </si>
+  <si>
+    <t>klb010</t>
+  </si>
+  <si>
+    <t>klb014</t>
+  </si>
+  <si>
+    <t>klb018</t>
+  </si>
+  <si>
+    <t>klb009a</t>
+  </si>
+  <si>
+    <t>klb009b</t>
+  </si>
+  <si>
+    <t>klb009c</t>
+  </si>
+  <si>
+    <t>klb013a</t>
+  </si>
+  <si>
+    <t>klb013b</t>
+  </si>
+  <si>
+    <t>klb013c</t>
+  </si>
+  <si>
+    <t>klb017a</t>
+  </si>
+  <si>
+    <t>klb017b</t>
+  </si>
+  <si>
+    <t>klb017c</t>
+  </si>
+  <si>
+    <t>llb004</t>
+  </si>
+  <si>
+    <t>llb007</t>
+  </si>
+  <si>
+    <t>llb011</t>
+  </si>
+  <si>
+    <t>llb015</t>
+  </si>
+  <si>
+    <t>llb006</t>
+  </si>
+  <si>
+    <t>llb010</t>
+  </si>
+  <si>
+    <t>llb014</t>
+  </si>
+  <si>
+    <t>llb018</t>
+  </si>
+  <si>
+    <t>llb009a</t>
+  </si>
+  <si>
+    <t>llb009b</t>
+  </si>
+  <si>
+    <t>llb009c</t>
+  </si>
+  <si>
+    <t>llb013a</t>
+  </si>
+  <si>
+    <t>llb013b</t>
+  </si>
+  <si>
+    <t>llb013c</t>
+  </si>
+  <si>
+    <t>llb017a</t>
+  </si>
+  <si>
+    <t>llb017b</t>
+  </si>
+  <si>
+    <t>llb017c</t>
   </si>
 </sst>
 </file>
@@ -230,8 +691,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,22 +974,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +1006,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2004</v>
       </c>
@@ -558,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2004</v>
       </c>
@@ -572,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2004</v>
       </c>
@@ -586,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -597,7 +1059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -611,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -625,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -639,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -653,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -667,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -681,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2008</v>
       </c>
@@ -692,7 +1154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -706,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2008</v>
       </c>
@@ -717,7 +1179,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -728,7 +1190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2008</v>
       </c>
@@ -739,7 +1201,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2008</v>
       </c>
@@ -750,7 +1212,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2008</v>
       </c>
@@ -761,7 +1223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2008</v>
       </c>
@@ -772,7 +1234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2010</v>
       </c>
@@ -786,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2010</v>
       </c>
@@ -800,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2010</v>
       </c>
@@ -814,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -825,7 +1287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -839,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -850,7 +1312,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2010</v>
       </c>
@@ -861,7 +1323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2010</v>
       </c>
@@ -872,7 +1334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2010</v>
       </c>
@@ -883,7 +1345,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2010</v>
       </c>
@@ -894,7 +1356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2010</v>
       </c>
@@ -905,7 +1367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2012</v>
       </c>
@@ -919,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2012</v>
       </c>
@@ -933,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2012</v>
       </c>
@@ -947,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2012</v>
       </c>
@@ -958,7 +1420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2012</v>
       </c>
@@ -972,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2012</v>
       </c>
@@ -983,7 +1445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2012</v>
       </c>
@@ -994,7 +1456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2012</v>
       </c>
@@ -1005,7 +1467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2012</v>
       </c>
@@ -1016,7 +1478,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2012</v>
       </c>
@@ -1027,7 +1489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2012</v>
       </c>
@@ -1038,7 +1500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:D42">
     <filterColumn colId="2">
@@ -1052,4 +1514,1220 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2008</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2008</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2008</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2010</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2010</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2010</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2010</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2012</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2012</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2012</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2012</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2014</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2014</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2014</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2014</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2014</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:A76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2004</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2004</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2004</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2004</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2004</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2004</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2004</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2004</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2004</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2004</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2004</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2004</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2004</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2004</v>
+      </c>
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2004</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2004</v>
+      </c>
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2004</v>
+      </c>
+      <c r="B38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2004</v>
+      </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2004</v>
+      </c>
+      <c r="B40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2004</v>
+      </c>
+      <c r="B41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2004</v>
+      </c>
+      <c r="B42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2006</v>
+      </c>
+      <c r="B43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2006</v>
+      </c>
+      <c r="B44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2006</v>
+      </c>
+      <c r="B45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2006</v>
+      </c>
+      <c r="B46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2006</v>
+      </c>
+      <c r="B47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2006</v>
+      </c>
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2006</v>
+      </c>
+      <c r="B49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2006</v>
+      </c>
+      <c r="B50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2006</v>
+      </c>
+      <c r="B51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2006</v>
+      </c>
+      <c r="B52" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2006</v>
+      </c>
+      <c r="B53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2006</v>
+      </c>
+      <c r="B54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2006</v>
+      </c>
+      <c r="B55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2006</v>
+      </c>
+      <c r="B56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2006</v>
+      </c>
+      <c r="B57" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2006</v>
+      </c>
+      <c r="B58" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2006</v>
+      </c>
+      <c r="B59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2008</v>
+      </c>
+      <c r="B60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2008</v>
+      </c>
+      <c r="B61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2008</v>
+      </c>
+      <c r="B62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2008</v>
+      </c>
+      <c r="B63" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2008</v>
+      </c>
+      <c r="B64" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2008</v>
+      </c>
+      <c r="B65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2008</v>
+      </c>
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2008</v>
+      </c>
+      <c r="B67" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2008</v>
+      </c>
+      <c r="B68" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2008</v>
+      </c>
+      <c r="B70" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2008</v>
+      </c>
+      <c r="B71" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2008</v>
+      </c>
+      <c r="B72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2008</v>
+      </c>
+      <c r="B73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2008</v>
+      </c>
+      <c r="B74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2008</v>
+      </c>
+      <c r="B75" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2008</v>
+      </c>
+      <c r="B76" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -9,12 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20220" activeTab="2"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20220" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="loneliness" sheetId="1" r:id="rId1"/>
     <sheet name="lifesatisfaction" sheetId="2" r:id="rId2"/>
     <sheet name="socialnetwork" sheetId="3" r:id="rId3"/>
+    <sheet name="activity" sheetId="4" r:id="rId4"/>
+    <sheet name="socialsupport" sheetId="5" r:id="rId5"/>
+    <sheet name="wellbeing" sheetId="6" r:id="rId6"/>
+    <sheet name="selfratedmemory" sheetId="7" r:id="rId7"/>
+    <sheet name="wordlist" sheetId="8" r:id="rId8"/>
+    <sheet name="mentalstatus" sheetId="10" r:id="rId9"/>
+    <sheet name="vocabulary" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">loneliness!$A$1:$D$42</definedName>
@@ -35,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="709">
   <si>
     <t>year</t>
   </si>
@@ -656,6 +663,1512 @@
   </si>
   <si>
     <t>llb017c</t>
+  </si>
+  <si>
+    <t>mlb004</t>
+  </si>
+  <si>
+    <t>mlb007</t>
+  </si>
+  <si>
+    <t>mlb011</t>
+  </si>
+  <si>
+    <t>mlb015</t>
+  </si>
+  <si>
+    <t>mlb006</t>
+  </si>
+  <si>
+    <t>mlb010</t>
+  </si>
+  <si>
+    <t>mlb014</t>
+  </si>
+  <si>
+    <t>mlb018</t>
+  </si>
+  <si>
+    <t>mlb009a</t>
+  </si>
+  <si>
+    <t>mlb009b</t>
+  </si>
+  <si>
+    <t>mlb009c</t>
+  </si>
+  <si>
+    <t>mlb013a</t>
+  </si>
+  <si>
+    <t>mlb013b</t>
+  </si>
+  <si>
+    <t>mlb013c</t>
+  </si>
+  <si>
+    <t>mlb017a</t>
+  </si>
+  <si>
+    <t>mlb017b</t>
+  </si>
+  <si>
+    <t>mlb017c</t>
+  </si>
+  <si>
+    <t>nlb004</t>
+  </si>
+  <si>
+    <t>nlb007</t>
+  </si>
+  <si>
+    <t>nlb011</t>
+  </si>
+  <si>
+    <t>nlb015</t>
+  </si>
+  <si>
+    <t>nlb006</t>
+  </si>
+  <si>
+    <t>nlb010</t>
+  </si>
+  <si>
+    <t>nlb014</t>
+  </si>
+  <si>
+    <t>nlb018</t>
+  </si>
+  <si>
+    <t>nlb009a</t>
+  </si>
+  <si>
+    <t>nlb009b</t>
+  </si>
+  <si>
+    <t>nlb009c</t>
+  </si>
+  <si>
+    <t>nlb013a</t>
+  </si>
+  <si>
+    <t>nlb013b</t>
+  </si>
+  <si>
+    <t>nlb013c</t>
+  </si>
+  <si>
+    <t>nlb017a</t>
+  </si>
+  <si>
+    <t>nlb017b</t>
+  </si>
+  <si>
+    <t>nlb017c</t>
+  </si>
+  <si>
+    <t>activity_1</t>
+  </si>
+  <si>
+    <t>jlb502</t>
+  </si>
+  <si>
+    <t>group_participation</t>
+  </si>
+  <si>
+    <t>klb001a</t>
+  </si>
+  <si>
+    <t>newspaper_read</t>
+  </si>
+  <si>
+    <t>klb001b</t>
+  </si>
+  <si>
+    <t>hobby</t>
+  </si>
+  <si>
+    <t>klb001c</t>
+  </si>
+  <si>
+    <t>vacation_US</t>
+  </si>
+  <si>
+    <t>klb001d</t>
+  </si>
+  <si>
+    <t>vacation_abroad</t>
+  </si>
+  <si>
+    <t>klb001e</t>
+  </si>
+  <si>
+    <t>daytrip</t>
+  </si>
+  <si>
+    <t>klb001f</t>
+  </si>
+  <si>
+    <t>use_internet</t>
+  </si>
+  <si>
+    <t>klb001g</t>
+  </si>
+  <si>
+    <t>own_cellphone</t>
+  </si>
+  <si>
+    <t>klb001h</t>
+  </si>
+  <si>
+    <t>none_of_above</t>
+  </si>
+  <si>
+    <t>klb002</t>
+  </si>
+  <si>
+    <t>yes/no responses</t>
+  </si>
+  <si>
+    <t>changed to 1 to 6 scale</t>
+  </si>
+  <si>
+    <t>llb001a</t>
+  </si>
+  <si>
+    <t>llb001b</t>
+  </si>
+  <si>
+    <t>activity_3</t>
+  </si>
+  <si>
+    <t>llb001c</t>
+  </si>
+  <si>
+    <t>activity_4</t>
+  </si>
+  <si>
+    <t>llb001d</t>
+  </si>
+  <si>
+    <t>activity_5</t>
+  </si>
+  <si>
+    <t>llb001e</t>
+  </si>
+  <si>
+    <t>activity_6</t>
+  </si>
+  <si>
+    <t>llb001f</t>
+  </si>
+  <si>
+    <t>activity_7</t>
+  </si>
+  <si>
+    <t>llb001g</t>
+  </si>
+  <si>
+    <t>activity_8</t>
+  </si>
+  <si>
+    <t>llb001h</t>
+  </si>
+  <si>
+    <t>activity_9</t>
+  </si>
+  <si>
+    <t>llb001i</t>
+  </si>
+  <si>
+    <t>activity_11</t>
+  </si>
+  <si>
+    <t>llb001j</t>
+  </si>
+  <si>
+    <t>activity_12</t>
+  </si>
+  <si>
+    <t>llb001k</t>
+  </si>
+  <si>
+    <t>activity_13</t>
+  </si>
+  <si>
+    <t>llb001l</t>
+  </si>
+  <si>
+    <t>activity_14</t>
+  </si>
+  <si>
+    <t>llb001m</t>
+  </si>
+  <si>
+    <t>activity_15</t>
+  </si>
+  <si>
+    <t>llb001n</t>
+  </si>
+  <si>
+    <t>activity_16</t>
+  </si>
+  <si>
+    <t>llb001o</t>
+  </si>
+  <si>
+    <t>activity_17</t>
+  </si>
+  <si>
+    <t>llb001p</t>
+  </si>
+  <si>
+    <t>activity_18</t>
+  </si>
+  <si>
+    <t>llb001q</t>
+  </si>
+  <si>
+    <t>activity_19</t>
+  </si>
+  <si>
+    <t>llb001r</t>
+  </si>
+  <si>
+    <t>activity_20</t>
+  </si>
+  <si>
+    <t>mlb001a</t>
+  </si>
+  <si>
+    <t>mlb001b</t>
+  </si>
+  <si>
+    <t>activity_2</t>
+  </si>
+  <si>
+    <t>mlb001c</t>
+  </si>
+  <si>
+    <t>mlb001d</t>
+  </si>
+  <si>
+    <t>mlb001e</t>
+  </si>
+  <si>
+    <t>mlb001f</t>
+  </si>
+  <si>
+    <t>mlb001g</t>
+  </si>
+  <si>
+    <t>mlb001h</t>
+  </si>
+  <si>
+    <t>mlb001i</t>
+  </si>
+  <si>
+    <t>mlb001j</t>
+  </si>
+  <si>
+    <t>activity_10</t>
+  </si>
+  <si>
+    <t>mlb001k</t>
+  </si>
+  <si>
+    <t>mlb001l</t>
+  </si>
+  <si>
+    <t>mlb001m</t>
+  </si>
+  <si>
+    <t>mlb001n</t>
+  </si>
+  <si>
+    <t>mlb001o</t>
+  </si>
+  <si>
+    <t>mlb001p</t>
+  </si>
+  <si>
+    <t>mlb001q</t>
+  </si>
+  <si>
+    <t>mlb001r</t>
+  </si>
+  <si>
+    <t>mlb001s</t>
+  </si>
+  <si>
+    <t>mlb001t</t>
+  </si>
+  <si>
+    <t>nlb001a</t>
+  </si>
+  <si>
+    <t>nlb001b</t>
+  </si>
+  <si>
+    <t>nlb001c</t>
+  </si>
+  <si>
+    <t>nlb001d</t>
+  </si>
+  <si>
+    <t>nlb001e</t>
+  </si>
+  <si>
+    <t>nlb001f</t>
+  </si>
+  <si>
+    <t>nlb001g</t>
+  </si>
+  <si>
+    <t>nlb001h</t>
+  </si>
+  <si>
+    <t>nlb001i</t>
+  </si>
+  <si>
+    <t>nlb001j</t>
+  </si>
+  <si>
+    <t>nlb001k</t>
+  </si>
+  <si>
+    <t>nlb001l</t>
+  </si>
+  <si>
+    <t>nlb001m</t>
+  </si>
+  <si>
+    <t>nlb001n</t>
+  </si>
+  <si>
+    <t>nlb001o</t>
+  </si>
+  <si>
+    <t>nlb001p</t>
+  </si>
+  <si>
+    <t>nlb001q</t>
+  </si>
+  <si>
+    <t>nlb001r</t>
+  </si>
+  <si>
+    <t>nlb001s</t>
+  </si>
+  <si>
+    <t>nlb001t</t>
+  </si>
+  <si>
+    <t>olb001a</t>
+  </si>
+  <si>
+    <t>olb001b</t>
+  </si>
+  <si>
+    <t>olb001c</t>
+  </si>
+  <si>
+    <t>olb001d</t>
+  </si>
+  <si>
+    <t>olb001e</t>
+  </si>
+  <si>
+    <t>olb001f</t>
+  </si>
+  <si>
+    <t>olb001g</t>
+  </si>
+  <si>
+    <t>olb001h</t>
+  </si>
+  <si>
+    <t>olb001i</t>
+  </si>
+  <si>
+    <t>olb001j</t>
+  </si>
+  <si>
+    <t>olb001k</t>
+  </si>
+  <si>
+    <t>olb001l</t>
+  </si>
+  <si>
+    <t>olb001m</t>
+  </si>
+  <si>
+    <t>olb001n</t>
+  </si>
+  <si>
+    <t>olb001o</t>
+  </si>
+  <si>
+    <t>olb001p</t>
+  </si>
+  <si>
+    <t>olb001q</t>
+  </si>
+  <si>
+    <t>olb001r</t>
+  </si>
+  <si>
+    <t>olb001s</t>
+  </si>
+  <si>
+    <t>olb001t</t>
+  </si>
+  <si>
+    <t>olb001u</t>
+  </si>
+  <si>
+    <t>arts_program</t>
+  </si>
+  <si>
+    <t>Added in 2014</t>
+  </si>
+  <si>
+    <t>klb005a</t>
+  </si>
+  <si>
+    <t>klb005b</t>
+  </si>
+  <si>
+    <t>klb005c</t>
+  </si>
+  <si>
+    <t>klb005d</t>
+  </si>
+  <si>
+    <t>ssup4sp</t>
+  </si>
+  <si>
+    <t>klb005e</t>
+  </si>
+  <si>
+    <t>klb005f</t>
+  </si>
+  <si>
+    <t>klb005g</t>
+  </si>
+  <si>
+    <t>klb008a</t>
+  </si>
+  <si>
+    <t>klb008b</t>
+  </si>
+  <si>
+    <t>klb008c</t>
+  </si>
+  <si>
+    <t>klb008d</t>
+  </si>
+  <si>
+    <t>ssup4ch</t>
+  </si>
+  <si>
+    <t>klb008e</t>
+  </si>
+  <si>
+    <t>klb008f</t>
+  </si>
+  <si>
+    <t>klb008g</t>
+  </si>
+  <si>
+    <t>klb012a</t>
+  </si>
+  <si>
+    <t>klb012b</t>
+  </si>
+  <si>
+    <t>klb012c</t>
+  </si>
+  <si>
+    <t>klb012d</t>
+  </si>
+  <si>
+    <t>ssup4fam</t>
+  </si>
+  <si>
+    <t>klb012e</t>
+  </si>
+  <si>
+    <t>klb012f</t>
+  </si>
+  <si>
+    <t>klb012g</t>
+  </si>
+  <si>
+    <t>klb016a</t>
+  </si>
+  <si>
+    <t>klb016b</t>
+  </si>
+  <si>
+    <t>klb016c</t>
+  </si>
+  <si>
+    <t>klb016d</t>
+  </si>
+  <si>
+    <t>ssup4fr</t>
+  </si>
+  <si>
+    <t>klb016e</t>
+  </si>
+  <si>
+    <t>klb016f</t>
+  </si>
+  <si>
+    <t>klb016g</t>
+  </si>
+  <si>
+    <t>llb005a</t>
+  </si>
+  <si>
+    <t>llb005b</t>
+  </si>
+  <si>
+    <t>llb005c</t>
+  </si>
+  <si>
+    <t>llb005d</t>
+  </si>
+  <si>
+    <t>llb005e</t>
+  </si>
+  <si>
+    <t>llb005f</t>
+  </si>
+  <si>
+    <t>llb005g</t>
+  </si>
+  <si>
+    <t>llb008a</t>
+  </si>
+  <si>
+    <t>llb008b</t>
+  </si>
+  <si>
+    <t>llb008c</t>
+  </si>
+  <si>
+    <t>llb008d</t>
+  </si>
+  <si>
+    <t>llb008e</t>
+  </si>
+  <si>
+    <t>llb008f</t>
+  </si>
+  <si>
+    <t>llb008g</t>
+  </si>
+  <si>
+    <t>llb012a</t>
+  </si>
+  <si>
+    <t>llb012b</t>
+  </si>
+  <si>
+    <t>llb012c</t>
+  </si>
+  <si>
+    <t>llb012d</t>
+  </si>
+  <si>
+    <t>llb012e</t>
+  </si>
+  <si>
+    <t>llb012f</t>
+  </si>
+  <si>
+    <t>llb012g</t>
+  </si>
+  <si>
+    <t>llb016a</t>
+  </si>
+  <si>
+    <t>llb016b</t>
+  </si>
+  <si>
+    <t>llb016c</t>
+  </si>
+  <si>
+    <t>llb016d</t>
+  </si>
+  <si>
+    <t>llb016e</t>
+  </si>
+  <si>
+    <t>llb016f</t>
+  </si>
+  <si>
+    <t>llb016g</t>
+  </si>
+  <si>
+    <t>mlb005a</t>
+  </si>
+  <si>
+    <t>mlb005b</t>
+  </si>
+  <si>
+    <t>mlb005c</t>
+  </si>
+  <si>
+    <t>mlb005d</t>
+  </si>
+  <si>
+    <t>mlb005e</t>
+  </si>
+  <si>
+    <t>mlb005f</t>
+  </si>
+  <si>
+    <t>mlb005g</t>
+  </si>
+  <si>
+    <t>mlb008a</t>
+  </si>
+  <si>
+    <t>mlb008b</t>
+  </si>
+  <si>
+    <t>mlb008c</t>
+  </si>
+  <si>
+    <t>mlb008d</t>
+  </si>
+  <si>
+    <t>mlb008e</t>
+  </si>
+  <si>
+    <t>mlb008f</t>
+  </si>
+  <si>
+    <t>mlb008g</t>
+  </si>
+  <si>
+    <t>mlb012a</t>
+  </si>
+  <si>
+    <t>mlb012b</t>
+  </si>
+  <si>
+    <t>mlb012c</t>
+  </si>
+  <si>
+    <t>mlb012d</t>
+  </si>
+  <si>
+    <t>mlb012e</t>
+  </si>
+  <si>
+    <t>mlb012f</t>
+  </si>
+  <si>
+    <t>mlb012g</t>
+  </si>
+  <si>
+    <t>mlb016a</t>
+  </si>
+  <si>
+    <t>mlb016b</t>
+  </si>
+  <si>
+    <t>mlb016c</t>
+  </si>
+  <si>
+    <t>mlb016d</t>
+  </si>
+  <si>
+    <t>mlb016e</t>
+  </si>
+  <si>
+    <t>mlb016f</t>
+  </si>
+  <si>
+    <t>mlb016g</t>
+  </si>
+  <si>
+    <t>nlb005a</t>
+  </si>
+  <si>
+    <t>nlb005b</t>
+  </si>
+  <si>
+    <t>nlb005c</t>
+  </si>
+  <si>
+    <t>nlb005d</t>
+  </si>
+  <si>
+    <t>nlb005e</t>
+  </si>
+  <si>
+    <t>nlb005f</t>
+  </si>
+  <si>
+    <t>nlb005g</t>
+  </si>
+  <si>
+    <t>nlb008a</t>
+  </si>
+  <si>
+    <t>nlb008b</t>
+  </si>
+  <si>
+    <t>nlb008c</t>
+  </si>
+  <si>
+    <t>nlb008d</t>
+  </si>
+  <si>
+    <t>nlb008e</t>
+  </si>
+  <si>
+    <t>nlb008f</t>
+  </si>
+  <si>
+    <t>nlb008g</t>
+  </si>
+  <si>
+    <t>nlb012a</t>
+  </si>
+  <si>
+    <t>nlb012b</t>
+  </si>
+  <si>
+    <t>nlb012c</t>
+  </si>
+  <si>
+    <t>nlb012d</t>
+  </si>
+  <si>
+    <t>nlb012e</t>
+  </si>
+  <si>
+    <t>nlb012f</t>
+  </si>
+  <si>
+    <t>nlb012g</t>
+  </si>
+  <si>
+    <t>nlb016a</t>
+  </si>
+  <si>
+    <t>nlb016b</t>
+  </si>
+  <si>
+    <t>nlb016c</t>
+  </si>
+  <si>
+    <t>nlb016d</t>
+  </si>
+  <si>
+    <t>nlb016e</t>
+  </si>
+  <si>
+    <t>nlb016f</t>
+  </si>
+  <si>
+    <t>nlb016g</t>
+  </si>
+  <si>
+    <t>olb004a</t>
+  </si>
+  <si>
+    <t>olb004b</t>
+  </si>
+  <si>
+    <t>olb004c</t>
+  </si>
+  <si>
+    <t>olb004d</t>
+  </si>
+  <si>
+    <t>olb004e</t>
+  </si>
+  <si>
+    <t>olb004f</t>
+  </si>
+  <si>
+    <t>olb004g</t>
+  </si>
+  <si>
+    <t>olb007a</t>
+  </si>
+  <si>
+    <t>olb007b</t>
+  </si>
+  <si>
+    <t>olb007c</t>
+  </si>
+  <si>
+    <t>olb007d</t>
+  </si>
+  <si>
+    <t>olb007e</t>
+  </si>
+  <si>
+    <t>olb007f</t>
+  </si>
+  <si>
+    <t>olb007g</t>
+  </si>
+  <si>
+    <t>olb011a</t>
+  </si>
+  <si>
+    <t>olb011b</t>
+  </si>
+  <si>
+    <t>olb011c</t>
+  </si>
+  <si>
+    <t>olb011d</t>
+  </si>
+  <si>
+    <t>olb011e</t>
+  </si>
+  <si>
+    <t>olb011f</t>
+  </si>
+  <si>
+    <t>olb011g</t>
+  </si>
+  <si>
+    <t>olb015a</t>
+  </si>
+  <si>
+    <t>olb015b</t>
+  </si>
+  <si>
+    <t>olb015c</t>
+  </si>
+  <si>
+    <t>olb015d</t>
+  </si>
+  <si>
+    <t>olb015e</t>
+  </si>
+  <si>
+    <t>olb015f</t>
+  </si>
+  <si>
+    <t>olb015g</t>
+  </si>
+  <si>
+    <t>jlb506g</t>
+  </si>
+  <si>
+    <t>wellbeing_1</t>
+  </si>
+  <si>
+    <t>jlb506i</t>
+  </si>
+  <si>
+    <t>wellbeing_5</t>
+  </si>
+  <si>
+    <t>klb035a</t>
+  </si>
+  <si>
+    <t>klb035b</t>
+  </si>
+  <si>
+    <t>wellbeing_2</t>
+  </si>
+  <si>
+    <t>klb035c</t>
+  </si>
+  <si>
+    <t>wellbeing_3</t>
+  </si>
+  <si>
+    <t>klb035d</t>
+  </si>
+  <si>
+    <t>wellbeing_4</t>
+  </si>
+  <si>
+    <t>klb035e</t>
+  </si>
+  <si>
+    <t>klb035f</t>
+  </si>
+  <si>
+    <t>wellbeing_6</t>
+  </si>
+  <si>
+    <t>klb035g</t>
+  </si>
+  <si>
+    <t>wellbeing_7</t>
+  </si>
+  <si>
+    <t>llb035a</t>
+  </si>
+  <si>
+    <t>llb035b</t>
+  </si>
+  <si>
+    <t>llb035c</t>
+  </si>
+  <si>
+    <t>llb035d</t>
+  </si>
+  <si>
+    <t>llb035e</t>
+  </si>
+  <si>
+    <t>llb035f</t>
+  </si>
+  <si>
+    <t>llb035g</t>
+  </si>
+  <si>
+    <t>mlb035a</t>
+  </si>
+  <si>
+    <t>mlb035b</t>
+  </si>
+  <si>
+    <t>mlb035c</t>
+  </si>
+  <si>
+    <t>mlb035d</t>
+  </si>
+  <si>
+    <t>mlb035e</t>
+  </si>
+  <si>
+    <t>mlb035f</t>
+  </si>
+  <si>
+    <t>mlb035g</t>
+  </si>
+  <si>
+    <t>nlb035a</t>
+  </si>
+  <si>
+    <t>nlb035b</t>
+  </si>
+  <si>
+    <t>nlb035c</t>
+  </si>
+  <si>
+    <t>nlb035d</t>
+  </si>
+  <si>
+    <t>nlb035e</t>
+  </si>
+  <si>
+    <t>nlb035f</t>
+  </si>
+  <si>
+    <t>nlb035g</t>
+  </si>
+  <si>
+    <t>olb033a</t>
+  </si>
+  <si>
+    <t>olb033b</t>
+  </si>
+  <si>
+    <t>olb033c</t>
+  </si>
+  <si>
+    <t>olb033d</t>
+  </si>
+  <si>
+    <t>olb033e</t>
+  </si>
+  <si>
+    <t>olb033f</t>
+  </si>
+  <si>
+    <t>olb033g</t>
+  </si>
+  <si>
+    <t>jd101</t>
+  </si>
+  <si>
+    <t>srmemory</t>
+  </si>
+  <si>
+    <t>jd102</t>
+  </si>
+  <si>
+    <t>srmemoryp</t>
+  </si>
+  <si>
+    <t>kd101</t>
+  </si>
+  <si>
+    <t>kd102</t>
+  </si>
+  <si>
+    <t>ld101</t>
+  </si>
+  <si>
+    <t>ld102</t>
+  </si>
+  <si>
+    <t>md101</t>
+  </si>
+  <si>
+    <t>md102</t>
+  </si>
+  <si>
+    <t>nd101</t>
+  </si>
+  <si>
+    <t>nd102</t>
+  </si>
+  <si>
+    <t>od101</t>
+  </si>
+  <si>
+    <t>od102</t>
+  </si>
+  <si>
+    <t>jd104</t>
+  </si>
+  <si>
+    <t>listassi</t>
+  </si>
+  <si>
+    <t>jd174</t>
+  </si>
+  <si>
+    <t>wrectoti</t>
+  </si>
+  <si>
+    <t>jd175</t>
+  </si>
+  <si>
+    <t>wrecwrongim</t>
+  </si>
+  <si>
+    <t>jd177</t>
+  </si>
+  <si>
+    <t>wrecnoneim</t>
+  </si>
+  <si>
+    <t>jd184</t>
+  </si>
+  <si>
+    <t>wrectotd</t>
+  </si>
+  <si>
+    <t>jd185</t>
+  </si>
+  <si>
+    <t>jd187</t>
+  </si>
+  <si>
+    <t>wrecwrongd</t>
+  </si>
+  <si>
+    <t>wrecnoned</t>
+  </si>
+  <si>
+    <t>kd104</t>
+  </si>
+  <si>
+    <t>kd174</t>
+  </si>
+  <si>
+    <t>kd175</t>
+  </si>
+  <si>
+    <t>kd177</t>
+  </si>
+  <si>
+    <t>kd184</t>
+  </si>
+  <si>
+    <t>kd185</t>
+  </si>
+  <si>
+    <t>kd187</t>
+  </si>
+  <si>
+    <t>ld104</t>
+  </si>
+  <si>
+    <t>ld174</t>
+  </si>
+  <si>
+    <t>ld175</t>
+  </si>
+  <si>
+    <t>ld177</t>
+  </si>
+  <si>
+    <t>ld184</t>
+  </si>
+  <si>
+    <t>ld185</t>
+  </si>
+  <si>
+    <t>ld187</t>
+  </si>
+  <si>
+    <t>md104</t>
+  </si>
+  <si>
+    <t>md174</t>
+  </si>
+  <si>
+    <t>md175</t>
+  </si>
+  <si>
+    <t>md177</t>
+  </si>
+  <si>
+    <t>md184</t>
+  </si>
+  <si>
+    <t>md185</t>
+  </si>
+  <si>
+    <t>md187</t>
+  </si>
+  <si>
+    <t>nd104</t>
+  </si>
+  <si>
+    <t>nd174</t>
+  </si>
+  <si>
+    <t>nd175</t>
+  </si>
+  <si>
+    <t>nd177</t>
+  </si>
+  <si>
+    <t>nd184</t>
+  </si>
+  <si>
+    <t>nd185</t>
+  </si>
+  <si>
+    <t>nd187</t>
+  </si>
+  <si>
+    <t>od104</t>
+  </si>
+  <si>
+    <t>od174</t>
+  </si>
+  <si>
+    <t>od175</t>
+  </si>
+  <si>
+    <t>od177</t>
+  </si>
+  <si>
+    <t>od184</t>
+  </si>
+  <si>
+    <t>od185</t>
+  </si>
+  <si>
+    <t>od187</t>
+  </si>
+  <si>
+    <t>jd151</t>
+  </si>
+  <si>
+    <t>jd152</t>
+  </si>
+  <si>
+    <t>jd153</t>
+  </si>
+  <si>
+    <t>jd154</t>
+  </si>
+  <si>
+    <t>jd155</t>
+  </si>
+  <si>
+    <t>jd156</t>
+  </si>
+  <si>
+    <t>jd157</t>
+  </si>
+  <si>
+    <t>jd158</t>
+  </si>
+  <si>
+    <t>msmonth</t>
+  </si>
+  <si>
+    <t>msdate</t>
+  </si>
+  <si>
+    <t>msyear</t>
+  </si>
+  <si>
+    <t>msday</t>
+  </si>
+  <si>
+    <t>msnaming1</t>
+  </si>
+  <si>
+    <t>msnaming2</t>
+  </si>
+  <si>
+    <t>mspresident</t>
+  </si>
+  <si>
+    <t>msvp</t>
+  </si>
+  <si>
+    <t>kd151</t>
+  </si>
+  <si>
+    <t>kd152</t>
+  </si>
+  <si>
+    <t>kd153</t>
+  </si>
+  <si>
+    <t>kd154</t>
+  </si>
+  <si>
+    <t>kd155</t>
+  </si>
+  <si>
+    <t>kd156</t>
+  </si>
+  <si>
+    <t>kd157</t>
+  </si>
+  <si>
+    <t>kd158</t>
+  </si>
+  <si>
+    <t>ld151</t>
+  </si>
+  <si>
+    <t>ld152</t>
+  </si>
+  <si>
+    <t>ld153</t>
+  </si>
+  <si>
+    <t>ld154</t>
+  </si>
+  <si>
+    <t>ld155</t>
+  </si>
+  <si>
+    <t>ld156</t>
+  </si>
+  <si>
+    <t>ld157</t>
+  </si>
+  <si>
+    <t>ld158</t>
+  </si>
+  <si>
+    <t>md151</t>
+  </si>
+  <si>
+    <t>md152</t>
+  </si>
+  <si>
+    <t>md153</t>
+  </si>
+  <si>
+    <t>md154</t>
+  </si>
+  <si>
+    <t>md155</t>
+  </si>
+  <si>
+    <t>md156</t>
+  </si>
+  <si>
+    <t>md157</t>
+  </si>
+  <si>
+    <t>md158</t>
+  </si>
+  <si>
+    <t>nd151</t>
+  </si>
+  <si>
+    <t>nd152</t>
+  </si>
+  <si>
+    <t>nd153</t>
+  </si>
+  <si>
+    <t>nd154</t>
+  </si>
+  <si>
+    <t>nd155</t>
+  </si>
+  <si>
+    <t>nd156</t>
+  </si>
+  <si>
+    <t>nd157</t>
+  </si>
+  <si>
+    <t>nd158</t>
+  </si>
+  <si>
+    <t>od151</t>
+  </si>
+  <si>
+    <t>od152</t>
+  </si>
+  <si>
+    <t>od153</t>
+  </si>
+  <si>
+    <t>od154</t>
+  </si>
+  <si>
+    <t>od155</t>
+  </si>
+  <si>
+    <t>od156</t>
+  </si>
+  <si>
+    <t>od157</t>
+  </si>
+  <si>
+    <t>od158</t>
+  </si>
+  <si>
+    <t>jd159</t>
+  </si>
+  <si>
+    <t>voclist</t>
+  </si>
+  <si>
+    <t>jd161</t>
+  </si>
+  <si>
+    <t>vocab1</t>
+  </si>
+  <si>
+    <t>jd163</t>
+  </si>
+  <si>
+    <t>vocab2</t>
+  </si>
+  <si>
+    <t>jd165</t>
+  </si>
+  <si>
+    <t>vocab3</t>
+  </si>
+  <si>
+    <t>jd167</t>
+  </si>
+  <si>
+    <t>vocab4</t>
+  </si>
+  <si>
+    <t>jd169</t>
+  </si>
+  <si>
+    <t>vocab5</t>
+  </si>
+  <si>
+    <t>kd159</t>
+  </si>
+  <si>
+    <t>kd161</t>
+  </si>
+  <si>
+    <t>kd163</t>
+  </si>
+  <si>
+    <t>kd165</t>
+  </si>
+  <si>
+    <t>kd167</t>
+  </si>
+  <si>
+    <t>kd169</t>
+  </si>
+  <si>
+    <t>ld159</t>
+  </si>
+  <si>
+    <t>ld161</t>
+  </si>
+  <si>
+    <t>ld163</t>
+  </si>
+  <si>
+    <t>ld165</t>
+  </si>
+  <si>
+    <t>ld167</t>
+  </si>
+  <si>
+    <t>ld169</t>
+  </si>
+  <si>
+    <t>md159</t>
+  </si>
+  <si>
+    <t>md161</t>
+  </si>
+  <si>
+    <t>md163</t>
+  </si>
+  <si>
+    <t>md165</t>
+  </si>
+  <si>
+    <t>md167</t>
+  </si>
+  <si>
+    <t>nd159</t>
+  </si>
+  <si>
+    <t>nd161</t>
+  </si>
+  <si>
+    <t>nd163</t>
+  </si>
+  <si>
+    <t>nd165</t>
+  </si>
+  <si>
+    <t>nd167</t>
+  </si>
+  <si>
+    <t>od159</t>
+  </si>
+  <si>
+    <t>od161</t>
+  </si>
+  <si>
+    <t>od163</t>
+  </si>
+  <si>
+    <t>od165</t>
+  </si>
+  <si>
+    <t>od167</t>
   </si>
 </sst>
 </file>
@@ -1516,6 +3029,434 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>680</v>
+      </c>
+      <c r="C7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>683</v>
+      </c>
+      <c r="C9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>684</v>
+      </c>
+      <c r="C10" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>685</v>
+      </c>
+      <c r="C11" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>686</v>
+      </c>
+      <c r="C12" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>687</v>
+      </c>
+      <c r="C13" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2008</v>
+      </c>
+      <c r="B14" t="s">
+        <v>688</v>
+      </c>
+      <c r="C14" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15" t="s">
+        <v>689</v>
+      </c>
+      <c r="C15" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2008</v>
+      </c>
+      <c r="B16" t="s">
+        <v>690</v>
+      </c>
+      <c r="C16" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2008</v>
+      </c>
+      <c r="B17" t="s">
+        <v>691</v>
+      </c>
+      <c r="C17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>692</v>
+      </c>
+      <c r="C18" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>693</v>
+      </c>
+      <c r="C19" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2010</v>
+      </c>
+      <c r="B20" t="s">
+        <v>694</v>
+      </c>
+      <c r="C20" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2010</v>
+      </c>
+      <c r="B21" t="s">
+        <v>695</v>
+      </c>
+      <c r="C21" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2010</v>
+      </c>
+      <c r="B22" t="s">
+        <v>696</v>
+      </c>
+      <c r="C22" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2010</v>
+      </c>
+      <c r="B23" t="s">
+        <v>697</v>
+      </c>
+      <c r="C23" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2010</v>
+      </c>
+      <c r="B24" t="s">
+        <v>698</v>
+      </c>
+      <c r="C24" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2010</v>
+      </c>
+      <c r="B25" t="s">
+        <v>694</v>
+      </c>
+      <c r="C25" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2012</v>
+      </c>
+      <c r="B26" t="s">
+        <v>699</v>
+      </c>
+      <c r="C26" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2012</v>
+      </c>
+      <c r="B27" t="s">
+        <v>700</v>
+      </c>
+      <c r="C27" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2012</v>
+      </c>
+      <c r="B28" t="s">
+        <v>701</v>
+      </c>
+      <c r="C28" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2012</v>
+      </c>
+      <c r="B29" t="s">
+        <v>702</v>
+      </c>
+      <c r="C29" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2012</v>
+      </c>
+      <c r="B30" t="s">
+        <v>703</v>
+      </c>
+      <c r="C30" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2012</v>
+      </c>
+      <c r="B31" t="s">
+        <v>699</v>
+      </c>
+      <c r="C31" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2014</v>
+      </c>
+      <c r="B32" t="s">
+        <v>704</v>
+      </c>
+      <c r="C32" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2014</v>
+      </c>
+      <c r="B33" t="s">
+        <v>705</v>
+      </c>
+      <c r="C33" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2014</v>
+      </c>
+      <c r="B34" t="s">
+        <v>706</v>
+      </c>
+      <c r="C34" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2014</v>
+      </c>
+      <c r="B35" t="s">
+        <v>707</v>
+      </c>
+      <c r="C35" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36" t="s">
+        <v>708</v>
+      </c>
+      <c r="C36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2014</v>
+      </c>
+      <c r="B37" t="s">
+        <v>704</v>
+      </c>
+      <c r="C37" t="s">
+        <v>681</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
@@ -1880,10 +3821,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:A76"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2727,6 +4668,4893 @@
         <v>111</v>
       </c>
     </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2010</v>
+      </c>
+      <c r="B77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2010</v>
+      </c>
+      <c r="B78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2010</v>
+      </c>
+      <c r="B79" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2010</v>
+      </c>
+      <c r="B80" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2010</v>
+      </c>
+      <c r="B81" t="s">
+        <v>211</v>
+      </c>
+      <c r="C81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2010</v>
+      </c>
+      <c r="B82" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2010</v>
+      </c>
+      <c r="B83" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2010</v>
+      </c>
+      <c r="B84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2010</v>
+      </c>
+      <c r="B85" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2010</v>
+      </c>
+      <c r="B86" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2010</v>
+      </c>
+      <c r="B87" t="s">
+        <v>217</v>
+      </c>
+      <c r="C87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2010</v>
+      </c>
+      <c r="B88" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2010</v>
+      </c>
+      <c r="B89" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2010</v>
+      </c>
+      <c r="B90" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2010</v>
+      </c>
+      <c r="B91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2010</v>
+      </c>
+      <c r="B92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2010</v>
+      </c>
+      <c r="B93" t="s">
+        <v>223</v>
+      </c>
+      <c r="C93" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2012</v>
+      </c>
+      <c r="B94" t="s">
+        <v>224</v>
+      </c>
+      <c r="C94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2012</v>
+      </c>
+      <c r="B95" t="s">
+        <v>225</v>
+      </c>
+      <c r="C95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2012</v>
+      </c>
+      <c r="B96" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2012</v>
+      </c>
+      <c r="B97" t="s">
+        <v>227</v>
+      </c>
+      <c r="C97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2012</v>
+      </c>
+      <c r="B98" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2012</v>
+      </c>
+      <c r="B99" t="s">
+        <v>229</v>
+      </c>
+      <c r="C99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2012</v>
+      </c>
+      <c r="B100" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2012</v>
+      </c>
+      <c r="B101" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>2012</v>
+      </c>
+      <c r="B102" t="s">
+        <v>232</v>
+      </c>
+      <c r="C102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>2012</v>
+      </c>
+      <c r="B103" t="s">
+        <v>233</v>
+      </c>
+      <c r="C103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2012</v>
+      </c>
+      <c r="B104" t="s">
+        <v>234</v>
+      </c>
+      <c r="C104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2012</v>
+      </c>
+      <c r="B105" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2012</v>
+      </c>
+      <c r="B106" t="s">
+        <v>236</v>
+      </c>
+      <c r="C106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>2012</v>
+      </c>
+      <c r="B107" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2012</v>
+      </c>
+      <c r="B108" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2012</v>
+      </c>
+      <c r="B109" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>2012</v>
+      </c>
+      <c r="B110" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2006</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2006</v>
+      </c>
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2006</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2008</v>
+      </c>
+      <c r="B13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2008</v>
+      </c>
+      <c r="B14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2008</v>
+      </c>
+      <c r="B16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2008</v>
+      </c>
+      <c r="B17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2008</v>
+      </c>
+      <c r="B20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2008</v>
+      </c>
+      <c r="B23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2008</v>
+      </c>
+      <c r="B24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2008</v>
+      </c>
+      <c r="B25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2008</v>
+      </c>
+      <c r="B26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2008</v>
+      </c>
+      <c r="B27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2008</v>
+      </c>
+      <c r="B28" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2008</v>
+      </c>
+      <c r="B29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2010</v>
+      </c>
+      <c r="B30" t="s">
+        <v>298</v>
+      </c>
+      <c r="C30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2010</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2010</v>
+      </c>
+      <c r="B33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2010</v>
+      </c>
+      <c r="B34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2010</v>
+      </c>
+      <c r="B35" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2010</v>
+      </c>
+      <c r="B36" t="s">
+        <v>305</v>
+      </c>
+      <c r="C36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2010</v>
+      </c>
+      <c r="B37" t="s">
+        <v>306</v>
+      </c>
+      <c r="C37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2010</v>
+      </c>
+      <c r="B38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2010</v>
+      </c>
+      <c r="B39" t="s">
+        <v>308</v>
+      </c>
+      <c r="C39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2010</v>
+      </c>
+      <c r="B40" t="s">
+        <v>310</v>
+      </c>
+      <c r="C40" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2010</v>
+      </c>
+      <c r="B41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2010</v>
+      </c>
+      <c r="B42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C42" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2010</v>
+      </c>
+      <c r="B43" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2010</v>
+      </c>
+      <c r="B44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C44" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2010</v>
+      </c>
+      <c r="B45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2010</v>
+      </c>
+      <c r="B46" t="s">
+        <v>316</v>
+      </c>
+      <c r="C46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2010</v>
+      </c>
+      <c r="B47" t="s">
+        <v>317</v>
+      </c>
+      <c r="C47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2010</v>
+      </c>
+      <c r="B48" t="s">
+        <v>318</v>
+      </c>
+      <c r="C48" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2010</v>
+      </c>
+      <c r="B49" t="s">
+        <v>319</v>
+      </c>
+      <c r="C49" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2012</v>
+      </c>
+      <c r="B50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2012</v>
+      </c>
+      <c r="B51" t="s">
+        <v>321</v>
+      </c>
+      <c r="C51" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2012</v>
+      </c>
+      <c r="B52" t="s">
+        <v>322</v>
+      </c>
+      <c r="C52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2012</v>
+      </c>
+      <c r="B53" t="s">
+        <v>323</v>
+      </c>
+      <c r="C53" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2012</v>
+      </c>
+      <c r="B54" t="s">
+        <v>324</v>
+      </c>
+      <c r="C54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2012</v>
+      </c>
+      <c r="B55" t="s">
+        <v>325</v>
+      </c>
+      <c r="C55" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2012</v>
+      </c>
+      <c r="B56" t="s">
+        <v>326</v>
+      </c>
+      <c r="C56" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2012</v>
+      </c>
+      <c r="B57" t="s">
+        <v>327</v>
+      </c>
+      <c r="C57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2012</v>
+      </c>
+      <c r="B58" t="s">
+        <v>328</v>
+      </c>
+      <c r="C58" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2012</v>
+      </c>
+      <c r="B59" t="s">
+        <v>329</v>
+      </c>
+      <c r="C59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2012</v>
+      </c>
+      <c r="B60" t="s">
+        <v>330</v>
+      </c>
+      <c r="C60" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2012</v>
+      </c>
+      <c r="B61" t="s">
+        <v>331</v>
+      </c>
+      <c r="C61" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2012</v>
+      </c>
+      <c r="B62" t="s">
+        <v>332</v>
+      </c>
+      <c r="C62" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2012</v>
+      </c>
+      <c r="B63" t="s">
+        <v>333</v>
+      </c>
+      <c r="C63" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2012</v>
+      </c>
+      <c r="B64" t="s">
+        <v>334</v>
+      </c>
+      <c r="C64" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2012</v>
+      </c>
+      <c r="B65" t="s">
+        <v>335</v>
+      </c>
+      <c r="C65" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2012</v>
+      </c>
+      <c r="B66" t="s">
+        <v>336</v>
+      </c>
+      <c r="C66" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2012</v>
+      </c>
+      <c r="B67" t="s">
+        <v>337</v>
+      </c>
+      <c r="C67" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2012</v>
+      </c>
+      <c r="B68" t="s">
+        <v>338</v>
+      </c>
+      <c r="C68" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2012</v>
+      </c>
+      <c r="B69" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2014</v>
+      </c>
+      <c r="B70" t="s">
+        <v>340</v>
+      </c>
+      <c r="C70" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2014</v>
+      </c>
+      <c r="B71" t="s">
+        <v>341</v>
+      </c>
+      <c r="C71" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2014</v>
+      </c>
+      <c r="B72" t="s">
+        <v>342</v>
+      </c>
+      <c r="C72" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2014</v>
+      </c>
+      <c r="B73" t="s">
+        <v>343</v>
+      </c>
+      <c r="C73" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2014</v>
+      </c>
+      <c r="B74" t="s">
+        <v>344</v>
+      </c>
+      <c r="C74" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2014</v>
+      </c>
+      <c r="B75" t="s">
+        <v>345</v>
+      </c>
+      <c r="C75" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2014</v>
+      </c>
+      <c r="B76" t="s">
+        <v>346</v>
+      </c>
+      <c r="C76" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2014</v>
+      </c>
+      <c r="B77" t="s">
+        <v>347</v>
+      </c>
+      <c r="C77" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2014</v>
+      </c>
+      <c r="B78" t="s">
+        <v>348</v>
+      </c>
+      <c r="C78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2014</v>
+      </c>
+      <c r="B79" t="s">
+        <v>349</v>
+      </c>
+      <c r="C79" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2014</v>
+      </c>
+      <c r="B80" t="s">
+        <v>350</v>
+      </c>
+      <c r="C80" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2014</v>
+      </c>
+      <c r="B81" t="s">
+        <v>351</v>
+      </c>
+      <c r="C81" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2014</v>
+      </c>
+      <c r="B82" t="s">
+        <v>352</v>
+      </c>
+      <c r="C82" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2014</v>
+      </c>
+      <c r="B83" t="s">
+        <v>353</v>
+      </c>
+      <c r="C83" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2014</v>
+      </c>
+      <c r="B84" t="s">
+        <v>354</v>
+      </c>
+      <c r="C84" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2014</v>
+      </c>
+      <c r="B85" t="s">
+        <v>355</v>
+      </c>
+      <c r="C85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2014</v>
+      </c>
+      <c r="B86" t="s">
+        <v>356</v>
+      </c>
+      <c r="C86" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2014</v>
+      </c>
+      <c r="B87" t="s">
+        <v>357</v>
+      </c>
+      <c r="C87" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2014</v>
+      </c>
+      <c r="B88" t="s">
+        <v>358</v>
+      </c>
+      <c r="C88" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2014</v>
+      </c>
+      <c r="B89" t="s">
+        <v>359</v>
+      </c>
+      <c r="C89" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2014</v>
+      </c>
+      <c r="B90" t="s">
+        <v>360</v>
+      </c>
+      <c r="C90" t="s">
+        <v>361</v>
+      </c>
+      <c r="E90" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:A165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2004</v>
+      </c>
+      <c r="B21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2004</v>
+      </c>
+      <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2004</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2004</v>
+      </c>
+      <c r="B24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2004</v>
+      </c>
+      <c r="B25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2006</v>
+      </c>
+      <c r="B26" t="s">
+        <v>363</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2006</v>
+      </c>
+      <c r="B27" t="s">
+        <v>364</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2006</v>
+      </c>
+      <c r="B28" t="s">
+        <v>365</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2006</v>
+      </c>
+      <c r="B29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2006</v>
+      </c>
+      <c r="B30" t="s">
+        <v>368</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2006</v>
+      </c>
+      <c r="B31" t="s">
+        <v>369</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2006</v>
+      </c>
+      <c r="B32" t="s">
+        <v>370</v>
+      </c>
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2006</v>
+      </c>
+      <c r="B33" t="s">
+        <v>371</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2006</v>
+      </c>
+      <c r="B34" t="s">
+        <v>372</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2006</v>
+      </c>
+      <c r="B35" t="s">
+        <v>373</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2006</v>
+      </c>
+      <c r="B36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2006</v>
+      </c>
+      <c r="B37" t="s">
+        <v>376</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2006</v>
+      </c>
+      <c r="B38" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2006</v>
+      </c>
+      <c r="B39" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2006</v>
+      </c>
+      <c r="B40" t="s">
+        <v>379</v>
+      </c>
+      <c r="C40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2006</v>
+      </c>
+      <c r="B41" t="s">
+        <v>380</v>
+      </c>
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2006</v>
+      </c>
+      <c r="B42" t="s">
+        <v>381</v>
+      </c>
+      <c r="C42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2006</v>
+      </c>
+      <c r="B43" t="s">
+        <v>382</v>
+      </c>
+      <c r="C43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2006</v>
+      </c>
+      <c r="B44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2006</v>
+      </c>
+      <c r="B45" t="s">
+        <v>385</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2006</v>
+      </c>
+      <c r="B46" t="s">
+        <v>386</v>
+      </c>
+      <c r="C46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2006</v>
+      </c>
+      <c r="B47" t="s">
+        <v>387</v>
+      </c>
+      <c r="C47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2006</v>
+      </c>
+      <c r="B48" t="s">
+        <v>388</v>
+      </c>
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2006</v>
+      </c>
+      <c r="B49" t="s">
+        <v>389</v>
+      </c>
+      <c r="C49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2006</v>
+      </c>
+      <c r="B50" t="s">
+        <v>390</v>
+      </c>
+      <c r="C50" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2006</v>
+      </c>
+      <c r="B51" t="s">
+        <v>392</v>
+      </c>
+      <c r="C51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2006</v>
+      </c>
+      <c r="B52" t="s">
+        <v>393</v>
+      </c>
+      <c r="C52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2006</v>
+      </c>
+      <c r="B53" t="s">
+        <v>394</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2008</v>
+      </c>
+      <c r="B54" t="s">
+        <v>395</v>
+      </c>
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2008</v>
+      </c>
+      <c r="B55" t="s">
+        <v>396</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2008</v>
+      </c>
+      <c r="B56" t="s">
+        <v>397</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2008</v>
+      </c>
+      <c r="B57" t="s">
+        <v>398</v>
+      </c>
+      <c r="C57" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2008</v>
+      </c>
+      <c r="B58" t="s">
+        <v>399</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2008</v>
+      </c>
+      <c r="B59" t="s">
+        <v>400</v>
+      </c>
+      <c r="C59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2008</v>
+      </c>
+      <c r="B60" t="s">
+        <v>401</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2008</v>
+      </c>
+      <c r="B61" t="s">
+        <v>402</v>
+      </c>
+      <c r="C61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2008</v>
+      </c>
+      <c r="B62" t="s">
+        <v>403</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2008</v>
+      </c>
+      <c r="B63" t="s">
+        <v>404</v>
+      </c>
+      <c r="C63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2008</v>
+      </c>
+      <c r="B64" t="s">
+        <v>405</v>
+      </c>
+      <c r="C64" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2008</v>
+      </c>
+      <c r="B65" t="s">
+        <v>406</v>
+      </c>
+      <c r="C65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2008</v>
+      </c>
+      <c r="B66" t="s">
+        <v>407</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2008</v>
+      </c>
+      <c r="B67" t="s">
+        <v>408</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2008</v>
+      </c>
+      <c r="B68" t="s">
+        <v>409</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>410</v>
+      </c>
+      <c r="C69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2008</v>
+      </c>
+      <c r="B70" t="s">
+        <v>411</v>
+      </c>
+      <c r="C70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2008</v>
+      </c>
+      <c r="B71" t="s">
+        <v>412</v>
+      </c>
+      <c r="C71" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2008</v>
+      </c>
+      <c r="B72" t="s">
+        <v>413</v>
+      </c>
+      <c r="C72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2008</v>
+      </c>
+      <c r="B73" t="s">
+        <v>414</v>
+      </c>
+      <c r="C73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2008</v>
+      </c>
+      <c r="B74" t="s">
+        <v>415</v>
+      </c>
+      <c r="C74" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2008</v>
+      </c>
+      <c r="B75" t="s">
+        <v>416</v>
+      </c>
+      <c r="C75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2008</v>
+      </c>
+      <c r="B76" t="s">
+        <v>417</v>
+      </c>
+      <c r="C76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2008</v>
+      </c>
+      <c r="B77" t="s">
+        <v>418</v>
+      </c>
+      <c r="C77" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2008</v>
+      </c>
+      <c r="B78" t="s">
+        <v>419</v>
+      </c>
+      <c r="C78" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2008</v>
+      </c>
+      <c r="B79" t="s">
+        <v>420</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2008</v>
+      </c>
+      <c r="B80" t="s">
+        <v>421</v>
+      </c>
+      <c r="C80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2008</v>
+      </c>
+      <c r="B81" t="s">
+        <v>422</v>
+      </c>
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2010</v>
+      </c>
+      <c r="B82" t="s">
+        <v>423</v>
+      </c>
+      <c r="C82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2010</v>
+      </c>
+      <c r="B83" t="s">
+        <v>424</v>
+      </c>
+      <c r="C83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2010</v>
+      </c>
+      <c r="B84" t="s">
+        <v>425</v>
+      </c>
+      <c r="C84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2010</v>
+      </c>
+      <c r="B85" t="s">
+        <v>426</v>
+      </c>
+      <c r="C85" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2010</v>
+      </c>
+      <c r="B86" t="s">
+        <v>427</v>
+      </c>
+      <c r="C86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2010</v>
+      </c>
+      <c r="B87" t="s">
+        <v>428</v>
+      </c>
+      <c r="C87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2010</v>
+      </c>
+      <c r="B88" t="s">
+        <v>429</v>
+      </c>
+      <c r="C88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2010</v>
+      </c>
+      <c r="B89" t="s">
+        <v>430</v>
+      </c>
+      <c r="C89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2010</v>
+      </c>
+      <c r="B90" t="s">
+        <v>431</v>
+      </c>
+      <c r="C90" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2010</v>
+      </c>
+      <c r="B91" t="s">
+        <v>432</v>
+      </c>
+      <c r="C91" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2010</v>
+      </c>
+      <c r="B92" t="s">
+        <v>433</v>
+      </c>
+      <c r="C92" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2010</v>
+      </c>
+      <c r="B93" t="s">
+        <v>434</v>
+      </c>
+      <c r="C93" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2010</v>
+      </c>
+      <c r="B94" t="s">
+        <v>435</v>
+      </c>
+      <c r="C94" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2010</v>
+      </c>
+      <c r="B95" t="s">
+        <v>436</v>
+      </c>
+      <c r="C95" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2010</v>
+      </c>
+      <c r="B96" t="s">
+        <v>437</v>
+      </c>
+      <c r="C96" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2010</v>
+      </c>
+      <c r="B97" t="s">
+        <v>438</v>
+      </c>
+      <c r="C97" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2010</v>
+      </c>
+      <c r="B98" t="s">
+        <v>439</v>
+      </c>
+      <c r="C98" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2010</v>
+      </c>
+      <c r="B99" t="s">
+        <v>440</v>
+      </c>
+      <c r="C99" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2010</v>
+      </c>
+      <c r="B100" t="s">
+        <v>441</v>
+      </c>
+      <c r="C100" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2010</v>
+      </c>
+      <c r="B101" t="s">
+        <v>442</v>
+      </c>
+      <c r="C101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>2010</v>
+      </c>
+      <c r="B102" t="s">
+        <v>443</v>
+      </c>
+      <c r="C102" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>2010</v>
+      </c>
+      <c r="B103" t="s">
+        <v>444</v>
+      </c>
+      <c r="C103" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2010</v>
+      </c>
+      <c r="B104" t="s">
+        <v>445</v>
+      </c>
+      <c r="C104" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2010</v>
+      </c>
+      <c r="B105" t="s">
+        <v>446</v>
+      </c>
+      <c r="C105" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2010</v>
+      </c>
+      <c r="B106" t="s">
+        <v>447</v>
+      </c>
+      <c r="C106" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>2010</v>
+      </c>
+      <c r="B107" t="s">
+        <v>448</v>
+      </c>
+      <c r="C107" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2010</v>
+      </c>
+      <c r="B108" t="s">
+        <v>449</v>
+      </c>
+      <c r="C108" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2010</v>
+      </c>
+      <c r="B109" t="s">
+        <v>450</v>
+      </c>
+      <c r="C109" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>2012</v>
+      </c>
+      <c r="B110" t="s">
+        <v>451</v>
+      </c>
+      <c r="C110" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>2012</v>
+      </c>
+      <c r="B111" t="s">
+        <v>452</v>
+      </c>
+      <c r="C111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>2012</v>
+      </c>
+      <c r="B112" t="s">
+        <v>453</v>
+      </c>
+      <c r="C112" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>2012</v>
+      </c>
+      <c r="B113" t="s">
+        <v>454</v>
+      </c>
+      <c r="C113" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>2012</v>
+      </c>
+      <c r="B114" t="s">
+        <v>455</v>
+      </c>
+      <c r="C114" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>2012</v>
+      </c>
+      <c r="B115" t="s">
+        <v>456</v>
+      </c>
+      <c r="C115" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>2012</v>
+      </c>
+      <c r="B116" t="s">
+        <v>457</v>
+      </c>
+      <c r="C116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>2012</v>
+      </c>
+      <c r="B117" t="s">
+        <v>458</v>
+      </c>
+      <c r="C117" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>2012</v>
+      </c>
+      <c r="B118" t="s">
+        <v>459</v>
+      </c>
+      <c r="C118" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>2012</v>
+      </c>
+      <c r="B119" t="s">
+        <v>460</v>
+      </c>
+      <c r="C119" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>2012</v>
+      </c>
+      <c r="B120" t="s">
+        <v>461</v>
+      </c>
+      <c r="C120" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>2012</v>
+      </c>
+      <c r="B121" t="s">
+        <v>462</v>
+      </c>
+      <c r="C121" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2012</v>
+      </c>
+      <c r="B122" t="s">
+        <v>463</v>
+      </c>
+      <c r="C122" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>2012</v>
+      </c>
+      <c r="B123" t="s">
+        <v>464</v>
+      </c>
+      <c r="C123" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>2012</v>
+      </c>
+      <c r="B124" t="s">
+        <v>465</v>
+      </c>
+      <c r="C124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2012</v>
+      </c>
+      <c r="B125" t="s">
+        <v>466</v>
+      </c>
+      <c r="C125" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2012</v>
+      </c>
+      <c r="B126" t="s">
+        <v>467</v>
+      </c>
+      <c r="C126" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2012</v>
+      </c>
+      <c r="B127" t="s">
+        <v>468</v>
+      </c>
+      <c r="C127" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2012</v>
+      </c>
+      <c r="B128" t="s">
+        <v>469</v>
+      </c>
+      <c r="C128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2012</v>
+      </c>
+      <c r="B129" t="s">
+        <v>470</v>
+      </c>
+      <c r="C129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>2012</v>
+      </c>
+      <c r="B130" t="s">
+        <v>471</v>
+      </c>
+      <c r="C130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2012</v>
+      </c>
+      <c r="B131" t="s">
+        <v>472</v>
+      </c>
+      <c r="C131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>2012</v>
+      </c>
+      <c r="B132" t="s">
+        <v>473</v>
+      </c>
+      <c r="C132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2012</v>
+      </c>
+      <c r="B133" t="s">
+        <v>474</v>
+      </c>
+      <c r="C133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>2012</v>
+      </c>
+      <c r="B134" t="s">
+        <v>475</v>
+      </c>
+      <c r="C134" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>2012</v>
+      </c>
+      <c r="B135" t="s">
+        <v>476</v>
+      </c>
+      <c r="C135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>2012</v>
+      </c>
+      <c r="B136" t="s">
+        <v>477</v>
+      </c>
+      <c r="C136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>2012</v>
+      </c>
+      <c r="B137" t="s">
+        <v>478</v>
+      </c>
+      <c r="C137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>2014</v>
+      </c>
+      <c r="B138" t="s">
+        <v>479</v>
+      </c>
+      <c r="C138" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2014</v>
+      </c>
+      <c r="B139" t="s">
+        <v>480</v>
+      </c>
+      <c r="C139" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>2014</v>
+      </c>
+      <c r="B140" t="s">
+        <v>481</v>
+      </c>
+      <c r="C140" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>2014</v>
+      </c>
+      <c r="B141" t="s">
+        <v>482</v>
+      </c>
+      <c r="C141" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>2014</v>
+      </c>
+      <c r="B142" t="s">
+        <v>483</v>
+      </c>
+      <c r="C142" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>2014</v>
+      </c>
+      <c r="B143" t="s">
+        <v>484</v>
+      </c>
+      <c r="C143" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2014</v>
+      </c>
+      <c r="B144" t="s">
+        <v>485</v>
+      </c>
+      <c r="C144" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2014</v>
+      </c>
+      <c r="B145" t="s">
+        <v>486</v>
+      </c>
+      <c r="C145" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2014</v>
+      </c>
+      <c r="B146" t="s">
+        <v>487</v>
+      </c>
+      <c r="C146" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2014</v>
+      </c>
+      <c r="B147" t="s">
+        <v>488</v>
+      </c>
+      <c r="C147" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>2014</v>
+      </c>
+      <c r="B148" t="s">
+        <v>489</v>
+      </c>
+      <c r="C148" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>2014</v>
+      </c>
+      <c r="B149" t="s">
+        <v>490</v>
+      </c>
+      <c r="C149" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>2014</v>
+      </c>
+      <c r="B150" t="s">
+        <v>491</v>
+      </c>
+      <c r="C150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>2014</v>
+      </c>
+      <c r="B151" t="s">
+        <v>492</v>
+      </c>
+      <c r="C151" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>2014</v>
+      </c>
+      <c r="B152" t="s">
+        <v>493</v>
+      </c>
+      <c r="C152" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>2014</v>
+      </c>
+      <c r="B153" t="s">
+        <v>494</v>
+      </c>
+      <c r="C153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>2014</v>
+      </c>
+      <c r="B154" t="s">
+        <v>495</v>
+      </c>
+      <c r="C154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>2014</v>
+      </c>
+      <c r="B155" t="s">
+        <v>496</v>
+      </c>
+      <c r="C155" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>2014</v>
+      </c>
+      <c r="B156" t="s">
+        <v>497</v>
+      </c>
+      <c r="C156" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>2014</v>
+      </c>
+      <c r="B157" t="s">
+        <v>498</v>
+      </c>
+      <c r="C157" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>2014</v>
+      </c>
+      <c r="B158" t="s">
+        <v>499</v>
+      </c>
+      <c r="C158" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>2014</v>
+      </c>
+      <c r="B159" t="s">
+        <v>500</v>
+      </c>
+      <c r="C159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>2014</v>
+      </c>
+      <c r="B160" t="s">
+        <v>501</v>
+      </c>
+      <c r="C160" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>2014</v>
+      </c>
+      <c r="B161" t="s">
+        <v>502</v>
+      </c>
+      <c r="C161" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>2014</v>
+      </c>
+      <c r="B162" t="s">
+        <v>503</v>
+      </c>
+      <c r="C162" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>2014</v>
+      </c>
+      <c r="B163" t="s">
+        <v>504</v>
+      </c>
+      <c r="C163" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>2014</v>
+      </c>
+      <c r="B164" t="s">
+        <v>505</v>
+      </c>
+      <c r="C164" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>2014</v>
+      </c>
+      <c r="B165" t="s">
+        <v>506</v>
+      </c>
+      <c r="C165" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2006</v>
+      </c>
+      <c r="B4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2006</v>
+      </c>
+      <c r="B6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2008</v>
+      </c>
+      <c r="B13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C13" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2008</v>
+      </c>
+      <c r="B14" t="s">
+        <v>526</v>
+      </c>
+      <c r="C14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2008</v>
+      </c>
+      <c r="B16" t="s">
+        <v>528</v>
+      </c>
+      <c r="C16" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2008</v>
+      </c>
+      <c r="B17" t="s">
+        <v>529</v>
+      </c>
+      <c r="C17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2010</v>
+      </c>
+      <c r="B18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C18" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2010</v>
+      </c>
+      <c r="B19" t="s">
+        <v>531</v>
+      </c>
+      <c r="C19" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2010</v>
+      </c>
+      <c r="B20" t="s">
+        <v>532</v>
+      </c>
+      <c r="C20" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2010</v>
+      </c>
+      <c r="B21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C21" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2010</v>
+      </c>
+      <c r="B22" t="s">
+        <v>534</v>
+      </c>
+      <c r="C22" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2010</v>
+      </c>
+      <c r="B23" t="s">
+        <v>535</v>
+      </c>
+      <c r="C23" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2010</v>
+      </c>
+      <c r="B24" t="s">
+        <v>536</v>
+      </c>
+      <c r="C24" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2012</v>
+      </c>
+      <c r="B25" t="s">
+        <v>537</v>
+      </c>
+      <c r="C25" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2012</v>
+      </c>
+      <c r="B26" t="s">
+        <v>538</v>
+      </c>
+      <c r="C26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2012</v>
+      </c>
+      <c r="B27" t="s">
+        <v>539</v>
+      </c>
+      <c r="C27" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2012</v>
+      </c>
+      <c r="B28" t="s">
+        <v>540</v>
+      </c>
+      <c r="C28" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2012</v>
+      </c>
+      <c r="B29" t="s">
+        <v>541</v>
+      </c>
+      <c r="C29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2012</v>
+      </c>
+      <c r="B30" t="s">
+        <v>542</v>
+      </c>
+      <c r="C30" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2012</v>
+      </c>
+      <c r="B31" t="s">
+        <v>543</v>
+      </c>
+      <c r="C31" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2014</v>
+      </c>
+      <c r="B32" t="s">
+        <v>544</v>
+      </c>
+      <c r="C32" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2014</v>
+      </c>
+      <c r="B33" t="s">
+        <v>545</v>
+      </c>
+      <c r="C33" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2014</v>
+      </c>
+      <c r="B34" t="s">
+        <v>546</v>
+      </c>
+      <c r="C34" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2014</v>
+      </c>
+      <c r="B35" t="s">
+        <v>547</v>
+      </c>
+      <c r="C35" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36" t="s">
+        <v>548</v>
+      </c>
+      <c r="C36" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2014</v>
+      </c>
+      <c r="B37" t="s">
+        <v>549</v>
+      </c>
+      <c r="C37" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2014</v>
+      </c>
+      <c r="B38" t="s">
+        <v>550</v>
+      </c>
+      <c r="C38" t="s">
+        <v>522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2006</v>
+      </c>
+      <c r="B4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2008</v>
+      </c>
+      <c r="B6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2008</v>
+      </c>
+      <c r="B7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2010</v>
+      </c>
+      <c r="B8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2012</v>
+      </c>
+      <c r="B10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2014</v>
+      </c>
+      <c r="B12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C12" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13" t="s">
+        <v>564</v>
+      </c>
+      <c r="C13" t="s">
+        <v>554</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C10" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>581</v>
+      </c>
+      <c r="C11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>583</v>
+      </c>
+      <c r="C13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>584</v>
+      </c>
+      <c r="C14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2008</v>
+      </c>
+      <c r="B16" t="s">
+        <v>586</v>
+      </c>
+      <c r="C16" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2008</v>
+      </c>
+      <c r="B17" t="s">
+        <v>587</v>
+      </c>
+      <c r="C17" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>588</v>
+      </c>
+      <c r="C18" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>589</v>
+      </c>
+      <c r="C19" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2008</v>
+      </c>
+      <c r="B20" t="s">
+        <v>590</v>
+      </c>
+      <c r="C20" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>591</v>
+      </c>
+      <c r="C21" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>592</v>
+      </c>
+      <c r="C22" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2010</v>
+      </c>
+      <c r="B23" t="s">
+        <v>593</v>
+      </c>
+      <c r="C23" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2010</v>
+      </c>
+      <c r="B24" t="s">
+        <v>594</v>
+      </c>
+      <c r="C24" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2010</v>
+      </c>
+      <c r="B25" t="s">
+        <v>595</v>
+      </c>
+      <c r="C25" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2010</v>
+      </c>
+      <c r="B26" t="s">
+        <v>596</v>
+      </c>
+      <c r="C26" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2010</v>
+      </c>
+      <c r="B27" t="s">
+        <v>597</v>
+      </c>
+      <c r="C27" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2010</v>
+      </c>
+      <c r="B28" t="s">
+        <v>598</v>
+      </c>
+      <c r="C28" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2010</v>
+      </c>
+      <c r="B29" t="s">
+        <v>599</v>
+      </c>
+      <c r="C29" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2012</v>
+      </c>
+      <c r="B30" t="s">
+        <v>600</v>
+      </c>
+      <c r="C30" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2012</v>
+      </c>
+      <c r="B31" t="s">
+        <v>601</v>
+      </c>
+      <c r="C31" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2012</v>
+      </c>
+      <c r="B32" t="s">
+        <v>602</v>
+      </c>
+      <c r="C32" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2012</v>
+      </c>
+      <c r="B33" t="s">
+        <v>603</v>
+      </c>
+      <c r="C33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34" t="s">
+        <v>604</v>
+      </c>
+      <c r="C34" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2012</v>
+      </c>
+      <c r="B35" t="s">
+        <v>605</v>
+      </c>
+      <c r="C35" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2012</v>
+      </c>
+      <c r="B36" t="s">
+        <v>606</v>
+      </c>
+      <c r="C36" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2014</v>
+      </c>
+      <c r="B37" t="s">
+        <v>607</v>
+      </c>
+      <c r="C37" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2014</v>
+      </c>
+      <c r="B38" t="s">
+        <v>608</v>
+      </c>
+      <c r="C38" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2014</v>
+      </c>
+      <c r="B39" t="s">
+        <v>609</v>
+      </c>
+      <c r="C39" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2014</v>
+      </c>
+      <c r="B40" t="s">
+        <v>610</v>
+      </c>
+      <c r="C40" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2014</v>
+      </c>
+      <c r="B41" t="s">
+        <v>611</v>
+      </c>
+      <c r="C41" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2014</v>
+      </c>
+      <c r="B42" t="s">
+        <v>612</v>
+      </c>
+      <c r="C42" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2014</v>
+      </c>
+      <c r="B43" t="s">
+        <v>613</v>
+      </c>
+      <c r="C43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C10" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>631</v>
+      </c>
+      <c r="C11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>632</v>
+      </c>
+      <c r="C12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>633</v>
+      </c>
+      <c r="C13" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>634</v>
+      </c>
+      <c r="C14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>635</v>
+      </c>
+      <c r="C15" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>636</v>
+      </c>
+      <c r="C16" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>637</v>
+      </c>
+      <c r="C17" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>638</v>
+      </c>
+      <c r="C18" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>639</v>
+      </c>
+      <c r="C19" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2008</v>
+      </c>
+      <c r="B20" t="s">
+        <v>640</v>
+      </c>
+      <c r="C20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>641</v>
+      </c>
+      <c r="C21" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>642</v>
+      </c>
+      <c r="C22" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2008</v>
+      </c>
+      <c r="B23" t="s">
+        <v>643</v>
+      </c>
+      <c r="C23" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2008</v>
+      </c>
+      <c r="B24" t="s">
+        <v>644</v>
+      </c>
+      <c r="C24" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2008</v>
+      </c>
+      <c r="B25" t="s">
+        <v>645</v>
+      </c>
+      <c r="C25" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2010</v>
+      </c>
+      <c r="B26" t="s">
+        <v>646</v>
+      </c>
+      <c r="C26" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2010</v>
+      </c>
+      <c r="B27" t="s">
+        <v>647</v>
+      </c>
+      <c r="C27" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2010</v>
+      </c>
+      <c r="B28" t="s">
+        <v>648</v>
+      </c>
+      <c r="C28" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2010</v>
+      </c>
+      <c r="B29" t="s">
+        <v>649</v>
+      </c>
+      <c r="C29" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2010</v>
+      </c>
+      <c r="B30" t="s">
+        <v>650</v>
+      </c>
+      <c r="C30" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2010</v>
+      </c>
+      <c r="B31" t="s">
+        <v>651</v>
+      </c>
+      <c r="C31" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32" t="s">
+        <v>652</v>
+      </c>
+      <c r="C32" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2010</v>
+      </c>
+      <c r="B33" t="s">
+        <v>653</v>
+      </c>
+      <c r="C33" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34" t="s">
+        <v>654</v>
+      </c>
+      <c r="C34" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2012</v>
+      </c>
+      <c r="B35" t="s">
+        <v>655</v>
+      </c>
+      <c r="C35" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2012</v>
+      </c>
+      <c r="B36" t="s">
+        <v>656</v>
+      </c>
+      <c r="C36" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2012</v>
+      </c>
+      <c r="B37" t="s">
+        <v>657</v>
+      </c>
+      <c r="C37" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2012</v>
+      </c>
+      <c r="B38" t="s">
+        <v>658</v>
+      </c>
+      <c r="C38" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2012</v>
+      </c>
+      <c r="B39" t="s">
+        <v>659</v>
+      </c>
+      <c r="C39" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2012</v>
+      </c>
+      <c r="B40" t="s">
+        <v>660</v>
+      </c>
+      <c r="C40" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>661</v>
+      </c>
+      <c r="C41" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2014</v>
+      </c>
+      <c r="B42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2014</v>
+      </c>
+      <c r="B43" t="s">
+        <v>663</v>
+      </c>
+      <c r="C43" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2014</v>
+      </c>
+      <c r="B44" t="s">
+        <v>664</v>
+      </c>
+      <c r="C44" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2014</v>
+      </c>
+      <c r="B45" t="s">
+        <v>665</v>
+      </c>
+      <c r="C45" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2014</v>
+      </c>
+      <c r="B46" t="s">
+        <v>666</v>
+      </c>
+      <c r="C46" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2014</v>
+      </c>
+      <c r="B47" t="s">
+        <v>667</v>
+      </c>
+      <c r="C47" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2014</v>
+      </c>
+      <c r="B48" t="s">
+        <v>668</v>
+      </c>
+      <c r="C48" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2014</v>
+      </c>
+      <c r="B49" t="s">
+        <v>669</v>
+      </c>
+      <c r="C49" t="s">
+        <v>629</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20220" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loneliness" sheetId="1" r:id="rId1"/>
@@ -2204,9 +2204,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2491,7 +2492,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2499,7 +2500,7 @@
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2547,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2004</v>
       </c>
@@ -3033,7 +3034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -3461,17 +3462,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -3488,7 +3492,7 @@
       <c r="A2">
         <v>2004</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
@@ -3499,7 +3503,7 @@
       <c r="A3">
         <v>2004</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C3" t="s">
@@ -3510,7 +3514,7 @@
       <c r="A4">
         <v>2004</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C4" t="s">
@@ -3521,7 +3525,7 @@
       <c r="A5">
         <v>2004</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C5" t="s">
@@ -3532,7 +3536,7 @@
       <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C6" t="s">
@@ -3543,7 +3547,7 @@
       <c r="A7">
         <v>2006</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
@@ -3554,7 +3558,7 @@
       <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C8" t="s">
@@ -3565,7 +3569,7 @@
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C9" t="s">
@@ -3576,7 +3580,7 @@
       <c r="A10">
         <v>2006</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C10" t="s">
@@ -3587,7 +3591,7 @@
       <c r="A11">
         <v>2006</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C11" t="s">
@@ -3598,7 +3602,7 @@
       <c r="A12">
         <v>2008</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C12" t="s">
@@ -3609,7 +3613,7 @@
       <c r="A13">
         <v>2008</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C13" t="s">
@@ -3620,7 +3624,7 @@
       <c r="A14">
         <v>2008</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C14" t="s">
@@ -3631,7 +3635,7 @@
       <c r="A15">
         <v>2008</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C15" t="s">
@@ -3642,7 +3646,7 @@
       <c r="A16">
         <v>2008</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C16" t="s">
@@ -3653,7 +3657,7 @@
       <c r="A17">
         <v>2010</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
@@ -3664,7 +3668,7 @@
       <c r="A18">
         <v>2010</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C18" t="s">
@@ -3675,7 +3679,7 @@
       <c r="A19">
         <v>2010</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
@@ -3686,7 +3690,7 @@
       <c r="A20">
         <v>2010</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C20" t="s">
@@ -3697,7 +3701,7 @@
       <c r="A21">
         <v>2010</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C21" t="s">
@@ -3708,7 +3712,7 @@
       <c r="A22">
         <v>2012</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C22" t="s">
@@ -3719,7 +3723,7 @@
       <c r="A23">
         <v>2012</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C23" t="s">
@@ -3730,7 +3734,7 @@
       <c r="A24">
         <v>2012</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C24" t="s">
@@ -3741,7 +3745,7 @@
       <c r="A25">
         <v>2012</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C25" t="s">
@@ -3752,7 +3756,7 @@
       <c r="A26">
         <v>2012</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C26" t="s">
@@ -3763,7 +3767,7 @@
       <c r="A27">
         <v>2014</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C27" t="s">
@@ -3774,7 +3778,7 @@
       <c r="A28">
         <v>2014</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C28" t="s">
@@ -3785,7 +3789,7 @@
       <c r="A29">
         <v>2014</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C29" t="s">
@@ -3796,7 +3800,7 @@
       <c r="A30">
         <v>2014</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C30" t="s">
@@ -3807,7 +3811,7 @@
       <c r="A31">
         <v>2014</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C31" t="s">
@@ -3823,7 +3827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
@@ -5051,7 +5055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20220" activeTab="1"/>
+    <workbookView xWindow="33600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="loneliness" sheetId="1" r:id="rId1"/>
     <sheet name="lifesatisfaction" sheetId="2" r:id="rId2"/>
     <sheet name="socialnetwork" sheetId="3" r:id="rId3"/>
     <sheet name="activity" sheetId="4" r:id="rId4"/>
-    <sheet name="socialsupport" sheetId="5" r:id="rId5"/>
-    <sheet name="wellbeing" sheetId="6" r:id="rId6"/>
-    <sheet name="selfratedmemory" sheetId="7" r:id="rId7"/>
-    <sheet name="wordlist" sheetId="8" r:id="rId8"/>
-    <sheet name="mentalstatus" sheetId="10" r:id="rId9"/>
-    <sheet name="vocabulary" sheetId="9" r:id="rId10"/>
+    <sheet name="demographics" sheetId="11" r:id="rId5"/>
+    <sheet name="socialsupport" sheetId="5" r:id="rId6"/>
+    <sheet name="wellbeing" sheetId="6" r:id="rId7"/>
+    <sheet name="selfratedmemory" sheetId="7" r:id="rId8"/>
+    <sheet name="wordlist" sheetId="8" r:id="rId9"/>
+    <sheet name="mentalstatus" sheetId="10" r:id="rId10"/>
+    <sheet name="vocabulary" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">activity!$A$1:$E$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">loneliness!$A$1:$D$42</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="917">
   <si>
     <t>year</t>
   </si>
@@ -2169,6 +2171,630 @@
   </si>
   <si>
     <t>od167</t>
+  </si>
+  <si>
+    <t>interview_yr</t>
+  </si>
+  <si>
+    <t>nursing_home_mth</t>
+  </si>
+  <si>
+    <t>interview_mth</t>
+  </si>
+  <si>
+    <t>nursing_home_yr</t>
+  </si>
+  <si>
+    <t>1st_marriage_mth</t>
+  </si>
+  <si>
+    <t>1st_marriage_yr</t>
+  </si>
+  <si>
+    <t>2nd_marriage_mth</t>
+  </si>
+  <si>
+    <t>2nd_marriage_yr</t>
+  </si>
+  <si>
+    <t>3rd_marriage_mth</t>
+  </si>
+  <si>
+    <t>3rd_marriage_yr</t>
+  </si>
+  <si>
+    <t>4th_marriage_mth</t>
+  </si>
+  <si>
+    <t>4th_marriage_yr</t>
+  </si>
+  <si>
+    <t>btw_wave_marriage_mth</t>
+  </si>
+  <si>
+    <t>btw_wave_marriage_yr</t>
+  </si>
+  <si>
+    <t>proxy_interview</t>
+  </si>
+  <si>
+    <t>1 means self interview, 2 means proxy interview with spouse as respondent, 3 is proxy interview non-spouse as respondent, 4 is proxy interview spouse is respondent but the spouses no longer living together</t>
+  </si>
+  <si>
+    <t>proxy_ratiing_cognitive</t>
+  </si>
+  <si>
+    <t>interview_language</t>
+  </si>
+  <si>
+    <t>1 is English, 2 is Spanish</t>
+  </si>
+  <si>
+    <t>age_at_visit</t>
+  </si>
+  <si>
+    <t>nursing_home</t>
+  </si>
+  <si>
+    <t>us_born</t>
+  </si>
+  <si>
+    <t>arrive_us_year</t>
+  </si>
+  <si>
+    <t>ses</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>religious_service</t>
+  </si>
+  <si>
+    <t>religion_importance</t>
+  </si>
+  <si>
+    <t>english_household</t>
+  </si>
+  <si>
+    <t>number_marriages</t>
+  </si>
+  <si>
+    <t>married</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>hispanic</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>ka500</t>
+  </si>
+  <si>
+    <t>ka501</t>
+  </si>
+  <si>
+    <t>ka065</t>
+  </si>
+  <si>
+    <t>ka066</t>
+  </si>
+  <si>
+    <t>kb066.1</t>
+  </si>
+  <si>
+    <t>kb067.1</t>
+  </si>
+  <si>
+    <t>kb066.2</t>
+  </si>
+  <si>
+    <t>kb067.2</t>
+  </si>
+  <si>
+    <t>kb066.3</t>
+  </si>
+  <si>
+    <t>kb067.3</t>
+  </si>
+  <si>
+    <t>kb066.4</t>
+  </si>
+  <si>
+    <t>kb067.4</t>
+  </si>
+  <si>
+    <t>kb056</t>
+  </si>
+  <si>
+    <t>kb057</t>
+  </si>
+  <si>
+    <t>ka009</t>
+  </si>
+  <si>
+    <t>ka011</t>
+  </si>
+  <si>
+    <t>ka012</t>
+  </si>
+  <si>
+    <t>ka019</t>
+  </si>
+  <si>
+    <t>ka028</t>
+  </si>
+  <si>
+    <t>kb002</t>
+  </si>
+  <si>
+    <t>kb006</t>
+  </si>
+  <si>
+    <t>kb020</t>
+  </si>
+  <si>
+    <t>kb050</t>
+  </si>
+  <si>
+    <t>kb082</t>
+  </si>
+  <si>
+    <t>kb053</t>
+  </si>
+  <si>
+    <t>kb054</t>
+  </si>
+  <si>
+    <t>kb065</t>
+  </si>
+  <si>
+    <t>kb063</t>
+  </si>
+  <si>
+    <t>kx060_r</t>
+  </si>
+  <si>
+    <t>jx060_r</t>
+  </si>
+  <si>
+    <t>ja500</t>
+  </si>
+  <si>
+    <t>ja501</t>
+  </si>
+  <si>
+    <t>ja065</t>
+  </si>
+  <si>
+    <t>ja066</t>
+  </si>
+  <si>
+    <t>jb066.1</t>
+  </si>
+  <si>
+    <t>jb067.1</t>
+  </si>
+  <si>
+    <t>jb066.2</t>
+  </si>
+  <si>
+    <t>jb067.2</t>
+  </si>
+  <si>
+    <t>jb066.3</t>
+  </si>
+  <si>
+    <t>jb067.3</t>
+  </si>
+  <si>
+    <t>jb066.4</t>
+  </si>
+  <si>
+    <t>jb067.4</t>
+  </si>
+  <si>
+    <t>jb056</t>
+  </si>
+  <si>
+    <t>jb057</t>
+  </si>
+  <si>
+    <t>ja009</t>
+  </si>
+  <si>
+    <t>ja011</t>
+  </si>
+  <si>
+    <t>ja012</t>
+  </si>
+  <si>
+    <t>ja019</t>
+  </si>
+  <si>
+    <t>ja028</t>
+  </si>
+  <si>
+    <t>jb002</t>
+  </si>
+  <si>
+    <t>jb006</t>
+  </si>
+  <si>
+    <t>jb020</t>
+  </si>
+  <si>
+    <t>jb050</t>
+  </si>
+  <si>
+    <t>jb082</t>
+  </si>
+  <si>
+    <t>jb053</t>
+  </si>
+  <si>
+    <t>jb054</t>
+  </si>
+  <si>
+    <t>jb065</t>
+  </si>
+  <si>
+    <t>jb063</t>
+  </si>
+  <si>
+    <t>la500</t>
+  </si>
+  <si>
+    <t>la501</t>
+  </si>
+  <si>
+    <t>la065</t>
+  </si>
+  <si>
+    <t>la066</t>
+  </si>
+  <si>
+    <t>lb066.1</t>
+  </si>
+  <si>
+    <t>lb067.1</t>
+  </si>
+  <si>
+    <t>lb066.2</t>
+  </si>
+  <si>
+    <t>lb067.2</t>
+  </si>
+  <si>
+    <t>lb066.3</t>
+  </si>
+  <si>
+    <t>lb067.3</t>
+  </si>
+  <si>
+    <t>lb066.4</t>
+  </si>
+  <si>
+    <t>lb067.4</t>
+  </si>
+  <si>
+    <t>lb056</t>
+  </si>
+  <si>
+    <t>lb057</t>
+  </si>
+  <si>
+    <t>la009</t>
+  </si>
+  <si>
+    <t>la011</t>
+  </si>
+  <si>
+    <t>la012</t>
+  </si>
+  <si>
+    <t>la019</t>
+  </si>
+  <si>
+    <t>la028</t>
+  </si>
+  <si>
+    <t>lb002</t>
+  </si>
+  <si>
+    <t>lb006</t>
+  </si>
+  <si>
+    <t>lb020</t>
+  </si>
+  <si>
+    <t>lb050</t>
+  </si>
+  <si>
+    <t>lb082</t>
+  </si>
+  <si>
+    <t>lb053</t>
+  </si>
+  <si>
+    <t>lb054</t>
+  </si>
+  <si>
+    <t>lb065</t>
+  </si>
+  <si>
+    <t>lb063</t>
+  </si>
+  <si>
+    <t>lx060_r</t>
+  </si>
+  <si>
+    <t>ma500</t>
+  </si>
+  <si>
+    <t>ma501</t>
+  </si>
+  <si>
+    <t>ma065</t>
+  </si>
+  <si>
+    <t>ma066</t>
+  </si>
+  <si>
+    <t>mb066.1</t>
+  </si>
+  <si>
+    <t>mb067.1</t>
+  </si>
+  <si>
+    <t>mb066.2</t>
+  </si>
+  <si>
+    <t>mb067.2</t>
+  </si>
+  <si>
+    <t>mb066.3</t>
+  </si>
+  <si>
+    <t>mb067.3</t>
+  </si>
+  <si>
+    <t>mb066.4</t>
+  </si>
+  <si>
+    <t>mb067.4</t>
+  </si>
+  <si>
+    <t>mb056</t>
+  </si>
+  <si>
+    <t>mb057</t>
+  </si>
+  <si>
+    <t>ma009</t>
+  </si>
+  <si>
+    <t>ma011</t>
+  </si>
+  <si>
+    <t>ma012</t>
+  </si>
+  <si>
+    <t>ma019</t>
+  </si>
+  <si>
+    <t>ma028</t>
+  </si>
+  <si>
+    <t>mb002</t>
+  </si>
+  <si>
+    <t>mb006</t>
+  </si>
+  <si>
+    <t>mb020</t>
+  </si>
+  <si>
+    <t>mb050</t>
+  </si>
+  <si>
+    <t>mb082</t>
+  </si>
+  <si>
+    <t>mb053</t>
+  </si>
+  <si>
+    <t>mb054</t>
+  </si>
+  <si>
+    <t>mb065</t>
+  </si>
+  <si>
+    <t>mb063</t>
+  </si>
+  <si>
+    <t>mx060_r</t>
+  </si>
+  <si>
+    <t>na500</t>
+  </si>
+  <si>
+    <t>na501</t>
+  </si>
+  <si>
+    <t>na065</t>
+  </si>
+  <si>
+    <t>na066</t>
+  </si>
+  <si>
+    <t>nb066.1</t>
+  </si>
+  <si>
+    <t>nb067.1</t>
+  </si>
+  <si>
+    <t>nb066.2</t>
+  </si>
+  <si>
+    <t>nb067.2</t>
+  </si>
+  <si>
+    <t>nb066.3</t>
+  </si>
+  <si>
+    <t>nb067.3</t>
+  </si>
+  <si>
+    <t>nb066.4</t>
+  </si>
+  <si>
+    <t>nb067.4</t>
+  </si>
+  <si>
+    <t>nb056</t>
+  </si>
+  <si>
+    <t>nb057</t>
+  </si>
+  <si>
+    <t>na009</t>
+  </si>
+  <si>
+    <t>na011</t>
+  </si>
+  <si>
+    <t>na012</t>
+  </si>
+  <si>
+    <t>na019</t>
+  </si>
+  <si>
+    <t>na028</t>
+  </si>
+  <si>
+    <t>nb002</t>
+  </si>
+  <si>
+    <t>nb006</t>
+  </si>
+  <si>
+    <t>nb020</t>
+  </si>
+  <si>
+    <t>nb050</t>
+  </si>
+  <si>
+    <t>nb082</t>
+  </si>
+  <si>
+    <t>nb053</t>
+  </si>
+  <si>
+    <t>nb054</t>
+  </si>
+  <si>
+    <t>nb065</t>
+  </si>
+  <si>
+    <t>nb063</t>
+  </si>
+  <si>
+    <t>nx060_r</t>
+  </si>
+  <si>
+    <t>oa500</t>
+  </si>
+  <si>
+    <t>oa501</t>
+  </si>
+  <si>
+    <t>oa065</t>
+  </si>
+  <si>
+    <t>oa066</t>
+  </si>
+  <si>
+    <t>ob066.1</t>
+  </si>
+  <si>
+    <t>ob067.1</t>
+  </si>
+  <si>
+    <t>ob066.2</t>
+  </si>
+  <si>
+    <t>ob067.2</t>
+  </si>
+  <si>
+    <t>ob066.3</t>
+  </si>
+  <si>
+    <t>ob067.3</t>
+  </si>
+  <si>
+    <t>ob066.4</t>
+  </si>
+  <si>
+    <t>ob067.4</t>
+  </si>
+  <si>
+    <t>ob056</t>
+  </si>
+  <si>
+    <t>ob057</t>
+  </si>
+  <si>
+    <t>oa009</t>
+  </si>
+  <si>
+    <t>oa011</t>
+  </si>
+  <si>
+    <t>oa012</t>
+  </si>
+  <si>
+    <t>oa019</t>
+  </si>
+  <si>
+    <t>oa028</t>
+  </si>
+  <si>
+    <t>ob002</t>
+  </si>
+  <si>
+    <t>ob006</t>
+  </si>
+  <si>
+    <t>ob020</t>
+  </si>
+  <si>
+    <t>ob050</t>
+  </si>
+  <si>
+    <t>ob082</t>
+  </si>
+  <si>
+    <t>ob053</t>
+  </si>
+  <si>
+    <t>ob054</t>
+  </si>
+  <si>
+    <t>ob065</t>
+  </si>
+  <si>
+    <t>ob063</t>
+  </si>
+  <si>
+    <t>ox060_r</t>
   </si>
 </sst>
 </file>
@@ -3032,6 +3658,566 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C10" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>631</v>
+      </c>
+      <c r="C11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>632</v>
+      </c>
+      <c r="C12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>633</v>
+      </c>
+      <c r="C13" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>634</v>
+      </c>
+      <c r="C14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>635</v>
+      </c>
+      <c r="C15" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>636</v>
+      </c>
+      <c r="C16" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>637</v>
+      </c>
+      <c r="C17" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>638</v>
+      </c>
+      <c r="C18" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>639</v>
+      </c>
+      <c r="C19" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2008</v>
+      </c>
+      <c r="B20" t="s">
+        <v>640</v>
+      </c>
+      <c r="C20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>641</v>
+      </c>
+      <c r="C21" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>642</v>
+      </c>
+      <c r="C22" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2008</v>
+      </c>
+      <c r="B23" t="s">
+        <v>643</v>
+      </c>
+      <c r="C23" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2008</v>
+      </c>
+      <c r="B24" t="s">
+        <v>644</v>
+      </c>
+      <c r="C24" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2008</v>
+      </c>
+      <c r="B25" t="s">
+        <v>645</v>
+      </c>
+      <c r="C25" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2010</v>
+      </c>
+      <c r="B26" t="s">
+        <v>646</v>
+      </c>
+      <c r="C26" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2010</v>
+      </c>
+      <c r="B27" t="s">
+        <v>647</v>
+      </c>
+      <c r="C27" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2010</v>
+      </c>
+      <c r="B28" t="s">
+        <v>648</v>
+      </c>
+      <c r="C28" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2010</v>
+      </c>
+      <c r="B29" t="s">
+        <v>649</v>
+      </c>
+      <c r="C29" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2010</v>
+      </c>
+      <c r="B30" t="s">
+        <v>650</v>
+      </c>
+      <c r="C30" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2010</v>
+      </c>
+      <c r="B31" t="s">
+        <v>651</v>
+      </c>
+      <c r="C31" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32" t="s">
+        <v>652</v>
+      </c>
+      <c r="C32" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2010</v>
+      </c>
+      <c r="B33" t="s">
+        <v>653</v>
+      </c>
+      <c r="C33" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34" t="s">
+        <v>654</v>
+      </c>
+      <c r="C34" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2012</v>
+      </c>
+      <c r="B35" t="s">
+        <v>655</v>
+      </c>
+      <c r="C35" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2012</v>
+      </c>
+      <c r="B36" t="s">
+        <v>656</v>
+      </c>
+      <c r="C36" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2012</v>
+      </c>
+      <c r="B37" t="s">
+        <v>657</v>
+      </c>
+      <c r="C37" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2012</v>
+      </c>
+      <c r="B38" t="s">
+        <v>658</v>
+      </c>
+      <c r="C38" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2012</v>
+      </c>
+      <c r="B39" t="s">
+        <v>659</v>
+      </c>
+      <c r="C39" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2012</v>
+      </c>
+      <c r="B40" t="s">
+        <v>660</v>
+      </c>
+      <c r="C40" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>661</v>
+      </c>
+      <c r="C41" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2014</v>
+      </c>
+      <c r="B42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2014</v>
+      </c>
+      <c r="B43" t="s">
+        <v>663</v>
+      </c>
+      <c r="C43" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2014</v>
+      </c>
+      <c r="B44" t="s">
+        <v>664</v>
+      </c>
+      <c r="C44" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2014</v>
+      </c>
+      <c r="B45" t="s">
+        <v>665</v>
+      </c>
+      <c r="C45" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2014</v>
+      </c>
+      <c r="B46" t="s">
+        <v>666</v>
+      </c>
+      <c r="C46" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2014</v>
+      </c>
+      <c r="B47" t="s">
+        <v>667</v>
+      </c>
+      <c r="C47" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2014</v>
+      </c>
+      <c r="B48" t="s">
+        <v>668</v>
+      </c>
+      <c r="C48" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2014</v>
+      </c>
+      <c r="B49" t="s">
+        <v>669</v>
+      </c>
+      <c r="C49" t="s">
+        <v>629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3462,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5055,8 +6241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6067,11 +7253,2162 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E90"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>776</v>
+      </c>
+      <c r="C5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>778</v>
+      </c>
+      <c r="C7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>779</v>
+      </c>
+      <c r="C8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>780</v>
+      </c>
+      <c r="C9" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C10" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>782</v>
+      </c>
+      <c r="C11" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>783</v>
+      </c>
+      <c r="C12" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>784</v>
+      </c>
+      <c r="C13" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>785</v>
+      </c>
+      <c r="C14" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>786</v>
+      </c>
+      <c r="C15" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>787</v>
+      </c>
+      <c r="C16" t="s">
+        <v>723</v>
+      </c>
+      <c r="E16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>788</v>
+      </c>
+      <c r="C17" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>789</v>
+      </c>
+      <c r="C18" t="s">
+        <v>726</v>
+      </c>
+      <c r="E18" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>790</v>
+      </c>
+      <c r="C19" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>791</v>
+      </c>
+      <c r="C20" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2004</v>
+      </c>
+      <c r="B21" t="s">
+        <v>792</v>
+      </c>
+      <c r="C21" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2004</v>
+      </c>
+      <c r="B22" t="s">
+        <v>793</v>
+      </c>
+      <c r="C22" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2004</v>
+      </c>
+      <c r="B23" t="s">
+        <v>794</v>
+      </c>
+      <c r="C23" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2004</v>
+      </c>
+      <c r="B24" t="s">
+        <v>795</v>
+      </c>
+      <c r="C24" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2004</v>
+      </c>
+      <c r="B25" t="s">
+        <v>796</v>
+      </c>
+      <c r="C25" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>797</v>
+      </c>
+      <c r="C26" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2004</v>
+      </c>
+      <c r="B27" t="s">
+        <v>798</v>
+      </c>
+      <c r="C27" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2004</v>
+      </c>
+      <c r="B28" t="s">
+        <v>799</v>
+      </c>
+      <c r="C28" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2004</v>
+      </c>
+      <c r="B29" t="s">
+        <v>800</v>
+      </c>
+      <c r="C29" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2004</v>
+      </c>
+      <c r="B30" t="s">
+        <v>772</v>
+      </c>
+      <c r="C30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2004</v>
+      </c>
+      <c r="B31" t="s">
+        <v>740</v>
+      </c>
+      <c r="C31" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2004</v>
+      </c>
+      <c r="B32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C32" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>742</v>
+      </c>
+      <c r="C33" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2006</v>
+      </c>
+      <c r="B34" t="s">
+        <v>743</v>
+      </c>
+      <c r="C34" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2006</v>
+      </c>
+      <c r="B35" t="s">
+        <v>744</v>
+      </c>
+      <c r="C35" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2006</v>
+      </c>
+      <c r="B36" t="s">
+        <v>745</v>
+      </c>
+      <c r="C36" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2006</v>
+      </c>
+      <c r="B37" t="s">
+        <v>746</v>
+      </c>
+      <c r="C37" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2006</v>
+      </c>
+      <c r="B38" t="s">
+        <v>747</v>
+      </c>
+      <c r="C38" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2006</v>
+      </c>
+      <c r="B39" t="s">
+        <v>748</v>
+      </c>
+      <c r="C39" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2006</v>
+      </c>
+      <c r="B40" t="s">
+        <v>749</v>
+      </c>
+      <c r="C40" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2006</v>
+      </c>
+      <c r="B41" t="s">
+        <v>750</v>
+      </c>
+      <c r="C41" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2006</v>
+      </c>
+      <c r="B42" t="s">
+        <v>751</v>
+      </c>
+      <c r="C42" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2006</v>
+      </c>
+      <c r="B43" t="s">
+        <v>752</v>
+      </c>
+      <c r="C43" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2006</v>
+      </c>
+      <c r="B44" t="s">
+        <v>753</v>
+      </c>
+      <c r="C44" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2006</v>
+      </c>
+      <c r="B45" t="s">
+        <v>754</v>
+      </c>
+      <c r="C45" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2006</v>
+      </c>
+      <c r="B46" t="s">
+        <v>755</v>
+      </c>
+      <c r="C46" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2006</v>
+      </c>
+      <c r="B47" t="s">
+        <v>756</v>
+      </c>
+      <c r="C47" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2006</v>
+      </c>
+      <c r="B48" t="s">
+        <v>757</v>
+      </c>
+      <c r="C48" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2006</v>
+      </c>
+      <c r="B49" t="s">
+        <v>758</v>
+      </c>
+      <c r="C49" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2006</v>
+      </c>
+      <c r="B50" t="s">
+        <v>759</v>
+      </c>
+      <c r="C50" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2006</v>
+      </c>
+      <c r="B51" t="s">
+        <v>760</v>
+      </c>
+      <c r="C51" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2006</v>
+      </c>
+      <c r="B52" t="s">
+        <v>761</v>
+      </c>
+      <c r="C52" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2006</v>
+      </c>
+      <c r="B53" t="s">
+        <v>762</v>
+      </c>
+      <c r="C53" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2006</v>
+      </c>
+      <c r="B54" t="s">
+        <v>763</v>
+      </c>
+      <c r="C54" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2006</v>
+      </c>
+      <c r="B55" t="s">
+        <v>764</v>
+      </c>
+      <c r="C55" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2006</v>
+      </c>
+      <c r="B56" t="s">
+        <v>765</v>
+      </c>
+      <c r="C56" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2006</v>
+      </c>
+      <c r="B57" t="s">
+        <v>766</v>
+      </c>
+      <c r="C57" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2006</v>
+      </c>
+      <c r="B58" t="s">
+        <v>767</v>
+      </c>
+      <c r="C58" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2006</v>
+      </c>
+      <c r="B59" t="s">
+        <v>768</v>
+      </c>
+      <c r="C59" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2006</v>
+      </c>
+      <c r="B60" t="s">
+        <v>769</v>
+      </c>
+      <c r="C60" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2006</v>
+      </c>
+      <c r="B61" t="s">
+        <v>770</v>
+      </c>
+      <c r="C61" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2006</v>
+      </c>
+      <c r="B62" t="s">
+        <v>771</v>
+      </c>
+      <c r="C62" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2006</v>
+      </c>
+      <c r="B63" t="s">
+        <v>740</v>
+      </c>
+      <c r="C63" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2006</v>
+      </c>
+      <c r="B64" t="s">
+        <v>741</v>
+      </c>
+      <c r="C64" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2006</v>
+      </c>
+      <c r="B65" t="s">
+        <v>742</v>
+      </c>
+      <c r="C65" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2008</v>
+      </c>
+      <c r="B66" t="s">
+        <v>801</v>
+      </c>
+      <c r="C66" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2008</v>
+      </c>
+      <c r="B67" t="s">
+        <v>802</v>
+      </c>
+      <c r="C67" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2008</v>
+      </c>
+      <c r="B68" t="s">
+        <v>803</v>
+      </c>
+      <c r="C68" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>804</v>
+      </c>
+      <c r="C69" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2008</v>
+      </c>
+      <c r="B70" t="s">
+        <v>805</v>
+      </c>
+      <c r="C70" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2008</v>
+      </c>
+      <c r="B71" t="s">
+        <v>806</v>
+      </c>
+      <c r="C71" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2008</v>
+      </c>
+      <c r="B72" t="s">
+        <v>807</v>
+      </c>
+      <c r="C72" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2008</v>
+      </c>
+      <c r="B73" t="s">
+        <v>808</v>
+      </c>
+      <c r="C73" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2008</v>
+      </c>
+      <c r="B74" t="s">
+        <v>809</v>
+      </c>
+      <c r="C74" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2008</v>
+      </c>
+      <c r="B75" t="s">
+        <v>810</v>
+      </c>
+      <c r="C75" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2008</v>
+      </c>
+      <c r="B76" t="s">
+        <v>811</v>
+      </c>
+      <c r="C76" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2008</v>
+      </c>
+      <c r="B77" t="s">
+        <v>812</v>
+      </c>
+      <c r="C77" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2008</v>
+      </c>
+      <c r="B78" t="s">
+        <v>813</v>
+      </c>
+      <c r="C78" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2008</v>
+      </c>
+      <c r="B79" t="s">
+        <v>814</v>
+      </c>
+      <c r="C79" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2008</v>
+      </c>
+      <c r="B80" t="s">
+        <v>815</v>
+      </c>
+      <c r="C80" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2008</v>
+      </c>
+      <c r="B81" t="s">
+        <v>816</v>
+      </c>
+      <c r="C81" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2008</v>
+      </c>
+      <c r="B82" t="s">
+        <v>817</v>
+      </c>
+      <c r="C82" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2008</v>
+      </c>
+      <c r="B83" t="s">
+        <v>818</v>
+      </c>
+      <c r="C83" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2008</v>
+      </c>
+      <c r="B84" t="s">
+        <v>819</v>
+      </c>
+      <c r="C84" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2008</v>
+      </c>
+      <c r="B85" t="s">
+        <v>820</v>
+      </c>
+      <c r="C85" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2008</v>
+      </c>
+      <c r="B86" t="s">
+        <v>821</v>
+      </c>
+      <c r="C86" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2008</v>
+      </c>
+      <c r="B87" t="s">
+        <v>822</v>
+      </c>
+      <c r="C87" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2008</v>
+      </c>
+      <c r="B88" t="s">
+        <v>823</v>
+      </c>
+      <c r="C88" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2008</v>
+      </c>
+      <c r="B89" t="s">
+        <v>824</v>
+      </c>
+      <c r="C89" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2008</v>
+      </c>
+      <c r="B90" t="s">
+        <v>825</v>
+      </c>
+      <c r="C90" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2008</v>
+      </c>
+      <c r="B91" t="s">
+        <v>826</v>
+      </c>
+      <c r="C91" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2008</v>
+      </c>
+      <c r="B92" t="s">
+        <v>827</v>
+      </c>
+      <c r="C92" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2008</v>
+      </c>
+      <c r="B93" t="s">
+        <v>828</v>
+      </c>
+      <c r="C93" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2008</v>
+      </c>
+      <c r="B94" t="s">
+        <v>829</v>
+      </c>
+      <c r="C94" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2008</v>
+      </c>
+      <c r="B95" t="s">
+        <v>740</v>
+      </c>
+      <c r="C95" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2008</v>
+      </c>
+      <c r="B96" t="s">
+        <v>741</v>
+      </c>
+      <c r="C96" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2008</v>
+      </c>
+      <c r="B97" t="s">
+        <v>742</v>
+      </c>
+      <c r="C97" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2010</v>
+      </c>
+      <c r="B98" t="s">
+        <v>830</v>
+      </c>
+      <c r="C98" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2010</v>
+      </c>
+      <c r="B99" t="s">
+        <v>831</v>
+      </c>
+      <c r="C99" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2010</v>
+      </c>
+      <c r="B100" t="s">
+        <v>832</v>
+      </c>
+      <c r="C100" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2010</v>
+      </c>
+      <c r="B101" t="s">
+        <v>833</v>
+      </c>
+      <c r="C101" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>2010</v>
+      </c>
+      <c r="B102" t="s">
+        <v>834</v>
+      </c>
+      <c r="C102" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>2010</v>
+      </c>
+      <c r="B103" t="s">
+        <v>835</v>
+      </c>
+      <c r="C103" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2010</v>
+      </c>
+      <c r="B104" t="s">
+        <v>836</v>
+      </c>
+      <c r="C104" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2010</v>
+      </c>
+      <c r="B105" t="s">
+        <v>837</v>
+      </c>
+      <c r="C105" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2010</v>
+      </c>
+      <c r="B106" t="s">
+        <v>838</v>
+      </c>
+      <c r="C106" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>2010</v>
+      </c>
+      <c r="B107" t="s">
+        <v>839</v>
+      </c>
+      <c r="C107" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2010</v>
+      </c>
+      <c r="B108" t="s">
+        <v>840</v>
+      </c>
+      <c r="C108" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2010</v>
+      </c>
+      <c r="B109" t="s">
+        <v>841</v>
+      </c>
+      <c r="C109" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>2010</v>
+      </c>
+      <c r="B110" t="s">
+        <v>842</v>
+      </c>
+      <c r="C110" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>2010</v>
+      </c>
+      <c r="B111" t="s">
+        <v>843</v>
+      </c>
+      <c r="C111" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>2010</v>
+      </c>
+      <c r="B112" t="s">
+        <v>844</v>
+      </c>
+      <c r="C112" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>2010</v>
+      </c>
+      <c r="B113" t="s">
+        <v>845</v>
+      </c>
+      <c r="C113" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>2010</v>
+      </c>
+      <c r="B114" t="s">
+        <v>846</v>
+      </c>
+      <c r="C114" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>2010</v>
+      </c>
+      <c r="B115" t="s">
+        <v>847</v>
+      </c>
+      <c r="C115" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>2010</v>
+      </c>
+      <c r="B116" t="s">
+        <v>848</v>
+      </c>
+      <c r="C116" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>2010</v>
+      </c>
+      <c r="B117" t="s">
+        <v>849</v>
+      </c>
+      <c r="C117" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>2010</v>
+      </c>
+      <c r="B118" t="s">
+        <v>850</v>
+      </c>
+      <c r="C118" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>2010</v>
+      </c>
+      <c r="B119" t="s">
+        <v>851</v>
+      </c>
+      <c r="C119" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>2010</v>
+      </c>
+      <c r="B120" t="s">
+        <v>852</v>
+      </c>
+      <c r="C120" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>2010</v>
+      </c>
+      <c r="B121" t="s">
+        <v>853</v>
+      </c>
+      <c r="C121" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2010</v>
+      </c>
+      <c r="B122" t="s">
+        <v>854</v>
+      </c>
+      <c r="C122" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>2010</v>
+      </c>
+      <c r="B123" t="s">
+        <v>855</v>
+      </c>
+      <c r="C123" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>2010</v>
+      </c>
+      <c r="B124" t="s">
+        <v>856</v>
+      </c>
+      <c r="C124" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2010</v>
+      </c>
+      <c r="B125" t="s">
+        <v>857</v>
+      </c>
+      <c r="C125" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2010</v>
+      </c>
+      <c r="B126" t="s">
+        <v>858</v>
+      </c>
+      <c r="C126" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2010</v>
+      </c>
+      <c r="B127" t="s">
+        <v>740</v>
+      </c>
+      <c r="C127" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2010</v>
+      </c>
+      <c r="B128" t="s">
+        <v>741</v>
+      </c>
+      <c r="C128" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2010</v>
+      </c>
+      <c r="B129" t="s">
+        <v>742</v>
+      </c>
+      <c r="C129" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>2012</v>
+      </c>
+      <c r="B130" t="s">
+        <v>859</v>
+      </c>
+      <c r="C130" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2012</v>
+      </c>
+      <c r="B131" t="s">
+        <v>860</v>
+      </c>
+      <c r="C131" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>2012</v>
+      </c>
+      <c r="B132" t="s">
+        <v>861</v>
+      </c>
+      <c r="C132" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2012</v>
+      </c>
+      <c r="B133" t="s">
+        <v>862</v>
+      </c>
+      <c r="C133" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>2012</v>
+      </c>
+      <c r="B134" t="s">
+        <v>863</v>
+      </c>
+      <c r="C134" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>2012</v>
+      </c>
+      <c r="B135" t="s">
+        <v>864</v>
+      </c>
+      <c r="C135" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>2012</v>
+      </c>
+      <c r="B136" t="s">
+        <v>865</v>
+      </c>
+      <c r="C136" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>2012</v>
+      </c>
+      <c r="B137" t="s">
+        <v>866</v>
+      </c>
+      <c r="C137" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>2012</v>
+      </c>
+      <c r="B138" t="s">
+        <v>867</v>
+      </c>
+      <c r="C138" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2012</v>
+      </c>
+      <c r="B139" t="s">
+        <v>868</v>
+      </c>
+      <c r="C139" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>2012</v>
+      </c>
+      <c r="B140" t="s">
+        <v>869</v>
+      </c>
+      <c r="C140" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>2012</v>
+      </c>
+      <c r="B141" t="s">
+        <v>870</v>
+      </c>
+      <c r="C141" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>2012</v>
+      </c>
+      <c r="B142" t="s">
+        <v>871</v>
+      </c>
+      <c r="C142" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>2012</v>
+      </c>
+      <c r="B143" t="s">
+        <v>872</v>
+      </c>
+      <c r="C143" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2012</v>
+      </c>
+      <c r="B144" t="s">
+        <v>873</v>
+      </c>
+      <c r="C144" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2012</v>
+      </c>
+      <c r="B145" t="s">
+        <v>874</v>
+      </c>
+      <c r="C145" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2012</v>
+      </c>
+      <c r="B146" t="s">
+        <v>875</v>
+      </c>
+      <c r="C146" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2012</v>
+      </c>
+      <c r="B147" t="s">
+        <v>876</v>
+      </c>
+      <c r="C147" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>2012</v>
+      </c>
+      <c r="B148" t="s">
+        <v>877</v>
+      </c>
+      <c r="C148" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>2012</v>
+      </c>
+      <c r="B149" t="s">
+        <v>878</v>
+      </c>
+      <c r="C149" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>2012</v>
+      </c>
+      <c r="B150" t="s">
+        <v>879</v>
+      </c>
+      <c r="C150" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>2012</v>
+      </c>
+      <c r="B151" t="s">
+        <v>880</v>
+      </c>
+      <c r="C151" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>2012</v>
+      </c>
+      <c r="B152" t="s">
+        <v>881</v>
+      </c>
+      <c r="C152" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>2012</v>
+      </c>
+      <c r="B153" t="s">
+        <v>882</v>
+      </c>
+      <c r="C153" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>2012</v>
+      </c>
+      <c r="B154" t="s">
+        <v>883</v>
+      </c>
+      <c r="C154" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>2012</v>
+      </c>
+      <c r="B155" t="s">
+        <v>884</v>
+      </c>
+      <c r="C155" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>2012</v>
+      </c>
+      <c r="B156" t="s">
+        <v>885</v>
+      </c>
+      <c r="C156" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>2012</v>
+      </c>
+      <c r="B157" t="s">
+        <v>886</v>
+      </c>
+      <c r="C157" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>2012</v>
+      </c>
+      <c r="B158" t="s">
+        <v>887</v>
+      </c>
+      <c r="C158" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>2012</v>
+      </c>
+      <c r="B159" t="s">
+        <v>740</v>
+      </c>
+      <c r="C159" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>2012</v>
+      </c>
+      <c r="B160" t="s">
+        <v>741</v>
+      </c>
+      <c r="C160" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>2012</v>
+      </c>
+      <c r="B161" t="s">
+        <v>742</v>
+      </c>
+      <c r="C161" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>2014</v>
+      </c>
+      <c r="B162" t="s">
+        <v>888</v>
+      </c>
+      <c r="C162" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>2014</v>
+      </c>
+      <c r="B163" t="s">
+        <v>889</v>
+      </c>
+      <c r="C163" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>2014</v>
+      </c>
+      <c r="B164" t="s">
+        <v>890</v>
+      </c>
+      <c r="C164" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>2014</v>
+      </c>
+      <c r="B165" t="s">
+        <v>891</v>
+      </c>
+      <c r="C165" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>2014</v>
+      </c>
+      <c r="B166" t="s">
+        <v>892</v>
+      </c>
+      <c r="C166" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>2014</v>
+      </c>
+      <c r="B167" t="s">
+        <v>893</v>
+      </c>
+      <c r="C167" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>2014</v>
+      </c>
+      <c r="B168" t="s">
+        <v>894</v>
+      </c>
+      <c r="C168" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>2014</v>
+      </c>
+      <c r="B169" t="s">
+        <v>895</v>
+      </c>
+      <c r="C169" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>2014</v>
+      </c>
+      <c r="B170" t="s">
+        <v>896</v>
+      </c>
+      <c r="C170" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>2014</v>
+      </c>
+      <c r="B171" t="s">
+        <v>897</v>
+      </c>
+      <c r="C171" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>2014</v>
+      </c>
+      <c r="B172" t="s">
+        <v>898</v>
+      </c>
+      <c r="C172" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>2014</v>
+      </c>
+      <c r="B173" t="s">
+        <v>899</v>
+      </c>
+      <c r="C173" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>2014</v>
+      </c>
+      <c r="B174" t="s">
+        <v>900</v>
+      </c>
+      <c r="C174" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>2014</v>
+      </c>
+      <c r="B175" t="s">
+        <v>901</v>
+      </c>
+      <c r="C175" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>2014</v>
+      </c>
+      <c r="B176" t="s">
+        <v>902</v>
+      </c>
+      <c r="C176" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>2014</v>
+      </c>
+      <c r="B177" t="s">
+        <v>903</v>
+      </c>
+      <c r="C177" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>2014</v>
+      </c>
+      <c r="B178" t="s">
+        <v>904</v>
+      </c>
+      <c r="C178" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>2014</v>
+      </c>
+      <c r="B179" t="s">
+        <v>905</v>
+      </c>
+      <c r="C179" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>2014</v>
+      </c>
+      <c r="B180" t="s">
+        <v>906</v>
+      </c>
+      <c r="C180" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>2014</v>
+      </c>
+      <c r="B181" t="s">
+        <v>907</v>
+      </c>
+      <c r="C181" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>2014</v>
+      </c>
+      <c r="B182" t="s">
+        <v>908</v>
+      </c>
+      <c r="C182" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>2014</v>
+      </c>
+      <c r="B183" t="s">
+        <v>909</v>
+      </c>
+      <c r="C183" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>2014</v>
+      </c>
+      <c r="B184" t="s">
+        <v>910</v>
+      </c>
+      <c r="C184" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>2014</v>
+      </c>
+      <c r="B185" t="s">
+        <v>911</v>
+      </c>
+      <c r="C185" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>2014</v>
+      </c>
+      <c r="B186" t="s">
+        <v>912</v>
+      </c>
+      <c r="C186" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>2014</v>
+      </c>
+      <c r="B187" t="s">
+        <v>913</v>
+      </c>
+      <c r="C187" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>2014</v>
+      </c>
+      <c r="B188" t="s">
+        <v>914</v>
+      </c>
+      <c r="C188" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>2014</v>
+      </c>
+      <c r="B189" t="s">
+        <v>915</v>
+      </c>
+      <c r="C189" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>2014</v>
+      </c>
+      <c r="B190" t="s">
+        <v>916</v>
+      </c>
+      <c r="C190" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>2014</v>
+      </c>
+      <c r="B191" t="s">
+        <v>740</v>
+      </c>
+      <c r="C191" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>2014</v>
+      </c>
+      <c r="B192" t="s">
+        <v>741</v>
+      </c>
+      <c r="C192" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>2014</v>
+      </c>
+      <c r="B193" t="s">
+        <v>742</v>
+      </c>
+      <c r="C193" t="s">
+        <v>742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E165"/>
   <sheetViews>
@@ -7907,7 +11244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
@@ -8346,7 +11683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -8510,7 +11847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
@@ -9002,564 +12339,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2004</v>
-      </c>
-      <c r="B2" t="s">
-        <v>614</v>
-      </c>
-      <c r="C2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2004</v>
-      </c>
-      <c r="B3" t="s">
-        <v>615</v>
-      </c>
-      <c r="C3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2004</v>
-      </c>
-      <c r="B4" t="s">
-        <v>616</v>
-      </c>
-      <c r="C4" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>617</v>
-      </c>
-      <c r="C5" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>618</v>
-      </c>
-      <c r="C6" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>619</v>
-      </c>
-      <c r="C7" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>620</v>
-      </c>
-      <c r="C8" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2004</v>
-      </c>
-      <c r="B9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C9" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2006</v>
-      </c>
-      <c r="B10" t="s">
-        <v>630</v>
-      </c>
-      <c r="C10" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2006</v>
-      </c>
-      <c r="B11" t="s">
-        <v>631</v>
-      </c>
-      <c r="C11" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2006</v>
-      </c>
-      <c r="B12" t="s">
-        <v>632</v>
-      </c>
-      <c r="C12" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2006</v>
-      </c>
-      <c r="B13" t="s">
-        <v>633</v>
-      </c>
-      <c r="C13" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2006</v>
-      </c>
-      <c r="B14" t="s">
-        <v>634</v>
-      </c>
-      <c r="C14" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2006</v>
-      </c>
-      <c r="B15" t="s">
-        <v>635</v>
-      </c>
-      <c r="C15" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2006</v>
-      </c>
-      <c r="B16" t="s">
-        <v>636</v>
-      </c>
-      <c r="C16" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2006</v>
-      </c>
-      <c r="B17" t="s">
-        <v>637</v>
-      </c>
-      <c r="C17" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2008</v>
-      </c>
-      <c r="B18" t="s">
-        <v>638</v>
-      </c>
-      <c r="C18" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2008</v>
-      </c>
-      <c r="B19" t="s">
-        <v>639</v>
-      </c>
-      <c r="C19" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2008</v>
-      </c>
-      <c r="B20" t="s">
-        <v>640</v>
-      </c>
-      <c r="C20" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2008</v>
-      </c>
-      <c r="B21" t="s">
-        <v>641</v>
-      </c>
-      <c r="C21" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2008</v>
-      </c>
-      <c r="B22" t="s">
-        <v>642</v>
-      </c>
-      <c r="C22" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2008</v>
-      </c>
-      <c r="B23" t="s">
-        <v>643</v>
-      </c>
-      <c r="C23" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2008</v>
-      </c>
-      <c r="B24" t="s">
-        <v>644</v>
-      </c>
-      <c r="C24" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2008</v>
-      </c>
-      <c r="B25" t="s">
-        <v>645</v>
-      </c>
-      <c r="C25" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2010</v>
-      </c>
-      <c r="B26" t="s">
-        <v>646</v>
-      </c>
-      <c r="C26" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2010</v>
-      </c>
-      <c r="B27" t="s">
-        <v>647</v>
-      </c>
-      <c r="C27" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2010</v>
-      </c>
-      <c r="B28" t="s">
-        <v>648</v>
-      </c>
-      <c r="C28" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2010</v>
-      </c>
-      <c r="B29" t="s">
-        <v>649</v>
-      </c>
-      <c r="C29" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2010</v>
-      </c>
-      <c r="B30" t="s">
-        <v>650</v>
-      </c>
-      <c r="C30" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2010</v>
-      </c>
-      <c r="B31" t="s">
-        <v>651</v>
-      </c>
-      <c r="C31" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2010</v>
-      </c>
-      <c r="B32" t="s">
-        <v>652</v>
-      </c>
-      <c r="C32" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2010</v>
-      </c>
-      <c r="B33" t="s">
-        <v>653</v>
-      </c>
-      <c r="C33" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2012</v>
-      </c>
-      <c r="B34" t="s">
-        <v>654</v>
-      </c>
-      <c r="C34" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2012</v>
-      </c>
-      <c r="B35" t="s">
-        <v>655</v>
-      </c>
-      <c r="C35" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2012</v>
-      </c>
-      <c r="B36" t="s">
-        <v>656</v>
-      </c>
-      <c r="C36" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2012</v>
-      </c>
-      <c r="B37" t="s">
-        <v>657</v>
-      </c>
-      <c r="C37" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2012</v>
-      </c>
-      <c r="B38" t="s">
-        <v>658</v>
-      </c>
-      <c r="C38" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2012</v>
-      </c>
-      <c r="B39" t="s">
-        <v>659</v>
-      </c>
-      <c r="C39" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2012</v>
-      </c>
-      <c r="B40" t="s">
-        <v>660</v>
-      </c>
-      <c r="C40" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>2012</v>
-      </c>
-      <c r="B41" t="s">
-        <v>661</v>
-      </c>
-      <c r="C41" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>2014</v>
-      </c>
-      <c r="B42" t="s">
-        <v>662</v>
-      </c>
-      <c r="C42" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>2014</v>
-      </c>
-      <c r="B43" t="s">
-        <v>663</v>
-      </c>
-      <c r="C43" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>2014</v>
-      </c>
-      <c r="B44" t="s">
-        <v>664</v>
-      </c>
-      <c r="C44" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>2014</v>
-      </c>
-      <c r="B45" t="s">
-        <v>665</v>
-      </c>
-      <c r="C45" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>2014</v>
-      </c>
-      <c r="B46" t="s">
-        <v>666</v>
-      </c>
-      <c r="C46" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>2014</v>
-      </c>
-      <c r="B47" t="s">
-        <v>667</v>
-      </c>
-      <c r="C47" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>2014</v>
-      </c>
-      <c r="B48" t="s">
-        <v>668</v>
-      </c>
-      <c r="C48" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>2014</v>
-      </c>
-      <c r="B49" t="s">
-        <v>669</v>
-      </c>
-      <c r="C49" t="s">
-        <v>629</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="loneliness" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="912">
   <si>
     <t>year</t>
   </si>
@@ -2359,12 +2359,6 @@
     <t>kb063</t>
   </si>
   <si>
-    <t>kx060_r</t>
-  </si>
-  <si>
-    <t>jx060_r</t>
-  </si>
-  <si>
     <t>ja500</t>
   </si>
   <si>
@@ -2533,9 +2527,6 @@
     <t>lb063</t>
   </si>
   <si>
-    <t>lx060_r</t>
-  </si>
-  <si>
     <t>ma500</t>
   </si>
   <si>
@@ -2620,9 +2611,6 @@
     <t>mb063</t>
   </si>
   <si>
-    <t>mx060_r</t>
-  </si>
-  <si>
     <t>na500</t>
   </si>
   <si>
@@ -2707,9 +2695,6 @@
     <t>nb063</t>
   </si>
   <si>
-    <t>nx060_r</t>
-  </si>
-  <si>
     <t>oa500</t>
   </si>
   <si>
@@ -2794,7 +2779,7 @@
     <t>ob063</t>
   </si>
   <si>
-    <t>ox060_r</t>
+    <t>gender</t>
   </si>
 </sst>
 </file>
@@ -7262,8 +7247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7290,7 +7275,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C2" t="s">
         <v>711</v>
@@ -7301,7 +7286,7 @@
         <v>2004</v>
       </c>
       <c r="B3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C3" t="s">
         <v>709</v>
@@ -7312,7 +7297,7 @@
         <v>2004</v>
       </c>
       <c r="B4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C4" t="s">
         <v>710</v>
@@ -7323,7 +7308,7 @@
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C5" t="s">
         <v>712</v>
@@ -7334,7 +7319,7 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C6" t="s">
         <v>713</v>
@@ -7345,7 +7330,7 @@
         <v>2004</v>
       </c>
       <c r="B7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C7" t="s">
         <v>714</v>
@@ -7356,7 +7341,7 @@
         <v>2004</v>
       </c>
       <c r="B8" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C8" t="s">
         <v>715</v>
@@ -7367,7 +7352,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C9" t="s">
         <v>716</v>
@@ -7378,7 +7363,7 @@
         <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C10" t="s">
         <v>717</v>
@@ -7389,7 +7374,7 @@
         <v>2004</v>
       </c>
       <c r="B11" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C11" t="s">
         <v>718</v>
@@ -7400,7 +7385,7 @@
         <v>2004</v>
       </c>
       <c r="B12" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C12" t="s">
         <v>719</v>
@@ -7411,7 +7396,7 @@
         <v>2004</v>
       </c>
       <c r="B13" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C13" t="s">
         <v>720</v>
@@ -7422,7 +7407,7 @@
         <v>2004</v>
       </c>
       <c r="B14" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C14" t="s">
         <v>721</v>
@@ -7433,7 +7418,7 @@
         <v>2004</v>
       </c>
       <c r="B15" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C15" t="s">
         <v>722</v>
@@ -7444,7 +7429,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C16" t="s">
         <v>723</v>
@@ -7458,7 +7443,7 @@
         <v>2004</v>
       </c>
       <c r="B17" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C17" t="s">
         <v>725</v>
@@ -7469,7 +7454,7 @@
         <v>2004</v>
       </c>
       <c r="B18" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C18" t="s">
         <v>726</v>
@@ -7483,7 +7468,7 @@
         <v>2004</v>
       </c>
       <c r="B19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C19" t="s">
         <v>728</v>
@@ -7494,7 +7479,7 @@
         <v>2004</v>
       </c>
       <c r="B20" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C20" t="s">
         <v>729</v>
@@ -7505,7 +7490,7 @@
         <v>2004</v>
       </c>
       <c r="B21" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C21" t="s">
         <v>730</v>
@@ -7516,7 +7501,7 @@
         <v>2004</v>
       </c>
       <c r="B22" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C22" t="s">
         <v>731</v>
@@ -7527,7 +7512,7 @@
         <v>2004</v>
       </c>
       <c r="B23" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C23" t="s">
         <v>732</v>
@@ -7538,7 +7523,7 @@
         <v>2004</v>
       </c>
       <c r="B24" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C24" t="s">
         <v>733</v>
@@ -7549,7 +7534,7 @@
         <v>2004</v>
       </c>
       <c r="B25" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C25" t="s">
         <v>734</v>
@@ -7560,7 +7545,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C26" t="s">
         <v>735</v>
@@ -7571,7 +7556,7 @@
         <v>2004</v>
       </c>
       <c r="B27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C27" t="s">
         <v>736</v>
@@ -7582,7 +7567,7 @@
         <v>2004</v>
       </c>
       <c r="B28" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C28" t="s">
         <v>737</v>
@@ -7593,7 +7578,7 @@
         <v>2004</v>
       </c>
       <c r="B29" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C29" t="s">
         <v>738</v>
@@ -7604,7 +7589,7 @@
         <v>2004</v>
       </c>
       <c r="B30" t="s">
-        <v>772</v>
+        <v>911</v>
       </c>
       <c r="C30" t="s">
         <v>739</v>
@@ -7956,7 +7941,7 @@
         <v>2006</v>
       </c>
       <c r="B62" t="s">
-        <v>771</v>
+        <v>911</v>
       </c>
       <c r="C62" t="s">
         <v>739</v>
@@ -8000,7 +7985,7 @@
         <v>2008</v>
       </c>
       <c r="B66" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C66" t="s">
         <v>711</v>
@@ -8011,7 +7996,7 @@
         <v>2008</v>
       </c>
       <c r="B67" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C67" t="s">
         <v>709</v>
@@ -8022,7 +8007,7 @@
         <v>2008</v>
       </c>
       <c r="B68" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C68" t="s">
         <v>710</v>
@@ -8033,7 +8018,7 @@
         <v>2008</v>
       </c>
       <c r="B69" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C69" t="s">
         <v>712</v>
@@ -8044,7 +8029,7 @@
         <v>2008</v>
       </c>
       <c r="B70" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C70" t="s">
         <v>713</v>
@@ -8055,7 +8040,7 @@
         <v>2008</v>
       </c>
       <c r="B71" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C71" t="s">
         <v>714</v>
@@ -8066,7 +8051,7 @@
         <v>2008</v>
       </c>
       <c r="B72" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C72" t="s">
         <v>715</v>
@@ -8077,7 +8062,7 @@
         <v>2008</v>
       </c>
       <c r="B73" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C73" t="s">
         <v>716</v>
@@ -8088,7 +8073,7 @@
         <v>2008</v>
       </c>
       <c r="B74" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C74" t="s">
         <v>717</v>
@@ -8099,7 +8084,7 @@
         <v>2008</v>
       </c>
       <c r="B75" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C75" t="s">
         <v>718</v>
@@ -8110,7 +8095,7 @@
         <v>2008</v>
       </c>
       <c r="B76" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C76" t="s">
         <v>719</v>
@@ -8121,7 +8106,7 @@
         <v>2008</v>
       </c>
       <c r="B77" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C77" t="s">
         <v>720</v>
@@ -8132,7 +8117,7 @@
         <v>2008</v>
       </c>
       <c r="B78" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C78" t="s">
         <v>721</v>
@@ -8143,7 +8128,7 @@
         <v>2008</v>
       </c>
       <c r="B79" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C79" t="s">
         <v>722</v>
@@ -8154,7 +8139,7 @@
         <v>2008</v>
       </c>
       <c r="B80" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C80" t="s">
         <v>723</v>
@@ -8165,7 +8150,7 @@
         <v>2008</v>
       </c>
       <c r="B81" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C81" t="s">
         <v>725</v>
@@ -8176,7 +8161,7 @@
         <v>2008</v>
       </c>
       <c r="B82" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C82" t="s">
         <v>726</v>
@@ -8187,7 +8172,7 @@
         <v>2008</v>
       </c>
       <c r="B83" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C83" t="s">
         <v>728</v>
@@ -8198,7 +8183,7 @@
         <v>2008</v>
       </c>
       <c r="B84" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C84" t="s">
         <v>729</v>
@@ -8209,7 +8194,7 @@
         <v>2008</v>
       </c>
       <c r="B85" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C85" t="s">
         <v>730</v>
@@ -8220,7 +8205,7 @@
         <v>2008</v>
       </c>
       <c r="B86" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C86" t="s">
         <v>731</v>
@@ -8231,7 +8216,7 @@
         <v>2008</v>
       </c>
       <c r="B87" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C87" t="s">
         <v>732</v>
@@ -8242,7 +8227,7 @@
         <v>2008</v>
       </c>
       <c r="B88" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C88" t="s">
         <v>733</v>
@@ -8253,7 +8238,7 @@
         <v>2008</v>
       </c>
       <c r="B89" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C89" t="s">
         <v>734</v>
@@ -8264,7 +8249,7 @@
         <v>2008</v>
       </c>
       <c r="B90" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C90" t="s">
         <v>735</v>
@@ -8275,7 +8260,7 @@
         <v>2008</v>
       </c>
       <c r="B91" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C91" t="s">
         <v>736</v>
@@ -8286,7 +8271,7 @@
         <v>2008</v>
       </c>
       <c r="B92" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C92" t="s">
         <v>737</v>
@@ -8297,7 +8282,7 @@
         <v>2008</v>
       </c>
       <c r="B93" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C93" t="s">
         <v>738</v>
@@ -8308,7 +8293,7 @@
         <v>2008</v>
       </c>
       <c r="B94" t="s">
-        <v>829</v>
+        <v>911</v>
       </c>
       <c r="C94" t="s">
         <v>739</v>
@@ -8352,7 +8337,7 @@
         <v>2010</v>
       </c>
       <c r="B98" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C98" t="s">
         <v>711</v>
@@ -8363,7 +8348,7 @@
         <v>2010</v>
       </c>
       <c r="B99" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C99" t="s">
         <v>709</v>
@@ -8374,7 +8359,7 @@
         <v>2010</v>
       </c>
       <c r="B100" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C100" t="s">
         <v>710</v>
@@ -8385,7 +8370,7 @@
         <v>2010</v>
       </c>
       <c r="B101" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C101" t="s">
         <v>712</v>
@@ -8396,7 +8381,7 @@
         <v>2010</v>
       </c>
       <c r="B102" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C102" t="s">
         <v>713</v>
@@ -8407,7 +8392,7 @@
         <v>2010</v>
       </c>
       <c r="B103" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C103" t="s">
         <v>714</v>
@@ -8418,7 +8403,7 @@
         <v>2010</v>
       </c>
       <c r="B104" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C104" t="s">
         <v>715</v>
@@ -8429,7 +8414,7 @@
         <v>2010</v>
       </c>
       <c r="B105" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C105" t="s">
         <v>716</v>
@@ -8440,7 +8425,7 @@
         <v>2010</v>
       </c>
       <c r="B106" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C106" t="s">
         <v>717</v>
@@ -8451,7 +8436,7 @@
         <v>2010</v>
       </c>
       <c r="B107" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C107" t="s">
         <v>718</v>
@@ -8462,7 +8447,7 @@
         <v>2010</v>
       </c>
       <c r="B108" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C108" t="s">
         <v>719</v>
@@ -8473,7 +8458,7 @@
         <v>2010</v>
       </c>
       <c r="B109" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C109" t="s">
         <v>720</v>
@@ -8484,7 +8469,7 @@
         <v>2010</v>
       </c>
       <c r="B110" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C110" t="s">
         <v>721</v>
@@ -8495,7 +8480,7 @@
         <v>2010</v>
       </c>
       <c r="B111" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C111" t="s">
         <v>722</v>
@@ -8506,7 +8491,7 @@
         <v>2010</v>
       </c>
       <c r="B112" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C112" t="s">
         <v>723</v>
@@ -8517,7 +8502,7 @@
         <v>2010</v>
       </c>
       <c r="B113" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C113" t="s">
         <v>725</v>
@@ -8528,7 +8513,7 @@
         <v>2010</v>
       </c>
       <c r="B114" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C114" t="s">
         <v>726</v>
@@ -8539,7 +8524,7 @@
         <v>2010</v>
       </c>
       <c r="B115" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C115" t="s">
         <v>728</v>
@@ -8550,7 +8535,7 @@
         <v>2010</v>
       </c>
       <c r="B116" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C116" t="s">
         <v>729</v>
@@ -8561,7 +8546,7 @@
         <v>2010</v>
       </c>
       <c r="B117" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C117" t="s">
         <v>730</v>
@@ -8572,7 +8557,7 @@
         <v>2010</v>
       </c>
       <c r="B118" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C118" t="s">
         <v>731</v>
@@ -8583,7 +8568,7 @@
         <v>2010</v>
       </c>
       <c r="B119" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C119" t="s">
         <v>732</v>
@@ -8594,7 +8579,7 @@
         <v>2010</v>
       </c>
       <c r="B120" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C120" t="s">
         <v>733</v>
@@ -8605,7 +8590,7 @@
         <v>2010</v>
       </c>
       <c r="B121" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C121" t="s">
         <v>734</v>
@@ -8616,7 +8601,7 @@
         <v>2010</v>
       </c>
       <c r="B122" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C122" t="s">
         <v>735</v>
@@ -8627,7 +8612,7 @@
         <v>2010</v>
       </c>
       <c r="B123" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C123" t="s">
         <v>736</v>
@@ -8638,7 +8623,7 @@
         <v>2010</v>
       </c>
       <c r="B124" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C124" t="s">
         <v>737</v>
@@ -8649,7 +8634,7 @@
         <v>2010</v>
       </c>
       <c r="B125" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C125" t="s">
         <v>738</v>
@@ -8660,7 +8645,7 @@
         <v>2010</v>
       </c>
       <c r="B126" t="s">
-        <v>858</v>
+        <v>911</v>
       </c>
       <c r="C126" t="s">
         <v>739</v>
@@ -8704,7 +8689,7 @@
         <v>2012</v>
       </c>
       <c r="B130" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C130" t="s">
         <v>711</v>
@@ -8715,7 +8700,7 @@
         <v>2012</v>
       </c>
       <c r="B131" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C131" t="s">
         <v>709</v>
@@ -8726,7 +8711,7 @@
         <v>2012</v>
       </c>
       <c r="B132" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C132" t="s">
         <v>710</v>
@@ -8737,7 +8722,7 @@
         <v>2012</v>
       </c>
       <c r="B133" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C133" t="s">
         <v>712</v>
@@ -8748,7 +8733,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C134" t="s">
         <v>713</v>
@@ -8759,7 +8744,7 @@
         <v>2012</v>
       </c>
       <c r="B135" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C135" t="s">
         <v>714</v>
@@ -8770,7 +8755,7 @@
         <v>2012</v>
       </c>
       <c r="B136" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C136" t="s">
         <v>715</v>
@@ -8781,7 +8766,7 @@
         <v>2012</v>
       </c>
       <c r="B137" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C137" t="s">
         <v>716</v>
@@ -8792,7 +8777,7 @@
         <v>2012</v>
       </c>
       <c r="B138" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C138" t="s">
         <v>717</v>
@@ -8803,7 +8788,7 @@
         <v>2012</v>
       </c>
       <c r="B139" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C139" t="s">
         <v>718</v>
@@ -8814,7 +8799,7 @@
         <v>2012</v>
       </c>
       <c r="B140" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C140" t="s">
         <v>719</v>
@@ -8825,7 +8810,7 @@
         <v>2012</v>
       </c>
       <c r="B141" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C141" t="s">
         <v>720</v>
@@ -8836,7 +8821,7 @@
         <v>2012</v>
       </c>
       <c r="B142" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C142" t="s">
         <v>721</v>
@@ -8847,7 +8832,7 @@
         <v>2012</v>
       </c>
       <c r="B143" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C143" t="s">
         <v>722</v>
@@ -8858,7 +8843,7 @@
         <v>2012</v>
       </c>
       <c r="B144" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C144" t="s">
         <v>723</v>
@@ -8869,7 +8854,7 @@
         <v>2012</v>
       </c>
       <c r="B145" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C145" t="s">
         <v>725</v>
@@ -8880,7 +8865,7 @@
         <v>2012</v>
       </c>
       <c r="B146" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C146" t="s">
         <v>726</v>
@@ -8891,7 +8876,7 @@
         <v>2012</v>
       </c>
       <c r="B147" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C147" t="s">
         <v>728</v>
@@ -8902,7 +8887,7 @@
         <v>2012</v>
       </c>
       <c r="B148" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C148" t="s">
         <v>729</v>
@@ -8913,7 +8898,7 @@
         <v>2012</v>
       </c>
       <c r="B149" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C149" t="s">
         <v>730</v>
@@ -8924,7 +8909,7 @@
         <v>2012</v>
       </c>
       <c r="B150" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C150" t="s">
         <v>731</v>
@@ -8935,7 +8920,7 @@
         <v>2012</v>
       </c>
       <c r="B151" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C151" t="s">
         <v>732</v>
@@ -8946,7 +8931,7 @@
         <v>2012</v>
       </c>
       <c r="B152" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C152" t="s">
         <v>733</v>
@@ -8957,7 +8942,7 @@
         <v>2012</v>
       </c>
       <c r="B153" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C153" t="s">
         <v>734</v>
@@ -8968,7 +8953,7 @@
         <v>2012</v>
       </c>
       <c r="B154" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C154" t="s">
         <v>735</v>
@@ -8979,7 +8964,7 @@
         <v>2012</v>
       </c>
       <c r="B155" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C155" t="s">
         <v>736</v>
@@ -8990,7 +8975,7 @@
         <v>2012</v>
       </c>
       <c r="B156" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C156" t="s">
         <v>737</v>
@@ -9001,7 +8986,7 @@
         <v>2012</v>
       </c>
       <c r="B157" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C157" t="s">
         <v>738</v>
@@ -9012,7 +8997,7 @@
         <v>2012</v>
       </c>
       <c r="B158" t="s">
-        <v>887</v>
+        <v>911</v>
       </c>
       <c r="C158" t="s">
         <v>739</v>
@@ -9056,7 +9041,7 @@
         <v>2014</v>
       </c>
       <c r="B162" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C162" t="s">
         <v>711</v>
@@ -9067,7 +9052,7 @@
         <v>2014</v>
       </c>
       <c r="B163" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C163" t="s">
         <v>709</v>
@@ -9078,7 +9063,7 @@
         <v>2014</v>
       </c>
       <c r="B164" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C164" t="s">
         <v>710</v>
@@ -9089,7 +9074,7 @@
         <v>2014</v>
       </c>
       <c r="B165" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="C165" t="s">
         <v>712</v>
@@ -9100,7 +9085,7 @@
         <v>2014</v>
       </c>
       <c r="B166" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C166" t="s">
         <v>713</v>
@@ -9111,7 +9096,7 @@
         <v>2014</v>
       </c>
       <c r="B167" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C167" t="s">
         <v>714</v>
@@ -9122,7 +9107,7 @@
         <v>2014</v>
       </c>
       <c r="B168" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C168" t="s">
         <v>715</v>
@@ -9133,7 +9118,7 @@
         <v>2014</v>
       </c>
       <c r="B169" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="C169" t="s">
         <v>716</v>
@@ -9144,7 +9129,7 @@
         <v>2014</v>
       </c>
       <c r="B170" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C170" t="s">
         <v>717</v>
@@ -9155,7 +9140,7 @@
         <v>2014</v>
       </c>
       <c r="B171" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="C171" t="s">
         <v>718</v>
@@ -9166,7 +9151,7 @@
         <v>2014</v>
       </c>
       <c r="B172" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="C172" t="s">
         <v>719</v>
@@ -9177,7 +9162,7 @@
         <v>2014</v>
       </c>
       <c r="B173" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="C173" t="s">
         <v>720</v>
@@ -9188,7 +9173,7 @@
         <v>2014</v>
       </c>
       <c r="B174" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C174" t="s">
         <v>721</v>
@@ -9199,7 +9184,7 @@
         <v>2014</v>
       </c>
       <c r="B175" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C175" t="s">
         <v>722</v>
@@ -9210,7 +9195,7 @@
         <v>2014</v>
       </c>
       <c r="B176" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C176" t="s">
         <v>723</v>
@@ -9221,7 +9206,7 @@
         <v>2014</v>
       </c>
       <c r="B177" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C177" t="s">
         <v>725</v>
@@ -9232,7 +9217,7 @@
         <v>2014</v>
       </c>
       <c r="B178" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="C178" t="s">
         <v>726</v>
@@ -9243,7 +9228,7 @@
         <v>2014</v>
       </c>
       <c r="B179" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="C179" t="s">
         <v>728</v>
@@ -9254,7 +9239,7 @@
         <v>2014</v>
       </c>
       <c r="B180" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C180" t="s">
         <v>729</v>
@@ -9265,7 +9250,7 @@
         <v>2014</v>
       </c>
       <c r="B181" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="C181" t="s">
         <v>730</v>
@@ -9276,7 +9261,7 @@
         <v>2014</v>
       </c>
       <c r="B182" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="C182" t="s">
         <v>731</v>
@@ -9287,7 +9272,7 @@
         <v>2014</v>
       </c>
       <c r="B183" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C183" t="s">
         <v>732</v>
@@ -9298,7 +9283,7 @@
         <v>2014</v>
       </c>
       <c r="B184" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C184" t="s">
         <v>733</v>
@@ -9309,7 +9294,7 @@
         <v>2014</v>
       </c>
       <c r="B185" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C185" t="s">
         <v>734</v>
@@ -9320,7 +9305,7 @@
         <v>2014</v>
       </c>
       <c r="B186" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C186" t="s">
         <v>735</v>
@@ -9331,7 +9316,7 @@
         <v>2014</v>
       </c>
       <c r="B187" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C187" t="s">
         <v>736</v>
@@ -9342,7 +9327,7 @@
         <v>2014</v>
       </c>
       <c r="B188" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C188" t="s">
         <v>737</v>
@@ -9353,7 +9338,7 @@
         <v>2014</v>
       </c>
       <c r="B189" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C189" t="s">
         <v>738</v>
@@ -9364,7 +9349,7 @@
         <v>2014</v>
       </c>
       <c r="B190" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C190" t="s">
         <v>739</v>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="911">
   <si>
     <t>year</t>
   </si>
@@ -2765,9 +2765,6 @@
   </si>
   <si>
     <t>ob082</t>
-  </si>
-  <si>
-    <t>ob053</t>
   </si>
   <si>
     <t>ob054</t>
@@ -7245,10 +7242,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186:XFD186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7589,7 +7586,7 @@
         <v>2004</v>
       </c>
       <c r="B30" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C30" t="s">
         <v>739</v>
@@ -7941,7 +7938,7 @@
         <v>2006</v>
       </c>
       <c r="B62" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C62" t="s">
         <v>739</v>
@@ -8293,7 +8290,7 @@
         <v>2008</v>
       </c>
       <c r="B94" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C94" t="s">
         <v>739</v>
@@ -8645,7 +8642,7 @@
         <v>2010</v>
       </c>
       <c r="B126" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C126" t="s">
         <v>739</v>
@@ -8997,7 +8994,7 @@
         <v>2012</v>
       </c>
       <c r="B158" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C158" t="s">
         <v>739</v>
@@ -9308,7 +9305,7 @@
         <v>907</v>
       </c>
       <c r="C186" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -9319,7 +9316,7 @@
         <v>908</v>
       </c>
       <c r="C187" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -9330,7 +9327,7 @@
         <v>909</v>
       </c>
       <c r="C188" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -9341,7 +9338,7 @@
         <v>910</v>
       </c>
       <c r="C189" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -9349,10 +9346,10 @@
         <v>2014</v>
       </c>
       <c r="B190" t="s">
-        <v>911</v>
+        <v>740</v>
       </c>
       <c r="C190" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -9360,10 +9357,10 @@
         <v>2014</v>
       </c>
       <c r="B191" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C191" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -9371,20 +9368,9 @@
         <v>2014</v>
       </c>
       <c r="B192" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C192" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>2014</v>
-      </c>
-      <c r="B193" t="s">
-        <v>742</v>
-      </c>
-      <c r="C193" t="s">
         <v>742</v>
       </c>
     </row>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="911">
   <si>
     <t>year</t>
   </si>
@@ -7242,10 +7242,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E192"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186:XFD186"/>
+      <selection activeCell="A189" sqref="A189:XFD189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9335,10 +9335,10 @@
         <v>2014</v>
       </c>
       <c r="B189" t="s">
-        <v>910</v>
+        <v>740</v>
       </c>
       <c r="C189" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -9346,10 +9346,10 @@
         <v>2014</v>
       </c>
       <c r="B190" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C190" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -9357,20 +9357,9 @@
         <v>2014</v>
       </c>
       <c r="B191" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C191" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>2014</v>
-      </c>
-      <c r="B192" t="s">
-        <v>742</v>
-      </c>
-      <c r="C192" t="s">
         <v>742</v>
       </c>
     </row>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="4"/>
+    <workbookView xWindow="1580" yWindow="460" windowWidth="33600" windowHeight="20460" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="loneliness" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="911">
   <si>
     <t>year</t>
   </si>
@@ -2812,9 +2812,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4636,14 +4635,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -4660,7 +4659,7 @@
       <c r="A2">
         <v>2004</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
@@ -4671,7 +4670,7 @@
       <c r="A3">
         <v>2004</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C3" t="s">
@@ -4682,7 +4681,7 @@
       <c r="A4">
         <v>2004</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C4" t="s">
@@ -4693,7 +4692,7 @@
       <c r="A5">
         <v>2004</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C5" t="s">
@@ -4704,7 +4703,7 @@
       <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C6" t="s">
@@ -4715,7 +4714,7 @@
       <c r="A7">
         <v>2006</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
@@ -4726,7 +4725,7 @@
       <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C8" t="s">
@@ -4737,7 +4736,7 @@
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C9" t="s">
@@ -4748,7 +4747,7 @@
       <c r="A10">
         <v>2006</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C10" t="s">
@@ -4759,7 +4758,7 @@
       <c r="A11">
         <v>2006</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C11" t="s">
@@ -4770,7 +4769,7 @@
       <c r="A12">
         <v>2008</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C12" t="s">
@@ -4781,7 +4780,7 @@
       <c r="A13">
         <v>2008</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C13" t="s">
@@ -4792,7 +4791,7 @@
       <c r="A14">
         <v>2008</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C14" t="s">
@@ -4803,7 +4802,7 @@
       <c r="A15">
         <v>2008</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C15" t="s">
@@ -4814,7 +4813,7 @@
       <c r="A16">
         <v>2008</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C16" t="s">
@@ -4825,7 +4824,7 @@
       <c r="A17">
         <v>2010</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
@@ -4836,7 +4835,7 @@
       <c r="A18">
         <v>2010</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C18" t="s">
@@ -4847,7 +4846,7 @@
       <c r="A19">
         <v>2010</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
@@ -4858,7 +4857,7 @@
       <c r="A20">
         <v>2010</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C20" t="s">
@@ -4869,7 +4868,7 @@
       <c r="A21">
         <v>2010</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C21" t="s">
@@ -4880,7 +4879,7 @@
       <c r="A22">
         <v>2012</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C22" t="s">
@@ -4891,7 +4890,7 @@
       <c r="A23">
         <v>2012</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C23" t="s">
@@ -4902,7 +4901,7 @@
       <c r="A24">
         <v>2012</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C24" t="s">
@@ -4913,7 +4912,7 @@
       <c r="A25">
         <v>2012</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C25" t="s">
@@ -4924,7 +4923,7 @@
       <c r="A26">
         <v>2012</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C26" t="s">
@@ -4935,7 +4934,7 @@
       <c r="A27">
         <v>2014</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C27" t="s">
@@ -4946,7 +4945,7 @@
       <c r="A28">
         <v>2014</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C28" t="s">
@@ -4957,7 +4956,7 @@
       <c r="A29">
         <v>2014</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C29" t="s">
@@ -4968,7 +4967,7 @@
       <c r="A30">
         <v>2014</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C30" t="s">
@@ -4979,7 +4978,7 @@
       <c r="A31">
         <v>2014</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C31" t="s">
@@ -4993,10 +4992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5204,1013 +5203,749 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2004</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>145</v>
+        <v>2006</v>
+      </c>
+      <c r="B29" t="s">
+        <v>183</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2004</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>147</v>
+        <v>2006</v>
+      </c>
+      <c r="B30" t="s">
+        <v>184</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2004</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>149</v>
+        <v>2006</v>
+      </c>
+      <c r="B31" t="s">
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2004</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>151</v>
+        <v>2006</v>
+      </c>
+      <c r="B32" t="s">
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2004</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>2006</v>
+      </c>
+      <c r="B33" t="s">
+        <v>187</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B67" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B68" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B69" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="C71" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B75" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B76" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B77" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B78" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B79" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B80" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B81" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C81" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B82" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B83" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B84" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="C84" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B85" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B86" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>2010</v>
-      </c>
-      <c r="B87" t="s">
-        <v>217</v>
-      </c>
-      <c r="C87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>2010</v>
-      </c>
-      <c r="B88" t="s">
-        <v>218</v>
-      </c>
-      <c r="C88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>2010</v>
-      </c>
-      <c r="B89" t="s">
-        <v>219</v>
-      </c>
-      <c r="C89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>2010</v>
-      </c>
-      <c r="B90" t="s">
-        <v>220</v>
-      </c>
-      <c r="C90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>2010</v>
-      </c>
-      <c r="B91" t="s">
-        <v>221</v>
-      </c>
-      <c r="C91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>2010</v>
-      </c>
-      <c r="B92" t="s">
-        <v>222</v>
-      </c>
-      <c r="C92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>2010</v>
-      </c>
-      <c r="B93" t="s">
-        <v>223</v>
-      </c>
-      <c r="C93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>2012</v>
-      </c>
-      <c r="B94" t="s">
-        <v>224</v>
-      </c>
-      <c r="C94" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>2012</v>
-      </c>
-      <c r="B95" t="s">
-        <v>225</v>
-      </c>
-      <c r="C95" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>2012</v>
-      </c>
-      <c r="B96" t="s">
-        <v>226</v>
-      </c>
-      <c r="C96" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>2012</v>
-      </c>
-      <c r="B97" t="s">
-        <v>227</v>
-      </c>
-      <c r="C97" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>2012</v>
-      </c>
-      <c r="B98" t="s">
-        <v>228</v>
-      </c>
-      <c r="C98" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>2012</v>
-      </c>
-      <c r="B99" t="s">
-        <v>229</v>
-      </c>
-      <c r="C99" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>2012</v>
-      </c>
-      <c r="B100" t="s">
-        <v>230</v>
-      </c>
-      <c r="C100" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>2012</v>
-      </c>
-      <c r="B101" t="s">
-        <v>231</v>
-      </c>
-      <c r="C101" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>2012</v>
-      </c>
-      <c r="B102" t="s">
-        <v>232</v>
-      </c>
-      <c r="C102" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>2012</v>
-      </c>
-      <c r="B103" t="s">
-        <v>233</v>
-      </c>
-      <c r="C103" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>2012</v>
-      </c>
-      <c r="B104" t="s">
-        <v>234</v>
-      </c>
-      <c r="C104" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>2012</v>
-      </c>
-      <c r="B105" t="s">
-        <v>235</v>
-      </c>
-      <c r="C105" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>2012</v>
-      </c>
-      <c r="B106" t="s">
-        <v>236</v>
-      </c>
-      <c r="C106" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>2012</v>
-      </c>
-      <c r="B107" t="s">
-        <v>237</v>
-      </c>
-      <c r="C107" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>2012</v>
-      </c>
-      <c r="B108" t="s">
-        <v>238</v>
-      </c>
-      <c r="C108" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>2012</v>
-      </c>
-      <c r="B109" t="s">
-        <v>239</v>
-      </c>
-      <c r="C109" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>2012</v>
-      </c>
-      <c r="B110" t="s">
-        <v>240</v>
-      </c>
-      <c r="C110" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7244,7 +6979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+    <sheetView topLeftCell="A159" workbookViewId="0">
       <selection activeCell="A189" sqref="A189:XFD189"/>
     </sheetView>
   </sheetViews>
@@ -9372,8 +9107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A138" sqref="A138:A165"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9405,6 +9140,9 @@
       <c r="C2" t="s">
         <v>112</v>
       </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -9416,6 +9154,9 @@
       <c r="C3" t="s">
         <v>113</v>
       </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -9427,6 +9168,9 @@
       <c r="C4" t="s">
         <v>114</v>
       </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -9438,6 +9182,9 @@
       <c r="C5" t="s">
         <v>115</v>
       </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -9449,6 +9196,9 @@
       <c r="C6" t="s">
         <v>134</v>
       </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -9460,6 +9210,9 @@
       <c r="C7" t="s">
         <v>135</v>
       </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -9471,6 +9224,9 @@
       <c r="C8" t="s">
         <v>138</v>
       </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -9482,6 +9238,9 @@
       <c r="C9" t="s">
         <v>140</v>
       </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -9493,6 +9252,9 @@
       <c r="C10" t="s">
         <v>142</v>
       </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -9504,6 +9266,9 @@
       <c r="C11" t="s">
         <v>144</v>
       </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -9515,6 +9280,9 @@
       <c r="C12" t="s">
         <v>146</v>
       </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -9526,6 +9294,9 @@
       <c r="C13" t="s">
         <v>148</v>
       </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -9537,6 +9308,9 @@
       <c r="C14" t="s">
         <v>150</v>
       </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -9548,6 +9322,9 @@
       <c r="C15" t="s">
         <v>152</v>
       </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -9559,8 +9336,11 @@
       <c r="C16" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2004</v>
       </c>
@@ -9570,8 +9350,11 @@
       <c r="C17" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2004</v>
       </c>
@@ -9581,8 +9364,11 @@
       <c r="C18" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2004</v>
       </c>
@@ -9592,8 +9378,11 @@
       <c r="C19" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2004</v>
       </c>
@@ -9603,8 +9392,11 @@
       <c r="C20" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2004</v>
       </c>
@@ -9614,8 +9406,11 @@
       <c r="C21" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2004</v>
       </c>
@@ -9625,8 +9420,11 @@
       <c r="C22" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2004</v>
       </c>
@@ -9636,8 +9434,11 @@
       <c r="C23" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2004</v>
       </c>
@@ -9647,8 +9448,11 @@
       <c r="C24" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2004</v>
       </c>
@@ -9658,8 +9462,11 @@
       <c r="C25" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2006</v>
       </c>
@@ -9669,8 +9476,11 @@
       <c r="C26" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2006</v>
       </c>
@@ -9680,8 +9490,11 @@
       <c r="C27" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2006</v>
       </c>
@@ -9691,8 +9504,11 @@
       <c r="C28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2006</v>
       </c>
@@ -9702,8 +9518,11 @@
       <c r="C29" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2006</v>
       </c>
@@ -9713,8 +9532,11 @@
       <c r="C30" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2006</v>
       </c>
@@ -9724,8 +9546,11 @@
       <c r="C31" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2006</v>
       </c>
@@ -9735,8 +9560,11 @@
       <c r="C32" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2006</v>
       </c>
@@ -9746,8 +9574,11 @@
       <c r="C33" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2006</v>
       </c>
@@ -9757,8 +9588,11 @@
       <c r="C34" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2006</v>
       </c>
@@ -9768,8 +9602,11 @@
       <c r="C35" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2006</v>
       </c>
@@ -9779,8 +9616,11 @@
       <c r="C36" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2006</v>
       </c>
@@ -9790,8 +9630,11 @@
       <c r="C37" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2006</v>
       </c>
@@ -9801,8 +9644,11 @@
       <c r="C38" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2006</v>
       </c>
@@ -9812,8 +9658,11 @@
       <c r="C39" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2006</v>
       </c>
@@ -9823,8 +9672,11 @@
       <c r="C40" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2006</v>
       </c>
@@ -9834,8 +9686,11 @@
       <c r="C41" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2006</v>
       </c>
@@ -9845,8 +9700,11 @@
       <c r="C42" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2006</v>
       </c>
@@ -9856,8 +9714,11 @@
       <c r="C43" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2006</v>
       </c>
@@ -9867,8 +9728,11 @@
       <c r="C44" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2006</v>
       </c>
@@ -9878,8 +9742,11 @@
       <c r="C45" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2006</v>
       </c>
@@ -9889,8 +9756,11 @@
       <c r="C46" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2006</v>
       </c>
@@ -9900,8 +9770,11 @@
       <c r="C47" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2006</v>
       </c>
@@ -9911,8 +9784,11 @@
       <c r="C48" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2006</v>
       </c>
@@ -9922,8 +9798,11 @@
       <c r="C49" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2006</v>
       </c>
@@ -9933,8 +9812,11 @@
       <c r="C50" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2006</v>
       </c>
@@ -9944,8 +9826,11 @@
       <c r="C51" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2006</v>
       </c>
@@ -9955,8 +9840,11 @@
       <c r="C52" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2006</v>
       </c>
@@ -9966,8 +9854,11 @@
       <c r="C53" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2008</v>
       </c>
@@ -9977,8 +9868,11 @@
       <c r="C54" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2008</v>
       </c>
@@ -9988,8 +9882,11 @@
       <c r="C55" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2008</v>
       </c>
@@ -9999,8 +9896,11 @@
       <c r="C56" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2008</v>
       </c>
@@ -10010,8 +9910,11 @@
       <c r="C57" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2008</v>
       </c>
@@ -10021,8 +9924,11 @@
       <c r="C58" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2008</v>
       </c>
@@ -10032,8 +9938,11 @@
       <c r="C59" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2008</v>
       </c>
@@ -10043,8 +9952,11 @@
       <c r="C60" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2008</v>
       </c>
@@ -10054,8 +9966,11 @@
       <c r="C61" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2008</v>
       </c>
@@ -10065,8 +9980,11 @@
       <c r="C62" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2008</v>
       </c>
@@ -10076,8 +9994,11 @@
       <c r="C63" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2008</v>
       </c>
@@ -10087,8 +10008,11 @@
       <c r="C64" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2008</v>
       </c>
@@ -10098,8 +10022,11 @@
       <c r="C65" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2008</v>
       </c>
@@ -10109,8 +10036,11 @@
       <c r="C66" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2008</v>
       </c>
@@ -10120,8 +10050,11 @@
       <c r="C67" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2008</v>
       </c>
@@ -10131,8 +10064,11 @@
       <c r="C68" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2008</v>
       </c>
@@ -10142,8 +10078,11 @@
       <c r="C69" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2008</v>
       </c>
@@ -10153,8 +10092,11 @@
       <c r="C70" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2008</v>
       </c>
@@ -10164,8 +10106,11 @@
       <c r="C71" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2008</v>
       </c>
@@ -10175,8 +10120,11 @@
       <c r="C72" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2008</v>
       </c>
@@ -10186,8 +10134,11 @@
       <c r="C73" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2008</v>
       </c>
@@ -10197,8 +10148,11 @@
       <c r="C74" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2008</v>
       </c>
@@ -10208,8 +10162,11 @@
       <c r="C75" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2008</v>
       </c>
@@ -10219,8 +10176,11 @@
       <c r="C76" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2008</v>
       </c>
@@ -10230,8 +10190,11 @@
       <c r="C77" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2008</v>
       </c>
@@ -10241,8 +10204,11 @@
       <c r="C78" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2008</v>
       </c>
@@ -10252,8 +10218,11 @@
       <c r="C79" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2008</v>
       </c>
@@ -10263,8 +10232,11 @@
       <c r="C80" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2008</v>
       </c>
@@ -10274,8 +10246,11 @@
       <c r="C81" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2010</v>
       </c>
@@ -10285,8 +10260,11 @@
       <c r="C82" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2010</v>
       </c>
@@ -10296,8 +10274,11 @@
       <c r="C83" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2010</v>
       </c>
@@ -10307,8 +10288,11 @@
       <c r="C84" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2010</v>
       </c>
@@ -10318,8 +10302,11 @@
       <c r="C85" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2010</v>
       </c>
@@ -10329,8 +10316,11 @@
       <c r="C86" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2010</v>
       </c>
@@ -10340,8 +10330,11 @@
       <c r="C87" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2010</v>
       </c>
@@ -10351,8 +10344,11 @@
       <c r="C88" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2010</v>
       </c>
@@ -10362,8 +10358,11 @@
       <c r="C89" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2010</v>
       </c>
@@ -10373,8 +10372,11 @@
       <c r="C90" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2010</v>
       </c>
@@ -10384,8 +10386,11 @@
       <c r="C91" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2010</v>
       </c>
@@ -10395,8 +10400,11 @@
       <c r="C92" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2010</v>
       </c>
@@ -10406,8 +10414,11 @@
       <c r="C93" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2010</v>
       </c>
@@ -10417,8 +10428,11 @@
       <c r="C94" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2010</v>
       </c>
@@ -10428,8 +10442,11 @@
       <c r="C95" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2010</v>
       </c>
@@ -10439,8 +10456,11 @@
       <c r="C96" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2010</v>
       </c>
@@ -10450,8 +10470,11 @@
       <c r="C97" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2010</v>
       </c>
@@ -10461,8 +10484,11 @@
       <c r="C98" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2010</v>
       </c>
@@ -10472,8 +10498,11 @@
       <c r="C99" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2010</v>
       </c>
@@ -10483,8 +10512,11 @@
       <c r="C100" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2010</v>
       </c>
@@ -10494,8 +10526,11 @@
       <c r="C101" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2010</v>
       </c>
@@ -10505,8 +10540,11 @@
       <c r="C102" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2010</v>
       </c>
@@ -10516,8 +10554,11 @@
       <c r="C103" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2010</v>
       </c>
@@ -10527,8 +10568,11 @@
       <c r="C104" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2010</v>
       </c>
@@ -10538,8 +10582,11 @@
       <c r="C105" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2010</v>
       </c>
@@ -10549,8 +10596,11 @@
       <c r="C106" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2010</v>
       </c>
@@ -10560,8 +10610,11 @@
       <c r="C107" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2010</v>
       </c>
@@ -10571,8 +10624,11 @@
       <c r="C108" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2010</v>
       </c>
@@ -10582,8 +10638,11 @@
       <c r="C109" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2012</v>
       </c>
@@ -10593,8 +10652,11 @@
       <c r="C110" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2012</v>
       </c>
@@ -10604,8 +10666,11 @@
       <c r="C111" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2012</v>
       </c>
@@ -10615,8 +10680,11 @@
       <c r="C112" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2012</v>
       </c>
@@ -10626,8 +10694,11 @@
       <c r="C113" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2012</v>
       </c>
@@ -10637,8 +10708,11 @@
       <c r="C114" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2012</v>
       </c>
@@ -10648,8 +10722,11 @@
       <c r="C115" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2012</v>
       </c>
@@ -10659,8 +10736,11 @@
       <c r="C116" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2012</v>
       </c>
@@ -10670,8 +10750,11 @@
       <c r="C117" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2012</v>
       </c>
@@ -10681,8 +10764,11 @@
       <c r="C118" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2012</v>
       </c>
@@ -10692,8 +10778,11 @@
       <c r="C119" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2012</v>
       </c>
@@ -10703,8 +10792,11 @@
       <c r="C120" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2012</v>
       </c>
@@ -10714,8 +10806,11 @@
       <c r="C121" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2012</v>
       </c>
@@ -10725,8 +10820,11 @@
       <c r="C122" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2012</v>
       </c>
@@ -10736,8 +10834,11 @@
       <c r="C123" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2012</v>
       </c>
@@ -10747,8 +10848,11 @@
       <c r="C124" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2012</v>
       </c>
@@ -10758,8 +10862,11 @@
       <c r="C125" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2012</v>
       </c>
@@ -10769,8 +10876,11 @@
       <c r="C126" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2012</v>
       </c>
@@ -10780,8 +10890,11 @@
       <c r="C127" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2012</v>
       </c>
@@ -10791,8 +10904,11 @@
       <c r="C128" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2012</v>
       </c>
@@ -10802,8 +10918,11 @@
       <c r="C129" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2012</v>
       </c>
@@ -10813,8 +10932,11 @@
       <c r="C130" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2012</v>
       </c>
@@ -10824,8 +10946,11 @@
       <c r="C131" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2012</v>
       </c>
@@ -10835,8 +10960,11 @@
       <c r="C132" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2012</v>
       </c>
@@ -10846,8 +10974,11 @@
       <c r="C133" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2012</v>
       </c>
@@ -10857,8 +10988,11 @@
       <c r="C134" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2012</v>
       </c>
@@ -10868,8 +11002,11 @@
       <c r="C135" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2012</v>
       </c>
@@ -10879,8 +11016,11 @@
       <c r="C136" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2012</v>
       </c>
@@ -10890,8 +11030,11 @@
       <c r="C137" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2014</v>
       </c>
@@ -10901,8 +11044,11 @@
       <c r="C138" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2014</v>
       </c>
@@ -10912,8 +11058,11 @@
       <c r="C139" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2014</v>
       </c>
@@ -10923,8 +11072,11 @@
       <c r="C140" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2014</v>
       </c>
@@ -10934,8 +11086,11 @@
       <c r="C141" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2014</v>
       </c>
@@ -10945,8 +11100,11 @@
       <c r="C142" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2014</v>
       </c>
@@ -10956,8 +11114,11 @@
       <c r="C143" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2014</v>
       </c>
@@ -10967,8 +11128,11 @@
       <c r="C144" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2014</v>
       </c>
@@ -10978,8 +11142,11 @@
       <c r="C145" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2014</v>
       </c>
@@ -10989,8 +11156,11 @@
       <c r="C146" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2014</v>
       </c>
@@ -11000,8 +11170,11 @@
       <c r="C147" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2014</v>
       </c>
@@ -11011,8 +11184,11 @@
       <c r="C148" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2014</v>
       </c>
@@ -11022,8 +11198,11 @@
       <c r="C149" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2014</v>
       </c>
@@ -11033,8 +11212,11 @@
       <c r="C150" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2014</v>
       </c>
@@ -11044,8 +11226,11 @@
       <c r="C151" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2014</v>
       </c>
@@ -11055,8 +11240,11 @@
       <c r="C152" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2014</v>
       </c>
@@ -11066,8 +11254,11 @@
       <c r="C153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2014</v>
       </c>
@@ -11077,8 +11268,11 @@
       <c r="C154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2014</v>
       </c>
@@ -11088,8 +11282,11 @@
       <c r="C155" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2014</v>
       </c>
@@ -11099,8 +11296,11 @@
       <c r="C156" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2014</v>
       </c>
@@ -11110,8 +11310,11 @@
       <c r="C157" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2014</v>
       </c>
@@ -11121,8 +11324,11 @@
       <c r="C158" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2014</v>
       </c>
@@ -11132,8 +11338,11 @@
       <c r="C159" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2014</v>
       </c>
@@ -11143,8 +11352,11 @@
       <c r="C160" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2014</v>
       </c>
@@ -11154,8 +11366,11 @@
       <c r="C161" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2014</v>
       </c>
@@ -11165,8 +11380,11 @@
       <c r="C162" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2014</v>
       </c>
@@ -11176,8 +11394,11 @@
       <c r="C163" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2014</v>
       </c>
@@ -11187,8 +11408,11 @@
       <c r="C164" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2014</v>
       </c>
@@ -11197,6 +11421,9 @@
       </c>
       <c r="C165" t="s">
         <v>171</v>
+      </c>
+      <c r="D165" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -15,17 +15,18 @@
     <sheet name="loneliness" sheetId="1" r:id="rId1"/>
     <sheet name="lifesatisfaction" sheetId="2" r:id="rId2"/>
     <sheet name="socialnetwork" sheetId="3" r:id="rId3"/>
-    <sheet name="activity" sheetId="4" r:id="rId4"/>
-    <sheet name="demographics" sheetId="11" r:id="rId5"/>
-    <sheet name="socialsupport" sheetId="5" r:id="rId6"/>
-    <sheet name="wellbeing" sheetId="6" r:id="rId7"/>
-    <sheet name="selfratedmemory" sheetId="7" r:id="rId8"/>
-    <sheet name="wordlist" sheetId="8" r:id="rId9"/>
-    <sheet name="mentalstatus" sheetId="10" r:id="rId10"/>
-    <sheet name="vocabulary" sheetId="9" r:id="rId11"/>
+    <sheet name="socialcontact" sheetId="12" r:id="rId4"/>
+    <sheet name="activity" sheetId="4" r:id="rId5"/>
+    <sheet name="demographics" sheetId="11" r:id="rId6"/>
+    <sheet name="socialsupport" sheetId="5" r:id="rId7"/>
+    <sheet name="wellbeing" sheetId="6" r:id="rId8"/>
+    <sheet name="selfratedmemory" sheetId="7" r:id="rId9"/>
+    <sheet name="wordlist" sheetId="8" r:id="rId10"/>
+    <sheet name="mentalstatus" sheetId="10" r:id="rId11"/>
+    <sheet name="vocabulary" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">activity!$A$1:$E$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">activity!$A$1:$E$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">loneliness!$A$1:$D$42</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="911">
   <si>
     <t>year</t>
   </si>
@@ -2287,30 +2288,6 @@
     <t>ka066</t>
   </si>
   <si>
-    <t>kb066.1</t>
-  </si>
-  <si>
-    <t>kb067.1</t>
-  </si>
-  <si>
-    <t>kb066.2</t>
-  </si>
-  <si>
-    <t>kb067.2</t>
-  </si>
-  <si>
-    <t>kb066.3</t>
-  </si>
-  <si>
-    <t>kb067.3</t>
-  </si>
-  <si>
-    <t>kb066.4</t>
-  </si>
-  <si>
-    <t>kb067.4</t>
-  </si>
-  <si>
     <t>kb056</t>
   </si>
   <si>
@@ -2371,30 +2348,6 @@
     <t>ja066</t>
   </si>
   <si>
-    <t>jb066.1</t>
-  </si>
-  <si>
-    <t>jb067.1</t>
-  </si>
-  <si>
-    <t>jb066.2</t>
-  </si>
-  <si>
-    <t>jb067.2</t>
-  </si>
-  <si>
-    <t>jb066.3</t>
-  </si>
-  <si>
-    <t>jb067.3</t>
-  </si>
-  <si>
-    <t>jb066.4</t>
-  </si>
-  <si>
-    <t>jb067.4</t>
-  </si>
-  <si>
     <t>jb056</t>
   </si>
   <si>
@@ -2455,30 +2408,6 @@
     <t>la066</t>
   </si>
   <si>
-    <t>lb066.1</t>
-  </si>
-  <si>
-    <t>lb067.1</t>
-  </si>
-  <si>
-    <t>lb066.2</t>
-  </si>
-  <si>
-    <t>lb067.2</t>
-  </si>
-  <si>
-    <t>lb066.3</t>
-  </si>
-  <si>
-    <t>lb067.3</t>
-  </si>
-  <si>
-    <t>lb066.4</t>
-  </si>
-  <si>
-    <t>lb067.4</t>
-  </si>
-  <si>
     <t>lb056</t>
   </si>
   <si>
@@ -2539,30 +2468,6 @@
     <t>ma066</t>
   </si>
   <si>
-    <t>mb066.1</t>
-  </si>
-  <si>
-    <t>mb067.1</t>
-  </si>
-  <si>
-    <t>mb066.2</t>
-  </si>
-  <si>
-    <t>mb067.2</t>
-  </si>
-  <si>
-    <t>mb066.3</t>
-  </si>
-  <si>
-    <t>mb067.3</t>
-  </si>
-  <si>
-    <t>mb066.4</t>
-  </si>
-  <si>
-    <t>mb067.4</t>
-  </si>
-  <si>
     <t>mb056</t>
   </si>
   <si>
@@ -2623,30 +2528,6 @@
     <t>na066</t>
   </si>
   <si>
-    <t>nb066.1</t>
-  </si>
-  <si>
-    <t>nb067.1</t>
-  </si>
-  <si>
-    <t>nb066.2</t>
-  </si>
-  <si>
-    <t>nb067.2</t>
-  </si>
-  <si>
-    <t>nb066.3</t>
-  </si>
-  <si>
-    <t>nb067.3</t>
-  </si>
-  <si>
-    <t>nb066.4</t>
-  </si>
-  <si>
-    <t>nb067.4</t>
-  </si>
-  <si>
     <t>nb056</t>
   </si>
   <si>
@@ -2707,30 +2588,6 @@
     <t>oa066</t>
   </si>
   <si>
-    <t>ob066.1</t>
-  </si>
-  <si>
-    <t>ob067.1</t>
-  </si>
-  <si>
-    <t>ob066.2</t>
-  </si>
-  <si>
-    <t>ob067.2</t>
-  </si>
-  <si>
-    <t>ob066.3</t>
-  </si>
-  <si>
-    <t>ob067.3</t>
-  </si>
-  <si>
-    <t>ob066.4</t>
-  </si>
-  <si>
-    <t>ob067.4</t>
-  </si>
-  <si>
     <t>ob056</t>
   </si>
   <si>
@@ -2777,6 +2634,150 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>jb066_1</t>
+  </si>
+  <si>
+    <t>jb067_1</t>
+  </si>
+  <si>
+    <t>jb066_2</t>
+  </si>
+  <si>
+    <t>jb067_2</t>
+  </si>
+  <si>
+    <t>jb066_3</t>
+  </si>
+  <si>
+    <t>jb067_3</t>
+  </si>
+  <si>
+    <t>jb066_4</t>
+  </si>
+  <si>
+    <t>jb067_4</t>
+  </si>
+  <si>
+    <t>kb066_1</t>
+  </si>
+  <si>
+    <t>kb067_1</t>
+  </si>
+  <si>
+    <t>kb066_2</t>
+  </si>
+  <si>
+    <t>kb067_2</t>
+  </si>
+  <si>
+    <t>kb066_3</t>
+  </si>
+  <si>
+    <t>kb067_3</t>
+  </si>
+  <si>
+    <t>kb066_4</t>
+  </si>
+  <si>
+    <t>kb067_4</t>
+  </si>
+  <si>
+    <t>lb066_1</t>
+  </si>
+  <si>
+    <t>lb067_1</t>
+  </si>
+  <si>
+    <t>lb066_2</t>
+  </si>
+  <si>
+    <t>lb067_2</t>
+  </si>
+  <si>
+    <t>lb066_3</t>
+  </si>
+  <si>
+    <t>lb067_3</t>
+  </si>
+  <si>
+    <t>lb066_4</t>
+  </si>
+  <si>
+    <t>lb067_4</t>
+  </si>
+  <si>
+    <t>mb066_1</t>
+  </si>
+  <si>
+    <t>mb067_1</t>
+  </si>
+  <si>
+    <t>mb066_2</t>
+  </si>
+  <si>
+    <t>mb067_2</t>
+  </si>
+  <si>
+    <t>mb066_3</t>
+  </si>
+  <si>
+    <t>mb067_3</t>
+  </si>
+  <si>
+    <t>mb066_4</t>
+  </si>
+  <si>
+    <t>mb067_4</t>
+  </si>
+  <si>
+    <t>nb066_1</t>
+  </si>
+  <si>
+    <t>nb067_1</t>
+  </si>
+  <si>
+    <t>nb066_2</t>
+  </si>
+  <si>
+    <t>nb067_2</t>
+  </si>
+  <si>
+    <t>nb066_3</t>
+  </si>
+  <si>
+    <t>nb067_3</t>
+  </si>
+  <si>
+    <t>nb066_4</t>
+  </si>
+  <si>
+    <t>nb067_4</t>
+  </si>
+  <si>
+    <t>ob066_1</t>
+  </si>
+  <si>
+    <t>ob067_1</t>
+  </si>
+  <si>
+    <t>ob066_2</t>
+  </si>
+  <si>
+    <t>ob067_2</t>
+  </si>
+  <si>
+    <t>ob066_3</t>
+  </si>
+  <si>
+    <t>ob067_3</t>
+  </si>
+  <si>
+    <t>ob066_4</t>
+  </si>
+  <si>
+    <t>ob067_4</t>
   </si>
 </sst>
 </file>
@@ -3639,6 +3640,500 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C10" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>581</v>
+      </c>
+      <c r="C11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>583</v>
+      </c>
+      <c r="C13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>584</v>
+      </c>
+      <c r="C14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2008</v>
+      </c>
+      <c r="B16" t="s">
+        <v>586</v>
+      </c>
+      <c r="C16" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2008</v>
+      </c>
+      <c r="B17" t="s">
+        <v>587</v>
+      </c>
+      <c r="C17" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>588</v>
+      </c>
+      <c r="C18" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>589</v>
+      </c>
+      <c r="C19" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2008</v>
+      </c>
+      <c r="B20" t="s">
+        <v>590</v>
+      </c>
+      <c r="C20" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>591</v>
+      </c>
+      <c r="C21" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>592</v>
+      </c>
+      <c r="C22" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2010</v>
+      </c>
+      <c r="B23" t="s">
+        <v>593</v>
+      </c>
+      <c r="C23" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2010</v>
+      </c>
+      <c r="B24" t="s">
+        <v>594</v>
+      </c>
+      <c r="C24" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2010</v>
+      </c>
+      <c r="B25" t="s">
+        <v>595</v>
+      </c>
+      <c r="C25" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2010</v>
+      </c>
+      <c r="B26" t="s">
+        <v>596</v>
+      </c>
+      <c r="C26" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2010</v>
+      </c>
+      <c r="B27" t="s">
+        <v>597</v>
+      </c>
+      <c r="C27" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2010</v>
+      </c>
+      <c r="B28" t="s">
+        <v>598</v>
+      </c>
+      <c r="C28" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2010</v>
+      </c>
+      <c r="B29" t="s">
+        <v>599</v>
+      </c>
+      <c r="C29" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2012</v>
+      </c>
+      <c r="B30" t="s">
+        <v>600</v>
+      </c>
+      <c r="C30" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2012</v>
+      </c>
+      <c r="B31" t="s">
+        <v>601</v>
+      </c>
+      <c r="C31" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2012</v>
+      </c>
+      <c r="B32" t="s">
+        <v>602</v>
+      </c>
+      <c r="C32" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2012</v>
+      </c>
+      <c r="B33" t="s">
+        <v>603</v>
+      </c>
+      <c r="C33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34" t="s">
+        <v>604</v>
+      </c>
+      <c r="C34" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2012</v>
+      </c>
+      <c r="B35" t="s">
+        <v>605</v>
+      </c>
+      <c r="C35" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2012</v>
+      </c>
+      <c r="B36" t="s">
+        <v>606</v>
+      </c>
+      <c r="C36" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2014</v>
+      </c>
+      <c r="B37" t="s">
+        <v>607</v>
+      </c>
+      <c r="C37" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2014</v>
+      </c>
+      <c r="B38" t="s">
+        <v>608</v>
+      </c>
+      <c r="C38" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2014</v>
+      </c>
+      <c r="B39" t="s">
+        <v>609</v>
+      </c>
+      <c r="C39" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2014</v>
+      </c>
+      <c r="B40" t="s">
+        <v>610</v>
+      </c>
+      <c r="C40" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2014</v>
+      </c>
+      <c r="B41" t="s">
+        <v>611</v>
+      </c>
+      <c r="C41" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2014</v>
+      </c>
+      <c r="B42" t="s">
+        <v>612</v>
+      </c>
+      <c r="C42" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2014</v>
+      </c>
+      <c r="B43" t="s">
+        <v>613</v>
+      </c>
+      <c r="C43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4197,7 +4692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -4995,7 +5490,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5112,6 +5607,9 @@
       <c r="C10" t="s">
         <v>103</v>
       </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -5955,6 +6453,665 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2006</v>
+      </c>
+      <c r="B19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2008</v>
+      </c>
+      <c r="B20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2008</v>
+      </c>
+      <c r="B23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2008</v>
+      </c>
+      <c r="B24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2008</v>
+      </c>
+      <c r="B25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2008</v>
+      </c>
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2008</v>
+      </c>
+      <c r="B27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2008</v>
+      </c>
+      <c r="B28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2010</v>
+      </c>
+      <c r="B29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2010</v>
+      </c>
+      <c r="B30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2010</v>
+      </c>
+      <c r="B31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2010</v>
+      </c>
+      <c r="B33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2010</v>
+      </c>
+      <c r="B34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2010</v>
+      </c>
+      <c r="B35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2010</v>
+      </c>
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2010</v>
+      </c>
+      <c r="B37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2012</v>
+      </c>
+      <c r="B38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2012</v>
+      </c>
+      <c r="B39" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2012</v>
+      </c>
+      <c r="B40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2012</v>
+      </c>
+      <c r="B42" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2012</v>
+      </c>
+      <c r="B43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2012</v>
+      </c>
+      <c r="B44" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2012</v>
+      </c>
+      <c r="B45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2012</v>
+      </c>
+      <c r="B46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E90"/>
   <sheetViews>
@@ -6975,12 +8132,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189:XFD189"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7007,7 +8164,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="C2" t="s">
         <v>711</v>
@@ -7018,7 +8175,7 @@
         <v>2004</v>
       </c>
       <c r="B3" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C3" t="s">
         <v>709</v>
@@ -7029,7 +8186,7 @@
         <v>2004</v>
       </c>
       <c r="B4" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="C4" t="s">
         <v>710</v>
@@ -7040,7 +8197,7 @@
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="C5" t="s">
         <v>712</v>
@@ -7051,7 +8208,7 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>775</v>
+        <v>863</v>
       </c>
       <c r="C6" t="s">
         <v>713</v>
@@ -7062,7 +8219,7 @@
         <v>2004</v>
       </c>
       <c r="B7" t="s">
-        <v>776</v>
+        <v>864</v>
       </c>
       <c r="C7" t="s">
         <v>714</v>
@@ -7073,7 +8230,7 @@
         <v>2004</v>
       </c>
       <c r="B8" t="s">
-        <v>777</v>
+        <v>865</v>
       </c>
       <c r="C8" t="s">
         <v>715</v>
@@ -7084,7 +8241,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="s">
-        <v>778</v>
+        <v>866</v>
       </c>
       <c r="C9" t="s">
         <v>716</v>
@@ -7095,7 +8252,7 @@
         <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>779</v>
+        <v>867</v>
       </c>
       <c r="C10" t="s">
         <v>717</v>
@@ -7106,7 +8263,7 @@
         <v>2004</v>
       </c>
       <c r="B11" t="s">
-        <v>780</v>
+        <v>868</v>
       </c>
       <c r="C11" t="s">
         <v>718</v>
@@ -7117,7 +8274,7 @@
         <v>2004</v>
       </c>
       <c r="B12" t="s">
-        <v>781</v>
+        <v>869</v>
       </c>
       <c r="C12" t="s">
         <v>719</v>
@@ -7128,7 +8285,7 @@
         <v>2004</v>
       </c>
       <c r="B13" t="s">
-        <v>782</v>
+        <v>870</v>
       </c>
       <c r="C13" t="s">
         <v>720</v>
@@ -7139,7 +8296,7 @@
         <v>2004</v>
       </c>
       <c r="B14" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="C14" t="s">
         <v>721</v>
@@ -7150,7 +8307,7 @@
         <v>2004</v>
       </c>
       <c r="B15" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="C15" t="s">
         <v>722</v>
@@ -7161,7 +8318,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="C16" t="s">
         <v>723</v>
@@ -7175,7 +8332,7 @@
         <v>2004</v>
       </c>
       <c r="B17" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="C17" t="s">
         <v>725</v>
@@ -7186,7 +8343,7 @@
         <v>2004</v>
       </c>
       <c r="B18" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="C18" t="s">
         <v>726</v>
@@ -7200,7 +8357,7 @@
         <v>2004</v>
       </c>
       <c r="B19" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="C19" t="s">
         <v>728</v>
@@ -7211,7 +8368,7 @@
         <v>2004</v>
       </c>
       <c r="B20" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="C20" t="s">
         <v>729</v>
@@ -7222,7 +8379,7 @@
         <v>2004</v>
       </c>
       <c r="B21" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="C21" t="s">
         <v>730</v>
@@ -7233,7 +8390,7 @@
         <v>2004</v>
       </c>
       <c r="B22" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="C22" t="s">
         <v>731</v>
@@ -7244,7 +8401,7 @@
         <v>2004</v>
       </c>
       <c r="B23" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="C23" t="s">
         <v>732</v>
@@ -7255,7 +8412,7 @@
         <v>2004</v>
       </c>
       <c r="B24" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="C24" t="s">
         <v>733</v>
@@ -7266,7 +8423,7 @@
         <v>2004</v>
       </c>
       <c r="B25" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="C25" t="s">
         <v>734</v>
@@ -7277,7 +8434,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="C26" t="s">
         <v>735</v>
@@ -7288,7 +8445,7 @@
         <v>2004</v>
       </c>
       <c r="B27" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="C27" t="s">
         <v>736</v>
@@ -7299,7 +8456,7 @@
         <v>2004</v>
       </c>
       <c r="B28" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="C28" t="s">
         <v>737</v>
@@ -7310,7 +8467,7 @@
         <v>2004</v>
       </c>
       <c r="B29" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="C29" t="s">
         <v>738</v>
@@ -7321,7 +8478,7 @@
         <v>2004</v>
       </c>
       <c r="B30" t="s">
-        <v>910</v>
+        <v>862</v>
       </c>
       <c r="C30" t="s">
         <v>739</v>
@@ -7409,7 +8566,7 @@
         <v>2006</v>
       </c>
       <c r="B38" t="s">
-        <v>747</v>
+        <v>871</v>
       </c>
       <c r="C38" t="s">
         <v>713</v>
@@ -7420,7 +8577,7 @@
         <v>2006</v>
       </c>
       <c r="B39" t="s">
-        <v>748</v>
+        <v>872</v>
       </c>
       <c r="C39" t="s">
         <v>714</v>
@@ -7431,7 +8588,7 @@
         <v>2006</v>
       </c>
       <c r="B40" t="s">
-        <v>749</v>
+        <v>873</v>
       </c>
       <c r="C40" t="s">
         <v>715</v>
@@ -7442,7 +8599,7 @@
         <v>2006</v>
       </c>
       <c r="B41" t="s">
-        <v>750</v>
+        <v>874</v>
       </c>
       <c r="C41" t="s">
         <v>716</v>
@@ -7453,7 +8610,7 @@
         <v>2006</v>
       </c>
       <c r="B42" t="s">
-        <v>751</v>
+        <v>875</v>
       </c>
       <c r="C42" t="s">
         <v>717</v>
@@ -7464,7 +8621,7 @@
         <v>2006</v>
       </c>
       <c r="B43" t="s">
-        <v>752</v>
+        <v>876</v>
       </c>
       <c r="C43" t="s">
         <v>718</v>
@@ -7475,7 +8632,7 @@
         <v>2006</v>
       </c>
       <c r="B44" t="s">
-        <v>753</v>
+        <v>877</v>
       </c>
       <c r="C44" t="s">
         <v>719</v>
@@ -7486,7 +8643,7 @@
         <v>2006</v>
       </c>
       <c r="B45" t="s">
-        <v>754</v>
+        <v>878</v>
       </c>
       <c r="C45" t="s">
         <v>720</v>
@@ -7497,7 +8654,7 @@
         <v>2006</v>
       </c>
       <c r="B46" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C46" t="s">
         <v>721</v>
@@ -7508,7 +8665,7 @@
         <v>2006</v>
       </c>
       <c r="B47" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C47" t="s">
         <v>722</v>
@@ -7519,7 +8676,7 @@
         <v>2006</v>
       </c>
       <c r="B48" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="C48" t="s">
         <v>723</v>
@@ -7530,7 +8687,7 @@
         <v>2006</v>
       </c>
       <c r="B49" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C49" t="s">
         <v>725</v>
@@ -7541,7 +8698,7 @@
         <v>2006</v>
       </c>
       <c r="B50" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C50" t="s">
         <v>726</v>
@@ -7552,7 +8709,7 @@
         <v>2006</v>
       </c>
       <c r="B51" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C51" t="s">
         <v>728</v>
@@ -7563,7 +8720,7 @@
         <v>2006</v>
       </c>
       <c r="B52" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C52" t="s">
         <v>729</v>
@@ -7574,7 +8731,7 @@
         <v>2006</v>
       </c>
       <c r="B53" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="C53" t="s">
         <v>730</v>
@@ -7585,7 +8742,7 @@
         <v>2006</v>
       </c>
       <c r="B54" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="C54" t="s">
         <v>731</v>
@@ -7596,7 +8753,7 @@
         <v>2006</v>
       </c>
       <c r="B55" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="C55" t="s">
         <v>732</v>
@@ -7607,7 +8764,7 @@
         <v>2006</v>
       </c>
       <c r="B56" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="C56" t="s">
         <v>733</v>
@@ -7618,7 +8775,7 @@
         <v>2006</v>
       </c>
       <c r="B57" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="C57" t="s">
         <v>734</v>
@@ -7629,7 +8786,7 @@
         <v>2006</v>
       </c>
       <c r="B58" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="C58" t="s">
         <v>735</v>
@@ -7640,7 +8797,7 @@
         <v>2006</v>
       </c>
       <c r="B59" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C59" t="s">
         <v>736</v>
@@ -7651,7 +8808,7 @@
         <v>2006</v>
       </c>
       <c r="B60" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="C60" t="s">
         <v>737</v>
@@ -7662,7 +8819,7 @@
         <v>2006</v>
       </c>
       <c r="B61" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="C61" t="s">
         <v>738</v>
@@ -7673,7 +8830,7 @@
         <v>2006</v>
       </c>
       <c r="B62" t="s">
-        <v>910</v>
+        <v>862</v>
       </c>
       <c r="C62" t="s">
         <v>739</v>
@@ -7717,7 +8874,7 @@
         <v>2008</v>
       </c>
       <c r="B66" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="C66" t="s">
         <v>711</v>
@@ -7728,7 +8885,7 @@
         <v>2008</v>
       </c>
       <c r="B67" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="C67" t="s">
         <v>709</v>
@@ -7739,7 +8896,7 @@
         <v>2008</v>
       </c>
       <c r="B68" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="C68" t="s">
         <v>710</v>
@@ -7750,7 +8907,7 @@
         <v>2008</v>
       </c>
       <c r="B69" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="C69" t="s">
         <v>712</v>
@@ -7761,7 +8918,7 @@
         <v>2008</v>
       </c>
       <c r="B70" t="s">
-        <v>803</v>
+        <v>879</v>
       </c>
       <c r="C70" t="s">
         <v>713</v>
@@ -7772,7 +8929,7 @@
         <v>2008</v>
       </c>
       <c r="B71" t="s">
-        <v>804</v>
+        <v>880</v>
       </c>
       <c r="C71" t="s">
         <v>714</v>
@@ -7783,7 +8940,7 @@
         <v>2008</v>
       </c>
       <c r="B72" t="s">
-        <v>805</v>
+        <v>881</v>
       </c>
       <c r="C72" t="s">
         <v>715</v>
@@ -7794,7 +8951,7 @@
         <v>2008</v>
       </c>
       <c r="B73" t="s">
-        <v>806</v>
+        <v>882</v>
       </c>
       <c r="C73" t="s">
         <v>716</v>
@@ -7805,7 +8962,7 @@
         <v>2008</v>
       </c>
       <c r="B74" t="s">
-        <v>807</v>
+        <v>883</v>
       </c>
       <c r="C74" t="s">
         <v>717</v>
@@ -7816,7 +8973,7 @@
         <v>2008</v>
       </c>
       <c r="B75" t="s">
-        <v>808</v>
+        <v>884</v>
       </c>
       <c r="C75" t="s">
         <v>718</v>
@@ -7827,7 +8984,7 @@
         <v>2008</v>
       </c>
       <c r="B76" t="s">
-        <v>809</v>
+        <v>885</v>
       </c>
       <c r="C76" t="s">
         <v>719</v>
@@ -7838,7 +8995,7 @@
         <v>2008</v>
       </c>
       <c r="B77" t="s">
-        <v>810</v>
+        <v>886</v>
       </c>
       <c r="C77" t="s">
         <v>720</v>
@@ -7849,7 +9006,7 @@
         <v>2008</v>
       </c>
       <c r="B78" t="s">
-        <v>811</v>
+        <v>787</v>
       </c>
       <c r="C78" t="s">
         <v>721</v>
@@ -7860,7 +9017,7 @@
         <v>2008</v>
       </c>
       <c r="B79" t="s">
-        <v>812</v>
+        <v>788</v>
       </c>
       <c r="C79" t="s">
         <v>722</v>
@@ -7871,7 +9028,7 @@
         <v>2008</v>
       </c>
       <c r="B80" t="s">
-        <v>813</v>
+        <v>789</v>
       </c>
       <c r="C80" t="s">
         <v>723</v>
@@ -7882,7 +9039,7 @@
         <v>2008</v>
       </c>
       <c r="B81" t="s">
-        <v>814</v>
+        <v>790</v>
       </c>
       <c r="C81" t="s">
         <v>725</v>
@@ -7893,7 +9050,7 @@
         <v>2008</v>
       </c>
       <c r="B82" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="C82" t="s">
         <v>726</v>
@@ -7904,7 +9061,7 @@
         <v>2008</v>
       </c>
       <c r="B83" t="s">
-        <v>816</v>
+        <v>792</v>
       </c>
       <c r="C83" t="s">
         <v>728</v>
@@ -7915,7 +9072,7 @@
         <v>2008</v>
       </c>
       <c r="B84" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="C84" t="s">
         <v>729</v>
@@ -7926,7 +9083,7 @@
         <v>2008</v>
       </c>
       <c r="B85" t="s">
-        <v>818</v>
+        <v>794</v>
       </c>
       <c r="C85" t="s">
         <v>730</v>
@@ -7937,7 +9094,7 @@
         <v>2008</v>
       </c>
       <c r="B86" t="s">
-        <v>819</v>
+        <v>795</v>
       </c>
       <c r="C86" t="s">
         <v>731</v>
@@ -7948,7 +9105,7 @@
         <v>2008</v>
       </c>
       <c r="B87" t="s">
-        <v>820</v>
+        <v>796</v>
       </c>
       <c r="C87" t="s">
         <v>732</v>
@@ -7959,7 +9116,7 @@
         <v>2008</v>
       </c>
       <c r="B88" t="s">
-        <v>821</v>
+        <v>797</v>
       </c>
       <c r="C88" t="s">
         <v>733</v>
@@ -7970,7 +9127,7 @@
         <v>2008</v>
       </c>
       <c r="B89" t="s">
-        <v>822</v>
+        <v>798</v>
       </c>
       <c r="C89" t="s">
         <v>734</v>
@@ -7981,7 +9138,7 @@
         <v>2008</v>
       </c>
       <c r="B90" t="s">
-        <v>823</v>
+        <v>799</v>
       </c>
       <c r="C90" t="s">
         <v>735</v>
@@ -7992,7 +9149,7 @@
         <v>2008</v>
       </c>
       <c r="B91" t="s">
-        <v>824</v>
+        <v>800</v>
       </c>
       <c r="C91" t="s">
         <v>736</v>
@@ -8003,7 +9160,7 @@
         <v>2008</v>
       </c>
       <c r="B92" t="s">
-        <v>825</v>
+        <v>801</v>
       </c>
       <c r="C92" t="s">
         <v>737</v>
@@ -8014,7 +9171,7 @@
         <v>2008</v>
       </c>
       <c r="B93" t="s">
-        <v>826</v>
+        <v>802</v>
       </c>
       <c r="C93" t="s">
         <v>738</v>
@@ -8025,7 +9182,7 @@
         <v>2008</v>
       </c>
       <c r="B94" t="s">
-        <v>910</v>
+        <v>862</v>
       </c>
       <c r="C94" t="s">
         <v>739</v>
@@ -8069,7 +9226,7 @@
         <v>2010</v>
       </c>
       <c r="B98" t="s">
-        <v>827</v>
+        <v>803</v>
       </c>
       <c r="C98" t="s">
         <v>711</v>
@@ -8080,7 +9237,7 @@
         <v>2010</v>
       </c>
       <c r="B99" t="s">
-        <v>828</v>
+        <v>804</v>
       </c>
       <c r="C99" t="s">
         <v>709</v>
@@ -8091,7 +9248,7 @@
         <v>2010</v>
       </c>
       <c r="B100" t="s">
-        <v>829</v>
+        <v>805</v>
       </c>
       <c r="C100" t="s">
         <v>710</v>
@@ -8102,7 +9259,7 @@
         <v>2010</v>
       </c>
       <c r="B101" t="s">
-        <v>830</v>
+        <v>806</v>
       </c>
       <c r="C101" t="s">
         <v>712</v>
@@ -8113,7 +9270,7 @@
         <v>2010</v>
       </c>
       <c r="B102" t="s">
-        <v>831</v>
+        <v>887</v>
       </c>
       <c r="C102" t="s">
         <v>713</v>
@@ -8124,7 +9281,7 @@
         <v>2010</v>
       </c>
       <c r="B103" t="s">
-        <v>832</v>
+        <v>888</v>
       </c>
       <c r="C103" t="s">
         <v>714</v>
@@ -8135,7 +9292,7 @@
         <v>2010</v>
       </c>
       <c r="B104" t="s">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="C104" t="s">
         <v>715</v>
@@ -8146,7 +9303,7 @@
         <v>2010</v>
       </c>
       <c r="B105" t="s">
-        <v>834</v>
+        <v>890</v>
       </c>
       <c r="C105" t="s">
         <v>716</v>
@@ -8157,7 +9314,7 @@
         <v>2010</v>
       </c>
       <c r="B106" t="s">
-        <v>835</v>
+        <v>891</v>
       </c>
       <c r="C106" t="s">
         <v>717</v>
@@ -8168,7 +9325,7 @@
         <v>2010</v>
       </c>
       <c r="B107" t="s">
-        <v>836</v>
+        <v>892</v>
       </c>
       <c r="C107" t="s">
         <v>718</v>
@@ -8179,7 +9336,7 @@
         <v>2010</v>
       </c>
       <c r="B108" t="s">
-        <v>837</v>
+        <v>893</v>
       </c>
       <c r="C108" t="s">
         <v>719</v>
@@ -8190,7 +9347,7 @@
         <v>2010</v>
       </c>
       <c r="B109" t="s">
-        <v>838</v>
+        <v>894</v>
       </c>
       <c r="C109" t="s">
         <v>720</v>
@@ -8201,7 +9358,7 @@
         <v>2010</v>
       </c>
       <c r="B110" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="C110" t="s">
         <v>721</v>
@@ -8212,7 +9369,7 @@
         <v>2010</v>
       </c>
       <c r="B111" t="s">
-        <v>840</v>
+        <v>808</v>
       </c>
       <c r="C111" t="s">
         <v>722</v>
@@ -8223,7 +9380,7 @@
         <v>2010</v>
       </c>
       <c r="B112" t="s">
-        <v>841</v>
+        <v>809</v>
       </c>
       <c r="C112" t="s">
         <v>723</v>
@@ -8234,7 +9391,7 @@
         <v>2010</v>
       </c>
       <c r="B113" t="s">
-        <v>842</v>
+        <v>810</v>
       </c>
       <c r="C113" t="s">
         <v>725</v>
@@ -8245,7 +9402,7 @@
         <v>2010</v>
       </c>
       <c r="B114" t="s">
-        <v>843</v>
+        <v>811</v>
       </c>
       <c r="C114" t="s">
         <v>726</v>
@@ -8256,7 +9413,7 @@
         <v>2010</v>
       </c>
       <c r="B115" t="s">
-        <v>844</v>
+        <v>812</v>
       </c>
       <c r="C115" t="s">
         <v>728</v>
@@ -8267,7 +9424,7 @@
         <v>2010</v>
       </c>
       <c r="B116" t="s">
-        <v>845</v>
+        <v>813</v>
       </c>
       <c r="C116" t="s">
         <v>729</v>
@@ -8278,7 +9435,7 @@
         <v>2010</v>
       </c>
       <c r="B117" t="s">
-        <v>846</v>
+        <v>814</v>
       </c>
       <c r="C117" t="s">
         <v>730</v>
@@ -8289,7 +9446,7 @@
         <v>2010</v>
       </c>
       <c r="B118" t="s">
-        <v>847</v>
+        <v>815</v>
       </c>
       <c r="C118" t="s">
         <v>731</v>
@@ -8300,7 +9457,7 @@
         <v>2010</v>
       </c>
       <c r="B119" t="s">
-        <v>848</v>
+        <v>816</v>
       </c>
       <c r="C119" t="s">
         <v>732</v>
@@ -8311,7 +9468,7 @@
         <v>2010</v>
       </c>
       <c r="B120" t="s">
-        <v>849</v>
+        <v>817</v>
       </c>
       <c r="C120" t="s">
         <v>733</v>
@@ -8322,7 +9479,7 @@
         <v>2010</v>
       </c>
       <c r="B121" t="s">
-        <v>850</v>
+        <v>818</v>
       </c>
       <c r="C121" t="s">
         <v>734</v>
@@ -8333,7 +9490,7 @@
         <v>2010</v>
       </c>
       <c r="B122" t="s">
-        <v>851</v>
+        <v>819</v>
       </c>
       <c r="C122" t="s">
         <v>735</v>
@@ -8344,7 +9501,7 @@
         <v>2010</v>
       </c>
       <c r="B123" t="s">
-        <v>852</v>
+        <v>820</v>
       </c>
       <c r="C123" t="s">
         <v>736</v>
@@ -8355,7 +9512,7 @@
         <v>2010</v>
       </c>
       <c r="B124" t="s">
-        <v>853</v>
+        <v>821</v>
       </c>
       <c r="C124" t="s">
         <v>737</v>
@@ -8366,7 +9523,7 @@
         <v>2010</v>
       </c>
       <c r="B125" t="s">
-        <v>854</v>
+        <v>822</v>
       </c>
       <c r="C125" t="s">
         <v>738</v>
@@ -8377,7 +9534,7 @@
         <v>2010</v>
       </c>
       <c r="B126" t="s">
-        <v>910</v>
+        <v>862</v>
       </c>
       <c r="C126" t="s">
         <v>739</v>
@@ -8421,7 +9578,7 @@
         <v>2012</v>
       </c>
       <c r="B130" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
       <c r="C130" t="s">
         <v>711</v>
@@ -8432,7 +9589,7 @@
         <v>2012</v>
       </c>
       <c r="B131" t="s">
-        <v>856</v>
+        <v>824</v>
       </c>
       <c r="C131" t="s">
         <v>709</v>
@@ -8443,7 +9600,7 @@
         <v>2012</v>
       </c>
       <c r="B132" t="s">
-        <v>857</v>
+        <v>825</v>
       </c>
       <c r="C132" t="s">
         <v>710</v>
@@ -8454,7 +9611,7 @@
         <v>2012</v>
       </c>
       <c r="B133" t="s">
-        <v>858</v>
+        <v>826</v>
       </c>
       <c r="C133" t="s">
         <v>712</v>
@@ -8465,7 +9622,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>859</v>
+        <v>895</v>
       </c>
       <c r="C134" t="s">
         <v>713</v>
@@ -8476,7 +9633,7 @@
         <v>2012</v>
       </c>
       <c r="B135" t="s">
-        <v>860</v>
+        <v>896</v>
       </c>
       <c r="C135" t="s">
         <v>714</v>
@@ -8487,7 +9644,7 @@
         <v>2012</v>
       </c>
       <c r="B136" t="s">
-        <v>861</v>
+        <v>897</v>
       </c>
       <c r="C136" t="s">
         <v>715</v>
@@ -8498,7 +9655,7 @@
         <v>2012</v>
       </c>
       <c r="B137" t="s">
-        <v>862</v>
+        <v>898</v>
       </c>
       <c r="C137" t="s">
         <v>716</v>
@@ -8509,7 +9666,7 @@
         <v>2012</v>
       </c>
       <c r="B138" t="s">
-        <v>863</v>
+        <v>899</v>
       </c>
       <c r="C138" t="s">
         <v>717</v>
@@ -8520,7 +9677,7 @@
         <v>2012</v>
       </c>
       <c r="B139" t="s">
-        <v>864</v>
+        <v>900</v>
       </c>
       <c r="C139" t="s">
         <v>718</v>
@@ -8531,7 +9688,7 @@
         <v>2012</v>
       </c>
       <c r="B140" t="s">
-        <v>865</v>
+        <v>901</v>
       </c>
       <c r="C140" t="s">
         <v>719</v>
@@ -8542,7 +9699,7 @@
         <v>2012</v>
       </c>
       <c r="B141" t="s">
-        <v>866</v>
+        <v>902</v>
       </c>
       <c r="C141" t="s">
         <v>720</v>
@@ -8553,7 +9710,7 @@
         <v>2012</v>
       </c>
       <c r="B142" t="s">
-        <v>867</v>
+        <v>827</v>
       </c>
       <c r="C142" t="s">
         <v>721</v>
@@ -8564,7 +9721,7 @@
         <v>2012</v>
       </c>
       <c r="B143" t="s">
-        <v>868</v>
+        <v>828</v>
       </c>
       <c r="C143" t="s">
         <v>722</v>
@@ -8575,7 +9732,7 @@
         <v>2012</v>
       </c>
       <c r="B144" t="s">
-        <v>869</v>
+        <v>829</v>
       </c>
       <c r="C144" t="s">
         <v>723</v>
@@ -8586,7 +9743,7 @@
         <v>2012</v>
       </c>
       <c r="B145" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="C145" t="s">
         <v>725</v>
@@ -8597,7 +9754,7 @@
         <v>2012</v>
       </c>
       <c r="B146" t="s">
-        <v>871</v>
+        <v>831</v>
       </c>
       <c r="C146" t="s">
         <v>726</v>
@@ -8608,7 +9765,7 @@
         <v>2012</v>
       </c>
       <c r="B147" t="s">
-        <v>872</v>
+        <v>832</v>
       </c>
       <c r="C147" t="s">
         <v>728</v>
@@ -8619,7 +9776,7 @@
         <v>2012</v>
       </c>
       <c r="B148" t="s">
-        <v>873</v>
+        <v>833</v>
       </c>
       <c r="C148" t="s">
         <v>729</v>
@@ -8630,7 +9787,7 @@
         <v>2012</v>
       </c>
       <c r="B149" t="s">
-        <v>874</v>
+        <v>834</v>
       </c>
       <c r="C149" t="s">
         <v>730</v>
@@ -8641,7 +9798,7 @@
         <v>2012</v>
       </c>
       <c r="B150" t="s">
-        <v>875</v>
+        <v>835</v>
       </c>
       <c r="C150" t="s">
         <v>731</v>
@@ -8652,7 +9809,7 @@
         <v>2012</v>
       </c>
       <c r="B151" t="s">
-        <v>876</v>
+        <v>836</v>
       </c>
       <c r="C151" t="s">
         <v>732</v>
@@ -8663,7 +9820,7 @@
         <v>2012</v>
       </c>
       <c r="B152" t="s">
-        <v>877</v>
+        <v>837</v>
       </c>
       <c r="C152" t="s">
         <v>733</v>
@@ -8674,7 +9831,7 @@
         <v>2012</v>
       </c>
       <c r="B153" t="s">
-        <v>878</v>
+        <v>838</v>
       </c>
       <c r="C153" t="s">
         <v>734</v>
@@ -8685,7 +9842,7 @@
         <v>2012</v>
       </c>
       <c r="B154" t="s">
-        <v>879</v>
+        <v>839</v>
       </c>
       <c r="C154" t="s">
         <v>735</v>
@@ -8696,7 +9853,7 @@
         <v>2012</v>
       </c>
       <c r="B155" t="s">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="C155" t="s">
         <v>736</v>
@@ -8707,7 +9864,7 @@
         <v>2012</v>
       </c>
       <c r="B156" t="s">
-        <v>881</v>
+        <v>841</v>
       </c>
       <c r="C156" t="s">
         <v>737</v>
@@ -8718,7 +9875,7 @@
         <v>2012</v>
       </c>
       <c r="B157" t="s">
-        <v>882</v>
+        <v>842</v>
       </c>
       <c r="C157" t="s">
         <v>738</v>
@@ -8729,7 +9886,7 @@
         <v>2012</v>
       </c>
       <c r="B158" t="s">
-        <v>910</v>
+        <v>862</v>
       </c>
       <c r="C158" t="s">
         <v>739</v>
@@ -8773,7 +9930,7 @@
         <v>2014</v>
       </c>
       <c r="B162" t="s">
-        <v>883</v>
+        <v>843</v>
       </c>
       <c r="C162" t="s">
         <v>711</v>
@@ -8784,7 +9941,7 @@
         <v>2014</v>
       </c>
       <c r="B163" t="s">
-        <v>884</v>
+        <v>844</v>
       </c>
       <c r="C163" t="s">
         <v>709</v>
@@ -8795,7 +9952,7 @@
         <v>2014</v>
       </c>
       <c r="B164" t="s">
-        <v>885</v>
+        <v>845</v>
       </c>
       <c r="C164" t="s">
         <v>710</v>
@@ -8806,7 +9963,7 @@
         <v>2014</v>
       </c>
       <c r="B165" t="s">
-        <v>886</v>
+        <v>846</v>
       </c>
       <c r="C165" t="s">
         <v>712</v>
@@ -8817,7 +9974,7 @@
         <v>2014</v>
       </c>
       <c r="B166" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="C166" t="s">
         <v>713</v>
@@ -8828,7 +9985,7 @@
         <v>2014</v>
       </c>
       <c r="B167" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="C167" t="s">
         <v>714</v>
@@ -8839,7 +9996,7 @@
         <v>2014</v>
       </c>
       <c r="B168" t="s">
-        <v>889</v>
+        <v>905</v>
       </c>
       <c r="C168" t="s">
         <v>715</v>
@@ -8850,7 +10007,7 @@
         <v>2014</v>
       </c>
       <c r="B169" t="s">
-        <v>890</v>
+        <v>906</v>
       </c>
       <c r="C169" t="s">
         <v>716</v>
@@ -8861,7 +10018,7 @@
         <v>2014</v>
       </c>
       <c r="B170" t="s">
-        <v>891</v>
+        <v>907</v>
       </c>
       <c r="C170" t="s">
         <v>717</v>
@@ -8872,7 +10029,7 @@
         <v>2014</v>
       </c>
       <c r="B171" t="s">
-        <v>892</v>
+        <v>908</v>
       </c>
       <c r="C171" t="s">
         <v>718</v>
@@ -8883,7 +10040,7 @@
         <v>2014</v>
       </c>
       <c r="B172" t="s">
-        <v>893</v>
+        <v>909</v>
       </c>
       <c r="C172" t="s">
         <v>719</v>
@@ -8894,7 +10051,7 @@
         <v>2014</v>
       </c>
       <c r="B173" t="s">
-        <v>894</v>
+        <v>910</v>
       </c>
       <c r="C173" t="s">
         <v>720</v>
@@ -8905,7 +10062,7 @@
         <v>2014</v>
       </c>
       <c r="B174" t="s">
-        <v>895</v>
+        <v>847</v>
       </c>
       <c r="C174" t="s">
         <v>721</v>
@@ -8916,7 +10073,7 @@
         <v>2014</v>
       </c>
       <c r="B175" t="s">
-        <v>896</v>
+        <v>848</v>
       </c>
       <c r="C175" t="s">
         <v>722</v>
@@ -8927,7 +10084,7 @@
         <v>2014</v>
       </c>
       <c r="B176" t="s">
-        <v>897</v>
+        <v>849</v>
       </c>
       <c r="C176" t="s">
         <v>723</v>
@@ -8938,7 +10095,7 @@
         <v>2014</v>
       </c>
       <c r="B177" t="s">
-        <v>898</v>
+        <v>850</v>
       </c>
       <c r="C177" t="s">
         <v>725</v>
@@ -8949,7 +10106,7 @@
         <v>2014</v>
       </c>
       <c r="B178" t="s">
-        <v>899</v>
+        <v>851</v>
       </c>
       <c r="C178" t="s">
         <v>726</v>
@@ -8960,7 +10117,7 @@
         <v>2014</v>
       </c>
       <c r="B179" t="s">
-        <v>900</v>
+        <v>852</v>
       </c>
       <c r="C179" t="s">
         <v>728</v>
@@ -8971,7 +10128,7 @@
         <v>2014</v>
       </c>
       <c r="B180" t="s">
-        <v>901</v>
+        <v>853</v>
       </c>
       <c r="C180" t="s">
         <v>729</v>
@@ -8982,7 +10139,7 @@
         <v>2014</v>
       </c>
       <c r="B181" t="s">
-        <v>902</v>
+        <v>854</v>
       </c>
       <c r="C181" t="s">
         <v>730</v>
@@ -8993,7 +10150,7 @@
         <v>2014</v>
       </c>
       <c r="B182" t="s">
-        <v>903</v>
+        <v>855</v>
       </c>
       <c r="C182" t="s">
         <v>731</v>
@@ -9004,7 +10161,7 @@
         <v>2014</v>
       </c>
       <c r="B183" t="s">
-        <v>904</v>
+        <v>856</v>
       </c>
       <c r="C183" t="s">
         <v>732</v>
@@ -9015,7 +10172,7 @@
         <v>2014</v>
       </c>
       <c r="B184" t="s">
-        <v>905</v>
+        <v>857</v>
       </c>
       <c r="C184" t="s">
         <v>733</v>
@@ -9026,7 +10183,7 @@
         <v>2014</v>
       </c>
       <c r="B185" t="s">
-        <v>906</v>
+        <v>858</v>
       </c>
       <c r="C185" t="s">
         <v>734</v>
@@ -9037,7 +10194,7 @@
         <v>2014</v>
       </c>
       <c r="B186" t="s">
-        <v>907</v>
+        <v>859</v>
       </c>
       <c r="C186" t="s">
         <v>736</v>
@@ -9048,7 +10205,7 @@
         <v>2014</v>
       </c>
       <c r="B187" t="s">
-        <v>908</v>
+        <v>860</v>
       </c>
       <c r="C187" t="s">
         <v>737</v>
@@ -9059,7 +10216,7 @@
         <v>2014</v>
       </c>
       <c r="B188" t="s">
-        <v>909</v>
+        <v>861</v>
       </c>
       <c r="C188" t="s">
         <v>738</v>
@@ -9103,11 +10260,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
@@ -11431,7 +12588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
@@ -11870,7 +13027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -12032,498 +13189,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2004</v>
-      </c>
-      <c r="B2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2004</v>
-      </c>
-      <c r="B3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2004</v>
-      </c>
-      <c r="B4" t="s">
-        <v>569</v>
-      </c>
-      <c r="C4" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>571</v>
-      </c>
-      <c r="C5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>573</v>
-      </c>
-      <c r="C6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>575</v>
-      </c>
-      <c r="C7" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>576</v>
-      </c>
-      <c r="C8" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>579</v>
-      </c>
-      <c r="C9" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2006</v>
-      </c>
-      <c r="B10" t="s">
-        <v>580</v>
-      </c>
-      <c r="C10" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2006</v>
-      </c>
-      <c r="B11" t="s">
-        <v>581</v>
-      </c>
-      <c r="C11" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2006</v>
-      </c>
-      <c r="B12" t="s">
-        <v>582</v>
-      </c>
-      <c r="C12" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2006</v>
-      </c>
-      <c r="B13" t="s">
-        <v>583</v>
-      </c>
-      <c r="C13" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2006</v>
-      </c>
-      <c r="B14" t="s">
-        <v>584</v>
-      </c>
-      <c r="C14" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2006</v>
-      </c>
-      <c r="B15" t="s">
-        <v>585</v>
-      </c>
-      <c r="C15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2008</v>
-      </c>
-      <c r="B16" t="s">
-        <v>586</v>
-      </c>
-      <c r="C16" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2008</v>
-      </c>
-      <c r="B17" t="s">
-        <v>587</v>
-      </c>
-      <c r="C17" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2008</v>
-      </c>
-      <c r="B18" t="s">
-        <v>588</v>
-      </c>
-      <c r="C18" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2008</v>
-      </c>
-      <c r="B19" t="s">
-        <v>589</v>
-      </c>
-      <c r="C19" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2008</v>
-      </c>
-      <c r="B20" t="s">
-        <v>590</v>
-      </c>
-      <c r="C20" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2008</v>
-      </c>
-      <c r="B21" t="s">
-        <v>591</v>
-      </c>
-      <c r="C21" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2008</v>
-      </c>
-      <c r="B22" t="s">
-        <v>592</v>
-      </c>
-      <c r="C22" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2010</v>
-      </c>
-      <c r="B23" t="s">
-        <v>593</v>
-      </c>
-      <c r="C23" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2010</v>
-      </c>
-      <c r="B24" t="s">
-        <v>594</v>
-      </c>
-      <c r="C24" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2010</v>
-      </c>
-      <c r="B25" t="s">
-        <v>595</v>
-      </c>
-      <c r="C25" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2010</v>
-      </c>
-      <c r="B26" t="s">
-        <v>596</v>
-      </c>
-      <c r="C26" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2010</v>
-      </c>
-      <c r="B27" t="s">
-        <v>597</v>
-      </c>
-      <c r="C27" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2010</v>
-      </c>
-      <c r="B28" t="s">
-        <v>598</v>
-      </c>
-      <c r="C28" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2010</v>
-      </c>
-      <c r="B29" t="s">
-        <v>599</v>
-      </c>
-      <c r="C29" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2012</v>
-      </c>
-      <c r="B30" t="s">
-        <v>600</v>
-      </c>
-      <c r="C30" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2012</v>
-      </c>
-      <c r="B31" t="s">
-        <v>601</v>
-      </c>
-      <c r="C31" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2012</v>
-      </c>
-      <c r="B32" t="s">
-        <v>602</v>
-      </c>
-      <c r="C32" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2012</v>
-      </c>
-      <c r="B33" t="s">
-        <v>603</v>
-      </c>
-      <c r="C33" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2012</v>
-      </c>
-      <c r="B34" t="s">
-        <v>604</v>
-      </c>
-      <c r="C34" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2012</v>
-      </c>
-      <c r="B35" t="s">
-        <v>605</v>
-      </c>
-      <c r="C35" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2012</v>
-      </c>
-      <c r="B36" t="s">
-        <v>606</v>
-      </c>
-      <c r="C36" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2014</v>
-      </c>
-      <c r="B37" t="s">
-        <v>607</v>
-      </c>
-      <c r="C37" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2014</v>
-      </c>
-      <c r="B38" t="s">
-        <v>608</v>
-      </c>
-      <c r="C38" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2014</v>
-      </c>
-      <c r="B39" t="s">
-        <v>609</v>
-      </c>
-      <c r="C39" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2014</v>
-      </c>
-      <c r="B40" t="s">
-        <v>610</v>
-      </c>
-      <c r="C40" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>2014</v>
-      </c>
-      <c r="B41" t="s">
-        <v>611</v>
-      </c>
-      <c r="C41" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>2014</v>
-      </c>
-      <c r="B42" t="s">
-        <v>612</v>
-      </c>
-      <c r="C42" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>2014</v>
-      </c>
-      <c r="B43" t="s">
-        <v>613</v>
-      </c>
-      <c r="C43" t="s">
-        <v>578</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="460" windowWidth="33600" windowHeight="20460" activeTab="5"/>
+    <workbookView xWindow="8880" yWindow="540" windowWidth="33600" windowHeight="20460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="loneliness" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="911">
   <si>
     <t>year</t>
   </si>
@@ -5125,7 +5125,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5487,10 +5487,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5599,852 +5599,354 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B30" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="B34" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>2008</v>
-      </c>
-      <c r="B42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>2008</v>
-      </c>
-      <c r="B43" t="s">
-        <v>197</v>
-      </c>
-      <c r="C43" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>2008</v>
-      </c>
-      <c r="B44" t="s">
-        <v>198</v>
-      </c>
-      <c r="C44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>2008</v>
-      </c>
-      <c r="B45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>2008</v>
-      </c>
-      <c r="B46" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>2008</v>
-      </c>
-      <c r="B47" t="s">
-        <v>201</v>
-      </c>
-      <c r="C47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>2008</v>
-      </c>
-      <c r="B48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>2008</v>
-      </c>
-      <c r="B49" t="s">
-        <v>203</v>
-      </c>
-      <c r="C49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>2008</v>
-      </c>
-      <c r="B50" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>2008</v>
-      </c>
-      <c r="B51" t="s">
-        <v>205</v>
-      </c>
-      <c r="C51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>2008</v>
-      </c>
-      <c r="B52" t="s">
-        <v>206</v>
-      </c>
-      <c r="C52" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>2010</v>
-      </c>
-      <c r="B53" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>2010</v>
-      </c>
-      <c r="B54" t="s">
-        <v>208</v>
-      </c>
-      <c r="C54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>2010</v>
-      </c>
-      <c r="B55" t="s">
-        <v>209</v>
-      </c>
-      <c r="C55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>2010</v>
-      </c>
-      <c r="B56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>2010</v>
-      </c>
-      <c r="B57" t="s">
-        <v>211</v>
-      </c>
-      <c r="C57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>2010</v>
-      </c>
-      <c r="B58" t="s">
-        <v>212</v>
-      </c>
-      <c r="C58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>2010</v>
-      </c>
-      <c r="B59" t="s">
-        <v>213</v>
-      </c>
-      <c r="C59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>2010</v>
-      </c>
-      <c r="B60" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>2010</v>
-      </c>
-      <c r="B61" t="s">
-        <v>215</v>
-      </c>
-      <c r="C61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>2010</v>
-      </c>
-      <c r="B62" t="s">
-        <v>216</v>
-      </c>
-      <c r="C62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>2010</v>
-      </c>
-      <c r="B63" t="s">
-        <v>217</v>
-      </c>
-      <c r="C63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>2010</v>
-      </c>
-      <c r="B64" t="s">
-        <v>218</v>
-      </c>
-      <c r="C64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>2010</v>
-      </c>
-      <c r="B65" t="s">
-        <v>219</v>
-      </c>
-      <c r="C65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>2010</v>
-      </c>
-      <c r="B66" t="s">
-        <v>220</v>
-      </c>
-      <c r="C66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>2010</v>
-      </c>
-      <c r="B67" t="s">
-        <v>221</v>
-      </c>
-      <c r="C67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>2010</v>
-      </c>
-      <c r="B68" t="s">
-        <v>222</v>
-      </c>
-      <c r="C68" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>2010</v>
-      </c>
-      <c r="B69" t="s">
-        <v>223</v>
-      </c>
-      <c r="C69" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>2012</v>
-      </c>
-      <c r="B70" t="s">
-        <v>224</v>
-      </c>
-      <c r="C70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>2012</v>
-      </c>
-      <c r="B71" t="s">
-        <v>225</v>
-      </c>
-      <c r="C71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>2012</v>
-      </c>
-      <c r="B72" t="s">
-        <v>226</v>
-      </c>
-      <c r="C72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>2012</v>
-      </c>
-      <c r="B73" t="s">
-        <v>227</v>
-      </c>
-      <c r="C73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>2012</v>
-      </c>
-      <c r="B74" t="s">
-        <v>228</v>
-      </c>
-      <c r="C74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>2012</v>
-      </c>
-      <c r="B75" t="s">
-        <v>229</v>
-      </c>
-      <c r="C75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>2012</v>
-      </c>
-      <c r="B76" t="s">
-        <v>230</v>
-      </c>
-      <c r="C76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>2012</v>
-      </c>
-      <c r="B77" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>2012</v>
-      </c>
-      <c r="B78" t="s">
-        <v>232</v>
-      </c>
-      <c r="C78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>2012</v>
-      </c>
-      <c r="B79" t="s">
-        <v>233</v>
-      </c>
-      <c r="C79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>2012</v>
-      </c>
-      <c r="B80" t="s">
-        <v>234</v>
-      </c>
-      <c r="C80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>2012</v>
-      </c>
-      <c r="B81" t="s">
-        <v>235</v>
-      </c>
-      <c r="C81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>2012</v>
-      </c>
-      <c r="B82" t="s">
-        <v>236</v>
-      </c>
-      <c r="C82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>2012</v>
-      </c>
-      <c r="B83" t="s">
-        <v>237</v>
-      </c>
-      <c r="C83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>2012</v>
-      </c>
-      <c r="B84" t="s">
-        <v>238</v>
-      </c>
-      <c r="C84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>2012</v>
-      </c>
-      <c r="B85" t="s">
-        <v>239</v>
-      </c>
-      <c r="C85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>2012</v>
-      </c>
-      <c r="B86" t="s">
-        <v>240</v>
-      </c>
-      <c r="C86" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -8136,7 +7638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+    <sheetView topLeftCell="A148" workbookViewId="0">
       <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="540" windowWidth="33600" windowHeight="20460" activeTab="2"/>
+    <workbookView xWindow="49140" yWindow="460" windowWidth="33600" windowHeight="20460"/>
   </bookViews>
   <sheets>
-    <sheet name="loneliness" sheetId="1" r:id="rId1"/>
-    <sheet name="lifesatisfaction" sheetId="2" r:id="rId2"/>
-    <sheet name="socialnetwork" sheetId="3" r:id="rId3"/>
-    <sheet name="socialcontact" sheetId="12" r:id="rId4"/>
-    <sheet name="activity" sheetId="4" r:id="rId5"/>
-    <sheet name="demographics" sheetId="11" r:id="rId6"/>
-    <sheet name="socialsupport" sheetId="5" r:id="rId7"/>
+    <sheet name="demographics" sheetId="11" r:id="rId1"/>
+    <sheet name="loneliness" sheetId="1" r:id="rId2"/>
+    <sheet name="lifesatisfaction" sheetId="2" r:id="rId3"/>
+    <sheet name="socialnetwork" sheetId="3" r:id="rId4"/>
+    <sheet name="socialcontact" sheetId="12" r:id="rId5"/>
+    <sheet name="socialsupport" sheetId="5" r:id="rId6"/>
+    <sheet name="activity" sheetId="4" r:id="rId7"/>
     <sheet name="wellbeing" sheetId="6" r:id="rId8"/>
     <sheet name="selfratedmemory" sheetId="7" r:id="rId9"/>
     <sheet name="wordlist" sheetId="8" r:id="rId10"/>
@@ -26,8 +26,8 @@
     <sheet name="vocabulary" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">activity!$A$1:$E$90</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">loneliness!$A$1:$D$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">activity!$A$1:$E$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">loneliness!$A$1:$D$42</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -3096,6 +3096,3616 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E191"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>863</v>
+      </c>
+      <c r="C6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>864</v>
+      </c>
+      <c r="C7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>865</v>
+      </c>
+      <c r="C8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>866</v>
+      </c>
+      <c r="C9" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>867</v>
+      </c>
+      <c r="C10" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>868</v>
+      </c>
+      <c r="C11" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>869</v>
+      </c>
+      <c r="C12" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>870</v>
+      </c>
+      <c r="C13" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>767</v>
+      </c>
+      <c r="C14" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>768</v>
+      </c>
+      <c r="C15" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>769</v>
+      </c>
+      <c r="C16" t="s">
+        <v>723</v>
+      </c>
+      <c r="E16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>770</v>
+      </c>
+      <c r="C17" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>771</v>
+      </c>
+      <c r="C18" t="s">
+        <v>726</v>
+      </c>
+      <c r="E18" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>772</v>
+      </c>
+      <c r="C19" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>773</v>
+      </c>
+      <c r="C20" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2004</v>
+      </c>
+      <c r="B21" t="s">
+        <v>774</v>
+      </c>
+      <c r="C21" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2004</v>
+      </c>
+      <c r="B22" t="s">
+        <v>775</v>
+      </c>
+      <c r="C22" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2004</v>
+      </c>
+      <c r="B23" t="s">
+        <v>776</v>
+      </c>
+      <c r="C23" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2004</v>
+      </c>
+      <c r="B24" t="s">
+        <v>777</v>
+      </c>
+      <c r="C24" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2004</v>
+      </c>
+      <c r="B25" t="s">
+        <v>778</v>
+      </c>
+      <c r="C25" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>779</v>
+      </c>
+      <c r="C26" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2004</v>
+      </c>
+      <c r="B27" t="s">
+        <v>780</v>
+      </c>
+      <c r="C27" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2004</v>
+      </c>
+      <c r="B28" t="s">
+        <v>781</v>
+      </c>
+      <c r="C28" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2004</v>
+      </c>
+      <c r="B29" t="s">
+        <v>782</v>
+      </c>
+      <c r="C29" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2004</v>
+      </c>
+      <c r="B30" t="s">
+        <v>862</v>
+      </c>
+      <c r="C30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2004</v>
+      </c>
+      <c r="B31" t="s">
+        <v>740</v>
+      </c>
+      <c r="C31" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2004</v>
+      </c>
+      <c r="B32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C32" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>742</v>
+      </c>
+      <c r="C33" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2006</v>
+      </c>
+      <c r="B34" t="s">
+        <v>743</v>
+      </c>
+      <c r="C34" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2006</v>
+      </c>
+      <c r="B35" t="s">
+        <v>744</v>
+      </c>
+      <c r="C35" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2006</v>
+      </c>
+      <c r="B36" t="s">
+        <v>745</v>
+      </c>
+      <c r="C36" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2006</v>
+      </c>
+      <c r="B37" t="s">
+        <v>746</v>
+      </c>
+      <c r="C37" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2006</v>
+      </c>
+      <c r="B38" t="s">
+        <v>871</v>
+      </c>
+      <c r="C38" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2006</v>
+      </c>
+      <c r="B39" t="s">
+        <v>872</v>
+      </c>
+      <c r="C39" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2006</v>
+      </c>
+      <c r="B40" t="s">
+        <v>873</v>
+      </c>
+      <c r="C40" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2006</v>
+      </c>
+      <c r="B41" t="s">
+        <v>874</v>
+      </c>
+      <c r="C41" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2006</v>
+      </c>
+      <c r="B42" t="s">
+        <v>875</v>
+      </c>
+      <c r="C42" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2006</v>
+      </c>
+      <c r="B43" t="s">
+        <v>876</v>
+      </c>
+      <c r="C43" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2006</v>
+      </c>
+      <c r="B44" t="s">
+        <v>877</v>
+      </c>
+      <c r="C44" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2006</v>
+      </c>
+      <c r="B45" t="s">
+        <v>878</v>
+      </c>
+      <c r="C45" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2006</v>
+      </c>
+      <c r="B46" t="s">
+        <v>747</v>
+      </c>
+      <c r="C46" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2006</v>
+      </c>
+      <c r="B47" t="s">
+        <v>748</v>
+      </c>
+      <c r="C47" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2006</v>
+      </c>
+      <c r="B48" t="s">
+        <v>749</v>
+      </c>
+      <c r="C48" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2006</v>
+      </c>
+      <c r="B49" t="s">
+        <v>750</v>
+      </c>
+      <c r="C49" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2006</v>
+      </c>
+      <c r="B50" t="s">
+        <v>751</v>
+      </c>
+      <c r="C50" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2006</v>
+      </c>
+      <c r="B51" t="s">
+        <v>752</v>
+      </c>
+      <c r="C51" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2006</v>
+      </c>
+      <c r="B52" t="s">
+        <v>753</v>
+      </c>
+      <c r="C52" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2006</v>
+      </c>
+      <c r="B53" t="s">
+        <v>754</v>
+      </c>
+      <c r="C53" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2006</v>
+      </c>
+      <c r="B54" t="s">
+        <v>755</v>
+      </c>
+      <c r="C54" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2006</v>
+      </c>
+      <c r="B55" t="s">
+        <v>756</v>
+      </c>
+      <c r="C55" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2006</v>
+      </c>
+      <c r="B56" t="s">
+        <v>757</v>
+      </c>
+      <c r="C56" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2006</v>
+      </c>
+      <c r="B57" t="s">
+        <v>758</v>
+      </c>
+      <c r="C57" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2006</v>
+      </c>
+      <c r="B58" t="s">
+        <v>759</v>
+      </c>
+      <c r="C58" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2006</v>
+      </c>
+      <c r="B59" t="s">
+        <v>760</v>
+      </c>
+      <c r="C59" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2006</v>
+      </c>
+      <c r="B60" t="s">
+        <v>761</v>
+      </c>
+      <c r="C60" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2006</v>
+      </c>
+      <c r="B61" t="s">
+        <v>762</v>
+      </c>
+      <c r="C61" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2006</v>
+      </c>
+      <c r="B62" t="s">
+        <v>862</v>
+      </c>
+      <c r="C62" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2006</v>
+      </c>
+      <c r="B63" t="s">
+        <v>740</v>
+      </c>
+      <c r="C63" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2006</v>
+      </c>
+      <c r="B64" t="s">
+        <v>741</v>
+      </c>
+      <c r="C64" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2006</v>
+      </c>
+      <c r="B65" t="s">
+        <v>742</v>
+      </c>
+      <c r="C65" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2008</v>
+      </c>
+      <c r="B66" t="s">
+        <v>783</v>
+      </c>
+      <c r="C66" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2008</v>
+      </c>
+      <c r="B67" t="s">
+        <v>784</v>
+      </c>
+      <c r="C67" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2008</v>
+      </c>
+      <c r="B68" t="s">
+        <v>785</v>
+      </c>
+      <c r="C68" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>786</v>
+      </c>
+      <c r="C69" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2008</v>
+      </c>
+      <c r="B70" t="s">
+        <v>879</v>
+      </c>
+      <c r="C70" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2008</v>
+      </c>
+      <c r="B71" t="s">
+        <v>880</v>
+      </c>
+      <c r="C71" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2008</v>
+      </c>
+      <c r="B72" t="s">
+        <v>881</v>
+      </c>
+      <c r="C72" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2008</v>
+      </c>
+      <c r="B73" t="s">
+        <v>882</v>
+      </c>
+      <c r="C73" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2008</v>
+      </c>
+      <c r="B74" t="s">
+        <v>883</v>
+      </c>
+      <c r="C74" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2008</v>
+      </c>
+      <c r="B75" t="s">
+        <v>884</v>
+      </c>
+      <c r="C75" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2008</v>
+      </c>
+      <c r="B76" t="s">
+        <v>885</v>
+      </c>
+      <c r="C76" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2008</v>
+      </c>
+      <c r="B77" t="s">
+        <v>886</v>
+      </c>
+      <c r="C77" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2008</v>
+      </c>
+      <c r="B78" t="s">
+        <v>787</v>
+      </c>
+      <c r="C78" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2008</v>
+      </c>
+      <c r="B79" t="s">
+        <v>788</v>
+      </c>
+      <c r="C79" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2008</v>
+      </c>
+      <c r="B80" t="s">
+        <v>789</v>
+      </c>
+      <c r="C80" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2008</v>
+      </c>
+      <c r="B81" t="s">
+        <v>790</v>
+      </c>
+      <c r="C81" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2008</v>
+      </c>
+      <c r="B82" t="s">
+        <v>791</v>
+      </c>
+      <c r="C82" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2008</v>
+      </c>
+      <c r="B83" t="s">
+        <v>792</v>
+      </c>
+      <c r="C83" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2008</v>
+      </c>
+      <c r="B84" t="s">
+        <v>793</v>
+      </c>
+      <c r="C84" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2008</v>
+      </c>
+      <c r="B85" t="s">
+        <v>794</v>
+      </c>
+      <c r="C85" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2008</v>
+      </c>
+      <c r="B86" t="s">
+        <v>795</v>
+      </c>
+      <c r="C86" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2008</v>
+      </c>
+      <c r="B87" t="s">
+        <v>796</v>
+      </c>
+      <c r="C87" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2008</v>
+      </c>
+      <c r="B88" t="s">
+        <v>797</v>
+      </c>
+      <c r="C88" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2008</v>
+      </c>
+      <c r="B89" t="s">
+        <v>798</v>
+      </c>
+      <c r="C89" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2008</v>
+      </c>
+      <c r="B90" t="s">
+        <v>799</v>
+      </c>
+      <c r="C90" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2008</v>
+      </c>
+      <c r="B91" t="s">
+        <v>800</v>
+      </c>
+      <c r="C91" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2008</v>
+      </c>
+      <c r="B92" t="s">
+        <v>801</v>
+      </c>
+      <c r="C92" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2008</v>
+      </c>
+      <c r="B93" t="s">
+        <v>802</v>
+      </c>
+      <c r="C93" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2008</v>
+      </c>
+      <c r="B94" t="s">
+        <v>862</v>
+      </c>
+      <c r="C94" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2008</v>
+      </c>
+      <c r="B95" t="s">
+        <v>740</v>
+      </c>
+      <c r="C95" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2008</v>
+      </c>
+      <c r="B96" t="s">
+        <v>741</v>
+      </c>
+      <c r="C96" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2008</v>
+      </c>
+      <c r="B97" t="s">
+        <v>742</v>
+      </c>
+      <c r="C97" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2010</v>
+      </c>
+      <c r="B98" t="s">
+        <v>803</v>
+      </c>
+      <c r="C98" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2010</v>
+      </c>
+      <c r="B99" t="s">
+        <v>804</v>
+      </c>
+      <c r="C99" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2010</v>
+      </c>
+      <c r="B100" t="s">
+        <v>805</v>
+      </c>
+      <c r="C100" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2010</v>
+      </c>
+      <c r="B101" t="s">
+        <v>806</v>
+      </c>
+      <c r="C101" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>2010</v>
+      </c>
+      <c r="B102" t="s">
+        <v>887</v>
+      </c>
+      <c r="C102" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>2010</v>
+      </c>
+      <c r="B103" t="s">
+        <v>888</v>
+      </c>
+      <c r="C103" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2010</v>
+      </c>
+      <c r="B104" t="s">
+        <v>889</v>
+      </c>
+      <c r="C104" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2010</v>
+      </c>
+      <c r="B105" t="s">
+        <v>890</v>
+      </c>
+      <c r="C105" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2010</v>
+      </c>
+      <c r="B106" t="s">
+        <v>891</v>
+      </c>
+      <c r="C106" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>2010</v>
+      </c>
+      <c r="B107" t="s">
+        <v>892</v>
+      </c>
+      <c r="C107" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2010</v>
+      </c>
+      <c r="B108" t="s">
+        <v>893</v>
+      </c>
+      <c r="C108" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2010</v>
+      </c>
+      <c r="B109" t="s">
+        <v>894</v>
+      </c>
+      <c r="C109" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>2010</v>
+      </c>
+      <c r="B110" t="s">
+        <v>807</v>
+      </c>
+      <c r="C110" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>2010</v>
+      </c>
+      <c r="B111" t="s">
+        <v>808</v>
+      </c>
+      <c r="C111" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>2010</v>
+      </c>
+      <c r="B112" t="s">
+        <v>809</v>
+      </c>
+      <c r="C112" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>2010</v>
+      </c>
+      <c r="B113" t="s">
+        <v>810</v>
+      </c>
+      <c r="C113" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>2010</v>
+      </c>
+      <c r="B114" t="s">
+        <v>811</v>
+      </c>
+      <c r="C114" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>2010</v>
+      </c>
+      <c r="B115" t="s">
+        <v>812</v>
+      </c>
+      <c r="C115" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>2010</v>
+      </c>
+      <c r="B116" t="s">
+        <v>813</v>
+      </c>
+      <c r="C116" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>2010</v>
+      </c>
+      <c r="B117" t="s">
+        <v>814</v>
+      </c>
+      <c r="C117" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>2010</v>
+      </c>
+      <c r="B118" t="s">
+        <v>815</v>
+      </c>
+      <c r="C118" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>2010</v>
+      </c>
+      <c r="B119" t="s">
+        <v>816</v>
+      </c>
+      <c r="C119" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>2010</v>
+      </c>
+      <c r="B120" t="s">
+        <v>817</v>
+      </c>
+      <c r="C120" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>2010</v>
+      </c>
+      <c r="B121" t="s">
+        <v>818</v>
+      </c>
+      <c r="C121" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2010</v>
+      </c>
+      <c r="B122" t="s">
+        <v>819</v>
+      </c>
+      <c r="C122" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>2010</v>
+      </c>
+      <c r="B123" t="s">
+        <v>820</v>
+      </c>
+      <c r="C123" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>2010</v>
+      </c>
+      <c r="B124" t="s">
+        <v>821</v>
+      </c>
+      <c r="C124" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2010</v>
+      </c>
+      <c r="B125" t="s">
+        <v>822</v>
+      </c>
+      <c r="C125" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2010</v>
+      </c>
+      <c r="B126" t="s">
+        <v>862</v>
+      </c>
+      <c r="C126" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2010</v>
+      </c>
+      <c r="B127" t="s">
+        <v>740</v>
+      </c>
+      <c r="C127" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2010</v>
+      </c>
+      <c r="B128" t="s">
+        <v>741</v>
+      </c>
+      <c r="C128" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2010</v>
+      </c>
+      <c r="B129" t="s">
+        <v>742</v>
+      </c>
+      <c r="C129" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>2012</v>
+      </c>
+      <c r="B130" t="s">
+        <v>823</v>
+      </c>
+      <c r="C130" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2012</v>
+      </c>
+      <c r="B131" t="s">
+        <v>824</v>
+      </c>
+      <c r="C131" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>2012</v>
+      </c>
+      <c r="B132" t="s">
+        <v>825</v>
+      </c>
+      <c r="C132" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2012</v>
+      </c>
+      <c r="B133" t="s">
+        <v>826</v>
+      </c>
+      <c r="C133" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>2012</v>
+      </c>
+      <c r="B134" t="s">
+        <v>895</v>
+      </c>
+      <c r="C134" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>2012</v>
+      </c>
+      <c r="B135" t="s">
+        <v>896</v>
+      </c>
+      <c r="C135" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>2012</v>
+      </c>
+      <c r="B136" t="s">
+        <v>897</v>
+      </c>
+      <c r="C136" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>2012</v>
+      </c>
+      <c r="B137" t="s">
+        <v>898</v>
+      </c>
+      <c r="C137" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>2012</v>
+      </c>
+      <c r="B138" t="s">
+        <v>899</v>
+      </c>
+      <c r="C138" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2012</v>
+      </c>
+      <c r="B139" t="s">
+        <v>900</v>
+      </c>
+      <c r="C139" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>2012</v>
+      </c>
+      <c r="B140" t="s">
+        <v>901</v>
+      </c>
+      <c r="C140" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>2012</v>
+      </c>
+      <c r="B141" t="s">
+        <v>902</v>
+      </c>
+      <c r="C141" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>2012</v>
+      </c>
+      <c r="B142" t="s">
+        <v>827</v>
+      </c>
+      <c r="C142" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>2012</v>
+      </c>
+      <c r="B143" t="s">
+        <v>828</v>
+      </c>
+      <c r="C143" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2012</v>
+      </c>
+      <c r="B144" t="s">
+        <v>829</v>
+      </c>
+      <c r="C144" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2012</v>
+      </c>
+      <c r="B145" t="s">
+        <v>830</v>
+      </c>
+      <c r="C145" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2012</v>
+      </c>
+      <c r="B146" t="s">
+        <v>831</v>
+      </c>
+      <c r="C146" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2012</v>
+      </c>
+      <c r="B147" t="s">
+        <v>832</v>
+      </c>
+      <c r="C147" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>2012</v>
+      </c>
+      <c r="B148" t="s">
+        <v>833</v>
+      </c>
+      <c r="C148" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>2012</v>
+      </c>
+      <c r="B149" t="s">
+        <v>834</v>
+      </c>
+      <c r="C149" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>2012</v>
+      </c>
+      <c r="B150" t="s">
+        <v>835</v>
+      </c>
+      <c r="C150" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>2012</v>
+      </c>
+      <c r="B151" t="s">
+        <v>836</v>
+      </c>
+      <c r="C151" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>2012</v>
+      </c>
+      <c r="B152" t="s">
+        <v>837</v>
+      </c>
+      <c r="C152" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>2012</v>
+      </c>
+      <c r="B153" t="s">
+        <v>838</v>
+      </c>
+      <c r="C153" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>2012</v>
+      </c>
+      <c r="B154" t="s">
+        <v>839</v>
+      </c>
+      <c r="C154" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>2012</v>
+      </c>
+      <c r="B155" t="s">
+        <v>840</v>
+      </c>
+      <c r="C155" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>2012</v>
+      </c>
+      <c r="B156" t="s">
+        <v>841</v>
+      </c>
+      <c r="C156" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>2012</v>
+      </c>
+      <c r="B157" t="s">
+        <v>842</v>
+      </c>
+      <c r="C157" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>2012</v>
+      </c>
+      <c r="B158" t="s">
+        <v>862</v>
+      </c>
+      <c r="C158" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>2012</v>
+      </c>
+      <c r="B159" t="s">
+        <v>740</v>
+      </c>
+      <c r="C159" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>2012</v>
+      </c>
+      <c r="B160" t="s">
+        <v>741</v>
+      </c>
+      <c r="C160" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>2012</v>
+      </c>
+      <c r="B161" t="s">
+        <v>742</v>
+      </c>
+      <c r="C161" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>2014</v>
+      </c>
+      <c r="B162" t="s">
+        <v>843</v>
+      </c>
+      <c r="C162" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>2014</v>
+      </c>
+      <c r="B163" t="s">
+        <v>844</v>
+      </c>
+      <c r="C163" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>2014</v>
+      </c>
+      <c r="B164" t="s">
+        <v>845</v>
+      </c>
+      <c r="C164" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>2014</v>
+      </c>
+      <c r="B165" t="s">
+        <v>846</v>
+      </c>
+      <c r="C165" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>2014</v>
+      </c>
+      <c r="B166" t="s">
+        <v>903</v>
+      </c>
+      <c r="C166" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>2014</v>
+      </c>
+      <c r="B167" t="s">
+        <v>904</v>
+      </c>
+      <c r="C167" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>2014</v>
+      </c>
+      <c r="B168" t="s">
+        <v>905</v>
+      </c>
+      <c r="C168" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>2014</v>
+      </c>
+      <c r="B169" t="s">
+        <v>906</v>
+      </c>
+      <c r="C169" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>2014</v>
+      </c>
+      <c r="B170" t="s">
+        <v>907</v>
+      </c>
+      <c r="C170" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>2014</v>
+      </c>
+      <c r="B171" t="s">
+        <v>908</v>
+      </c>
+      <c r="C171" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>2014</v>
+      </c>
+      <c r="B172" t="s">
+        <v>909</v>
+      </c>
+      <c r="C172" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>2014</v>
+      </c>
+      <c r="B173" t="s">
+        <v>910</v>
+      </c>
+      <c r="C173" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>2014</v>
+      </c>
+      <c r="B174" t="s">
+        <v>847</v>
+      </c>
+      <c r="C174" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>2014</v>
+      </c>
+      <c r="B175" t="s">
+        <v>848</v>
+      </c>
+      <c r="C175" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>2014</v>
+      </c>
+      <c r="B176" t="s">
+        <v>849</v>
+      </c>
+      <c r="C176" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>2014</v>
+      </c>
+      <c r="B177" t="s">
+        <v>850</v>
+      </c>
+      <c r="C177" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>2014</v>
+      </c>
+      <c r="B178" t="s">
+        <v>851</v>
+      </c>
+      <c r="C178" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>2014</v>
+      </c>
+      <c r="B179" t="s">
+        <v>852</v>
+      </c>
+      <c r="C179" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>2014</v>
+      </c>
+      <c r="B180" t="s">
+        <v>853</v>
+      </c>
+      <c r="C180" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>2014</v>
+      </c>
+      <c r="B181" t="s">
+        <v>854</v>
+      </c>
+      <c r="C181" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>2014</v>
+      </c>
+      <c r="B182" t="s">
+        <v>855</v>
+      </c>
+      <c r="C182" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>2014</v>
+      </c>
+      <c r="B183" t="s">
+        <v>856</v>
+      </c>
+      <c r="C183" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>2014</v>
+      </c>
+      <c r="B184" t="s">
+        <v>857</v>
+      </c>
+      <c r="C184" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>2014</v>
+      </c>
+      <c r="B185" t="s">
+        <v>858</v>
+      </c>
+      <c r="C185" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>2014</v>
+      </c>
+      <c r="B186" t="s">
+        <v>859</v>
+      </c>
+      <c r="C186" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>2014</v>
+      </c>
+      <c r="B187" t="s">
+        <v>860</v>
+      </c>
+      <c r="C187" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>2014</v>
+      </c>
+      <c r="B188" t="s">
+        <v>861</v>
+      </c>
+      <c r="C188" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>2014</v>
+      </c>
+      <c r="B189" t="s">
+        <v>740</v>
+      </c>
+      <c r="C189" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>2014</v>
+      </c>
+      <c r="B190" t="s">
+        <v>741</v>
+      </c>
+      <c r="C190" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>2014</v>
+      </c>
+      <c r="B191" t="s">
+        <v>742</v>
+      </c>
+      <c r="C191" t="s">
+        <v>742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C10" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>581</v>
+      </c>
+      <c r="C11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>583</v>
+      </c>
+      <c r="C13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>584</v>
+      </c>
+      <c r="C14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2008</v>
+      </c>
+      <c r="B16" t="s">
+        <v>586</v>
+      </c>
+      <c r="C16" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2008</v>
+      </c>
+      <c r="B17" t="s">
+        <v>587</v>
+      </c>
+      <c r="C17" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>588</v>
+      </c>
+      <c r="C18" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>589</v>
+      </c>
+      <c r="C19" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2008</v>
+      </c>
+      <c r="B20" t="s">
+        <v>590</v>
+      </c>
+      <c r="C20" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>591</v>
+      </c>
+      <c r="C21" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>592</v>
+      </c>
+      <c r="C22" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2010</v>
+      </c>
+      <c r="B23" t="s">
+        <v>593</v>
+      </c>
+      <c r="C23" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2010</v>
+      </c>
+      <c r="B24" t="s">
+        <v>594</v>
+      </c>
+      <c r="C24" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2010</v>
+      </c>
+      <c r="B25" t="s">
+        <v>595</v>
+      </c>
+      <c r="C25" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2010</v>
+      </c>
+      <c r="B26" t="s">
+        <v>596</v>
+      </c>
+      <c r="C26" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2010</v>
+      </c>
+      <c r="B27" t="s">
+        <v>597</v>
+      </c>
+      <c r="C27" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2010</v>
+      </c>
+      <c r="B28" t="s">
+        <v>598</v>
+      </c>
+      <c r="C28" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2010</v>
+      </c>
+      <c r="B29" t="s">
+        <v>599</v>
+      </c>
+      <c r="C29" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2012</v>
+      </c>
+      <c r="B30" t="s">
+        <v>600</v>
+      </c>
+      <c r="C30" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2012</v>
+      </c>
+      <c r="B31" t="s">
+        <v>601</v>
+      </c>
+      <c r="C31" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2012</v>
+      </c>
+      <c r="B32" t="s">
+        <v>602</v>
+      </c>
+      <c r="C32" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2012</v>
+      </c>
+      <c r="B33" t="s">
+        <v>603</v>
+      </c>
+      <c r="C33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34" t="s">
+        <v>604</v>
+      </c>
+      <c r="C34" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2012</v>
+      </c>
+      <c r="B35" t="s">
+        <v>605</v>
+      </c>
+      <c r="C35" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2012</v>
+      </c>
+      <c r="B36" t="s">
+        <v>606</v>
+      </c>
+      <c r="C36" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2014</v>
+      </c>
+      <c r="B37" t="s">
+        <v>607</v>
+      </c>
+      <c r="C37" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2014</v>
+      </c>
+      <c r="B38" t="s">
+        <v>608</v>
+      </c>
+      <c r="C38" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2014</v>
+      </c>
+      <c r="B39" t="s">
+        <v>609</v>
+      </c>
+      <c r="C39" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2014</v>
+      </c>
+      <c r="B40" t="s">
+        <v>610</v>
+      </c>
+      <c r="C40" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2014</v>
+      </c>
+      <c r="B41" t="s">
+        <v>611</v>
+      </c>
+      <c r="C41" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2014</v>
+      </c>
+      <c r="B42" t="s">
+        <v>612</v>
+      </c>
+      <c r="C42" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2014</v>
+      </c>
+      <c r="B43" t="s">
+        <v>613</v>
+      </c>
+      <c r="C43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C10" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>631</v>
+      </c>
+      <c r="C11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>632</v>
+      </c>
+      <c r="C12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>633</v>
+      </c>
+      <c r="C13" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>634</v>
+      </c>
+      <c r="C14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>635</v>
+      </c>
+      <c r="C15" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>636</v>
+      </c>
+      <c r="C16" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>637</v>
+      </c>
+      <c r="C17" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>638</v>
+      </c>
+      <c r="C18" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>639</v>
+      </c>
+      <c r="C19" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2008</v>
+      </c>
+      <c r="B20" t="s">
+        <v>640</v>
+      </c>
+      <c r="C20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>641</v>
+      </c>
+      <c r="C21" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>642</v>
+      </c>
+      <c r="C22" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2008</v>
+      </c>
+      <c r="B23" t="s">
+        <v>643</v>
+      </c>
+      <c r="C23" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2008</v>
+      </c>
+      <c r="B24" t="s">
+        <v>644</v>
+      </c>
+      <c r="C24" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2008</v>
+      </c>
+      <c r="B25" t="s">
+        <v>645</v>
+      </c>
+      <c r="C25" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2010</v>
+      </c>
+      <c r="B26" t="s">
+        <v>646</v>
+      </c>
+      <c r="C26" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2010</v>
+      </c>
+      <c r="B27" t="s">
+        <v>647</v>
+      </c>
+      <c r="C27" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2010</v>
+      </c>
+      <c r="B28" t="s">
+        <v>648</v>
+      </c>
+      <c r="C28" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2010</v>
+      </c>
+      <c r="B29" t="s">
+        <v>649</v>
+      </c>
+      <c r="C29" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2010</v>
+      </c>
+      <c r="B30" t="s">
+        <v>650</v>
+      </c>
+      <c r="C30" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2010</v>
+      </c>
+      <c r="B31" t="s">
+        <v>651</v>
+      </c>
+      <c r="C31" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32" t="s">
+        <v>652</v>
+      </c>
+      <c r="C32" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2010</v>
+      </c>
+      <c r="B33" t="s">
+        <v>653</v>
+      </c>
+      <c r="C33" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34" t="s">
+        <v>654</v>
+      </c>
+      <c r="C34" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2012</v>
+      </c>
+      <c r="B35" t="s">
+        <v>655</v>
+      </c>
+      <c r="C35" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2012</v>
+      </c>
+      <c r="B36" t="s">
+        <v>656</v>
+      </c>
+      <c r="C36" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2012</v>
+      </c>
+      <c r="B37" t="s">
+        <v>657</v>
+      </c>
+      <c r="C37" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2012</v>
+      </c>
+      <c r="B38" t="s">
+        <v>658</v>
+      </c>
+      <c r="C38" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2012</v>
+      </c>
+      <c r="B39" t="s">
+        <v>659</v>
+      </c>
+      <c r="C39" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2012</v>
+      </c>
+      <c r="B40" t="s">
+        <v>660</v>
+      </c>
+      <c r="C40" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>661</v>
+      </c>
+      <c r="C41" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2014</v>
+      </c>
+      <c r="B42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2014</v>
+      </c>
+      <c r="B43" t="s">
+        <v>663</v>
+      </c>
+      <c r="C43" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2014</v>
+      </c>
+      <c r="B44" t="s">
+        <v>664</v>
+      </c>
+      <c r="C44" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2014</v>
+      </c>
+      <c r="B45" t="s">
+        <v>665</v>
+      </c>
+      <c r="C45" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2014</v>
+      </c>
+      <c r="B46" t="s">
+        <v>666</v>
+      </c>
+      <c r="C46" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2014</v>
+      </c>
+      <c r="B47" t="s">
+        <v>667</v>
+      </c>
+      <c r="C47" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2014</v>
+      </c>
+      <c r="B48" t="s">
+        <v>668</v>
+      </c>
+      <c r="C48" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2014</v>
+      </c>
+      <c r="B49" t="s">
+        <v>669</v>
+      </c>
+      <c r="C49" t="s">
+        <v>629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>680</v>
+      </c>
+      <c r="C7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>683</v>
+      </c>
+      <c r="C9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>684</v>
+      </c>
+      <c r="C10" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>685</v>
+      </c>
+      <c r="C11" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>686</v>
+      </c>
+      <c r="C12" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>687</v>
+      </c>
+      <c r="C13" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2008</v>
+      </c>
+      <c r="B14" t="s">
+        <v>688</v>
+      </c>
+      <c r="C14" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15" t="s">
+        <v>689</v>
+      </c>
+      <c r="C15" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2008</v>
+      </c>
+      <c r="B16" t="s">
+        <v>690</v>
+      </c>
+      <c r="C16" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2008</v>
+      </c>
+      <c r="B17" t="s">
+        <v>691</v>
+      </c>
+      <c r="C17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>692</v>
+      </c>
+      <c r="C18" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>693</v>
+      </c>
+      <c r="C19" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2010</v>
+      </c>
+      <c r="B20" t="s">
+        <v>694</v>
+      </c>
+      <c r="C20" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2010</v>
+      </c>
+      <c r="B21" t="s">
+        <v>695</v>
+      </c>
+      <c r="C21" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2010</v>
+      </c>
+      <c r="B22" t="s">
+        <v>696</v>
+      </c>
+      <c r="C22" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2010</v>
+      </c>
+      <c r="B23" t="s">
+        <v>697</v>
+      </c>
+      <c r="C23" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2010</v>
+      </c>
+      <c r="B24" t="s">
+        <v>698</v>
+      </c>
+      <c r="C24" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2010</v>
+      </c>
+      <c r="B25" t="s">
+        <v>694</v>
+      </c>
+      <c r="C25" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2012</v>
+      </c>
+      <c r="B26" t="s">
+        <v>699</v>
+      </c>
+      <c r="C26" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2012</v>
+      </c>
+      <c r="B27" t="s">
+        <v>700</v>
+      </c>
+      <c r="C27" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2012</v>
+      </c>
+      <c r="B28" t="s">
+        <v>701</v>
+      </c>
+      <c r="C28" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2012</v>
+      </c>
+      <c r="B29" t="s">
+        <v>702</v>
+      </c>
+      <c r="C29" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2012</v>
+      </c>
+      <c r="B30" t="s">
+        <v>703</v>
+      </c>
+      <c r="C30" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2012</v>
+      </c>
+      <c r="B31" t="s">
+        <v>699</v>
+      </c>
+      <c r="C31" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2014</v>
+      </c>
+      <c r="B32" t="s">
+        <v>704</v>
+      </c>
+      <c r="C32" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2014</v>
+      </c>
+      <c r="B33" t="s">
+        <v>705</v>
+      </c>
+      <c r="C33" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2014</v>
+      </c>
+      <c r="B34" t="s">
+        <v>706</v>
+      </c>
+      <c r="C34" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2014</v>
+      </c>
+      <c r="B35" t="s">
+        <v>707</v>
+      </c>
+      <c r="C35" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36" t="s">
+        <v>708</v>
+      </c>
+      <c r="C36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2014</v>
+      </c>
+      <c r="B37" t="s">
+        <v>704</v>
+      </c>
+      <c r="C37" t="s">
+        <v>681</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E42"/>
   <sheetViews>
@@ -3638,1489 +7248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2004</v>
-      </c>
-      <c r="B2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2004</v>
-      </c>
-      <c r="B3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2004</v>
-      </c>
-      <c r="B4" t="s">
-        <v>569</v>
-      </c>
-      <c r="C4" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>571</v>
-      </c>
-      <c r="C5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>573</v>
-      </c>
-      <c r="C6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>575</v>
-      </c>
-      <c r="C7" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>576</v>
-      </c>
-      <c r="C8" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>579</v>
-      </c>
-      <c r="C9" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2006</v>
-      </c>
-      <c r="B10" t="s">
-        <v>580</v>
-      </c>
-      <c r="C10" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2006</v>
-      </c>
-      <c r="B11" t="s">
-        <v>581</v>
-      </c>
-      <c r="C11" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2006</v>
-      </c>
-      <c r="B12" t="s">
-        <v>582</v>
-      </c>
-      <c r="C12" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2006</v>
-      </c>
-      <c r="B13" t="s">
-        <v>583</v>
-      </c>
-      <c r="C13" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2006</v>
-      </c>
-      <c r="B14" t="s">
-        <v>584</v>
-      </c>
-      <c r="C14" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2006</v>
-      </c>
-      <c r="B15" t="s">
-        <v>585</v>
-      </c>
-      <c r="C15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2008</v>
-      </c>
-      <c r="B16" t="s">
-        <v>586</v>
-      </c>
-      <c r="C16" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2008</v>
-      </c>
-      <c r="B17" t="s">
-        <v>587</v>
-      </c>
-      <c r="C17" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2008</v>
-      </c>
-      <c r="B18" t="s">
-        <v>588</v>
-      </c>
-      <c r="C18" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2008</v>
-      </c>
-      <c r="B19" t="s">
-        <v>589</v>
-      </c>
-      <c r="C19" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2008</v>
-      </c>
-      <c r="B20" t="s">
-        <v>590</v>
-      </c>
-      <c r="C20" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2008</v>
-      </c>
-      <c r="B21" t="s">
-        <v>591</v>
-      </c>
-      <c r="C21" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2008</v>
-      </c>
-      <c r="B22" t="s">
-        <v>592</v>
-      </c>
-      <c r="C22" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2010</v>
-      </c>
-      <c r="B23" t="s">
-        <v>593</v>
-      </c>
-      <c r="C23" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2010</v>
-      </c>
-      <c r="B24" t="s">
-        <v>594</v>
-      </c>
-      <c r="C24" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2010</v>
-      </c>
-      <c r="B25" t="s">
-        <v>595</v>
-      </c>
-      <c r="C25" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2010</v>
-      </c>
-      <c r="B26" t="s">
-        <v>596</v>
-      </c>
-      <c r="C26" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2010</v>
-      </c>
-      <c r="B27" t="s">
-        <v>597</v>
-      </c>
-      <c r="C27" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2010</v>
-      </c>
-      <c r="B28" t="s">
-        <v>598</v>
-      </c>
-      <c r="C28" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2010</v>
-      </c>
-      <c r="B29" t="s">
-        <v>599</v>
-      </c>
-      <c r="C29" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2012</v>
-      </c>
-      <c r="B30" t="s">
-        <v>600</v>
-      </c>
-      <c r="C30" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2012</v>
-      </c>
-      <c r="B31" t="s">
-        <v>601</v>
-      </c>
-      <c r="C31" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2012</v>
-      </c>
-      <c r="B32" t="s">
-        <v>602</v>
-      </c>
-      <c r="C32" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2012</v>
-      </c>
-      <c r="B33" t="s">
-        <v>603</v>
-      </c>
-      <c r="C33" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2012</v>
-      </c>
-      <c r="B34" t="s">
-        <v>604</v>
-      </c>
-      <c r="C34" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2012</v>
-      </c>
-      <c r="B35" t="s">
-        <v>605</v>
-      </c>
-      <c r="C35" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2012</v>
-      </c>
-      <c r="B36" t="s">
-        <v>606</v>
-      </c>
-      <c r="C36" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2014</v>
-      </c>
-      <c r="B37" t="s">
-        <v>607</v>
-      </c>
-      <c r="C37" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2014</v>
-      </c>
-      <c r="B38" t="s">
-        <v>608</v>
-      </c>
-      <c r="C38" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2014</v>
-      </c>
-      <c r="B39" t="s">
-        <v>609</v>
-      </c>
-      <c r="C39" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2014</v>
-      </c>
-      <c r="B40" t="s">
-        <v>610</v>
-      </c>
-      <c r="C40" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>2014</v>
-      </c>
-      <c r="B41" t="s">
-        <v>611</v>
-      </c>
-      <c r="C41" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>2014</v>
-      </c>
-      <c r="B42" t="s">
-        <v>612</v>
-      </c>
-      <c r="C42" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>2014</v>
-      </c>
-      <c r="B43" t="s">
-        <v>613</v>
-      </c>
-      <c r="C43" t="s">
-        <v>578</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2004</v>
-      </c>
-      <c r="B2" t="s">
-        <v>614</v>
-      </c>
-      <c r="C2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2004</v>
-      </c>
-      <c r="B3" t="s">
-        <v>615</v>
-      </c>
-      <c r="C3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2004</v>
-      </c>
-      <c r="B4" t="s">
-        <v>616</v>
-      </c>
-      <c r="C4" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>617</v>
-      </c>
-      <c r="C5" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>618</v>
-      </c>
-      <c r="C6" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>619</v>
-      </c>
-      <c r="C7" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>620</v>
-      </c>
-      <c r="C8" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2004</v>
-      </c>
-      <c r="B9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C9" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2006</v>
-      </c>
-      <c r="B10" t="s">
-        <v>630</v>
-      </c>
-      <c r="C10" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2006</v>
-      </c>
-      <c r="B11" t="s">
-        <v>631</v>
-      </c>
-      <c r="C11" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2006</v>
-      </c>
-      <c r="B12" t="s">
-        <v>632</v>
-      </c>
-      <c r="C12" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2006</v>
-      </c>
-      <c r="B13" t="s">
-        <v>633</v>
-      </c>
-      <c r="C13" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2006</v>
-      </c>
-      <c r="B14" t="s">
-        <v>634</v>
-      </c>
-      <c r="C14" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2006</v>
-      </c>
-      <c r="B15" t="s">
-        <v>635</v>
-      </c>
-      <c r="C15" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2006</v>
-      </c>
-      <c r="B16" t="s">
-        <v>636</v>
-      </c>
-      <c r="C16" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2006</v>
-      </c>
-      <c r="B17" t="s">
-        <v>637</v>
-      </c>
-      <c r="C17" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2008</v>
-      </c>
-      <c r="B18" t="s">
-        <v>638</v>
-      </c>
-      <c r="C18" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2008</v>
-      </c>
-      <c r="B19" t="s">
-        <v>639</v>
-      </c>
-      <c r="C19" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2008</v>
-      </c>
-      <c r="B20" t="s">
-        <v>640</v>
-      </c>
-      <c r="C20" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2008</v>
-      </c>
-      <c r="B21" t="s">
-        <v>641</v>
-      </c>
-      <c r="C21" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2008</v>
-      </c>
-      <c r="B22" t="s">
-        <v>642</v>
-      </c>
-      <c r="C22" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2008</v>
-      </c>
-      <c r="B23" t="s">
-        <v>643</v>
-      </c>
-      <c r="C23" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2008</v>
-      </c>
-      <c r="B24" t="s">
-        <v>644</v>
-      </c>
-      <c r="C24" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2008</v>
-      </c>
-      <c r="B25" t="s">
-        <v>645</v>
-      </c>
-      <c r="C25" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2010</v>
-      </c>
-      <c r="B26" t="s">
-        <v>646</v>
-      </c>
-      <c r="C26" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2010</v>
-      </c>
-      <c r="B27" t="s">
-        <v>647</v>
-      </c>
-      <c r="C27" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2010</v>
-      </c>
-      <c r="B28" t="s">
-        <v>648</v>
-      </c>
-      <c r="C28" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2010</v>
-      </c>
-      <c r="B29" t="s">
-        <v>649</v>
-      </c>
-      <c r="C29" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2010</v>
-      </c>
-      <c r="B30" t="s">
-        <v>650</v>
-      </c>
-      <c r="C30" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2010</v>
-      </c>
-      <c r="B31" t="s">
-        <v>651</v>
-      </c>
-      <c r="C31" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2010</v>
-      </c>
-      <c r="B32" t="s">
-        <v>652</v>
-      </c>
-      <c r="C32" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2010</v>
-      </c>
-      <c r="B33" t="s">
-        <v>653</v>
-      </c>
-      <c r="C33" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2012</v>
-      </c>
-      <c r="B34" t="s">
-        <v>654</v>
-      </c>
-      <c r="C34" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2012</v>
-      </c>
-      <c r="B35" t="s">
-        <v>655</v>
-      </c>
-      <c r="C35" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2012</v>
-      </c>
-      <c r="B36" t="s">
-        <v>656</v>
-      </c>
-      <c r="C36" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2012</v>
-      </c>
-      <c r="B37" t="s">
-        <v>657</v>
-      </c>
-      <c r="C37" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2012</v>
-      </c>
-      <c r="B38" t="s">
-        <v>658</v>
-      </c>
-      <c r="C38" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2012</v>
-      </c>
-      <c r="B39" t="s">
-        <v>659</v>
-      </c>
-      <c r="C39" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2012</v>
-      </c>
-      <c r="B40" t="s">
-        <v>660</v>
-      </c>
-      <c r="C40" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>2012</v>
-      </c>
-      <c r="B41" t="s">
-        <v>661</v>
-      </c>
-      <c r="C41" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>2014</v>
-      </c>
-      <c r="B42" t="s">
-        <v>662</v>
-      </c>
-      <c r="C42" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>2014</v>
-      </c>
-      <c r="B43" t="s">
-        <v>663</v>
-      </c>
-      <c r="C43" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>2014</v>
-      </c>
-      <c r="B44" t="s">
-        <v>664</v>
-      </c>
-      <c r="C44" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>2014</v>
-      </c>
-      <c r="B45" t="s">
-        <v>665</v>
-      </c>
-      <c r="C45" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>2014</v>
-      </c>
-      <c r="B46" t="s">
-        <v>666</v>
-      </c>
-      <c r="C46" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>2014</v>
-      </c>
-      <c r="B47" t="s">
-        <v>667</v>
-      </c>
-      <c r="C47" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>2014</v>
-      </c>
-      <c r="B48" t="s">
-        <v>668</v>
-      </c>
-      <c r="C48" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>2014</v>
-      </c>
-      <c r="B49" t="s">
-        <v>669</v>
-      </c>
-      <c r="C49" t="s">
-        <v>629</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2004</v>
-      </c>
-      <c r="B2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2004</v>
-      </c>
-      <c r="B3" t="s">
-        <v>672</v>
-      </c>
-      <c r="C3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2004</v>
-      </c>
-      <c r="B4" t="s">
-        <v>674</v>
-      </c>
-      <c r="C4" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>676</v>
-      </c>
-      <c r="C5" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>678</v>
-      </c>
-      <c r="C6" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>680</v>
-      </c>
-      <c r="C7" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2006</v>
-      </c>
-      <c r="B8" t="s">
-        <v>682</v>
-      </c>
-      <c r="C8" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>683</v>
-      </c>
-      <c r="C9" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2006</v>
-      </c>
-      <c r="B10" t="s">
-        <v>684</v>
-      </c>
-      <c r="C10" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2006</v>
-      </c>
-      <c r="B11" t="s">
-        <v>685</v>
-      </c>
-      <c r="C11" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2006</v>
-      </c>
-      <c r="B12" t="s">
-        <v>686</v>
-      </c>
-      <c r="C12" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2006</v>
-      </c>
-      <c r="B13" t="s">
-        <v>687</v>
-      </c>
-      <c r="C13" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2008</v>
-      </c>
-      <c r="B14" t="s">
-        <v>688</v>
-      </c>
-      <c r="C14" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2008</v>
-      </c>
-      <c r="B15" t="s">
-        <v>689</v>
-      </c>
-      <c r="C15" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2008</v>
-      </c>
-      <c r="B16" t="s">
-        <v>690</v>
-      </c>
-      <c r="C16" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2008</v>
-      </c>
-      <c r="B17" t="s">
-        <v>691</v>
-      </c>
-      <c r="C17" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2008</v>
-      </c>
-      <c r="B18" t="s">
-        <v>692</v>
-      </c>
-      <c r="C18" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2008</v>
-      </c>
-      <c r="B19" t="s">
-        <v>693</v>
-      </c>
-      <c r="C19" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2010</v>
-      </c>
-      <c r="B20" t="s">
-        <v>694</v>
-      </c>
-      <c r="C20" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2010</v>
-      </c>
-      <c r="B21" t="s">
-        <v>695</v>
-      </c>
-      <c r="C21" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2010</v>
-      </c>
-      <c r="B22" t="s">
-        <v>696</v>
-      </c>
-      <c r="C22" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2010</v>
-      </c>
-      <c r="B23" t="s">
-        <v>697</v>
-      </c>
-      <c r="C23" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2010</v>
-      </c>
-      <c r="B24" t="s">
-        <v>698</v>
-      </c>
-      <c r="C24" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2010</v>
-      </c>
-      <c r="B25" t="s">
-        <v>694</v>
-      </c>
-      <c r="C25" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2012</v>
-      </c>
-      <c r="B26" t="s">
-        <v>699</v>
-      </c>
-      <c r="C26" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2012</v>
-      </c>
-      <c r="B27" t="s">
-        <v>700</v>
-      </c>
-      <c r="C27" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2012</v>
-      </c>
-      <c r="B28" t="s">
-        <v>701</v>
-      </c>
-      <c r="C28" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2012</v>
-      </c>
-      <c r="B29" t="s">
-        <v>702</v>
-      </c>
-      <c r="C29" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2012</v>
-      </c>
-      <c r="B30" t="s">
-        <v>703</v>
-      </c>
-      <c r="C30" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2012</v>
-      </c>
-      <c r="B31" t="s">
-        <v>699</v>
-      </c>
-      <c r="C31" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2014</v>
-      </c>
-      <c r="B32" t="s">
-        <v>704</v>
-      </c>
-      <c r="C32" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2014</v>
-      </c>
-      <c r="B33" t="s">
-        <v>705</v>
-      </c>
-      <c r="C33" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2014</v>
-      </c>
-      <c r="B34" t="s">
-        <v>706</v>
-      </c>
-      <c r="C34" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2014</v>
-      </c>
-      <c r="B35" t="s">
-        <v>707</v>
-      </c>
-      <c r="C35" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2014</v>
-      </c>
-      <c r="B36" t="s">
-        <v>708</v>
-      </c>
-      <c r="C36" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2014</v>
-      </c>
-      <c r="B37" t="s">
-        <v>704</v>
-      </c>
-      <c r="C37" t="s">
-        <v>681</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -5485,12 +7613,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5954,7 +8082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
@@ -6613,3160 +8741,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E90"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2004</v>
-      </c>
-      <c r="B2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2006</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2006</v>
-      </c>
-      <c r="B4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2006</v>
-      </c>
-      <c r="B5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2006</v>
-      </c>
-      <c r="B6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2006</v>
-      </c>
-      <c r="B8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2006</v>
-      </c>
-      <c r="B10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2006</v>
-      </c>
-      <c r="B11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2008</v>
-      </c>
-      <c r="B12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" t="s">
-        <v>241</v>
-      </c>
-      <c r="E12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2008</v>
-      </c>
-      <c r="B13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2008</v>
-      </c>
-      <c r="B14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2008</v>
-      </c>
-      <c r="B15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2008</v>
-      </c>
-      <c r="B16" t="s">
-        <v>270</v>
-      </c>
-      <c r="C16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2008</v>
-      </c>
-      <c r="B17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2008</v>
-      </c>
-      <c r="B18" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2008</v>
-      </c>
-      <c r="B19" t="s">
-        <v>276</v>
-      </c>
-      <c r="C19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2008</v>
-      </c>
-      <c r="B20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2008</v>
-      </c>
-      <c r="B21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2008</v>
-      </c>
-      <c r="B22" t="s">
-        <v>282</v>
-      </c>
-      <c r="C22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2008</v>
-      </c>
-      <c r="B23" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2008</v>
-      </c>
-      <c r="B24" t="s">
-        <v>286</v>
-      </c>
-      <c r="C24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2008</v>
-      </c>
-      <c r="B25" t="s">
-        <v>288</v>
-      </c>
-      <c r="C25" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2008</v>
-      </c>
-      <c r="B26" t="s">
-        <v>290</v>
-      </c>
-      <c r="C26" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2008</v>
-      </c>
-      <c r="B27" t="s">
-        <v>292</v>
-      </c>
-      <c r="C27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2008</v>
-      </c>
-      <c r="B28" t="s">
-        <v>294</v>
-      </c>
-      <c r="C28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2008</v>
-      </c>
-      <c r="B29" t="s">
-        <v>296</v>
-      </c>
-      <c r="C29" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2010</v>
-      </c>
-      <c r="B30" t="s">
-        <v>298</v>
-      </c>
-      <c r="C30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2010</v>
-      </c>
-      <c r="B31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2010</v>
-      </c>
-      <c r="B32" t="s">
-        <v>301</v>
-      </c>
-      <c r="C32" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2010</v>
-      </c>
-      <c r="B33" t="s">
-        <v>302</v>
-      </c>
-      <c r="C33" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2010</v>
-      </c>
-      <c r="B34" t="s">
-        <v>303</v>
-      </c>
-      <c r="C34" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2010</v>
-      </c>
-      <c r="B35" t="s">
-        <v>304</v>
-      </c>
-      <c r="C35" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2010</v>
-      </c>
-      <c r="B36" t="s">
-        <v>305</v>
-      </c>
-      <c r="C36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2010</v>
-      </c>
-      <c r="B37" t="s">
-        <v>306</v>
-      </c>
-      <c r="C37" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2010</v>
-      </c>
-      <c r="B38" t="s">
-        <v>307</v>
-      </c>
-      <c r="C38" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2010</v>
-      </c>
-      <c r="B39" t="s">
-        <v>308</v>
-      </c>
-      <c r="C39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2010</v>
-      </c>
-      <c r="B40" t="s">
-        <v>310</v>
-      </c>
-      <c r="C40" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>2010</v>
-      </c>
-      <c r="B41" t="s">
-        <v>311</v>
-      </c>
-      <c r="C41" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>2010</v>
-      </c>
-      <c r="B42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C42" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>2010</v>
-      </c>
-      <c r="B43" t="s">
-        <v>313</v>
-      </c>
-      <c r="C43" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>2010</v>
-      </c>
-      <c r="B44" t="s">
-        <v>314</v>
-      </c>
-      <c r="C44" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>2010</v>
-      </c>
-      <c r="B45" t="s">
-        <v>315</v>
-      </c>
-      <c r="C45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>2010</v>
-      </c>
-      <c r="B46" t="s">
-        <v>316</v>
-      </c>
-      <c r="C46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>2010</v>
-      </c>
-      <c r="B47" t="s">
-        <v>317</v>
-      </c>
-      <c r="C47" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>2010</v>
-      </c>
-      <c r="B48" t="s">
-        <v>318</v>
-      </c>
-      <c r="C48" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>2010</v>
-      </c>
-      <c r="B49" t="s">
-        <v>319</v>
-      </c>
-      <c r="C49" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>2012</v>
-      </c>
-      <c r="B50" t="s">
-        <v>320</v>
-      </c>
-      <c r="C50" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>2012</v>
-      </c>
-      <c r="B51" t="s">
-        <v>321</v>
-      </c>
-      <c r="C51" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>2012</v>
-      </c>
-      <c r="B52" t="s">
-        <v>322</v>
-      </c>
-      <c r="C52" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>2012</v>
-      </c>
-      <c r="B53" t="s">
-        <v>323</v>
-      </c>
-      <c r="C53" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>2012</v>
-      </c>
-      <c r="B54" t="s">
-        <v>324</v>
-      </c>
-      <c r="C54" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>2012</v>
-      </c>
-      <c r="B55" t="s">
-        <v>325</v>
-      </c>
-      <c r="C55" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>2012</v>
-      </c>
-      <c r="B56" t="s">
-        <v>326</v>
-      </c>
-      <c r="C56" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>2012</v>
-      </c>
-      <c r="B57" t="s">
-        <v>327</v>
-      </c>
-      <c r="C57" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>2012</v>
-      </c>
-      <c r="B58" t="s">
-        <v>328</v>
-      </c>
-      <c r="C58" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>2012</v>
-      </c>
-      <c r="B59" t="s">
-        <v>329</v>
-      </c>
-      <c r="C59" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>2012</v>
-      </c>
-      <c r="B60" t="s">
-        <v>330</v>
-      </c>
-      <c r="C60" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>2012</v>
-      </c>
-      <c r="B61" t="s">
-        <v>331</v>
-      </c>
-      <c r="C61" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>2012</v>
-      </c>
-      <c r="B62" t="s">
-        <v>332</v>
-      </c>
-      <c r="C62" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>2012</v>
-      </c>
-      <c r="B63" t="s">
-        <v>333</v>
-      </c>
-      <c r="C63" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>2012</v>
-      </c>
-      <c r="B64" t="s">
-        <v>334</v>
-      </c>
-      <c r="C64" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>2012</v>
-      </c>
-      <c r="B65" t="s">
-        <v>335</v>
-      </c>
-      <c r="C65" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>2012</v>
-      </c>
-      <c r="B66" t="s">
-        <v>336</v>
-      </c>
-      <c r="C66" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>2012</v>
-      </c>
-      <c r="B67" t="s">
-        <v>337</v>
-      </c>
-      <c r="C67" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>2012</v>
-      </c>
-      <c r="B68" t="s">
-        <v>338</v>
-      </c>
-      <c r="C68" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>2012</v>
-      </c>
-      <c r="B69" t="s">
-        <v>339</v>
-      </c>
-      <c r="C69" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>2014</v>
-      </c>
-      <c r="B70" t="s">
-        <v>340</v>
-      </c>
-      <c r="C70" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>2014</v>
-      </c>
-      <c r="B71" t="s">
-        <v>341</v>
-      </c>
-      <c r="C71" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>2014</v>
-      </c>
-      <c r="B72" t="s">
-        <v>342</v>
-      </c>
-      <c r="C72" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>2014</v>
-      </c>
-      <c r="B73" t="s">
-        <v>343</v>
-      </c>
-      <c r="C73" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>2014</v>
-      </c>
-      <c r="B74" t="s">
-        <v>344</v>
-      </c>
-      <c r="C74" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>2014</v>
-      </c>
-      <c r="B75" t="s">
-        <v>345</v>
-      </c>
-      <c r="C75" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>2014</v>
-      </c>
-      <c r="B76" t="s">
-        <v>346</v>
-      </c>
-      <c r="C76" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>2014</v>
-      </c>
-      <c r="B77" t="s">
-        <v>347</v>
-      </c>
-      <c r="C77" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>2014</v>
-      </c>
-      <c r="B78" t="s">
-        <v>348</v>
-      </c>
-      <c r="C78" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>2014</v>
-      </c>
-      <c r="B79" t="s">
-        <v>349</v>
-      </c>
-      <c r="C79" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>2014</v>
-      </c>
-      <c r="B80" t="s">
-        <v>350</v>
-      </c>
-      <c r="C80" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>2014</v>
-      </c>
-      <c r="B81" t="s">
-        <v>351</v>
-      </c>
-      <c r="C81" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>2014</v>
-      </c>
-      <c r="B82" t="s">
-        <v>352</v>
-      </c>
-      <c r="C82" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>2014</v>
-      </c>
-      <c r="B83" t="s">
-        <v>353</v>
-      </c>
-      <c r="C83" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>2014</v>
-      </c>
-      <c r="B84" t="s">
-        <v>354</v>
-      </c>
-      <c r="C84" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>2014</v>
-      </c>
-      <c r="B85" t="s">
-        <v>355</v>
-      </c>
-      <c r="C85" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>2014</v>
-      </c>
-      <c r="B86" t="s">
-        <v>356</v>
-      </c>
-      <c r="C86" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>2014</v>
-      </c>
-      <c r="B87" t="s">
-        <v>357</v>
-      </c>
-      <c r="C87" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>2014</v>
-      </c>
-      <c r="B88" t="s">
-        <v>358</v>
-      </c>
-      <c r="C88" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>2014</v>
-      </c>
-      <c r="B89" t="s">
-        <v>359</v>
-      </c>
-      <c r="C89" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>2014</v>
-      </c>
-      <c r="B90" t="s">
-        <v>360</v>
-      </c>
-      <c r="C90" t="s">
-        <v>361</v>
-      </c>
-      <c r="E90" t="s">
-        <v>362</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E90"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E191"/>
-  <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2004</v>
-      </c>
-      <c r="B2" t="s">
-        <v>763</v>
-      </c>
-      <c r="C2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2004</v>
-      </c>
-      <c r="B3" t="s">
-        <v>764</v>
-      </c>
-      <c r="C3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2004</v>
-      </c>
-      <c r="B4" t="s">
-        <v>765</v>
-      </c>
-      <c r="C4" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>766</v>
-      </c>
-      <c r="C5" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>863</v>
-      </c>
-      <c r="C6" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>864</v>
-      </c>
-      <c r="C7" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>865</v>
-      </c>
-      <c r="C8" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2004</v>
-      </c>
-      <c r="B9" t="s">
-        <v>866</v>
-      </c>
-      <c r="C9" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2004</v>
-      </c>
-      <c r="B10" t="s">
-        <v>867</v>
-      </c>
-      <c r="C10" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2004</v>
-      </c>
-      <c r="B11" t="s">
-        <v>868</v>
-      </c>
-      <c r="C11" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2004</v>
-      </c>
-      <c r="B12" t="s">
-        <v>869</v>
-      </c>
-      <c r="C12" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2004</v>
-      </c>
-      <c r="B13" t="s">
-        <v>870</v>
-      </c>
-      <c r="C13" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2004</v>
-      </c>
-      <c r="B14" t="s">
-        <v>767</v>
-      </c>
-      <c r="C14" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2004</v>
-      </c>
-      <c r="B15" t="s">
-        <v>768</v>
-      </c>
-      <c r="C15" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2004</v>
-      </c>
-      <c r="B16" t="s">
-        <v>769</v>
-      </c>
-      <c r="C16" t="s">
-        <v>723</v>
-      </c>
-      <c r="E16" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2004</v>
-      </c>
-      <c r="B17" t="s">
-        <v>770</v>
-      </c>
-      <c r="C17" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2004</v>
-      </c>
-      <c r="B18" t="s">
-        <v>771</v>
-      </c>
-      <c r="C18" t="s">
-        <v>726</v>
-      </c>
-      <c r="E18" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2004</v>
-      </c>
-      <c r="B19" t="s">
-        <v>772</v>
-      </c>
-      <c r="C19" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2004</v>
-      </c>
-      <c r="B20" t="s">
-        <v>773</v>
-      </c>
-      <c r="C20" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2004</v>
-      </c>
-      <c r="B21" t="s">
-        <v>774</v>
-      </c>
-      <c r="C21" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2004</v>
-      </c>
-      <c r="B22" t="s">
-        <v>775</v>
-      </c>
-      <c r="C22" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2004</v>
-      </c>
-      <c r="B23" t="s">
-        <v>776</v>
-      </c>
-      <c r="C23" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2004</v>
-      </c>
-      <c r="B24" t="s">
-        <v>777</v>
-      </c>
-      <c r="C24" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2004</v>
-      </c>
-      <c r="B25" t="s">
-        <v>778</v>
-      </c>
-      <c r="C25" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2004</v>
-      </c>
-      <c r="B26" t="s">
-        <v>779</v>
-      </c>
-      <c r="C26" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2004</v>
-      </c>
-      <c r="B27" t="s">
-        <v>780</v>
-      </c>
-      <c r="C27" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2004</v>
-      </c>
-      <c r="B28" t="s">
-        <v>781</v>
-      </c>
-      <c r="C28" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2004</v>
-      </c>
-      <c r="B29" t="s">
-        <v>782</v>
-      </c>
-      <c r="C29" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2004</v>
-      </c>
-      <c r="B30" t="s">
-        <v>862</v>
-      </c>
-      <c r="C30" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2004</v>
-      </c>
-      <c r="B31" t="s">
-        <v>740</v>
-      </c>
-      <c r="C31" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2004</v>
-      </c>
-      <c r="B32" t="s">
-        <v>741</v>
-      </c>
-      <c r="C32" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2004</v>
-      </c>
-      <c r="B33" t="s">
-        <v>742</v>
-      </c>
-      <c r="C33" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2006</v>
-      </c>
-      <c r="B34" t="s">
-        <v>743</v>
-      </c>
-      <c r="C34" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2006</v>
-      </c>
-      <c r="B35" t="s">
-        <v>744</v>
-      </c>
-      <c r="C35" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2006</v>
-      </c>
-      <c r="B36" t="s">
-        <v>745</v>
-      </c>
-      <c r="C36" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2006</v>
-      </c>
-      <c r="B37" t="s">
-        <v>746</v>
-      </c>
-      <c r="C37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2006</v>
-      </c>
-      <c r="B38" t="s">
-        <v>871</v>
-      </c>
-      <c r="C38" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2006</v>
-      </c>
-      <c r="B39" t="s">
-        <v>872</v>
-      </c>
-      <c r="C39" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2006</v>
-      </c>
-      <c r="B40" t="s">
-        <v>873</v>
-      </c>
-      <c r="C40" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>2006</v>
-      </c>
-      <c r="B41" t="s">
-        <v>874</v>
-      </c>
-      <c r="C41" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>2006</v>
-      </c>
-      <c r="B42" t="s">
-        <v>875</v>
-      </c>
-      <c r="C42" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>2006</v>
-      </c>
-      <c r="B43" t="s">
-        <v>876</v>
-      </c>
-      <c r="C43" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>2006</v>
-      </c>
-      <c r="B44" t="s">
-        <v>877</v>
-      </c>
-      <c r="C44" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>2006</v>
-      </c>
-      <c r="B45" t="s">
-        <v>878</v>
-      </c>
-      <c r="C45" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>2006</v>
-      </c>
-      <c r="B46" t="s">
-        <v>747</v>
-      </c>
-      <c r="C46" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>2006</v>
-      </c>
-      <c r="B47" t="s">
-        <v>748</v>
-      </c>
-      <c r="C47" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>2006</v>
-      </c>
-      <c r="B48" t="s">
-        <v>749</v>
-      </c>
-      <c r="C48" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>2006</v>
-      </c>
-      <c r="B49" t="s">
-        <v>750</v>
-      </c>
-      <c r="C49" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>2006</v>
-      </c>
-      <c r="B50" t="s">
-        <v>751</v>
-      </c>
-      <c r="C50" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>2006</v>
-      </c>
-      <c r="B51" t="s">
-        <v>752</v>
-      </c>
-      <c r="C51" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>2006</v>
-      </c>
-      <c r="B52" t="s">
-        <v>753</v>
-      </c>
-      <c r="C52" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>2006</v>
-      </c>
-      <c r="B53" t="s">
-        <v>754</v>
-      </c>
-      <c r="C53" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>2006</v>
-      </c>
-      <c r="B54" t="s">
-        <v>755</v>
-      </c>
-      <c r="C54" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>2006</v>
-      </c>
-      <c r="B55" t="s">
-        <v>756</v>
-      </c>
-      <c r="C55" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>2006</v>
-      </c>
-      <c r="B56" t="s">
-        <v>757</v>
-      </c>
-      <c r="C56" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>2006</v>
-      </c>
-      <c r="B57" t="s">
-        <v>758</v>
-      </c>
-      <c r="C57" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>2006</v>
-      </c>
-      <c r="B58" t="s">
-        <v>759</v>
-      </c>
-      <c r="C58" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>2006</v>
-      </c>
-      <c r="B59" t="s">
-        <v>760</v>
-      </c>
-      <c r="C59" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>2006</v>
-      </c>
-      <c r="B60" t="s">
-        <v>761</v>
-      </c>
-      <c r="C60" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>2006</v>
-      </c>
-      <c r="B61" t="s">
-        <v>762</v>
-      </c>
-      <c r="C61" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>2006</v>
-      </c>
-      <c r="B62" t="s">
-        <v>862</v>
-      </c>
-      <c r="C62" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>2006</v>
-      </c>
-      <c r="B63" t="s">
-        <v>740</v>
-      </c>
-      <c r="C63" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>2006</v>
-      </c>
-      <c r="B64" t="s">
-        <v>741</v>
-      </c>
-      <c r="C64" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>2006</v>
-      </c>
-      <c r="B65" t="s">
-        <v>742</v>
-      </c>
-      <c r="C65" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>2008</v>
-      </c>
-      <c r="B66" t="s">
-        <v>783</v>
-      </c>
-      <c r="C66" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>2008</v>
-      </c>
-      <c r="B67" t="s">
-        <v>784</v>
-      </c>
-      <c r="C67" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>2008</v>
-      </c>
-      <c r="B68" t="s">
-        <v>785</v>
-      </c>
-      <c r="C68" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>2008</v>
-      </c>
-      <c r="B69" t="s">
-        <v>786</v>
-      </c>
-      <c r="C69" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>2008</v>
-      </c>
-      <c r="B70" t="s">
-        <v>879</v>
-      </c>
-      <c r="C70" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>2008</v>
-      </c>
-      <c r="B71" t="s">
-        <v>880</v>
-      </c>
-      <c r="C71" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>2008</v>
-      </c>
-      <c r="B72" t="s">
-        <v>881</v>
-      </c>
-      <c r="C72" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>2008</v>
-      </c>
-      <c r="B73" t="s">
-        <v>882</v>
-      </c>
-      <c r="C73" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>2008</v>
-      </c>
-      <c r="B74" t="s">
-        <v>883</v>
-      </c>
-      <c r="C74" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>2008</v>
-      </c>
-      <c r="B75" t="s">
-        <v>884</v>
-      </c>
-      <c r="C75" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>2008</v>
-      </c>
-      <c r="B76" t="s">
-        <v>885</v>
-      </c>
-      <c r="C76" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>2008</v>
-      </c>
-      <c r="B77" t="s">
-        <v>886</v>
-      </c>
-      <c r="C77" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>2008</v>
-      </c>
-      <c r="B78" t="s">
-        <v>787</v>
-      </c>
-      <c r="C78" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>2008</v>
-      </c>
-      <c r="B79" t="s">
-        <v>788</v>
-      </c>
-      <c r="C79" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>2008</v>
-      </c>
-      <c r="B80" t="s">
-        <v>789</v>
-      </c>
-      <c r="C80" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>2008</v>
-      </c>
-      <c r="B81" t="s">
-        <v>790</v>
-      </c>
-      <c r="C81" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>2008</v>
-      </c>
-      <c r="B82" t="s">
-        <v>791</v>
-      </c>
-      <c r="C82" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>2008</v>
-      </c>
-      <c r="B83" t="s">
-        <v>792</v>
-      </c>
-      <c r="C83" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>2008</v>
-      </c>
-      <c r="B84" t="s">
-        <v>793</v>
-      </c>
-      <c r="C84" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>2008</v>
-      </c>
-      <c r="B85" t="s">
-        <v>794</v>
-      </c>
-      <c r="C85" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>2008</v>
-      </c>
-      <c r="B86" t="s">
-        <v>795</v>
-      </c>
-      <c r="C86" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>2008</v>
-      </c>
-      <c r="B87" t="s">
-        <v>796</v>
-      </c>
-      <c r="C87" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>2008</v>
-      </c>
-      <c r="B88" t="s">
-        <v>797</v>
-      </c>
-      <c r="C88" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>2008</v>
-      </c>
-      <c r="B89" t="s">
-        <v>798</v>
-      </c>
-      <c r="C89" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>2008</v>
-      </c>
-      <c r="B90" t="s">
-        <v>799</v>
-      </c>
-      <c r="C90" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>2008</v>
-      </c>
-      <c r="B91" t="s">
-        <v>800</v>
-      </c>
-      <c r="C91" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>2008</v>
-      </c>
-      <c r="B92" t="s">
-        <v>801</v>
-      </c>
-      <c r="C92" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>2008</v>
-      </c>
-      <c r="B93" t="s">
-        <v>802</v>
-      </c>
-      <c r="C93" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>2008</v>
-      </c>
-      <c r="B94" t="s">
-        <v>862</v>
-      </c>
-      <c r="C94" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>2008</v>
-      </c>
-      <c r="B95" t="s">
-        <v>740</v>
-      </c>
-      <c r="C95" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>2008</v>
-      </c>
-      <c r="B96" t="s">
-        <v>741</v>
-      </c>
-      <c r="C96" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>2008</v>
-      </c>
-      <c r="B97" t="s">
-        <v>742</v>
-      </c>
-      <c r="C97" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>2010</v>
-      </c>
-      <c r="B98" t="s">
-        <v>803</v>
-      </c>
-      <c r="C98" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>2010</v>
-      </c>
-      <c r="B99" t="s">
-        <v>804</v>
-      </c>
-      <c r="C99" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>2010</v>
-      </c>
-      <c r="B100" t="s">
-        <v>805</v>
-      </c>
-      <c r="C100" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>2010</v>
-      </c>
-      <c r="B101" t="s">
-        <v>806</v>
-      </c>
-      <c r="C101" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>2010</v>
-      </c>
-      <c r="B102" t="s">
-        <v>887</v>
-      </c>
-      <c r="C102" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>2010</v>
-      </c>
-      <c r="B103" t="s">
-        <v>888</v>
-      </c>
-      <c r="C103" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>2010</v>
-      </c>
-      <c r="B104" t="s">
-        <v>889</v>
-      </c>
-      <c r="C104" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>2010</v>
-      </c>
-      <c r="B105" t="s">
-        <v>890</v>
-      </c>
-      <c r="C105" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>2010</v>
-      </c>
-      <c r="B106" t="s">
-        <v>891</v>
-      </c>
-      <c r="C106" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>2010</v>
-      </c>
-      <c r="B107" t="s">
-        <v>892</v>
-      </c>
-      <c r="C107" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>2010</v>
-      </c>
-      <c r="B108" t="s">
-        <v>893</v>
-      </c>
-      <c r="C108" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>2010</v>
-      </c>
-      <c r="B109" t="s">
-        <v>894</v>
-      </c>
-      <c r="C109" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>2010</v>
-      </c>
-      <c r="B110" t="s">
-        <v>807</v>
-      </c>
-      <c r="C110" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>2010</v>
-      </c>
-      <c r="B111" t="s">
-        <v>808</v>
-      </c>
-      <c r="C111" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>2010</v>
-      </c>
-      <c r="B112" t="s">
-        <v>809</v>
-      </c>
-      <c r="C112" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>2010</v>
-      </c>
-      <c r="B113" t="s">
-        <v>810</v>
-      </c>
-      <c r="C113" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>2010</v>
-      </c>
-      <c r="B114" t="s">
-        <v>811</v>
-      </c>
-      <c r="C114" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>2010</v>
-      </c>
-      <c r="B115" t="s">
-        <v>812</v>
-      </c>
-      <c r="C115" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>2010</v>
-      </c>
-      <c r="B116" t="s">
-        <v>813</v>
-      </c>
-      <c r="C116" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>2010</v>
-      </c>
-      <c r="B117" t="s">
-        <v>814</v>
-      </c>
-      <c r="C117" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>2010</v>
-      </c>
-      <c r="B118" t="s">
-        <v>815</v>
-      </c>
-      <c r="C118" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>2010</v>
-      </c>
-      <c r="B119" t="s">
-        <v>816</v>
-      </c>
-      <c r="C119" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>2010</v>
-      </c>
-      <c r="B120" t="s">
-        <v>817</v>
-      </c>
-      <c r="C120" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>2010</v>
-      </c>
-      <c r="B121" t="s">
-        <v>818</v>
-      </c>
-      <c r="C121" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>2010</v>
-      </c>
-      <c r="B122" t="s">
-        <v>819</v>
-      </c>
-      <c r="C122" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>2010</v>
-      </c>
-      <c r="B123" t="s">
-        <v>820</v>
-      </c>
-      <c r="C123" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>2010</v>
-      </c>
-      <c r="B124" t="s">
-        <v>821</v>
-      </c>
-      <c r="C124" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>2010</v>
-      </c>
-      <c r="B125" t="s">
-        <v>822</v>
-      </c>
-      <c r="C125" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>2010</v>
-      </c>
-      <c r="B126" t="s">
-        <v>862</v>
-      </c>
-      <c r="C126" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>2010</v>
-      </c>
-      <c r="B127" t="s">
-        <v>740</v>
-      </c>
-      <c r="C127" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>2010</v>
-      </c>
-      <c r="B128" t="s">
-        <v>741</v>
-      </c>
-      <c r="C128" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>2010</v>
-      </c>
-      <c r="B129" t="s">
-        <v>742</v>
-      </c>
-      <c r="C129" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>2012</v>
-      </c>
-      <c r="B130" t="s">
-        <v>823</v>
-      </c>
-      <c r="C130" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>2012</v>
-      </c>
-      <c r="B131" t="s">
-        <v>824</v>
-      </c>
-      <c r="C131" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>2012</v>
-      </c>
-      <c r="B132" t="s">
-        <v>825</v>
-      </c>
-      <c r="C132" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>2012</v>
-      </c>
-      <c r="B133" t="s">
-        <v>826</v>
-      </c>
-      <c r="C133" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>2012</v>
-      </c>
-      <c r="B134" t="s">
-        <v>895</v>
-      </c>
-      <c r="C134" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>2012</v>
-      </c>
-      <c r="B135" t="s">
-        <v>896</v>
-      </c>
-      <c r="C135" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>2012</v>
-      </c>
-      <c r="B136" t="s">
-        <v>897</v>
-      </c>
-      <c r="C136" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>2012</v>
-      </c>
-      <c r="B137" t="s">
-        <v>898</v>
-      </c>
-      <c r="C137" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>2012</v>
-      </c>
-      <c r="B138" t="s">
-        <v>899</v>
-      </c>
-      <c r="C138" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>2012</v>
-      </c>
-      <c r="B139" t="s">
-        <v>900</v>
-      </c>
-      <c r="C139" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>2012</v>
-      </c>
-      <c r="B140" t="s">
-        <v>901</v>
-      </c>
-      <c r="C140" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>2012</v>
-      </c>
-      <c r="B141" t="s">
-        <v>902</v>
-      </c>
-      <c r="C141" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>2012</v>
-      </c>
-      <c r="B142" t="s">
-        <v>827</v>
-      </c>
-      <c r="C142" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>2012</v>
-      </c>
-      <c r="B143" t="s">
-        <v>828</v>
-      </c>
-      <c r="C143" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>2012</v>
-      </c>
-      <c r="B144" t="s">
-        <v>829</v>
-      </c>
-      <c r="C144" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>2012</v>
-      </c>
-      <c r="B145" t="s">
-        <v>830</v>
-      </c>
-      <c r="C145" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>2012</v>
-      </c>
-      <c r="B146" t="s">
-        <v>831</v>
-      </c>
-      <c r="C146" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>2012</v>
-      </c>
-      <c r="B147" t="s">
-        <v>832</v>
-      </c>
-      <c r="C147" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>2012</v>
-      </c>
-      <c r="B148" t="s">
-        <v>833</v>
-      </c>
-      <c r="C148" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>2012</v>
-      </c>
-      <c r="B149" t="s">
-        <v>834</v>
-      </c>
-      <c r="C149" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>2012</v>
-      </c>
-      <c r="B150" t="s">
-        <v>835</v>
-      </c>
-      <c r="C150" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>2012</v>
-      </c>
-      <c r="B151" t="s">
-        <v>836</v>
-      </c>
-      <c r="C151" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>2012</v>
-      </c>
-      <c r="B152" t="s">
-        <v>837</v>
-      </c>
-      <c r="C152" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>2012</v>
-      </c>
-      <c r="B153" t="s">
-        <v>838</v>
-      </c>
-      <c r="C153" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>2012</v>
-      </c>
-      <c r="B154" t="s">
-        <v>839</v>
-      </c>
-      <c r="C154" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>2012</v>
-      </c>
-      <c r="B155" t="s">
-        <v>840</v>
-      </c>
-      <c r="C155" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>2012</v>
-      </c>
-      <c r="B156" t="s">
-        <v>841</v>
-      </c>
-      <c r="C156" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>2012</v>
-      </c>
-      <c r="B157" t="s">
-        <v>842</v>
-      </c>
-      <c r="C157" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>2012</v>
-      </c>
-      <c r="B158" t="s">
-        <v>862</v>
-      </c>
-      <c r="C158" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>2012</v>
-      </c>
-      <c r="B159" t="s">
-        <v>740</v>
-      </c>
-      <c r="C159" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>2012</v>
-      </c>
-      <c r="B160" t="s">
-        <v>741</v>
-      </c>
-      <c r="C160" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>2012</v>
-      </c>
-      <c r="B161" t="s">
-        <v>742</v>
-      </c>
-      <c r="C161" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>2014</v>
-      </c>
-      <c r="B162" t="s">
-        <v>843</v>
-      </c>
-      <c r="C162" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>2014</v>
-      </c>
-      <c r="B163" t="s">
-        <v>844</v>
-      </c>
-      <c r="C163" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>2014</v>
-      </c>
-      <c r="B164" t="s">
-        <v>845</v>
-      </c>
-      <c r="C164" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>2014</v>
-      </c>
-      <c r="B165" t="s">
-        <v>846</v>
-      </c>
-      <c r="C165" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>2014</v>
-      </c>
-      <c r="B166" t="s">
-        <v>903</v>
-      </c>
-      <c r="C166" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>2014</v>
-      </c>
-      <c r="B167" t="s">
-        <v>904</v>
-      </c>
-      <c r="C167" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>2014</v>
-      </c>
-      <c r="B168" t="s">
-        <v>905</v>
-      </c>
-      <c r="C168" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>2014</v>
-      </c>
-      <c r="B169" t="s">
-        <v>906</v>
-      </c>
-      <c r="C169" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>2014</v>
-      </c>
-      <c r="B170" t="s">
-        <v>907</v>
-      </c>
-      <c r="C170" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>2014</v>
-      </c>
-      <c r="B171" t="s">
-        <v>908</v>
-      </c>
-      <c r="C171" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>2014</v>
-      </c>
-      <c r="B172" t="s">
-        <v>909</v>
-      </c>
-      <c r="C172" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>2014</v>
-      </c>
-      <c r="B173" t="s">
-        <v>910</v>
-      </c>
-      <c r="C173" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>2014</v>
-      </c>
-      <c r="B174" t="s">
-        <v>847</v>
-      </c>
-      <c r="C174" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>2014</v>
-      </c>
-      <c r="B175" t="s">
-        <v>848</v>
-      </c>
-      <c r="C175" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>2014</v>
-      </c>
-      <c r="B176" t="s">
-        <v>849</v>
-      </c>
-      <c r="C176" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>2014</v>
-      </c>
-      <c r="B177" t="s">
-        <v>850</v>
-      </c>
-      <c r="C177" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>2014</v>
-      </c>
-      <c r="B178" t="s">
-        <v>851</v>
-      </c>
-      <c r="C178" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>2014</v>
-      </c>
-      <c r="B179" t="s">
-        <v>852</v>
-      </c>
-      <c r="C179" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>2014</v>
-      </c>
-      <c r="B180" t="s">
-        <v>853</v>
-      </c>
-      <c r="C180" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>2014</v>
-      </c>
-      <c r="B181" t="s">
-        <v>854</v>
-      </c>
-      <c r="C181" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>2014</v>
-      </c>
-      <c r="B182" t="s">
-        <v>855</v>
-      </c>
-      <c r="C182" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>2014</v>
-      </c>
-      <c r="B183" t="s">
-        <v>856</v>
-      </c>
-      <c r="C183" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>2014</v>
-      </c>
-      <c r="B184" t="s">
-        <v>857</v>
-      </c>
-      <c r="C184" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>2014</v>
-      </c>
-      <c r="B185" t="s">
-        <v>858</v>
-      </c>
-      <c r="C185" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>2014</v>
-      </c>
-      <c r="B186" t="s">
-        <v>859</v>
-      </c>
-      <c r="C186" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>2014</v>
-      </c>
-      <c r="B187" t="s">
-        <v>860</v>
-      </c>
-      <c r="C187" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>2014</v>
-      </c>
-      <c r="B188" t="s">
-        <v>861</v>
-      </c>
-      <c r="C188" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>2014</v>
-      </c>
-      <c r="B189" t="s">
-        <v>740</v>
-      </c>
-      <c r="C189" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>2014</v>
-      </c>
-      <c r="B190" t="s">
-        <v>741</v>
-      </c>
-      <c r="C190" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>2014</v>
-      </c>
-      <c r="B191" t="s">
-        <v>742</v>
-      </c>
-      <c r="C191" t="s">
-        <v>742</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
@@ -12086,6 +11065,1297 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2006</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2006</v>
+      </c>
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2006</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2008</v>
+      </c>
+      <c r="B13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2008</v>
+      </c>
+      <c r="B14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2008</v>
+      </c>
+      <c r="B16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2008</v>
+      </c>
+      <c r="B17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2008</v>
+      </c>
+      <c r="B20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2008</v>
+      </c>
+      <c r="B23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2008</v>
+      </c>
+      <c r="B24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2008</v>
+      </c>
+      <c r="B25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2008</v>
+      </c>
+      <c r="B26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2008</v>
+      </c>
+      <c r="B27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2008</v>
+      </c>
+      <c r="B28" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28" t="s">
+        <v>295</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2008</v>
+      </c>
+      <c r="B29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2010</v>
+      </c>
+      <c r="B30" t="s">
+        <v>298</v>
+      </c>
+      <c r="C30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2010</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2010</v>
+      </c>
+      <c r="B33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2010</v>
+      </c>
+      <c r="B34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2010</v>
+      </c>
+      <c r="B35" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2010</v>
+      </c>
+      <c r="B36" t="s">
+        <v>305</v>
+      </c>
+      <c r="C36" t="s">
+        <v>273</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2010</v>
+      </c>
+      <c r="B37" t="s">
+        <v>306</v>
+      </c>
+      <c r="C37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2010</v>
+      </c>
+      <c r="B38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2010</v>
+      </c>
+      <c r="B39" t="s">
+        <v>308</v>
+      </c>
+      <c r="C39" t="s">
+        <v>309</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2010</v>
+      </c>
+      <c r="B40" t="s">
+        <v>310</v>
+      </c>
+      <c r="C40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2010</v>
+      </c>
+      <c r="B41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C41" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2010</v>
+      </c>
+      <c r="B42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C42" t="s">
+        <v>283</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2010</v>
+      </c>
+      <c r="B43" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2010</v>
+      </c>
+      <c r="B44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C44" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2010</v>
+      </c>
+      <c r="B45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2010</v>
+      </c>
+      <c r="B46" t="s">
+        <v>316</v>
+      </c>
+      <c r="C46" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2010</v>
+      </c>
+      <c r="B47" t="s">
+        <v>317</v>
+      </c>
+      <c r="C47" t="s">
+        <v>293</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2010</v>
+      </c>
+      <c r="B48" t="s">
+        <v>318</v>
+      </c>
+      <c r="C48" t="s">
+        <v>295</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2010</v>
+      </c>
+      <c r="B49" t="s">
+        <v>319</v>
+      </c>
+      <c r="C49" t="s">
+        <v>297</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2012</v>
+      </c>
+      <c r="B50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2012</v>
+      </c>
+      <c r="B51" t="s">
+        <v>321</v>
+      </c>
+      <c r="C51" t="s">
+        <v>300</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2012</v>
+      </c>
+      <c r="B52" t="s">
+        <v>322</v>
+      </c>
+      <c r="C52" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2012</v>
+      </c>
+      <c r="B53" t="s">
+        <v>323</v>
+      </c>
+      <c r="C53" t="s">
+        <v>267</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2012</v>
+      </c>
+      <c r="B54" t="s">
+        <v>324</v>
+      </c>
+      <c r="C54" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2012</v>
+      </c>
+      <c r="B55" t="s">
+        <v>325</v>
+      </c>
+      <c r="C55" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2012</v>
+      </c>
+      <c r="B56" t="s">
+        <v>326</v>
+      </c>
+      <c r="C56" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2012</v>
+      </c>
+      <c r="B57" t="s">
+        <v>327</v>
+      </c>
+      <c r="C57" t="s">
+        <v>275</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2012</v>
+      </c>
+      <c r="B58" t="s">
+        <v>328</v>
+      </c>
+      <c r="C58" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2012</v>
+      </c>
+      <c r="B59" t="s">
+        <v>329</v>
+      </c>
+      <c r="C59" t="s">
+        <v>309</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2012</v>
+      </c>
+      <c r="B60" t="s">
+        <v>330</v>
+      </c>
+      <c r="C60" t="s">
+        <v>279</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2012</v>
+      </c>
+      <c r="B61" t="s">
+        <v>331</v>
+      </c>
+      <c r="C61" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2012</v>
+      </c>
+      <c r="B62" t="s">
+        <v>332</v>
+      </c>
+      <c r="C62" t="s">
+        <v>283</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2012</v>
+      </c>
+      <c r="B63" t="s">
+        <v>333</v>
+      </c>
+      <c r="C63" t="s">
+        <v>285</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2012</v>
+      </c>
+      <c r="B64" t="s">
+        <v>334</v>
+      </c>
+      <c r="C64" t="s">
+        <v>287</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2012</v>
+      </c>
+      <c r="B65" t="s">
+        <v>335</v>
+      </c>
+      <c r="C65" t="s">
+        <v>289</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2012</v>
+      </c>
+      <c r="B66" t="s">
+        <v>336</v>
+      </c>
+      <c r="C66" t="s">
+        <v>291</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2012</v>
+      </c>
+      <c r="B67" t="s">
+        <v>337</v>
+      </c>
+      <c r="C67" t="s">
+        <v>293</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2012</v>
+      </c>
+      <c r="B68" t="s">
+        <v>338</v>
+      </c>
+      <c r="C68" t="s">
+        <v>295</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2012</v>
+      </c>
+      <c r="B69" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69" t="s">
+        <v>297</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2014</v>
+      </c>
+      <c r="B70" t="s">
+        <v>340</v>
+      </c>
+      <c r="C70" t="s">
+        <v>241</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2014</v>
+      </c>
+      <c r="B71" t="s">
+        <v>341</v>
+      </c>
+      <c r="C71" t="s">
+        <v>300</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2014</v>
+      </c>
+      <c r="B72" t="s">
+        <v>342</v>
+      </c>
+      <c r="C72" t="s">
+        <v>265</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2014</v>
+      </c>
+      <c r="B73" t="s">
+        <v>343</v>
+      </c>
+      <c r="C73" t="s">
+        <v>267</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2014</v>
+      </c>
+      <c r="B74" t="s">
+        <v>344</v>
+      </c>
+      <c r="C74" t="s">
+        <v>269</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2014</v>
+      </c>
+      <c r="B75" t="s">
+        <v>345</v>
+      </c>
+      <c r="C75" t="s">
+        <v>271</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2014</v>
+      </c>
+      <c r="B76" t="s">
+        <v>346</v>
+      </c>
+      <c r="C76" t="s">
+        <v>273</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2014</v>
+      </c>
+      <c r="B77" t="s">
+        <v>347</v>
+      </c>
+      <c r="C77" t="s">
+        <v>275</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2014</v>
+      </c>
+      <c r="B78" t="s">
+        <v>348</v>
+      </c>
+      <c r="C78" t="s">
+        <v>277</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2014</v>
+      </c>
+      <c r="B79" t="s">
+        <v>349</v>
+      </c>
+      <c r="C79" t="s">
+        <v>309</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2014</v>
+      </c>
+      <c r="B80" t="s">
+        <v>350</v>
+      </c>
+      <c r="C80" t="s">
+        <v>279</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2014</v>
+      </c>
+      <c r="B81" t="s">
+        <v>351</v>
+      </c>
+      <c r="C81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2014</v>
+      </c>
+      <c r="B82" t="s">
+        <v>352</v>
+      </c>
+      <c r="C82" t="s">
+        <v>283</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2014</v>
+      </c>
+      <c r="B83" t="s">
+        <v>353</v>
+      </c>
+      <c r="C83" t="s">
+        <v>285</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2014</v>
+      </c>
+      <c r="B84" t="s">
+        <v>354</v>
+      </c>
+      <c r="C84" t="s">
+        <v>287</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2014</v>
+      </c>
+      <c r="B85" t="s">
+        <v>355</v>
+      </c>
+      <c r="C85" t="s">
+        <v>289</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2014</v>
+      </c>
+      <c r="B86" t="s">
+        <v>356</v>
+      </c>
+      <c r="C86" t="s">
+        <v>291</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2014</v>
+      </c>
+      <c r="B87" t="s">
+        <v>357</v>
+      </c>
+      <c r="C87" t="s">
+        <v>293</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2014</v>
+      </c>
+      <c r="B88" t="s">
+        <v>358</v>
+      </c>
+      <c r="C88" t="s">
+        <v>295</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2014</v>
+      </c>
+      <c r="B89" t="s">
+        <v>359</v>
+      </c>
+      <c r="C89" t="s">
+        <v>297</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2014</v>
+      </c>
+      <c r="B90" t="s">
+        <v>360</v>
+      </c>
+      <c r="C90" t="s">
+        <v>361</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E90"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -2588,6 +2588,30 @@
     <t>oa066</t>
   </si>
   <si>
+    <t>ob066.1</t>
+  </si>
+  <si>
+    <t>ob067.1</t>
+  </si>
+  <si>
+    <t>ob066.2</t>
+  </si>
+  <si>
+    <t>ob067.2</t>
+  </si>
+  <si>
+    <t>ob066.3</t>
+  </si>
+  <si>
+    <t>ob067.3</t>
+  </si>
+  <si>
+    <t>ob066.4</t>
+  </si>
+  <si>
+    <t>ob067.4</t>
+  </si>
+  <si>
     <t>ob056</t>
   </si>
   <si>
@@ -2754,30 +2778,6 @@
   </si>
   <si>
     <t>nb067_4</t>
-  </si>
-  <si>
-    <t>ob066_1</t>
-  </si>
-  <si>
-    <t>ob067_1</t>
-  </si>
-  <si>
-    <t>ob066_2</t>
-  </si>
-  <si>
-    <t>ob067_2</t>
-  </si>
-  <si>
-    <t>ob066_3</t>
-  </si>
-  <si>
-    <t>ob067_3</t>
-  </si>
-  <si>
-    <t>ob066_4</t>
-  </si>
-  <si>
-    <t>ob067_4</t>
   </si>
 </sst>
 </file>
@@ -3098,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3170,7 +3170,7 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="C6" t="s">
         <v>713</v>
@@ -3181,7 +3181,7 @@
         <v>2004</v>
       </c>
       <c r="B7" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="C7" t="s">
         <v>714</v>
@@ -3192,7 +3192,7 @@
         <v>2004</v>
       </c>
       <c r="B8" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="C8" t="s">
         <v>715</v>
@@ -3203,7 +3203,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="C9" t="s">
         <v>716</v>
@@ -3214,7 +3214,7 @@
         <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="C10" t="s">
         <v>717</v>
@@ -3225,7 +3225,7 @@
         <v>2004</v>
       </c>
       <c r="B11" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="C11" t="s">
         <v>718</v>
@@ -3236,7 +3236,7 @@
         <v>2004</v>
       </c>
       <c r="B12" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="C12" t="s">
         <v>719</v>
@@ -3247,7 +3247,7 @@
         <v>2004</v>
       </c>
       <c r="B13" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="C13" t="s">
         <v>720</v>
@@ -3440,7 +3440,7 @@
         <v>2004</v>
       </c>
       <c r="B30" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="C30" t="s">
         <v>739</v>
@@ -3528,7 +3528,7 @@
         <v>2006</v>
       </c>
       <c r="B38" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="C38" t="s">
         <v>713</v>
@@ -3539,7 +3539,7 @@
         <v>2006</v>
       </c>
       <c r="B39" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="C39" t="s">
         <v>714</v>
@@ -3550,7 +3550,7 @@
         <v>2006</v>
       </c>
       <c r="B40" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="C40" t="s">
         <v>715</v>
@@ -3561,7 +3561,7 @@
         <v>2006</v>
       </c>
       <c r="B41" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="C41" t="s">
         <v>716</v>
@@ -3572,7 +3572,7 @@
         <v>2006</v>
       </c>
       <c r="B42" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="C42" t="s">
         <v>717</v>
@@ -3583,7 +3583,7 @@
         <v>2006</v>
       </c>
       <c r="B43" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="C43" t="s">
         <v>718</v>
@@ -3594,7 +3594,7 @@
         <v>2006</v>
       </c>
       <c r="B44" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="C44" t="s">
         <v>719</v>
@@ -3605,7 +3605,7 @@
         <v>2006</v>
       </c>
       <c r="B45" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="C45" t="s">
         <v>720</v>
@@ -3792,7 +3792,7 @@
         <v>2006</v>
       </c>
       <c r="B62" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="C62" t="s">
         <v>739</v>
@@ -3880,7 +3880,7 @@
         <v>2008</v>
       </c>
       <c r="B70" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="C70" t="s">
         <v>713</v>
@@ -3891,7 +3891,7 @@
         <v>2008</v>
       </c>
       <c r="B71" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="C71" t="s">
         <v>714</v>
@@ -3902,7 +3902,7 @@
         <v>2008</v>
       </c>
       <c r="B72" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="C72" t="s">
         <v>715</v>
@@ -3913,7 +3913,7 @@
         <v>2008</v>
       </c>
       <c r="B73" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="C73" t="s">
         <v>716</v>
@@ -3924,7 +3924,7 @@
         <v>2008</v>
       </c>
       <c r="B74" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="C74" t="s">
         <v>717</v>
@@ -3935,7 +3935,7 @@
         <v>2008</v>
       </c>
       <c r="B75" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="C75" t="s">
         <v>718</v>
@@ -3946,7 +3946,7 @@
         <v>2008</v>
       </c>
       <c r="B76" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="C76" t="s">
         <v>719</v>
@@ -3957,7 +3957,7 @@
         <v>2008</v>
       </c>
       <c r="B77" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="C77" t="s">
         <v>720</v>
@@ -4144,7 +4144,7 @@
         <v>2008</v>
       </c>
       <c r="B94" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="C94" t="s">
         <v>739</v>
@@ -4232,7 +4232,7 @@
         <v>2010</v>
       </c>
       <c r="B102" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="C102" t="s">
         <v>713</v>
@@ -4243,7 +4243,7 @@
         <v>2010</v>
       </c>
       <c r="B103" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="C103" t="s">
         <v>714</v>
@@ -4254,7 +4254,7 @@
         <v>2010</v>
       </c>
       <c r="B104" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="C104" t="s">
         <v>715</v>
@@ -4265,7 +4265,7 @@
         <v>2010</v>
       </c>
       <c r="B105" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="C105" t="s">
         <v>716</v>
@@ -4276,7 +4276,7 @@
         <v>2010</v>
       </c>
       <c r="B106" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="C106" t="s">
         <v>717</v>
@@ -4287,7 +4287,7 @@
         <v>2010</v>
       </c>
       <c r="B107" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="C107" t="s">
         <v>718</v>
@@ -4298,7 +4298,7 @@
         <v>2010</v>
       </c>
       <c r="B108" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="C108" t="s">
         <v>719</v>
@@ -4309,7 +4309,7 @@
         <v>2010</v>
       </c>
       <c r="B109" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="C109" t="s">
         <v>720</v>
@@ -4496,7 +4496,7 @@
         <v>2010</v>
       </c>
       <c r="B126" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="C126" t="s">
         <v>739</v>
@@ -4584,7 +4584,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="C134" t="s">
         <v>713</v>
@@ -4595,7 +4595,7 @@
         <v>2012</v>
       </c>
       <c r="B135" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="C135" t="s">
         <v>714</v>
@@ -4606,7 +4606,7 @@
         <v>2012</v>
       </c>
       <c r="B136" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="C136" t="s">
         <v>715</v>
@@ -4617,7 +4617,7 @@
         <v>2012</v>
       </c>
       <c r="B137" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="C137" t="s">
         <v>716</v>
@@ -4628,7 +4628,7 @@
         <v>2012</v>
       </c>
       <c r="B138" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="C138" t="s">
         <v>717</v>
@@ -4639,7 +4639,7 @@
         <v>2012</v>
       </c>
       <c r="B139" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="C139" t="s">
         <v>718</v>
@@ -4650,7 +4650,7 @@
         <v>2012</v>
       </c>
       <c r="B140" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="C140" t="s">
         <v>719</v>
@@ -4661,7 +4661,7 @@
         <v>2012</v>
       </c>
       <c r="B141" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="C141" t="s">
         <v>720</v>
@@ -4848,7 +4848,7 @@
         <v>2012</v>
       </c>
       <c r="B158" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="C158" t="s">
         <v>739</v>
@@ -4936,7 +4936,7 @@
         <v>2014</v>
       </c>
       <c r="B166" t="s">
-        <v>903</v>
+        <v>847</v>
       </c>
       <c r="C166" t="s">
         <v>713</v>
@@ -4947,7 +4947,7 @@
         <v>2014</v>
       </c>
       <c r="B167" t="s">
-        <v>904</v>
+        <v>848</v>
       </c>
       <c r="C167" t="s">
         <v>714</v>
@@ -4958,7 +4958,7 @@
         <v>2014</v>
       </c>
       <c r="B168" t="s">
-        <v>905</v>
+        <v>849</v>
       </c>
       <c r="C168" t="s">
         <v>715</v>
@@ -4969,7 +4969,7 @@
         <v>2014</v>
       </c>
       <c r="B169" t="s">
-        <v>906</v>
+        <v>850</v>
       </c>
       <c r="C169" t="s">
         <v>716</v>
@@ -4980,7 +4980,7 @@
         <v>2014</v>
       </c>
       <c r="B170" t="s">
-        <v>907</v>
+        <v>851</v>
       </c>
       <c r="C170" t="s">
         <v>717</v>
@@ -4991,7 +4991,7 @@
         <v>2014</v>
       </c>
       <c r="B171" t="s">
-        <v>908</v>
+        <v>852</v>
       </c>
       <c r="C171" t="s">
         <v>718</v>
@@ -5002,7 +5002,7 @@
         <v>2014</v>
       </c>
       <c r="B172" t="s">
-        <v>909</v>
+        <v>853</v>
       </c>
       <c r="C172" t="s">
         <v>719</v>
@@ -5013,7 +5013,7 @@
         <v>2014</v>
       </c>
       <c r="B173" t="s">
-        <v>910</v>
+        <v>854</v>
       </c>
       <c r="C173" t="s">
         <v>720</v>
@@ -5024,7 +5024,7 @@
         <v>2014</v>
       </c>
       <c r="B174" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="C174" t="s">
         <v>721</v>
@@ -5035,7 +5035,7 @@
         <v>2014</v>
       </c>
       <c r="B175" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="C175" t="s">
         <v>722</v>
@@ -5046,7 +5046,7 @@
         <v>2014</v>
       </c>
       <c r="B176" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="C176" t="s">
         <v>723</v>
@@ -5057,7 +5057,7 @@
         <v>2014</v>
       </c>
       <c r="B177" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="C177" t="s">
         <v>725</v>
@@ -5068,7 +5068,7 @@
         <v>2014</v>
       </c>
       <c r="B178" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="C178" t="s">
         <v>726</v>
@@ -5079,7 +5079,7 @@
         <v>2014</v>
       </c>
       <c r="B179" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="C179" t="s">
         <v>728</v>
@@ -5090,7 +5090,7 @@
         <v>2014</v>
       </c>
       <c r="B180" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="C180" t="s">
         <v>729</v>
@@ -5101,7 +5101,7 @@
         <v>2014</v>
       </c>
       <c r="B181" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="C181" t="s">
         <v>730</v>
@@ -5112,7 +5112,7 @@
         <v>2014</v>
       </c>
       <c r="B182" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="C182" t="s">
         <v>731</v>
@@ -5123,7 +5123,7 @@
         <v>2014</v>
       </c>
       <c r="B183" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="C183" t="s">
         <v>732</v>
@@ -5134,7 +5134,7 @@
         <v>2014</v>
       </c>
       <c r="B184" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="C184" t="s">
         <v>733</v>
@@ -5145,7 +5145,7 @@
         <v>2014</v>
       </c>
       <c r="B185" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="C185" t="s">
         <v>734</v>
@@ -5156,7 +5156,7 @@
         <v>2014</v>
       </c>
       <c r="B186" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="C186" t="s">
         <v>736</v>
@@ -5167,7 +5167,7 @@
         <v>2014</v>
       </c>
       <c r="B187" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="C187" t="s">
         <v>737</v>
@@ -5178,7 +5178,7 @@
         <v>2014</v>
       </c>
       <c r="B188" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="C188" t="s">
         <v>738</v>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -2288,6 +2288,30 @@
     <t>ka066</t>
   </si>
   <si>
+    <t>kb066.1</t>
+  </si>
+  <si>
+    <t>kb067.1</t>
+  </si>
+  <si>
+    <t>kb066.2</t>
+  </si>
+  <si>
+    <t>kb067.2</t>
+  </si>
+  <si>
+    <t>kb066.3</t>
+  </si>
+  <si>
+    <t>kb067.3</t>
+  </si>
+  <si>
+    <t>kb066.4</t>
+  </si>
+  <si>
+    <t>kb067.4</t>
+  </si>
+  <si>
     <t>kb056</t>
   </si>
   <si>
@@ -2348,6 +2372,30 @@
     <t>ja066</t>
   </si>
   <si>
+    <t>jb066.1</t>
+  </si>
+  <si>
+    <t>jb067.1</t>
+  </si>
+  <si>
+    <t>jb066.2</t>
+  </si>
+  <si>
+    <t>jb067.2</t>
+  </si>
+  <si>
+    <t>jb066.3</t>
+  </si>
+  <si>
+    <t>jb067.3</t>
+  </si>
+  <si>
+    <t>jb066.4</t>
+  </si>
+  <si>
+    <t>jb067.4</t>
+  </si>
+  <si>
     <t>jb056</t>
   </si>
   <si>
@@ -2408,6 +2456,30 @@
     <t>la066</t>
   </si>
   <si>
+    <t>lb066.1</t>
+  </si>
+  <si>
+    <t>lb067.1</t>
+  </si>
+  <si>
+    <t>lb066.2</t>
+  </si>
+  <si>
+    <t>lb067.2</t>
+  </si>
+  <si>
+    <t>lb066.3</t>
+  </si>
+  <si>
+    <t>lb067.3</t>
+  </si>
+  <si>
+    <t>lb066.4</t>
+  </si>
+  <si>
+    <t>lb067.4</t>
+  </si>
+  <si>
     <t>lb056</t>
   </si>
   <si>
@@ -2468,6 +2540,30 @@
     <t>ma066</t>
   </si>
   <si>
+    <t>mb066.1</t>
+  </si>
+  <si>
+    <t>mb067.1</t>
+  </si>
+  <si>
+    <t>mb066.2</t>
+  </si>
+  <si>
+    <t>mb067.2</t>
+  </si>
+  <si>
+    <t>mb066.3</t>
+  </si>
+  <si>
+    <t>mb067.3</t>
+  </si>
+  <si>
+    <t>mb066.4</t>
+  </si>
+  <si>
+    <t>mb067.4</t>
+  </si>
+  <si>
     <t>mb056</t>
   </si>
   <si>
@@ -2528,6 +2624,30 @@
     <t>na066</t>
   </si>
   <si>
+    <t>nb066.1</t>
+  </si>
+  <si>
+    <t>nb067.1</t>
+  </si>
+  <si>
+    <t>nb066.2</t>
+  </si>
+  <si>
+    <t>nb067.2</t>
+  </si>
+  <si>
+    <t>nb066.3</t>
+  </si>
+  <si>
+    <t>nb067.3</t>
+  </si>
+  <si>
+    <t>nb066.4</t>
+  </si>
+  <si>
+    <t>nb067.4</t>
+  </si>
+  <si>
     <t>nb056</t>
   </si>
   <si>
@@ -2658,126 +2778,6 @@
   </si>
   <si>
     <t>gender</t>
-  </si>
-  <si>
-    <t>jb066_1</t>
-  </si>
-  <si>
-    <t>jb067_1</t>
-  </si>
-  <si>
-    <t>jb066_2</t>
-  </si>
-  <si>
-    <t>jb067_2</t>
-  </si>
-  <si>
-    <t>jb066_3</t>
-  </si>
-  <si>
-    <t>jb067_3</t>
-  </si>
-  <si>
-    <t>jb066_4</t>
-  </si>
-  <si>
-    <t>jb067_4</t>
-  </si>
-  <si>
-    <t>kb066_1</t>
-  </si>
-  <si>
-    <t>kb067_1</t>
-  </si>
-  <si>
-    <t>kb066_2</t>
-  </si>
-  <si>
-    <t>kb067_2</t>
-  </si>
-  <si>
-    <t>kb066_3</t>
-  </si>
-  <si>
-    <t>kb067_3</t>
-  </si>
-  <si>
-    <t>kb066_4</t>
-  </si>
-  <si>
-    <t>kb067_4</t>
-  </si>
-  <si>
-    <t>lb066_1</t>
-  </si>
-  <si>
-    <t>lb067_1</t>
-  </si>
-  <si>
-    <t>lb066_2</t>
-  </si>
-  <si>
-    <t>lb067_2</t>
-  </si>
-  <si>
-    <t>lb066_3</t>
-  </si>
-  <si>
-    <t>lb067_3</t>
-  </si>
-  <si>
-    <t>lb066_4</t>
-  </si>
-  <si>
-    <t>lb067_4</t>
-  </si>
-  <si>
-    <t>mb066_1</t>
-  </si>
-  <si>
-    <t>mb067_1</t>
-  </si>
-  <si>
-    <t>mb066_2</t>
-  </si>
-  <si>
-    <t>mb067_2</t>
-  </si>
-  <si>
-    <t>mb066_3</t>
-  </si>
-  <si>
-    <t>mb067_3</t>
-  </si>
-  <si>
-    <t>mb066_4</t>
-  </si>
-  <si>
-    <t>mb067_4</t>
-  </si>
-  <si>
-    <t>nb066_1</t>
-  </si>
-  <si>
-    <t>nb067_1</t>
-  </si>
-  <si>
-    <t>nb066_2</t>
-  </si>
-  <si>
-    <t>nb067_2</t>
-  </si>
-  <si>
-    <t>nb066_3</t>
-  </si>
-  <si>
-    <t>nb067_3</t>
-  </si>
-  <si>
-    <t>nb066_4</t>
-  </si>
-  <si>
-    <t>nb067_4</t>
   </si>
 </sst>
 </file>
@@ -3098,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="E176" sqref="E176"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3126,7 +3126,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C2" t="s">
         <v>711</v>
@@ -3137,7 +3137,7 @@
         <v>2004</v>
       </c>
       <c r="B3" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="C3" t="s">
         <v>709</v>
@@ -3148,7 +3148,7 @@
         <v>2004</v>
       </c>
       <c r="B4" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="C4" t="s">
         <v>710</v>
@@ -3159,7 +3159,7 @@
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="C5" t="s">
         <v>712</v>
@@ -3170,7 +3170,7 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>871</v>
+        <v>775</v>
       </c>
       <c r="C6" t="s">
         <v>713</v>
@@ -3181,7 +3181,7 @@
         <v>2004</v>
       </c>
       <c r="B7" t="s">
-        <v>872</v>
+        <v>776</v>
       </c>
       <c r="C7" t="s">
         <v>714</v>
@@ -3192,7 +3192,7 @@
         <v>2004</v>
       </c>
       <c r="B8" t="s">
-        <v>873</v>
+        <v>777</v>
       </c>
       <c r="C8" t="s">
         <v>715</v>
@@ -3203,7 +3203,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="s">
-        <v>874</v>
+        <v>778</v>
       </c>
       <c r="C9" t="s">
         <v>716</v>
@@ -3214,7 +3214,7 @@
         <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>875</v>
+        <v>779</v>
       </c>
       <c r="C10" t="s">
         <v>717</v>
@@ -3225,7 +3225,7 @@
         <v>2004</v>
       </c>
       <c r="B11" t="s">
-        <v>876</v>
+        <v>780</v>
       </c>
       <c r="C11" t="s">
         <v>718</v>
@@ -3236,7 +3236,7 @@
         <v>2004</v>
       </c>
       <c r="B12" t="s">
-        <v>877</v>
+        <v>781</v>
       </c>
       <c r="C12" t="s">
         <v>719</v>
@@ -3247,7 +3247,7 @@
         <v>2004</v>
       </c>
       <c r="B13" t="s">
-        <v>878</v>
+        <v>782</v>
       </c>
       <c r="C13" t="s">
         <v>720</v>
@@ -3258,7 +3258,7 @@
         <v>2004</v>
       </c>
       <c r="B14" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="C14" t="s">
         <v>721</v>
@@ -3269,7 +3269,7 @@
         <v>2004</v>
       </c>
       <c r="B15" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="C15" t="s">
         <v>722</v>
@@ -3280,7 +3280,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
       <c r="C16" t="s">
         <v>723</v>
@@ -3294,7 +3294,7 @@
         <v>2004</v>
       </c>
       <c r="B17" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="C17" t="s">
         <v>725</v>
@@ -3305,7 +3305,7 @@
         <v>2004</v>
       </c>
       <c r="B18" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
       <c r="C18" t="s">
         <v>726</v>
@@ -3319,7 +3319,7 @@
         <v>2004</v>
       </c>
       <c r="B19" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
       <c r="C19" t="s">
         <v>728</v>
@@ -3330,7 +3330,7 @@
         <v>2004</v>
       </c>
       <c r="B20" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="C20" t="s">
         <v>729</v>
@@ -3341,7 +3341,7 @@
         <v>2004</v>
       </c>
       <c r="B21" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="C21" t="s">
         <v>730</v>
@@ -3352,7 +3352,7 @@
         <v>2004</v>
       </c>
       <c r="B22" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="C22" t="s">
         <v>731</v>
@@ -3363,7 +3363,7 @@
         <v>2004</v>
       </c>
       <c r="B23" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="C23" t="s">
         <v>732</v>
@@ -3374,7 +3374,7 @@
         <v>2004</v>
       </c>
       <c r="B24" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="C24" t="s">
         <v>733</v>
@@ -3385,7 +3385,7 @@
         <v>2004</v>
       </c>
       <c r="B25" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="C25" t="s">
         <v>734</v>
@@ -3396,7 +3396,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="C26" t="s">
         <v>735</v>
@@ -3407,7 +3407,7 @@
         <v>2004</v>
       </c>
       <c r="B27" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="C27" t="s">
         <v>736</v>
@@ -3418,7 +3418,7 @@
         <v>2004</v>
       </c>
       <c r="B28" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="C28" t="s">
         <v>737</v>
@@ -3429,7 +3429,7 @@
         <v>2004</v>
       </c>
       <c r="B29" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="C29" t="s">
         <v>738</v>
@@ -3440,7 +3440,7 @@
         <v>2004</v>
       </c>
       <c r="B30" t="s">
-        <v>870</v>
+        <v>910</v>
       </c>
       <c r="C30" t="s">
         <v>739</v>
@@ -3528,7 +3528,7 @@
         <v>2006</v>
       </c>
       <c r="B38" t="s">
-        <v>879</v>
+        <v>747</v>
       </c>
       <c r="C38" t="s">
         <v>713</v>
@@ -3539,7 +3539,7 @@
         <v>2006</v>
       </c>
       <c r="B39" t="s">
-        <v>880</v>
+        <v>748</v>
       </c>
       <c r="C39" t="s">
         <v>714</v>
@@ -3550,7 +3550,7 @@
         <v>2006</v>
       </c>
       <c r="B40" t="s">
-        <v>881</v>
+        <v>749</v>
       </c>
       <c r="C40" t="s">
         <v>715</v>
@@ -3561,7 +3561,7 @@
         <v>2006</v>
       </c>
       <c r="B41" t="s">
-        <v>882</v>
+        <v>750</v>
       </c>
       <c r="C41" t="s">
         <v>716</v>
@@ -3572,7 +3572,7 @@
         <v>2006</v>
       </c>
       <c r="B42" t="s">
-        <v>883</v>
+        <v>751</v>
       </c>
       <c r="C42" t="s">
         <v>717</v>
@@ -3583,7 +3583,7 @@
         <v>2006</v>
       </c>
       <c r="B43" t="s">
-        <v>884</v>
+        <v>752</v>
       </c>
       <c r="C43" t="s">
         <v>718</v>
@@ -3594,7 +3594,7 @@
         <v>2006</v>
       </c>
       <c r="B44" t="s">
-        <v>885</v>
+        <v>753</v>
       </c>
       <c r="C44" t="s">
         <v>719</v>
@@ -3605,7 +3605,7 @@
         <v>2006</v>
       </c>
       <c r="B45" t="s">
-        <v>886</v>
+        <v>754</v>
       </c>
       <c r="C45" t="s">
         <v>720</v>
@@ -3616,7 +3616,7 @@
         <v>2006</v>
       </c>
       <c r="B46" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="C46" t="s">
         <v>721</v>
@@ -3627,7 +3627,7 @@
         <v>2006</v>
       </c>
       <c r="B47" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="C47" t="s">
         <v>722</v>
@@ -3638,7 +3638,7 @@
         <v>2006</v>
       </c>
       <c r="B48" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="C48" t="s">
         <v>723</v>
@@ -3649,7 +3649,7 @@
         <v>2006</v>
       </c>
       <c r="B49" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="C49" t="s">
         <v>725</v>
@@ -3660,7 +3660,7 @@
         <v>2006</v>
       </c>
       <c r="B50" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C50" t="s">
         <v>726</v>
@@ -3671,7 +3671,7 @@
         <v>2006</v>
       </c>
       <c r="B51" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="C51" t="s">
         <v>728</v>
@@ -3682,7 +3682,7 @@
         <v>2006</v>
       </c>
       <c r="B52" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="C52" t="s">
         <v>729</v>
@@ -3693,7 +3693,7 @@
         <v>2006</v>
       </c>
       <c r="B53" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="C53" t="s">
         <v>730</v>
@@ -3704,7 +3704,7 @@
         <v>2006</v>
       </c>
       <c r="B54" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="C54" t="s">
         <v>731</v>
@@ -3715,7 +3715,7 @@
         <v>2006</v>
       </c>
       <c r="B55" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="C55" t="s">
         <v>732</v>
@@ -3726,7 +3726,7 @@
         <v>2006</v>
       </c>
       <c r="B56" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="C56" t="s">
         <v>733</v>
@@ -3737,7 +3737,7 @@
         <v>2006</v>
       </c>
       <c r="B57" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="C57" t="s">
         <v>734</v>
@@ -3748,7 +3748,7 @@
         <v>2006</v>
       </c>
       <c r="B58" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="C58" t="s">
         <v>735</v>
@@ -3759,7 +3759,7 @@
         <v>2006</v>
       </c>
       <c r="B59" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="C59" t="s">
         <v>736</v>
@@ -3770,7 +3770,7 @@
         <v>2006</v>
       </c>
       <c r="B60" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="C60" t="s">
         <v>737</v>
@@ -3781,7 +3781,7 @@
         <v>2006</v>
       </c>
       <c r="B61" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="C61" t="s">
         <v>738</v>
@@ -3792,7 +3792,7 @@
         <v>2006</v>
       </c>
       <c r="B62" t="s">
-        <v>870</v>
+        <v>910</v>
       </c>
       <c r="C62" t="s">
         <v>739</v>
@@ -3836,7 +3836,7 @@
         <v>2008</v>
       </c>
       <c r="B66" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="C66" t="s">
         <v>711</v>
@@ -3847,7 +3847,7 @@
         <v>2008</v>
       </c>
       <c r="B67" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="C67" t="s">
         <v>709</v>
@@ -3858,7 +3858,7 @@
         <v>2008</v>
       </c>
       <c r="B68" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="C68" t="s">
         <v>710</v>
@@ -3869,7 +3869,7 @@
         <v>2008</v>
       </c>
       <c r="B69" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="C69" t="s">
         <v>712</v>
@@ -3880,7 +3880,7 @@
         <v>2008</v>
       </c>
       <c r="B70" t="s">
-        <v>887</v>
+        <v>803</v>
       </c>
       <c r="C70" t="s">
         <v>713</v>
@@ -3891,7 +3891,7 @@
         <v>2008</v>
       </c>
       <c r="B71" t="s">
-        <v>888</v>
+        <v>804</v>
       </c>
       <c r="C71" t="s">
         <v>714</v>
@@ -3902,7 +3902,7 @@
         <v>2008</v>
       </c>
       <c r="B72" t="s">
-        <v>889</v>
+        <v>805</v>
       </c>
       <c r="C72" t="s">
         <v>715</v>
@@ -3913,7 +3913,7 @@
         <v>2008</v>
       </c>
       <c r="B73" t="s">
-        <v>890</v>
+        <v>806</v>
       </c>
       <c r="C73" t="s">
         <v>716</v>
@@ -3924,7 +3924,7 @@
         <v>2008</v>
       </c>
       <c r="B74" t="s">
-        <v>891</v>
+        <v>807</v>
       </c>
       <c r="C74" t="s">
         <v>717</v>
@@ -3935,7 +3935,7 @@
         <v>2008</v>
       </c>
       <c r="B75" t="s">
-        <v>892</v>
+        <v>808</v>
       </c>
       <c r="C75" t="s">
         <v>718</v>
@@ -3946,7 +3946,7 @@
         <v>2008</v>
       </c>
       <c r="B76" t="s">
-        <v>893</v>
+        <v>809</v>
       </c>
       <c r="C76" t="s">
         <v>719</v>
@@ -3957,7 +3957,7 @@
         <v>2008</v>
       </c>
       <c r="B77" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="C77" t="s">
         <v>720</v>
@@ -3968,7 +3968,7 @@
         <v>2008</v>
       </c>
       <c r="B78" t="s">
-        <v>787</v>
+        <v>811</v>
       </c>
       <c r="C78" t="s">
         <v>721</v>
@@ -3979,7 +3979,7 @@
         <v>2008</v>
       </c>
       <c r="B79" t="s">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="C79" t="s">
         <v>722</v>
@@ -3990,7 +3990,7 @@
         <v>2008</v>
       </c>
       <c r="B80" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
       <c r="C80" t="s">
         <v>723</v>
@@ -4001,7 +4001,7 @@
         <v>2008</v>
       </c>
       <c r="B81" t="s">
-        <v>790</v>
+        <v>814</v>
       </c>
       <c r="C81" t="s">
         <v>725</v>
@@ -4012,7 +4012,7 @@
         <v>2008</v>
       </c>
       <c r="B82" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="C82" t="s">
         <v>726</v>
@@ -4023,7 +4023,7 @@
         <v>2008</v>
       </c>
       <c r="B83" t="s">
-        <v>792</v>
+        <v>816</v>
       </c>
       <c r="C83" t="s">
         <v>728</v>
@@ -4034,7 +4034,7 @@
         <v>2008</v>
       </c>
       <c r="B84" t="s">
-        <v>793</v>
+        <v>817</v>
       </c>
       <c r="C84" t="s">
         <v>729</v>
@@ -4045,7 +4045,7 @@
         <v>2008</v>
       </c>
       <c r="B85" t="s">
-        <v>794</v>
+        <v>818</v>
       </c>
       <c r="C85" t="s">
         <v>730</v>
@@ -4056,7 +4056,7 @@
         <v>2008</v>
       </c>
       <c r="B86" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
       <c r="C86" t="s">
         <v>731</v>
@@ -4067,7 +4067,7 @@
         <v>2008</v>
       </c>
       <c r="B87" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="C87" t="s">
         <v>732</v>
@@ -4078,7 +4078,7 @@
         <v>2008</v>
       </c>
       <c r="B88" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="C88" t="s">
         <v>733</v>
@@ -4089,7 +4089,7 @@
         <v>2008</v>
       </c>
       <c r="B89" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
       <c r="C89" t="s">
         <v>734</v>
@@ -4100,7 +4100,7 @@
         <v>2008</v>
       </c>
       <c r="B90" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="C90" t="s">
         <v>735</v>
@@ -4111,7 +4111,7 @@
         <v>2008</v>
       </c>
       <c r="B91" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="C91" t="s">
         <v>736</v>
@@ -4122,7 +4122,7 @@
         <v>2008</v>
       </c>
       <c r="B92" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
       <c r="C92" t="s">
         <v>737</v>
@@ -4133,7 +4133,7 @@
         <v>2008</v>
       </c>
       <c r="B93" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
       <c r="C93" t="s">
         <v>738</v>
@@ -4144,7 +4144,7 @@
         <v>2008</v>
       </c>
       <c r="B94" t="s">
-        <v>870</v>
+        <v>910</v>
       </c>
       <c r="C94" t="s">
         <v>739</v>
@@ -4188,7 +4188,7 @@
         <v>2010</v>
       </c>
       <c r="B98" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="C98" t="s">
         <v>711</v>
@@ -4199,7 +4199,7 @@
         <v>2010</v>
       </c>
       <c r="B99" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="C99" t="s">
         <v>709</v>
@@ -4210,7 +4210,7 @@
         <v>2010</v>
       </c>
       <c r="B100" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="C100" t="s">
         <v>710</v>
@@ -4221,7 +4221,7 @@
         <v>2010</v>
       </c>
       <c r="B101" t="s">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="C101" t="s">
         <v>712</v>
@@ -4232,7 +4232,7 @@
         <v>2010</v>
       </c>
       <c r="B102" t="s">
-        <v>895</v>
+        <v>831</v>
       </c>
       <c r="C102" t="s">
         <v>713</v>
@@ -4243,7 +4243,7 @@
         <v>2010</v>
       </c>
       <c r="B103" t="s">
-        <v>896</v>
+        <v>832</v>
       </c>
       <c r="C103" t="s">
         <v>714</v>
@@ -4254,7 +4254,7 @@
         <v>2010</v>
       </c>
       <c r="B104" t="s">
-        <v>897</v>
+        <v>833</v>
       </c>
       <c r="C104" t="s">
         <v>715</v>
@@ -4265,7 +4265,7 @@
         <v>2010</v>
       </c>
       <c r="B105" t="s">
-        <v>898</v>
+        <v>834</v>
       </c>
       <c r="C105" t="s">
         <v>716</v>
@@ -4276,7 +4276,7 @@
         <v>2010</v>
       </c>
       <c r="B106" t="s">
-        <v>899</v>
+        <v>835</v>
       </c>
       <c r="C106" t="s">
         <v>717</v>
@@ -4287,7 +4287,7 @@
         <v>2010</v>
       </c>
       <c r="B107" t="s">
-        <v>900</v>
+        <v>836</v>
       </c>
       <c r="C107" t="s">
         <v>718</v>
@@ -4298,7 +4298,7 @@
         <v>2010</v>
       </c>
       <c r="B108" t="s">
-        <v>901</v>
+        <v>837</v>
       </c>
       <c r="C108" t="s">
         <v>719</v>
@@ -4309,7 +4309,7 @@
         <v>2010</v>
       </c>
       <c r="B109" t="s">
-        <v>902</v>
+        <v>838</v>
       </c>
       <c r="C109" t="s">
         <v>720</v>
@@ -4320,7 +4320,7 @@
         <v>2010</v>
       </c>
       <c r="B110" t="s">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="C110" t="s">
         <v>721</v>
@@ -4331,7 +4331,7 @@
         <v>2010</v>
       </c>
       <c r="B111" t="s">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="C111" t="s">
         <v>722</v>
@@ -4342,7 +4342,7 @@
         <v>2010</v>
       </c>
       <c r="B112" t="s">
-        <v>809</v>
+        <v>841</v>
       </c>
       <c r="C112" t="s">
         <v>723</v>
@@ -4353,7 +4353,7 @@
         <v>2010</v>
       </c>
       <c r="B113" t="s">
-        <v>810</v>
+        <v>842</v>
       </c>
       <c r="C113" t="s">
         <v>725</v>
@@ -4364,7 +4364,7 @@
         <v>2010</v>
       </c>
       <c r="B114" t="s">
-        <v>811</v>
+        <v>843</v>
       </c>
       <c r="C114" t="s">
         <v>726</v>
@@ -4375,7 +4375,7 @@
         <v>2010</v>
       </c>
       <c r="B115" t="s">
-        <v>812</v>
+        <v>844</v>
       </c>
       <c r="C115" t="s">
         <v>728</v>
@@ -4386,7 +4386,7 @@
         <v>2010</v>
       </c>
       <c r="B116" t="s">
-        <v>813</v>
+        <v>845</v>
       </c>
       <c r="C116" t="s">
         <v>729</v>
@@ -4397,7 +4397,7 @@
         <v>2010</v>
       </c>
       <c r="B117" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="C117" t="s">
         <v>730</v>
@@ -4408,7 +4408,7 @@
         <v>2010</v>
       </c>
       <c r="B118" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="C118" t="s">
         <v>731</v>
@@ -4419,7 +4419,7 @@
         <v>2010</v>
       </c>
       <c r="B119" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="C119" t="s">
         <v>732</v>
@@ -4430,7 +4430,7 @@
         <v>2010</v>
       </c>
       <c r="B120" t="s">
-        <v>817</v>
+        <v>849</v>
       </c>
       <c r="C120" t="s">
         <v>733</v>
@@ -4441,7 +4441,7 @@
         <v>2010</v>
       </c>
       <c r="B121" t="s">
-        <v>818</v>
+        <v>850</v>
       </c>
       <c r="C121" t="s">
         <v>734</v>
@@ -4452,7 +4452,7 @@
         <v>2010</v>
       </c>
       <c r="B122" t="s">
-        <v>819</v>
+        <v>851</v>
       </c>
       <c r="C122" t="s">
         <v>735</v>
@@ -4463,7 +4463,7 @@
         <v>2010</v>
       </c>
       <c r="B123" t="s">
-        <v>820</v>
+        <v>852</v>
       </c>
       <c r="C123" t="s">
         <v>736</v>
@@ -4474,7 +4474,7 @@
         <v>2010</v>
       </c>
       <c r="B124" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="C124" t="s">
         <v>737</v>
@@ -4485,7 +4485,7 @@
         <v>2010</v>
       </c>
       <c r="B125" t="s">
-        <v>822</v>
+        <v>854</v>
       </c>
       <c r="C125" t="s">
         <v>738</v>
@@ -4496,7 +4496,7 @@
         <v>2010</v>
       </c>
       <c r="B126" t="s">
-        <v>870</v>
+        <v>910</v>
       </c>
       <c r="C126" t="s">
         <v>739</v>
@@ -4540,7 +4540,7 @@
         <v>2012</v>
       </c>
       <c r="B130" t="s">
-        <v>823</v>
+        <v>855</v>
       </c>
       <c r="C130" t="s">
         <v>711</v>
@@ -4551,7 +4551,7 @@
         <v>2012</v>
       </c>
       <c r="B131" t="s">
-        <v>824</v>
+        <v>856</v>
       </c>
       <c r="C131" t="s">
         <v>709</v>
@@ -4562,7 +4562,7 @@
         <v>2012</v>
       </c>
       <c r="B132" t="s">
-        <v>825</v>
+        <v>857</v>
       </c>
       <c r="C132" t="s">
         <v>710</v>
@@ -4573,7 +4573,7 @@
         <v>2012</v>
       </c>
       <c r="B133" t="s">
-        <v>826</v>
+        <v>858</v>
       </c>
       <c r="C133" t="s">
         <v>712</v>
@@ -4584,7 +4584,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>903</v>
+        <v>859</v>
       </c>
       <c r="C134" t="s">
         <v>713</v>
@@ -4595,7 +4595,7 @@
         <v>2012</v>
       </c>
       <c r="B135" t="s">
-        <v>904</v>
+        <v>860</v>
       </c>
       <c r="C135" t="s">
         <v>714</v>
@@ -4606,7 +4606,7 @@
         <v>2012</v>
       </c>
       <c r="B136" t="s">
-        <v>905</v>
+        <v>861</v>
       </c>
       <c r="C136" t="s">
         <v>715</v>
@@ -4617,7 +4617,7 @@
         <v>2012</v>
       </c>
       <c r="B137" t="s">
-        <v>906</v>
+        <v>862</v>
       </c>
       <c r="C137" t="s">
         <v>716</v>
@@ -4628,7 +4628,7 @@
         <v>2012</v>
       </c>
       <c r="B138" t="s">
-        <v>907</v>
+        <v>863</v>
       </c>
       <c r="C138" t="s">
         <v>717</v>
@@ -4639,7 +4639,7 @@
         <v>2012</v>
       </c>
       <c r="B139" t="s">
-        <v>908</v>
+        <v>864</v>
       </c>
       <c r="C139" t="s">
         <v>718</v>
@@ -4650,7 +4650,7 @@
         <v>2012</v>
       </c>
       <c r="B140" t="s">
-        <v>909</v>
+        <v>865</v>
       </c>
       <c r="C140" t="s">
         <v>719</v>
@@ -4661,7 +4661,7 @@
         <v>2012</v>
       </c>
       <c r="B141" t="s">
-        <v>910</v>
+        <v>866</v>
       </c>
       <c r="C141" t="s">
         <v>720</v>
@@ -4672,7 +4672,7 @@
         <v>2012</v>
       </c>
       <c r="B142" t="s">
-        <v>827</v>
+        <v>867</v>
       </c>
       <c r="C142" t="s">
         <v>721</v>
@@ -4683,7 +4683,7 @@
         <v>2012</v>
       </c>
       <c r="B143" t="s">
-        <v>828</v>
+        <v>868</v>
       </c>
       <c r="C143" t="s">
         <v>722</v>
@@ -4694,7 +4694,7 @@
         <v>2012</v>
       </c>
       <c r="B144" t="s">
-        <v>829</v>
+        <v>869</v>
       </c>
       <c r="C144" t="s">
         <v>723</v>
@@ -4705,7 +4705,7 @@
         <v>2012</v>
       </c>
       <c r="B145" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="C145" t="s">
         <v>725</v>
@@ -4716,7 +4716,7 @@
         <v>2012</v>
       </c>
       <c r="B146" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C146" t="s">
         <v>726</v>
@@ -4727,7 +4727,7 @@
         <v>2012</v>
       </c>
       <c r="B147" t="s">
-        <v>832</v>
+        <v>872</v>
       </c>
       <c r="C147" t="s">
         <v>728</v>
@@ -4738,7 +4738,7 @@
         <v>2012</v>
       </c>
       <c r="B148" t="s">
-        <v>833</v>
+        <v>873</v>
       </c>
       <c r="C148" t="s">
         <v>729</v>
@@ -4749,7 +4749,7 @@
         <v>2012</v>
       </c>
       <c r="B149" t="s">
-        <v>834</v>
+        <v>874</v>
       </c>
       <c r="C149" t="s">
         <v>730</v>
@@ -4760,7 +4760,7 @@
         <v>2012</v>
       </c>
       <c r="B150" t="s">
-        <v>835</v>
+        <v>875</v>
       </c>
       <c r="C150" t="s">
         <v>731</v>
@@ -4771,7 +4771,7 @@
         <v>2012</v>
       </c>
       <c r="B151" t="s">
-        <v>836</v>
+        <v>876</v>
       </c>
       <c r="C151" t="s">
         <v>732</v>
@@ -4782,7 +4782,7 @@
         <v>2012</v>
       </c>
       <c r="B152" t="s">
-        <v>837</v>
+        <v>877</v>
       </c>
       <c r="C152" t="s">
         <v>733</v>
@@ -4793,7 +4793,7 @@
         <v>2012</v>
       </c>
       <c r="B153" t="s">
-        <v>838</v>
+        <v>878</v>
       </c>
       <c r="C153" t="s">
         <v>734</v>
@@ -4804,7 +4804,7 @@
         <v>2012</v>
       </c>
       <c r="B154" t="s">
-        <v>839</v>
+        <v>879</v>
       </c>
       <c r="C154" t="s">
         <v>735</v>
@@ -4815,7 +4815,7 @@
         <v>2012</v>
       </c>
       <c r="B155" t="s">
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="C155" t="s">
         <v>736</v>
@@ -4826,7 +4826,7 @@
         <v>2012</v>
       </c>
       <c r="B156" t="s">
-        <v>841</v>
+        <v>881</v>
       </c>
       <c r="C156" t="s">
         <v>737</v>
@@ -4837,7 +4837,7 @@
         <v>2012</v>
       </c>
       <c r="B157" t="s">
-        <v>842</v>
+        <v>882</v>
       </c>
       <c r="C157" t="s">
         <v>738</v>
@@ -4848,7 +4848,7 @@
         <v>2012</v>
       </c>
       <c r="B158" t="s">
-        <v>870</v>
+        <v>910</v>
       </c>
       <c r="C158" t="s">
         <v>739</v>
@@ -4892,7 +4892,7 @@
         <v>2014</v>
       </c>
       <c r="B162" t="s">
-        <v>843</v>
+        <v>883</v>
       </c>
       <c r="C162" t="s">
         <v>711</v>
@@ -4903,7 +4903,7 @@
         <v>2014</v>
       </c>
       <c r="B163" t="s">
-        <v>844</v>
+        <v>884</v>
       </c>
       <c r="C163" t="s">
         <v>709</v>
@@ -4914,7 +4914,7 @@
         <v>2014</v>
       </c>
       <c r="B164" t="s">
-        <v>845</v>
+        <v>885</v>
       </c>
       <c r="C164" t="s">
         <v>710</v>
@@ -4925,7 +4925,7 @@
         <v>2014</v>
       </c>
       <c r="B165" t="s">
-        <v>846</v>
+        <v>886</v>
       </c>
       <c r="C165" t="s">
         <v>712</v>
@@ -4936,7 +4936,7 @@
         <v>2014</v>
       </c>
       <c r="B166" t="s">
-        <v>847</v>
+        <v>887</v>
       </c>
       <c r="C166" t="s">
         <v>713</v>
@@ -4947,7 +4947,7 @@
         <v>2014</v>
       </c>
       <c r="B167" t="s">
-        <v>848</v>
+        <v>888</v>
       </c>
       <c r="C167" t="s">
         <v>714</v>
@@ -4958,7 +4958,7 @@
         <v>2014</v>
       </c>
       <c r="B168" t="s">
-        <v>849</v>
+        <v>889</v>
       </c>
       <c r="C168" t="s">
         <v>715</v>
@@ -4969,7 +4969,7 @@
         <v>2014</v>
       </c>
       <c r="B169" t="s">
-        <v>850</v>
+        <v>890</v>
       </c>
       <c r="C169" t="s">
         <v>716</v>
@@ -4980,7 +4980,7 @@
         <v>2014</v>
       </c>
       <c r="B170" t="s">
-        <v>851</v>
+        <v>891</v>
       </c>
       <c r="C170" t="s">
         <v>717</v>
@@ -4991,7 +4991,7 @@
         <v>2014</v>
       </c>
       <c r="B171" t="s">
-        <v>852</v>
+        <v>892</v>
       </c>
       <c r="C171" t="s">
         <v>718</v>
@@ -5002,7 +5002,7 @@
         <v>2014</v>
       </c>
       <c r="B172" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C172" t="s">
         <v>719</v>
@@ -5013,7 +5013,7 @@
         <v>2014</v>
       </c>
       <c r="B173" t="s">
-        <v>854</v>
+        <v>894</v>
       </c>
       <c r="C173" t="s">
         <v>720</v>
@@ -5024,7 +5024,7 @@
         <v>2014</v>
       </c>
       <c r="B174" t="s">
-        <v>855</v>
+        <v>895</v>
       </c>
       <c r="C174" t="s">
         <v>721</v>
@@ -5035,7 +5035,7 @@
         <v>2014</v>
       </c>
       <c r="B175" t="s">
-        <v>856</v>
+        <v>896</v>
       </c>
       <c r="C175" t="s">
         <v>722</v>
@@ -5046,7 +5046,7 @@
         <v>2014</v>
       </c>
       <c r="B176" t="s">
-        <v>857</v>
+        <v>897</v>
       </c>
       <c r="C176" t="s">
         <v>723</v>
@@ -5057,7 +5057,7 @@
         <v>2014</v>
       </c>
       <c r="B177" t="s">
-        <v>858</v>
+        <v>898</v>
       </c>
       <c r="C177" t="s">
         <v>725</v>
@@ -5068,7 +5068,7 @@
         <v>2014</v>
       </c>
       <c r="B178" t="s">
-        <v>859</v>
+        <v>899</v>
       </c>
       <c r="C178" t="s">
         <v>726</v>
@@ -5079,7 +5079,7 @@
         <v>2014</v>
       </c>
       <c r="B179" t="s">
-        <v>860</v>
+        <v>900</v>
       </c>
       <c r="C179" t="s">
         <v>728</v>
@@ -5090,7 +5090,7 @@
         <v>2014</v>
       </c>
       <c r="B180" t="s">
-        <v>861</v>
+        <v>901</v>
       </c>
       <c r="C180" t="s">
         <v>729</v>
@@ -5101,7 +5101,7 @@
         <v>2014</v>
       </c>
       <c r="B181" t="s">
-        <v>862</v>
+        <v>902</v>
       </c>
       <c r="C181" t="s">
         <v>730</v>
@@ -5112,7 +5112,7 @@
         <v>2014</v>
       </c>
       <c r="B182" t="s">
-        <v>863</v>
+        <v>903</v>
       </c>
       <c r="C182" t="s">
         <v>731</v>
@@ -5123,7 +5123,7 @@
         <v>2014</v>
       </c>
       <c r="B183" t="s">
-        <v>864</v>
+        <v>904</v>
       </c>
       <c r="C183" t="s">
         <v>732</v>
@@ -5134,7 +5134,7 @@
         <v>2014</v>
       </c>
       <c r="B184" t="s">
-        <v>865</v>
+        <v>905</v>
       </c>
       <c r="C184" t="s">
         <v>733</v>
@@ -5145,7 +5145,7 @@
         <v>2014</v>
       </c>
       <c r="B185" t="s">
-        <v>866</v>
+        <v>906</v>
       </c>
       <c r="C185" t="s">
         <v>734</v>
@@ -5156,7 +5156,7 @@
         <v>2014</v>
       </c>
       <c r="B186" t="s">
-        <v>867</v>
+        <v>907</v>
       </c>
       <c r="C186" t="s">
         <v>736</v>
@@ -5167,7 +5167,7 @@
         <v>2014</v>
       </c>
       <c r="B187" t="s">
-        <v>868</v>
+        <v>908</v>
       </c>
       <c r="C187" t="s">
         <v>737</v>
@@ -5178,7 +5178,7 @@
         <v>2014</v>
       </c>
       <c r="B188" t="s">
-        <v>869</v>
+        <v>909</v>
       </c>
       <c r="C188" t="s">
         <v>738</v>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="49140" yWindow="460" windowWidth="33600" windowHeight="20460"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="33600" windowHeight="20460"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="11" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="914">
   <si>
     <t>year</t>
   </si>
@@ -2778,6 +2778,15 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>mx060_r</t>
+  </si>
+  <si>
+    <t>nx_060_r</t>
+  </si>
+  <si>
+    <t>ox_060_r</t>
   </si>
 </sst>
 </file>
@@ -3096,10 +3105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4496,7 +4505,7 @@
         <v>2010</v>
       </c>
       <c r="B126" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C126" t="s">
         <v>739</v>
@@ -4848,7 +4857,7 @@
         <v>2012</v>
       </c>
       <c r="B158" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C158" t="s">
         <v>739</v>
@@ -5189,10 +5198,10 @@
         <v>2014</v>
       </c>
       <c r="B189" t="s">
-        <v>740</v>
+        <v>913</v>
       </c>
       <c r="C189" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -5200,10 +5209,10 @@
         <v>2014</v>
       </c>
       <c r="B190" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C190" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -5211,9 +5220,20 @@
         <v>2014</v>
       </c>
       <c r="B191" t="s">
+        <v>741</v>
+      </c>
+      <c r="C191" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>2014</v>
+      </c>
+      <c r="B192" t="s">
         <v>742</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C192" t="s">
         <v>742</v>
       </c>
     </row>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -2780,13 +2780,13 @@
     <t>gender</t>
   </si>
   <si>
-    <t>mx060_r</t>
-  </si>
-  <si>
     <t>nx_060_r</t>
   </si>
   <si>
     <t>ox_060_r</t>
+  </si>
+  <si>
+    <t>mx_060_r</t>
   </si>
 </sst>
 </file>
@@ -3107,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4505,7 +4505,7 @@
         <v>2010</v>
       </c>
       <c r="B126" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C126" t="s">
         <v>739</v>
@@ -4857,7 +4857,7 @@
         <v>2012</v>
       </c>
       <c r="B158" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C158" t="s">
         <v>739</v>
@@ -5198,7 +5198,7 @@
         <v>2014</v>
       </c>
       <c r="B189" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C189" t="s">
         <v>739</v>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -2780,13 +2780,13 @@
     <t>gender</t>
   </si>
   <si>
+    <t>mx060_r</t>
+  </si>
+  <si>
     <t>nx_060_r</t>
   </si>
   <si>
     <t>ox_060_r</t>
-  </si>
-  <si>
-    <t>mx_060_r</t>
   </si>
 </sst>
 </file>
@@ -4505,7 +4505,7 @@
         <v>2010</v>
       </c>
       <c r="B126" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C126" t="s">
         <v>739</v>
@@ -4857,7 +4857,7 @@
         <v>2012</v>
       </c>
       <c r="B158" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C158" t="s">
         <v>739</v>
@@ -5198,7 +5198,7 @@
         <v>2014</v>
       </c>
       <c r="B189" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C189" t="s">
         <v>739</v>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="912">
   <si>
     <t>year</t>
   </si>
@@ -2780,13 +2780,7 @@
     <t>gender</t>
   </si>
   <si>
-    <t>mx060_r</t>
-  </si>
-  <si>
-    <t>nx_060_r</t>
-  </si>
-  <si>
-    <t>ox_060_r</t>
+    <t>v.gender</t>
   </si>
 </sst>
 </file>
@@ -3107,8 +3101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4857,7 +4851,7 @@
         <v>2012</v>
       </c>
       <c r="B158" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C158" t="s">
         <v>739</v>
@@ -5198,7 +5192,7 @@
         <v>2014</v>
       </c>
       <c r="B189" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C189" t="s">
         <v>739</v>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="920">
   <si>
     <t>year</t>
   </si>
@@ -2781,6 +2781,30 @@
   </si>
   <si>
     <t>v.gender</t>
+  </si>
+  <si>
+    <t>mb091m</t>
+  </si>
+  <si>
+    <t>nb091m</t>
+  </si>
+  <si>
+    <t>mb028</t>
+  </si>
+  <si>
+    <t>nb028</t>
+  </si>
+  <si>
+    <t>ob028</t>
+  </si>
+  <si>
+    <t>mb017m</t>
+  </si>
+  <si>
+    <t>nb017m</t>
+  </si>
+  <si>
+    <t>ob017m</t>
   </si>
 </sst>
 </file>
@@ -3101,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="F185" sqref="F185"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4510,7 +4534,7 @@
         <v>2010</v>
       </c>
       <c r="B127" t="s">
-        <v>740</v>
+        <v>912</v>
       </c>
       <c r="C127" t="s">
         <v>740</v>
@@ -4521,7 +4545,7 @@
         <v>2010</v>
       </c>
       <c r="B128" t="s">
-        <v>741</v>
+        <v>914</v>
       </c>
       <c r="C128" t="s">
         <v>741</v>
@@ -4532,7 +4556,7 @@
         <v>2010</v>
       </c>
       <c r="B129" t="s">
-        <v>742</v>
+        <v>917</v>
       </c>
       <c r="C129" t="s">
         <v>742</v>
@@ -4862,7 +4886,7 @@
         <v>2012</v>
       </c>
       <c r="B159" t="s">
-        <v>740</v>
+        <v>913</v>
       </c>
       <c r="C159" t="s">
         <v>740</v>
@@ -4873,7 +4897,7 @@
         <v>2012</v>
       </c>
       <c r="B160" t="s">
-        <v>741</v>
+        <v>915</v>
       </c>
       <c r="C160" t="s">
         <v>741</v>
@@ -4884,7 +4908,7 @@
         <v>2012</v>
       </c>
       <c r="B161" t="s">
-        <v>742</v>
+        <v>918</v>
       </c>
       <c r="C161" t="s">
         <v>742</v>
@@ -5203,7 +5227,7 @@
         <v>2014</v>
       </c>
       <c r="B190" t="s">
-        <v>740</v>
+        <v>912</v>
       </c>
       <c r="C190" t="s">
         <v>740</v>
@@ -5214,7 +5238,7 @@
         <v>2014</v>
       </c>
       <c r="B191" t="s">
-        <v>741</v>
+        <v>916</v>
       </c>
       <c r="C191" t="s">
         <v>741</v>
@@ -5225,7 +5249,7 @@
         <v>2014</v>
       </c>
       <c r="B192" t="s">
-        <v>742</v>
+        <v>919</v>
       </c>
       <c r="C192" t="s">
         <v>742</v>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="921">
   <si>
     <t>year</t>
   </si>
@@ -2805,6 +2805,9 @@
   </si>
   <si>
     <t>ob017m</t>
+  </si>
+  <si>
+    <t>ob091m</t>
   </si>
 </sst>
 </file>
@@ -3125,8 +3128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5227,7 +5230,7 @@
         <v>2014</v>
       </c>
       <c r="B190" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="C190" t="s">
         <v>740</v>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="33600" windowHeight="20460"/>
+    <workbookView xWindow="16860" yWindow="460" windowWidth="33600" windowHeight="20460" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="11" r:id="rId1"/>
@@ -3128,7 +3128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+    <sheetView topLeftCell="A143" workbookViewId="0">
       <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
@@ -11115,7 +11115,7 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+      <selection activeCell="B4" sqref="B4:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12405,8 +12405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12438,6 +12438,9 @@
       <c r="C2" t="s">
         <v>508</v>
       </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -12449,6 +12452,9 @@
       <c r="C3" t="s">
         <v>510</v>
       </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -12460,6 +12466,9 @@
       <c r="C4" t="s">
         <v>508</v>
       </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -12471,6 +12480,9 @@
       <c r="C5" t="s">
         <v>513</v>
       </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -12482,6 +12494,9 @@
       <c r="C6" t="s">
         <v>515</v>
       </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -12493,6 +12508,9 @@
       <c r="C7" t="s">
         <v>517</v>
       </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -12504,6 +12522,9 @@
       <c r="C8" t="s">
         <v>510</v>
       </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -12515,6 +12536,9 @@
       <c r="C9" t="s">
         <v>520</v>
       </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -12526,6 +12550,9 @@
       <c r="C10" t="s">
         <v>522</v>
       </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -12537,6 +12564,9 @@
       <c r="C11" t="s">
         <v>508</v>
       </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -12548,6 +12578,9 @@
       <c r="C12" t="s">
         <v>513</v>
       </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -12559,6 +12592,9 @@
       <c r="C13" t="s">
         <v>515</v>
       </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -12570,6 +12606,9 @@
       <c r="C14" t="s">
         <v>517</v>
       </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -12581,6 +12620,9 @@
       <c r="C15" t="s">
         <v>510</v>
       </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -12592,8 +12634,11 @@
       <c r="C16" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2008</v>
       </c>
@@ -12603,8 +12648,11 @@
       <c r="C17" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -12614,8 +12662,11 @@
       <c r="C18" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2010</v>
       </c>
@@ -12625,8 +12676,11 @@
       <c r="C19" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2010</v>
       </c>
@@ -12636,8 +12690,11 @@
       <c r="C20" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2010</v>
       </c>
@@ -12647,8 +12704,11 @@
       <c r="C21" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2010</v>
       </c>
@@ -12658,8 +12718,11 @@
       <c r="C22" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -12669,8 +12732,11 @@
       <c r="C23" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -12680,8 +12746,11 @@
       <c r="C24" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2012</v>
       </c>
@@ -12691,8 +12760,11 @@
       <c r="C25" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2012</v>
       </c>
@@ -12702,8 +12774,11 @@
       <c r="C26" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2012</v>
       </c>
@@ -12713,8 +12788,11 @@
       <c r="C27" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -12724,8 +12802,11 @@
       <c r="C28" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2012</v>
       </c>
@@ -12735,8 +12816,11 @@
       <c r="C29" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2012</v>
       </c>
@@ -12746,8 +12830,11 @@
       <c r="C30" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2012</v>
       </c>
@@ -12757,8 +12844,11 @@
       <c r="C31" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2014</v>
       </c>
@@ -12768,8 +12858,11 @@
       <c r="C32" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2014</v>
       </c>
@@ -12779,8 +12872,11 @@
       <c r="C33" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2014</v>
       </c>
@@ -12790,8 +12886,11 @@
       <c r="C34" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2014</v>
       </c>
@@ -12801,8 +12900,11 @@
       <c r="C35" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2014</v>
       </c>
@@ -12812,8 +12914,11 @@
       <c r="C36" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2014</v>
       </c>
@@ -12823,8 +12928,11 @@
       <c r="C37" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2014</v>
       </c>
@@ -12833,6 +12941,9 @@
       </c>
       <c r="C38" t="s">
         <v>522</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="460" windowWidth="33600" windowHeight="20460" activeTab="7"/>
+    <workbookView xWindow="9300" yWindow="540" windowWidth="33600" windowHeight="20460" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="11" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="924">
   <si>
     <t>year</t>
   </si>
@@ -2808,6 +2808,15 @@
   </si>
   <si>
     <t>ob091m</t>
+  </si>
+  <si>
+    <t>md169</t>
+  </si>
+  <si>
+    <t>nd169</t>
+  </si>
+  <si>
+    <t>od169</t>
   </si>
 </sst>
 </file>
@@ -5761,8 +5770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6321,8 +6330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6602,7 +6611,7 @@
         <v>2010</v>
       </c>
       <c r="B25" t="s">
-        <v>694</v>
+        <v>921</v>
       </c>
       <c r="C25" t="s">
         <v>681</v>
@@ -6668,7 +6677,7 @@
         <v>2012</v>
       </c>
       <c r="B31" t="s">
-        <v>699</v>
+        <v>922</v>
       </c>
       <c r="C31" t="s">
         <v>681</v>
@@ -6734,7 +6743,7 @@
         <v>2014</v>
       </c>
       <c r="B37" t="s">
-        <v>704</v>
+        <v>923</v>
       </c>
       <c r="C37" t="s">
         <v>681</v>
@@ -12405,8 +12414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="540" windowWidth="33600" windowHeight="20460" activeTab="11"/>
+    <workbookView xWindow="7100" yWindow="1440" windowWidth="23120" windowHeight="17920" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="11" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="wordlist" sheetId="8" r:id="rId10"/>
     <sheet name="mentalstatus" sheetId="10" r:id="rId11"/>
     <sheet name="vocabulary" sheetId="9" r:id="rId12"/>
+    <sheet name="depression" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">activity!$A$1:$E$90</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="995">
   <si>
     <t>year</t>
   </si>
@@ -2817,16 +2818,252 @@
   </si>
   <si>
     <t>od169</t>
+  </si>
+  <si>
+    <t>ld110</t>
+  </si>
+  <si>
+    <t>cesd1</t>
+  </si>
+  <si>
+    <t>ld111</t>
+  </si>
+  <si>
+    <t>cesd2</t>
+  </si>
+  <si>
+    <t>ld112</t>
+  </si>
+  <si>
+    <t>cesd3</t>
+  </si>
+  <si>
+    <t>ld113</t>
+  </si>
+  <si>
+    <t>cesd4</t>
+  </si>
+  <si>
+    <t>ld114</t>
+  </si>
+  <si>
+    <t>cesd5</t>
+  </si>
+  <si>
+    <t>ld115</t>
+  </si>
+  <si>
+    <t>cesd6</t>
+  </si>
+  <si>
+    <t>ld116</t>
+  </si>
+  <si>
+    <t>cesd7</t>
+  </si>
+  <si>
+    <t>ld117</t>
+  </si>
+  <si>
+    <t>ld118</t>
+  </si>
+  <si>
+    <t>cesd8</t>
+  </si>
+  <si>
+    <t>cesd9</t>
+  </si>
+  <si>
+    <t>jd110</t>
+  </si>
+  <si>
+    <t>jd111</t>
+  </si>
+  <si>
+    <t>Feeling depressed w/in prev wk</t>
+  </si>
+  <si>
+    <t>Felt activities were efforts</t>
+  </si>
+  <si>
+    <t>Was sleep restless w/in prev wk</t>
+  </si>
+  <si>
+    <t>Loneliness felt w/in prev wk</t>
+  </si>
+  <si>
+    <t>Felt sad w/in prev wk</t>
+  </si>
+  <si>
+    <t>Felt unmotivated w/in prev wk</t>
+  </si>
+  <si>
+    <t>Felt full of energy w/in prev wk</t>
+  </si>
+  <si>
+    <t>jd112</t>
+  </si>
+  <si>
+    <t>jd113</t>
+  </si>
+  <si>
+    <t>jd114</t>
+  </si>
+  <si>
+    <t>jd115</t>
+  </si>
+  <si>
+    <t>jd116</t>
+  </si>
+  <si>
+    <t>Was r happy w/in prev wk</t>
+  </si>
+  <si>
+    <t>Enjoyed life w/in prev wk</t>
+  </si>
+  <si>
+    <t>jd117</t>
+  </si>
+  <si>
+    <t>jd118</t>
+  </si>
+  <si>
+    <t>kd110</t>
+  </si>
+  <si>
+    <t>kd111</t>
+  </si>
+  <si>
+    <t>kd112</t>
+  </si>
+  <si>
+    <t>kd113</t>
+  </si>
+  <si>
+    <t>kd114</t>
+  </si>
+  <si>
+    <t>kd115</t>
+  </si>
+  <si>
+    <t>kd116</t>
+  </si>
+  <si>
+    <t>kd117</t>
+  </si>
+  <si>
+    <t>kd118</t>
+  </si>
+  <si>
+    <t>md110</t>
+  </si>
+  <si>
+    <t>md111</t>
+  </si>
+  <si>
+    <t>md112</t>
+  </si>
+  <si>
+    <t>md113</t>
+  </si>
+  <si>
+    <t>md114</t>
+  </si>
+  <si>
+    <t>md115</t>
+  </si>
+  <si>
+    <t>md116</t>
+  </si>
+  <si>
+    <t>md117</t>
+  </si>
+  <si>
+    <t>md118</t>
+  </si>
+  <si>
+    <t>nd110</t>
+  </si>
+  <si>
+    <t>nd111</t>
+  </si>
+  <si>
+    <t>nd112</t>
+  </si>
+  <si>
+    <t>nd113</t>
+  </si>
+  <si>
+    <t>nd114</t>
+  </si>
+  <si>
+    <t>nd115</t>
+  </si>
+  <si>
+    <t>nd116</t>
+  </si>
+  <si>
+    <t>nd117</t>
+  </si>
+  <si>
+    <t>nd118</t>
+  </si>
+  <si>
+    <t>od110</t>
+  </si>
+  <si>
+    <t>od111</t>
+  </si>
+  <si>
+    <t>od112</t>
+  </si>
+  <si>
+    <t>od113</t>
+  </si>
+  <si>
+    <t>od114</t>
+  </si>
+  <si>
+    <t>od115</t>
+  </si>
+  <si>
+    <t>od116</t>
+  </si>
+  <si>
+    <t>od117</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2849,14 +3086,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6330,8 +6572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6747,6 +6989,939 @@
       </c>
       <c r="C37" t="s">
         <v>681</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C2" t="s">
+        <v>925</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C3" t="s">
+        <v>927</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C4" t="s">
+        <v>929</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>952</v>
+      </c>
+      <c r="C5" t="s">
+        <v>931</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>953</v>
+      </c>
+      <c r="C6" t="s">
+        <v>933</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>954</v>
+      </c>
+      <c r="C7" t="s">
+        <v>935</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>955</v>
+      </c>
+      <c r="C8" t="s">
+        <v>937</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>958</v>
+      </c>
+      <c r="C9" t="s">
+        <v>940</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>959</v>
+      </c>
+      <c r="C10" t="s">
+        <v>941</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>960</v>
+      </c>
+      <c r="C11" t="s">
+        <v>925</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>961</v>
+      </c>
+      <c r="C12" t="s">
+        <v>927</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>962</v>
+      </c>
+      <c r="C13" t="s">
+        <v>929</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>963</v>
+      </c>
+      <c r="C14" t="s">
+        <v>931</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>964</v>
+      </c>
+      <c r="C15" t="s">
+        <v>933</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>965</v>
+      </c>
+      <c r="C16" t="s">
+        <v>935</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>966</v>
+      </c>
+      <c r="C17" t="s">
+        <v>937</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>967</v>
+      </c>
+      <c r="C18" t="s">
+        <v>940</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2006</v>
+      </c>
+      <c r="B19" t="s">
+        <v>968</v>
+      </c>
+      <c r="C19" t="s">
+        <v>941</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2008</v>
+      </c>
+      <c r="B20" t="s">
+        <v>924</v>
+      </c>
+      <c r="C20" t="s">
+        <v>925</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>926</v>
+      </c>
+      <c r="C21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>928</v>
+      </c>
+      <c r="C22" t="s">
+        <v>929</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2008</v>
+      </c>
+      <c r="B23" t="s">
+        <v>930</v>
+      </c>
+      <c r="C23" t="s">
+        <v>931</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2008</v>
+      </c>
+      <c r="B24" t="s">
+        <v>932</v>
+      </c>
+      <c r="C24" t="s">
+        <v>933</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2008</v>
+      </c>
+      <c r="B25" t="s">
+        <v>934</v>
+      </c>
+      <c r="C25" t="s">
+        <v>935</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2008</v>
+      </c>
+      <c r="B26" t="s">
+        <v>936</v>
+      </c>
+      <c r="C26" t="s">
+        <v>937</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2008</v>
+      </c>
+      <c r="B27" t="s">
+        <v>938</v>
+      </c>
+      <c r="C27" t="s">
+        <v>940</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2008</v>
+      </c>
+      <c r="B28" t="s">
+        <v>939</v>
+      </c>
+      <c r="C28" t="s">
+        <v>941</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2010</v>
+      </c>
+      <c r="B29" t="s">
+        <v>969</v>
+      </c>
+      <c r="C29" t="s">
+        <v>925</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2010</v>
+      </c>
+      <c r="B30" t="s">
+        <v>970</v>
+      </c>
+      <c r="C30" t="s">
+        <v>927</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2010</v>
+      </c>
+      <c r="B31" t="s">
+        <v>971</v>
+      </c>
+      <c r="C31" t="s">
+        <v>929</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32" t="s">
+        <v>972</v>
+      </c>
+      <c r="C32" t="s">
+        <v>931</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2010</v>
+      </c>
+      <c r="B33" t="s">
+        <v>973</v>
+      </c>
+      <c r="C33" t="s">
+        <v>933</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2010</v>
+      </c>
+      <c r="B34" t="s">
+        <v>974</v>
+      </c>
+      <c r="C34" t="s">
+        <v>935</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2010</v>
+      </c>
+      <c r="B35" t="s">
+        <v>975</v>
+      </c>
+      <c r="C35" t="s">
+        <v>937</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2010</v>
+      </c>
+      <c r="B36" t="s">
+        <v>976</v>
+      </c>
+      <c r="C36" t="s">
+        <v>940</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2010</v>
+      </c>
+      <c r="B37" t="s">
+        <v>977</v>
+      </c>
+      <c r="C37" t="s">
+        <v>941</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2012</v>
+      </c>
+      <c r="B38" t="s">
+        <v>978</v>
+      </c>
+      <c r="C38" t="s">
+        <v>925</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2012</v>
+      </c>
+      <c r="B39" t="s">
+        <v>979</v>
+      </c>
+      <c r="C39" t="s">
+        <v>927</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2012</v>
+      </c>
+      <c r="B40" t="s">
+        <v>980</v>
+      </c>
+      <c r="C40" t="s">
+        <v>929</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>981</v>
+      </c>
+      <c r="C41" t="s">
+        <v>931</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2012</v>
+      </c>
+      <c r="B42" t="s">
+        <v>982</v>
+      </c>
+      <c r="C42" t="s">
+        <v>933</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2012</v>
+      </c>
+      <c r="B43" t="s">
+        <v>983</v>
+      </c>
+      <c r="C43" t="s">
+        <v>935</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2012</v>
+      </c>
+      <c r="B44" t="s">
+        <v>984</v>
+      </c>
+      <c r="C44" t="s">
+        <v>937</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2012</v>
+      </c>
+      <c r="B45" t="s">
+        <v>985</v>
+      </c>
+      <c r="C45" t="s">
+        <v>940</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2012</v>
+      </c>
+      <c r="B46" t="s">
+        <v>986</v>
+      </c>
+      <c r="C46" t="s">
+        <v>941</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2014</v>
+      </c>
+      <c r="B47" t="s">
+        <v>987</v>
+      </c>
+      <c r="C47" t="s">
+        <v>925</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2014</v>
+      </c>
+      <c r="B48" t="s">
+        <v>988</v>
+      </c>
+      <c r="C48" t="s">
+        <v>927</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2014</v>
+      </c>
+      <c r="B49" t="s">
+        <v>989</v>
+      </c>
+      <c r="C49" t="s">
+        <v>929</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2014</v>
+      </c>
+      <c r="B50" t="s">
+        <v>990</v>
+      </c>
+      <c r="C50" t="s">
+        <v>931</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2014</v>
+      </c>
+      <c r="B51" t="s">
+        <v>991</v>
+      </c>
+      <c r="C51" t="s">
+        <v>933</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2014</v>
+      </c>
+      <c r="B52" t="s">
+        <v>992</v>
+      </c>
+      <c r="C52" t="s">
+        <v>935</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2014</v>
+      </c>
+      <c r="B53" t="s">
+        <v>993</v>
+      </c>
+      <c r="C53" t="s">
+        <v>937</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2014</v>
+      </c>
+      <c r="B54" t="s">
+        <v>994</v>
+      </c>
+      <c r="C54" t="s">
+        <v>940</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>949</v>
       </c>
     </row>
   </sheetData>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="1440" windowWidth="23120" windowHeight="17920" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="12840" yWindow="1380" windowWidth="23120" windowHeight="17920" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="988">
   <si>
     <t>year</t>
   </si>
@@ -2865,15 +2865,9 @@
     <t>ld117</t>
   </si>
   <si>
-    <t>ld118</t>
-  </si>
-  <si>
     <t>cesd8</t>
   </si>
   <si>
-    <t>cesd9</t>
-  </si>
-  <si>
     <t>jd110</t>
   </si>
   <si>
@@ -2898,9 +2892,6 @@
     <t>Felt unmotivated w/in prev wk</t>
   </si>
   <si>
-    <t>Felt full of energy w/in prev wk</t>
-  </si>
-  <si>
     <t>jd112</t>
   </si>
   <si>
@@ -2925,9 +2916,6 @@
     <t>jd117</t>
   </si>
   <si>
-    <t>jd118</t>
-  </si>
-  <si>
     <t>kd110</t>
   </si>
   <si>
@@ -2952,9 +2940,6 @@
     <t>kd117</t>
   </si>
   <si>
-    <t>kd118</t>
-  </si>
-  <si>
     <t>md110</t>
   </si>
   <si>
@@ -2979,9 +2964,6 @@
     <t>md117</t>
   </si>
   <si>
-    <t>md118</t>
-  </si>
-  <si>
     <t>nd110</t>
   </si>
   <si>
@@ -3004,9 +2986,6 @@
   </si>
   <si>
     <t>nd117</t>
-  </si>
-  <si>
-    <t>nd118</t>
   </si>
   <si>
     <t>od110</t>
@@ -6998,10 +6977,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7028,7 +7007,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C2" t="s">
         <v>925</v>
@@ -7037,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -7045,7 +7024,7 @@
         <v>2004</v>
       </c>
       <c r="B3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C3" t="s">
         <v>927</v>
@@ -7054,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -7062,7 +7041,7 @@
         <v>2004</v>
       </c>
       <c r="B4" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C4" t="s">
         <v>929</v>
@@ -7071,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -7079,7 +7058,7 @@
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C5" t="s">
         <v>931</v>
@@ -7088,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -7096,7 +7075,7 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C6" t="s">
         <v>933</v>
@@ -7105,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -7113,7 +7092,7 @@
         <v>2004</v>
       </c>
       <c r="B7" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C7" t="s">
         <v>935</v>
@@ -7122,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -7130,7 +7109,7 @@
         <v>2004</v>
       </c>
       <c r="B8" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C8" t="s">
         <v>937</v>
@@ -7139,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -7147,33 +7126,33 @@
         <v>2004</v>
       </c>
       <c r="B9" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B10" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C10" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -7181,16 +7160,16 @@
         <v>2006</v>
       </c>
       <c r="B11" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C11" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -7198,16 +7177,16 @@
         <v>2006</v>
       </c>
       <c r="B12" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C12" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -7215,16 +7194,16 @@
         <v>2006</v>
       </c>
       <c r="B13" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C13" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -7232,16 +7211,16 @@
         <v>2006</v>
       </c>
       <c r="B14" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C14" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -7249,16 +7228,16 @@
         <v>2006</v>
       </c>
       <c r="B15" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C15" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -7266,16 +7245,16 @@
         <v>2006</v>
       </c>
       <c r="B16" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C16" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -7283,50 +7262,50 @@
         <v>2006</v>
       </c>
       <c r="B17" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C17" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B18" t="s">
-        <v>967</v>
+        <v>924</v>
       </c>
       <c r="C18" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B19" t="s">
-        <v>968</v>
+        <v>926</v>
       </c>
       <c r="C19" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -7334,10 +7313,10 @@
         <v>2008</v>
       </c>
       <c r="B20" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="C20" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -7351,16 +7330,16 @@
         <v>2008</v>
       </c>
       <c r="B21" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C21" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -7368,16 +7347,16 @@
         <v>2008</v>
       </c>
       <c r="B22" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="C22" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -7385,16 +7364,16 @@
         <v>2008</v>
       </c>
       <c r="B23" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="C23" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -7402,16 +7381,16 @@
         <v>2008</v>
       </c>
       <c r="B24" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C24" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -7419,67 +7398,67 @@
         <v>2008</v>
       </c>
       <c r="B25" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="C25" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B26" t="s">
-        <v>936</v>
+        <v>964</v>
       </c>
       <c r="C26" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>948</v>
+      <c r="E26" s="2" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B27" t="s">
-        <v>938</v>
+        <v>965</v>
       </c>
       <c r="C27" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>949</v>
+      <c r="E27" s="2" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B28" t="s">
-        <v>939</v>
+        <v>966</v>
       </c>
       <c r="C28" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>950</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -7487,16 +7466,16 @@
         <v>2010</v>
       </c>
       <c r="B29" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C29" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -7504,10 +7483,10 @@
         <v>2010</v>
       </c>
       <c r="B30" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C30" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -7521,16 +7500,16 @@
         <v>2010</v>
       </c>
       <c r="B31" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C31" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -7538,16 +7517,16 @@
         <v>2010</v>
       </c>
       <c r="B32" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C32" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -7555,10 +7534,10 @@
         <v>2010</v>
       </c>
       <c r="B33" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C33" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -7569,70 +7548,70 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B34" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C34" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B35" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C35" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B36" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C36" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B37" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C37" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -7640,16 +7619,16 @@
         <v>2012</v>
       </c>
       <c r="B38" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C38" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -7657,16 +7636,16 @@
         <v>2012</v>
       </c>
       <c r="B39" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C39" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -7674,10 +7653,10 @@
         <v>2012</v>
       </c>
       <c r="B40" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C40" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -7691,101 +7670,101 @@
         <v>2012</v>
       </c>
       <c r="B41" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C41" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B42" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C42" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B43" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C43" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B44" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C44" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B45" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C45" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B46" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C46" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -7793,16 +7772,16 @@
         <v>2014</v>
       </c>
       <c r="B47" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C47" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -7810,16 +7789,16 @@
         <v>2014</v>
       </c>
       <c r="B48" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C48" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -7827,101 +7806,16 @@
         <v>2014</v>
       </c>
       <c r="B49" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C49" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>2014</v>
-      </c>
-      <c r="B50" t="s">
-        <v>990</v>
-      </c>
-      <c r="C50" t="s">
-        <v>931</v>
-      </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>2014</v>
-      </c>
-      <c r="B51" t="s">
-        <v>991</v>
-      </c>
-      <c r="C51" t="s">
-        <v>933</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2" t="s">
         <v>947</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>2014</v>
-      </c>
-      <c r="B52" t="s">
-        <v>992</v>
-      </c>
-      <c r="C52" t="s">
-        <v>935</v>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>2014</v>
-      </c>
-      <c r="B53" t="s">
-        <v>993</v>
-      </c>
-      <c r="C53" t="s">
-        <v>937</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>2014</v>
-      </c>
-      <c r="B54" t="s">
-        <v>994</v>
-      </c>
-      <c r="C54" t="s">
-        <v>940</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>949</v>
       </c>
     </row>
   </sheetData>

--- a/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
+++ b/data-phi-free/raw/renaming-rules/renaming-rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="1380" windowWidth="23120" windowHeight="17920" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="17040" yWindow="480" windowWidth="23120" windowHeight="17920" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="11" r:id="rId1"/>
@@ -6979,8 +6979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
